--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EB46D6-02A8-DF47-8124-9FCF3D671966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF97172-1735-8445-80DF-07DD940B4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="888">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -2408,6 +2408,282 @@
   </si>
   <si>
     <t>automne</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Erle</t>
+  </si>
+  <si>
+    <t>Alge</t>
+  </si>
+  <si>
+    <t>verärgert, wütend</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Antwort, Beantwortung</t>
+  </si>
+  <si>
+    <t>Ameise</t>
+  </si>
+  <si>
+    <t>Apfel</t>
+  </si>
+  <si>
+    <t>Arm</t>
+  </si>
+  <si>
+    <t>Pfeil</t>
+  </si>
+  <si>
+    <t>Esche</t>
+  </si>
+  <si>
+    <t>beschämt</t>
+  </si>
+  <si>
+    <t>Asche</t>
+  </si>
+  <si>
+    <t>fragen, bitten, enfragen</t>
+  </si>
+  <si>
+    <t>Herbst, Spätjahr</t>
+  </si>
+  <si>
+    <t>wecken, erwachen, erwecken</t>
+  </si>
+  <si>
+    <t>Axt, Beil</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>τσεκούρι, πέλεκυς, είδος μουσικής</t>
+  </si>
+  <si>
+    <t>κλήθρα</t>
+  </si>
+  <si>
+    <t>άλγη</t>
+  </si>
+  <si>
+    <t>θυμωμένος</t>
+  </si>
+  <si>
+    <t>ζώο</t>
+  </si>
+  <si>
+    <t>απάντηση</t>
+  </si>
+  <si>
+    <t>μυρμήγκι, μύρμιξ</t>
+  </si>
+  <si>
+    <t>μήλο</t>
+  </si>
+  <si>
+    <t>μπράτσο</t>
+  </si>
+  <si>
+    <t>βέλος</t>
+  </si>
+  <si>
+    <t>φλαμουριά</t>
+  </si>
+  <si>
+    <t>elm</t>
+  </si>
+  <si>
+    <t>ντροπιασμένος</t>
+  </si>
+  <si>
+    <t>τέφρα, στάκτη, μελιά</t>
+  </si>
+  <si>
+    <t>παρακαλώ, ζητώ</t>
+  </si>
+  <si>
+    <t>φθινόπωρο</t>
+  </si>
+  <si>
+    <t>αφυπνίζω</t>
+  </si>
+  <si>
+    <t>GkTr</t>
+  </si>
+  <si>
+    <t>klithra</t>
+  </si>
+  <si>
+    <t>algi</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>apantisi</t>
+  </si>
+  <si>
+    <t>thimomenos</t>
+  </si>
+  <si>
+    <t>mirmigki, myrmix</t>
+  </si>
+  <si>
+    <t>milo</t>
+  </si>
+  <si>
+    <t>bratso</t>
+  </si>
+  <si>
+    <t>velos</t>
+  </si>
+  <si>
+    <t>flamouria</t>
+  </si>
+  <si>
+    <t>ndropiasmenos</t>
+  </si>
+  <si>
+    <t>tefra, stakti, melia</t>
+  </si>
+  <si>
+    <t>parakalo, zito</t>
+  </si>
+  <si>
+    <t>fthinoporo</t>
+  </si>
+  <si>
+    <t>tsekouri, pelekys, eidhos mousikis</t>
+  </si>
+  <si>
+    <t>afypnizo</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>GujTr</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>HndTr</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Kyrgyz</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Scots Gaelic</t>
+  </si>
+  <si>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>Sinhala</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Tajik</t>
+  </si>
+  <si>
+    <t>Tatar</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Turkmen</t>
+  </si>
+  <si>
+    <t>Ukranian</t>
+  </si>
+  <si>
+    <t>Uyghur</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>Welsh</t>
   </si>
 </sst>
 </file>
@@ -3251,13 +3527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S505"/>
+  <dimension ref="A1:BJ506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3279,9 +3555,12 @@
     <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -3339,8 +3618,137 @@
       <c r="S1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>796</v>
+      </c>
+      <c r="U1" t="s">
+        <v>813</v>
+      </c>
+      <c r="V1" t="s">
+        <v>831</v>
+      </c>
+      <c r="W1" t="s">
+        <v>848</v>
+      </c>
+      <c r="X1" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>855</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>858</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>859</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>861</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>862</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>863</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>864</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>865</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>866</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>867</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>869</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>871</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>875</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>879</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>880</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>881</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>882</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>883</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>884</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>885</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>886</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -3398,8 +3806,17 @@
       <c r="S2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>496</v>
+      </c>
+      <c r="U2" t="s">
+        <v>496</v>
+      </c>
+      <c r="V2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -3451,8 +3868,17 @@
       <c r="S3" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>797</v>
+      </c>
+      <c r="U3" t="s">
+        <v>815</v>
+      </c>
+      <c r="V3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>492</v>
       </c>
@@ -3510,8 +3936,17 @@
       <c r="S4" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>798</v>
+      </c>
+      <c r="U4" t="s">
+        <v>816</v>
+      </c>
+      <c r="V4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>480</v>
       </c>
@@ -3569,8 +4004,17 @@
       <c r="S5" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>799</v>
+      </c>
+      <c r="U5" t="s">
+        <v>817</v>
+      </c>
+      <c r="V5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>481</v>
       </c>
@@ -3628,8 +4072,17 @@
       <c r="S6" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>800</v>
+      </c>
+      <c r="U6" t="s">
+        <v>818</v>
+      </c>
+      <c r="V6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -3687,8 +4140,17 @@
       <c r="S7" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" t="s">
+        <v>801</v>
+      </c>
+      <c r="U7" t="s">
+        <v>819</v>
+      </c>
+      <c r="V7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>483</v>
       </c>
@@ -3746,8 +4208,17 @@
       <c r="S8" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>802</v>
+      </c>
+      <c r="U8" t="s">
+        <v>820</v>
+      </c>
+      <c r="V8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -3805,8 +4276,17 @@
       <c r="S9" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>803</v>
+      </c>
+      <c r="U9" t="s">
+        <v>821</v>
+      </c>
+      <c r="V9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>485</v>
       </c>
@@ -3864,8 +4344,17 @@
       <c r="S10" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>804</v>
+      </c>
+      <c r="U10" t="s">
+        <v>822</v>
+      </c>
+      <c r="V10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>486</v>
       </c>
@@ -3923,8 +4412,17 @@
       <c r="S11" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>805</v>
+      </c>
+      <c r="U11" t="s">
+        <v>823</v>
+      </c>
+      <c r="V11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>509</v>
       </c>
@@ -3967,8 +4465,17 @@
       <c r="S12" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>806</v>
+      </c>
+      <c r="U12" t="s">
+        <v>824</v>
+      </c>
+      <c r="V12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>487</v>
       </c>
@@ -4026,8 +4533,17 @@
       <c r="S13" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" t="s">
+        <v>807</v>
+      </c>
+      <c r="U13" t="s">
+        <v>826</v>
+      </c>
+      <c r="V13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>510</v>
       </c>
@@ -4085,8 +4601,17 @@
       <c r="S14" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="T14" t="s">
+        <v>808</v>
+      </c>
+      <c r="U14" t="s">
+        <v>827</v>
+      </c>
+      <c r="V14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>488</v>
       </c>
@@ -4144,8 +4669,17 @@
       <c r="S15" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>809</v>
+      </c>
+      <c r="U15" t="s">
+        <v>828</v>
+      </c>
+      <c r="V15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>489</v>
       </c>
@@ -4203,8 +4737,17 @@
       <c r="S16" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>810</v>
+      </c>
+      <c r="U16" t="s">
+        <v>829</v>
+      </c>
+      <c r="V16" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>490</v>
       </c>
@@ -4262,8 +4805,17 @@
       <c r="S17" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>811</v>
+      </c>
+      <c r="U17" t="s">
+        <v>830</v>
+      </c>
+      <c r="V17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>491</v>
       </c>
@@ -4321,73 +4873,82 @@
       <c r="S18" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>812</v>
+      </c>
+      <c r="U18" t="s">
+        <v>814</v>
+      </c>
+      <c r="V18" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -4931,1841 +5492,1846 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>825</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>647</v>
+        <v>217</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>218</v>
+        <v>647</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>493</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>281</v>
+        <v>493</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>603</v>
+        <v>337</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>338</v>
+        <v>603</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>605</v>
+        <v>353</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>354</v>
+        <v>605</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
         <v>476</v>
       </c>
     </row>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF97172-1735-8445-80DF-07DD940B4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CF28E-990E-854F-AC70-8A3ED91EEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1005">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1498,9 +1498,6 @@
     <t>axe</t>
   </si>
   <si>
-    <t>alga/algae</t>
-  </si>
-  <si>
     <t>oak</t>
   </si>
   <si>
@@ -1522,27 +1519,12 @@
     <t>born, be</t>
   </si>
   <si>
-    <t>alga</t>
-  </si>
-  <si>
     <t>përgjigje</t>
   </si>
   <si>
     <t>i turpëruar</t>
   </si>
   <si>
-    <t>alga, algë</t>
-  </si>
-  <si>
-    <t>i zemëruar, i inatosur, i irrituar</t>
-  </si>
-  <si>
-    <t>kafshë, shtazë</t>
-  </si>
-  <si>
-    <t>mollë, glob</t>
-  </si>
-  <si>
     <t>krahu, krah</t>
   </si>
   <si>
@@ -1570,9 +1552,6 @@
     <t>zgjoj</t>
   </si>
   <si>
-    <t>sëpatë, shkurtim fondesh</t>
-  </si>
-  <si>
     <t>ArmenianTr</t>
   </si>
   <si>
@@ -1585,12 +1564,6 @@
     <t>beer</t>
   </si>
   <si>
-    <t>ջրիմուռներ</t>
-  </si>
-  <si>
-    <t>jrimurrner</t>
-  </si>
-  <si>
     <t>զայրացած</t>
   </si>
   <si>
@@ -1735,12 +1708,6 @@
     <t>aliešyny</t>
   </si>
   <si>
-    <t>водарасць</t>
-  </si>
-  <si>
-    <t>vodarasć</t>
-  </si>
-  <si>
     <t>злы</t>
   </si>
   <si>
@@ -1780,36 +1747,12 @@
     <t>ruka</t>
   </si>
   <si>
-    <t>стрэлка, страла</t>
-  </si>
-  <si>
-    <t>strelka, strala</t>
-  </si>
-  <si>
     <t>ясень</t>
   </si>
   <si>
     <t>jasień</t>
   </si>
   <si>
-    <t>сорамна, прысаромлены</t>
-  </si>
-  <si>
-    <t>soramna, prysaromlieny</t>
-  </si>
-  <si>
-    <t>попелу, попел</t>
-  </si>
-  <si>
-    <t>popielu, popiel</t>
-  </si>
-  <si>
-    <t>спытаць, пытаць</t>
-  </si>
-  <si>
-    <t>spytać, pytać</t>
-  </si>
-  <si>
     <t>donkey</t>
   </si>
   <si>
@@ -1849,12 +1792,6 @@
     <t>BenTr</t>
   </si>
   <si>
-    <t>শৈবাল</t>
-  </si>
-  <si>
-    <t>Śaibāla</t>
-  </si>
-  <si>
     <t>রাগান্বিত</t>
   </si>
   <si>
@@ -1939,9 +1876,6 @@
     <t>joha, jova</t>
   </si>
   <si>
-    <t>ljut, ljutit, gnjevan</t>
-  </si>
-  <si>
     <t>životinja</t>
   </si>
   <si>
@@ -1993,12 +1927,6 @@
     <t>elsha</t>
   </si>
   <si>
-    <t>водорасло</t>
-  </si>
-  <si>
-    <t>vodoraslo</t>
-  </si>
-  <si>
     <t>ядосан</t>
   </si>
   <si>
@@ -2059,24 +1987,12 @@
     <t>pepel</t>
   </si>
   <si>
-    <t>питам. Попитам</t>
-  </si>
-  <si>
-    <t>pitam, popitam</t>
-  </si>
-  <si>
     <t>есента, есен</t>
   </si>
   <si>
     <t>esenta, esen</t>
   </si>
   <si>
-    <t>събуди се, пробуждам</t>
-  </si>
-  <si>
-    <t>sŭbudi se, probuzhdam</t>
-  </si>
-  <si>
     <t>брадва</t>
   </si>
   <si>
@@ -2101,12 +2017,6 @@
     <t>MandTr</t>
   </si>
   <si>
-    <t>藻类</t>
-  </si>
-  <si>
-    <t>Zǎolèi</t>
-  </si>
-  <si>
     <t>动物</t>
   </si>
   <si>
@@ -2125,15 +2035,6 @@
     <t>Mǎyǐ, Yǐ</t>
   </si>
   <si>
-    <t>苹果, 苹</t>
-  </si>
-  <si>
-    <t>Píngguǒ, Píng</t>
-  </si>
-  <si>
-    <t>pitaj, pitati, zamoliti</t>
-  </si>
-  <si>
     <t>生气, 愤怒, 恼怒</t>
   </si>
   <si>
@@ -2146,12 +2047,6 @@
     <t>Shǒubì, Bì, Gēbó</t>
   </si>
   <si>
-    <t>箭, 箭头, 矢</t>
-  </si>
-  <si>
-    <t>Jiàn, Jiàntóu, Shǐ</t>
-  </si>
-  <si>
     <t>岑树</t>
   </si>
   <si>
@@ -2164,18 +2059,6 @@
     <t>羞愧, 惭, 怍</t>
   </si>
   <si>
-    <t>灰, 灰烬, 烬</t>
-  </si>
-  <si>
-    <t>Huī, Huījìn, Jìn</t>
-  </si>
-  <si>
-    <t>问, 询问</t>
-  </si>
-  <si>
-    <t>Wèn, Xúnwèn</t>
-  </si>
-  <si>
     <t>秋天, 秋季, 秋</t>
   </si>
   <si>
@@ -2206,9 +2089,6 @@
     <t>posramljena, posramljen</t>
   </si>
   <si>
-    <t>pitati, zatražiti, zamoliti</t>
-  </si>
-  <si>
     <t>pyesni, kërkoj, pyes</t>
   </si>
   <si>
@@ -2224,18 +2104,9 @@
     <t>olše</t>
   </si>
   <si>
-    <t>řasa</t>
-  </si>
-  <si>
-    <t>rozzlobený, rozhněvaný, zlostný</t>
-  </si>
-  <si>
     <t>zvíře</t>
   </si>
   <si>
-    <t>Odpovědět</t>
-  </si>
-  <si>
     <t>mravenec</t>
   </si>
   <si>
@@ -2257,9 +2128,6 @@
     <t>popel</t>
   </si>
   <si>
-    <t>zeptat se, požádat, žádat</t>
-  </si>
-  <si>
     <t>podzim</t>
   </si>
   <si>
@@ -2275,9 +2143,6 @@
     <t>el</t>
   </si>
   <si>
-    <t>alge</t>
-  </si>
-  <si>
     <t>vred</t>
   </si>
   <si>
@@ -2317,21 +2182,9 @@
     <t>bijl</t>
   </si>
   <si>
-    <t>els, elzeboom</t>
-  </si>
-  <si>
-    <t>algen, alge</t>
-  </si>
-  <si>
-    <t>boos, toornig, nijdig</t>
-  </si>
-  <si>
     <t>dier</t>
   </si>
   <si>
-    <t>antwoord, bescheid</t>
-  </si>
-  <si>
     <t>mier</t>
   </si>
   <si>
@@ -2371,9 +2224,6 @@
     <t>aulne</t>
   </si>
   <si>
-    <t>algue</t>
-  </si>
-  <si>
     <t>fâché, en colère</t>
   </si>
   <si>
@@ -2416,18 +2266,12 @@
     <t>Erle</t>
   </si>
   <si>
-    <t>Alge</t>
-  </si>
-  <si>
     <t>verärgert, wütend</t>
   </si>
   <si>
     <t>Tier</t>
   </si>
   <si>
-    <t>Antwort, Beantwortung</t>
-  </si>
-  <si>
     <t>Ameise</t>
   </si>
   <si>
@@ -2449,12 +2293,6 @@
     <t>Asche</t>
   </si>
   <si>
-    <t>fragen, bitten, enfragen</t>
-  </si>
-  <si>
-    <t>Herbst, Spätjahr</t>
-  </si>
-  <si>
     <t>wecken, erwachen, erwecken</t>
   </si>
   <si>
@@ -2464,15 +2302,9 @@
     <t>Greek</t>
   </si>
   <si>
-    <t>τσεκούρι, πέλεκυς, είδος μουσικής</t>
-  </si>
-  <si>
     <t>κλήθρα</t>
   </si>
   <si>
-    <t>άλγη</t>
-  </si>
-  <si>
     <t>θυμωμένος</t>
   </si>
   <si>
@@ -2482,9 +2314,6 @@
     <t>απάντηση</t>
   </si>
   <si>
-    <t>μυρμήγκι, μύρμιξ</t>
-  </si>
-  <si>
     <t>μήλο</t>
   </si>
   <si>
@@ -2503,9 +2332,6 @@
     <t>ντροπιασμένος</t>
   </si>
   <si>
-    <t>τέφρα, στάκτη, μελιά</t>
-  </si>
-  <si>
     <t>παρακαλώ, ζητώ</t>
   </si>
   <si>
@@ -2521,9 +2347,6 @@
     <t>klithra</t>
   </si>
   <si>
-    <t>algi</t>
-  </si>
-  <si>
     <t>zoo</t>
   </si>
   <si>
@@ -2533,9 +2356,6 @@
     <t>thimomenos</t>
   </si>
   <si>
-    <t>mirmigki, myrmix</t>
-  </si>
-  <si>
     <t>milo</t>
   </si>
   <si>
@@ -2551,18 +2371,12 @@
     <t>ndropiasmenos</t>
   </si>
   <si>
-    <t>tefra, stakti, melia</t>
-  </si>
-  <si>
     <t>parakalo, zito</t>
   </si>
   <si>
     <t>fthinoporo</t>
   </si>
   <si>
-    <t>tsekouri, pelekys, eidhos mousikis</t>
-  </si>
-  <si>
     <t>afypnizo</t>
   </si>
   <si>
@@ -2684,6 +2498,543 @@
   </si>
   <si>
     <t>Welsh</t>
+  </si>
+  <si>
+    <t>એલ્ડર</t>
+  </si>
+  <si>
+    <t>Ēlḍara</t>
+  </si>
+  <si>
+    <t>ગુસ્સો</t>
+  </si>
+  <si>
+    <t>Gus'sō</t>
+  </si>
+  <si>
+    <t>પ્રાણી, પશુ</t>
+  </si>
+  <si>
+    <t>Prāṇī, Paśu</t>
+  </si>
+  <si>
+    <t>જવાબ</t>
+  </si>
+  <si>
+    <t>Javāba</t>
+  </si>
+  <si>
+    <t>કીડી</t>
+  </si>
+  <si>
+    <t>Kīḍī</t>
+  </si>
+  <si>
+    <t>સફરજન</t>
+  </si>
+  <si>
+    <t>Sapharajana</t>
+  </si>
+  <si>
+    <t>હાથ</t>
+  </si>
+  <si>
+    <t>Hātha</t>
+  </si>
+  <si>
+    <t>તીર</t>
+  </si>
+  <si>
+    <t>શરમાવું, લજ્જિત</t>
+  </si>
+  <si>
+    <t>Śaramāvuṁ, Lajjita</t>
+  </si>
+  <si>
+    <t>રાખ</t>
+  </si>
+  <si>
+    <t>Rākha</t>
+  </si>
+  <si>
+    <t>પુછવું</t>
+  </si>
+  <si>
+    <t>Puchavuṁ</t>
+  </si>
+  <si>
+    <t>પાનખર, ઉત્તરાવસ્થા</t>
+  </si>
+  <si>
+    <t>Pānakhara, Uttarāvasthā</t>
+  </si>
+  <si>
+    <t>જાગૃત</t>
+  </si>
+  <si>
+    <t>Jāgr̥ta</t>
+  </si>
+  <si>
+    <t>કુહાડી</t>
+  </si>
+  <si>
+    <t>Kuhāḍī</t>
+  </si>
+  <si>
+    <t>एल्डर</t>
+  </si>
+  <si>
+    <t>eldar</t>
+  </si>
+  <si>
+    <t>नाराज़</t>
+  </si>
+  <si>
+    <t>naaraaz</t>
+  </si>
+  <si>
+    <t>जानवर, पशु</t>
+  </si>
+  <si>
+    <t>jaanavar, pashu</t>
+  </si>
+  <si>
+    <t>चींटी</t>
+  </si>
+  <si>
+    <t>cheentee</t>
+  </si>
+  <si>
+    <t>जवाब</t>
+  </si>
+  <si>
+    <t>javaab</t>
+  </si>
+  <si>
+    <t>सेब</t>
+  </si>
+  <si>
+    <t>seb</t>
+  </si>
+  <si>
+    <t>बाजू</t>
+  </si>
+  <si>
+    <t>baajoo</t>
+  </si>
+  <si>
+    <t>तीर</t>
+  </si>
+  <si>
+    <t>teer</t>
+  </si>
+  <si>
+    <t>शर्मिंदा, लज्जित</t>
+  </si>
+  <si>
+    <t>sharminda, lajjit</t>
+  </si>
+  <si>
+    <t>राख</t>
+  </si>
+  <si>
+    <t>raakh</t>
+  </si>
+  <si>
+    <t>पूछना</t>
+  </si>
+  <si>
+    <t>poochhana</t>
+  </si>
+  <si>
+    <t>पतझड़</t>
+  </si>
+  <si>
+    <t>patajhad</t>
+  </si>
+  <si>
+    <t>अवेकन</t>
+  </si>
+  <si>
+    <t>avekan</t>
+  </si>
+  <si>
+    <t>कुल्हाड़ी</t>
+  </si>
+  <si>
+    <t>kulhaadee</t>
+  </si>
+  <si>
+    <t>égerfa</t>
+  </si>
+  <si>
+    <t>mérges, dühös</t>
+  </si>
+  <si>
+    <t>állat, állati</t>
+  </si>
+  <si>
+    <t>válasz</t>
+  </si>
+  <si>
+    <t>hangya</t>
+  </si>
+  <si>
+    <t>alma</t>
+  </si>
+  <si>
+    <t>kar</t>
+  </si>
+  <si>
+    <t>nyíl</t>
+  </si>
+  <si>
+    <t>kőrisfa</t>
+  </si>
+  <si>
+    <t>megszégyenülve</t>
+  </si>
+  <si>
+    <t>hamu</t>
+  </si>
+  <si>
+    <t>kérdez, kér</t>
+  </si>
+  <si>
+    <t>ősz</t>
+  </si>
+  <si>
+    <t>felébred</t>
+  </si>
+  <si>
+    <t>fejsze</t>
+  </si>
+  <si>
+    <t>sëpatë</t>
+  </si>
+  <si>
+    <t>i zemëruar</t>
+  </si>
+  <si>
+    <t>kafshë</t>
+  </si>
+  <si>
+    <t>mollë</t>
+  </si>
+  <si>
+    <t>сорамна</t>
+  </si>
+  <si>
+    <t>стрэлка</t>
+  </si>
+  <si>
+    <t>попелу</t>
+  </si>
+  <si>
+    <t>спытаць</t>
+  </si>
+  <si>
+    <t>soramna</t>
+  </si>
+  <si>
+    <t>popielu</t>
+  </si>
+  <si>
+    <t>spytać</t>
+  </si>
+  <si>
+    <t>ljut</t>
+  </si>
+  <si>
+    <t>pitaj, pitati</t>
+  </si>
+  <si>
+    <t>питам</t>
+  </si>
+  <si>
+    <t>pitam</t>
+  </si>
+  <si>
+    <t>събуди се</t>
+  </si>
+  <si>
+    <t>sŭbudi se</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>Píngguǒ</t>
+  </si>
+  <si>
+    <t>箭, 箭头</t>
+  </si>
+  <si>
+    <t>Jiàn, Jiàntóu</t>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>Huī</t>
+  </si>
+  <si>
+    <t>问, 要求, 询问</t>
+  </si>
+  <si>
+    <t>Wèn, Yāoqiú, Xúnwèn</t>
+  </si>
+  <si>
+    <t>pitati, zatražiti</t>
+  </si>
+  <si>
+    <t>rozzlobený</t>
+  </si>
+  <si>
+    <t>odpovědět</t>
+  </si>
+  <si>
+    <t>zeptat se, požádat</t>
+  </si>
+  <si>
+    <t>els</t>
+  </si>
+  <si>
+    <t>boos</t>
+  </si>
+  <si>
+    <t>antwoord</t>
+  </si>
+  <si>
+    <t>Antwort</t>
+  </si>
+  <si>
+    <t>fragen, bitten</t>
+  </si>
+  <si>
+    <t>Herbst</t>
+  </si>
+  <si>
+    <t>μυρμήγκι</t>
+  </si>
+  <si>
+    <t>mirmigki</t>
+  </si>
+  <si>
+    <t>τέφρα</t>
+  </si>
+  <si>
+    <t>tefra</t>
+  </si>
+  <si>
+    <t>tsekouri, pelekys</t>
+  </si>
+  <si>
+    <t>τσεκούρι, πέλεκυς</t>
+  </si>
+  <si>
+    <t>aldar</t>
+  </si>
+  <si>
+    <t>reiður</t>
+  </si>
+  <si>
+    <t>dýr</t>
+  </si>
+  <si>
+    <t>maur</t>
+  </si>
+  <si>
+    <t>epli</t>
+  </si>
+  <si>
+    <t>armur, handleggur</t>
+  </si>
+  <si>
+    <t>ör</t>
+  </si>
+  <si>
+    <t>ösku</t>
+  </si>
+  <si>
+    <t>skammast sín, sneyptru, sneypulegur</t>
+  </si>
+  <si>
+    <t>aska</t>
+  </si>
+  <si>
+    <t>spyrja</t>
+  </si>
+  <si>
+    <t>haust</t>
+  </si>
+  <si>
+    <t>vakna</t>
+  </si>
+  <si>
+    <t>öxi</t>
+  </si>
+  <si>
+    <t>tuagh</t>
+  </si>
+  <si>
+    <t>dúisigh</t>
+  </si>
+  <si>
+    <t>fómhar</t>
+  </si>
+  <si>
+    <t>fiafraigh, iarr</t>
+  </si>
+  <si>
+    <t>fiafraigh</t>
+  </si>
+  <si>
+    <t>fuinseog</t>
+  </si>
+  <si>
+    <t>saighead</t>
+  </si>
+  <si>
+    <t>lámh</t>
+  </si>
+  <si>
+    <t>úll</t>
+  </si>
+  <si>
+    <t>seangún, seangán</t>
+  </si>
+  <si>
+    <t>freagra</t>
+  </si>
+  <si>
+    <t>ainmhí, ainmhithe</t>
+  </si>
+  <si>
+    <t>feargach</t>
+  </si>
+  <si>
+    <t>fearnóg</t>
+  </si>
+  <si>
+    <t>ontano</t>
+  </si>
+  <si>
+    <t>arrabbiato</t>
+  </si>
+  <si>
+    <t>risposta</t>
+  </si>
+  <si>
+    <t>formica</t>
+  </si>
+  <si>
+    <t>mela</t>
+  </si>
+  <si>
+    <t>braccio</t>
+  </si>
+  <si>
+    <t>freccia</t>
+  </si>
+  <si>
+    <t>frassino</t>
+  </si>
+  <si>
+    <t>che si vergogna, vergognoso</t>
+  </si>
+  <si>
+    <t>cenere</t>
+  </si>
+  <si>
+    <t>chiedi, chiedere</t>
+  </si>
+  <si>
+    <t>autunno</t>
+  </si>
+  <si>
+    <t>svegliarsi, risvegliare</t>
+  </si>
+  <si>
+    <t>ascia, scure</t>
+  </si>
+  <si>
+    <t>awl</t>
+  </si>
+  <si>
+    <t>punteruolo, lesina</t>
+  </si>
+  <si>
+    <t>syl</t>
+  </si>
+  <si>
+    <t>ár</t>
+  </si>
+  <si>
+    <t>सूआ</t>
+  </si>
+  <si>
+    <t>siia</t>
+  </si>
+  <si>
+    <t>σουβλί</t>
+  </si>
+  <si>
+    <t>souvlí</t>
+  </si>
+  <si>
+    <t>Ahle</t>
+  </si>
+  <si>
+    <t>poinçon, alêne</t>
+  </si>
+  <si>
+    <t>priem</t>
+  </si>
+  <si>
+    <t>šídlo</t>
+  </si>
+  <si>
+    <t>šilo</t>
+  </si>
+  <si>
+    <t>锥子, 锥子</t>
+  </si>
+  <si>
+    <t>Zhuīzi, Zhuī</t>
+  </si>
+  <si>
+    <t>шило</t>
+  </si>
+  <si>
+    <t>shilo</t>
+  </si>
+  <si>
+    <t>awl, šilo</t>
+  </si>
+  <si>
+    <t>шыла</t>
+  </si>
+  <si>
+    <t>šyla</t>
+  </si>
+  <si>
+    <t>azurra</t>
+  </si>
+  <si>
+    <t>ավլ, բիզ</t>
+  </si>
+  <si>
+    <t>avl, biz</t>
+  </si>
+  <si>
+    <t>fëndyrë, fëndyell</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -3527,13 +3878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ506"/>
+  <dimension ref="A1:BJ507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3558,6 +3909,12 @@
     <col min="20" max="20" width="25.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
@@ -3565,187 +3922,187 @@
         <v>477</v>
       </c>
       <c r="B1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" t="s">
         <v>494</v>
       </c>
-      <c r="C1" t="s">
-        <v>495</v>
-      </c>
       <c r="D1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="G1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="H1" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="I1" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="J1" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="K1" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="L1" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="M1" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="N1" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="O1" t="s">
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="P1" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="Q1" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="R1" t="s">
-        <v>763</v>
+        <v>718</v>
       </c>
       <c r="S1" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="T1" t="s">
+        <v>746</v>
+      </c>
+      <c r="U1" t="s">
+        <v>759</v>
+      </c>
+      <c r="V1" t="s">
+        <v>773</v>
+      </c>
+      <c r="W1" t="s">
+        <v>786</v>
+      </c>
+      <c r="X1" t="s">
+        <v>787</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>788</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>791</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>793</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>795</v>
+      </c>
+      <c r="AG1" t="s">
         <v>796</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AH1" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>798</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>800</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>802</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>803</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>804</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>805</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>807</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>808</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>809</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>811</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>812</v>
+      </c>
+      <c r="AX1" t="s">
         <v>813</v>
       </c>
-      <c r="V1" t="s">
-        <v>831</v>
-      </c>
-      <c r="W1" t="s">
-        <v>848</v>
-      </c>
-      <c r="X1" t="s">
-        <v>849</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>850</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>851</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>852</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>853</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>855</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>856</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>857</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>858</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>860</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>862</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>863</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>864</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>865</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>866</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>867</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>868</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>870</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>871</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>872</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>873</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>874</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>875</v>
-      </c>
       <c r="AY1" t="s">
-        <v>876</v>
+        <v>814</v>
       </c>
       <c r="AZ1" t="s">
-        <v>877</v>
+        <v>815</v>
       </c>
       <c r="BA1" t="s">
-        <v>878</v>
+        <v>816</v>
       </c>
       <c r="BB1" t="s">
-        <v>879</v>
+        <v>817</v>
       </c>
       <c r="BC1" t="s">
-        <v>880</v>
+        <v>818</v>
       </c>
       <c r="BD1" t="s">
-        <v>881</v>
+        <v>819</v>
       </c>
       <c r="BE1" t="s">
-        <v>882</v>
+        <v>820</v>
       </c>
       <c r="BF1" t="s">
-        <v>883</v>
+        <v>821</v>
       </c>
       <c r="BG1" t="s">
-        <v>884</v>
+        <v>822</v>
       </c>
       <c r="BH1" t="s">
-        <v>885</v>
+        <v>823</v>
       </c>
       <c r="BI1" t="s">
-        <v>886</v>
+        <v>824</v>
       </c>
       <c r="BJ1" t="s">
-        <v>887</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
@@ -3753,67 +4110,187 @@
         <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="V2" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="W2" t="s">
+        <v>495</v>
+      </c>
+      <c r="X2" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
@@ -3821,1134 +4298,1533 @@
         <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F3" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="J3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K3" t="s">
+        <v>632</v>
+      </c>
+      <c r="L3" t="s">
+        <v>634</v>
+      </c>
+      <c r="M3" t="s">
+        <v>662</v>
+      </c>
+      <c r="N3" t="s">
+        <v>663</v>
+      </c>
+      <c r="O3" t="s">
+        <v>684</v>
+      </c>
+      <c r="P3" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>706</v>
+      </c>
+      <c r="R3" t="s">
+        <v>925</v>
+      </c>
+      <c r="S3" t="s">
+        <v>733</v>
+      </c>
+      <c r="T3" t="s">
+        <v>747</v>
+      </c>
+      <c r="U3" t="s">
+        <v>760</v>
+      </c>
+      <c r="V3" t="s">
+        <v>774</v>
+      </c>
+      <c r="W3" t="s">
+        <v>826</v>
+      </c>
+      <c r="X3" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>881</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>937</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>964</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F4" t="s">
+        <v>562</v>
+      </c>
+      <c r="G4" t="s">
+        <v>563</v>
+      </c>
+      <c r="H4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I4" t="s">
+        <v>591</v>
+      </c>
+      <c r="J4" t="s">
+        <v>907</v>
+      </c>
+      <c r="K4" t="s">
+        <v>635</v>
+      </c>
+      <c r="L4" t="s">
+        <v>636</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N4" t="s">
+        <v>672</v>
+      </c>
+      <c r="O4" t="s">
+        <v>907</v>
+      </c>
+      <c r="P4" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>707</v>
+      </c>
+      <c r="R4" t="s">
+        <v>926</v>
+      </c>
+      <c r="S4" t="s">
+        <v>734</v>
+      </c>
+      <c r="T4" t="s">
+        <v>748</v>
+      </c>
+      <c r="U4" t="s">
+        <v>761</v>
+      </c>
+      <c r="V4" t="s">
+        <v>777</v>
+      </c>
+      <c r="W4" t="s">
+        <v>828</v>
+      </c>
+      <c r="X4" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>856</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>882</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>938</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>963</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I5" t="s">
+        <v>593</v>
+      </c>
+      <c r="J5" t="s">
+        <v>618</v>
+      </c>
+      <c r="K5" t="s">
+        <v>637</v>
+      </c>
+      <c r="L5" t="s">
         <v>638</v>
       </c>
-      <c r="K3" t="s">
-        <v>654</v>
-      </c>
-      <c r="L3" t="s">
-        <v>656</v>
-      </c>
-      <c r="M3" t="s">
-        <v>690</v>
-      </c>
-      <c r="N3" t="s">
-        <v>691</v>
-      </c>
-      <c r="O3" t="s">
-        <v>723</v>
-      </c>
-      <c r="P3" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>750</v>
-      </c>
-      <c r="R3" t="s">
-        <v>765</v>
-      </c>
-      <c r="S3" t="s">
-        <v>782</v>
-      </c>
-      <c r="T3" t="s">
-        <v>797</v>
-      </c>
-      <c r="U3" t="s">
-        <v>815</v>
-      </c>
-      <c r="V3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4" t="s">
-        <v>503</v>
-      </c>
-      <c r="C4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D4" t="s">
-        <v>522</v>
-      </c>
-      <c r="E4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G4" t="s">
-        <v>572</v>
-      </c>
-      <c r="H4" t="s">
-        <v>609</v>
-      </c>
-      <c r="I4" t="s">
-        <v>610</v>
-      </c>
-      <c r="J4" t="s">
-        <v>500</v>
-      </c>
-      <c r="K4" t="s">
-        <v>657</v>
-      </c>
-      <c r="L4" t="s">
-        <v>658</v>
-      </c>
-      <c r="M4" t="s">
-        <v>693</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M5" t="s">
+        <v>665</v>
+      </c>
+      <c r="N5" t="s">
+        <v>666</v>
+      </c>
+      <c r="O5" t="s">
+        <v>618</v>
+      </c>
+      <c r="P5" t="s">
         <v>694</v>
       </c>
-      <c r="O4" t="s">
-        <v>500</v>
-      </c>
-      <c r="P4" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>751</v>
-      </c>
-      <c r="R4" t="s">
-        <v>766</v>
-      </c>
-      <c r="S4" t="s">
-        <v>783</v>
-      </c>
-      <c r="T4" t="s">
-        <v>798</v>
-      </c>
-      <c r="U4" t="s">
-        <v>816</v>
-      </c>
-      <c r="V4" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" t="s">
-        <v>573</v>
-      </c>
-      <c r="G5" t="s">
-        <v>574</v>
-      </c>
-      <c r="H5" t="s">
-        <v>611</v>
-      </c>
-      <c r="I5" t="s">
-        <v>612</v>
-      </c>
-      <c r="J5" t="s">
-        <v>639</v>
-      </c>
-      <c r="K5" t="s">
-        <v>659</v>
-      </c>
-      <c r="L5" t="s">
-        <v>660</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="N5" t="s">
-        <v>705</v>
-      </c>
-      <c r="O5" t="s">
-        <v>639</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
+        <v>708</v>
+      </c>
+      <c r="R5" t="s">
+        <v>720</v>
+      </c>
+      <c r="S5" t="s">
         <v>735</v>
       </c>
-      <c r="Q5" t="s">
-        <v>752</v>
-      </c>
-      <c r="R5" t="s">
-        <v>767</v>
-      </c>
-      <c r="S5" t="s">
-        <v>784</v>
-      </c>
       <c r="T5" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="U5" t="s">
-        <v>817</v>
+        <v>762</v>
       </c>
       <c r="V5" t="s">
-        <v>836</v>
+        <v>775</v>
+      </c>
+      <c r="W5" t="s">
+        <v>830</v>
+      </c>
+      <c r="X5" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>857</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>858</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>883</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>939</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>962</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="G6" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="H6" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="I6" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="J6" t="s">
+        <v>619</v>
+      </c>
+      <c r="K6" t="s">
+        <v>639</v>
+      </c>
+      <c r="L6" t="s">
         <v>640</v>
       </c>
-      <c r="K6" t="s">
-        <v>661</v>
-      </c>
-      <c r="L6" t="s">
-        <v>662</v>
-      </c>
       <c r="M6" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="N6" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="O6" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="P6" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>709</v>
+      </c>
+      <c r="R6" t="s">
+        <v>927</v>
+      </c>
+      <c r="S6" t="s">
         <v>736</v>
       </c>
-      <c r="Q6" t="s">
-        <v>753</v>
-      </c>
-      <c r="R6" t="s">
-        <v>768</v>
-      </c>
-      <c r="S6" t="s">
-        <v>785</v>
-      </c>
       <c r="T6" t="s">
-        <v>800</v>
+        <v>928</v>
       </c>
       <c r="U6" t="s">
-        <v>818</v>
+        <v>763</v>
       </c>
       <c r="V6" t="s">
-        <v>834</v>
+        <v>776</v>
+      </c>
+      <c r="W6" t="s">
+        <v>832</v>
+      </c>
+      <c r="X6" t="s">
+        <v>833</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>861</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>862</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>884</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>961</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="C7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H7" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="I7" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="J7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K7" t="s">
         <v>641</v>
       </c>
-      <c r="K7" t="s">
-        <v>663</v>
-      </c>
       <c r="L7" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="M7" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="N7" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="O7" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="P7" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>710</v>
+      </c>
+      <c r="R7" t="s">
+        <v>721</v>
+      </c>
+      <c r="S7" t="s">
         <v>737</v>
       </c>
-      <c r="Q7" t="s">
-        <v>754</v>
-      </c>
-      <c r="R7" t="s">
-        <v>769</v>
-      </c>
-      <c r="S7" t="s">
-        <v>786</v>
-      </c>
       <c r="T7" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="U7" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
       <c r="V7" t="s">
+        <v>932</v>
+      </c>
+      <c r="W7" t="s">
+        <v>834</v>
+      </c>
+      <c r="X7" t="s">
         <v>835</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>859</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>940</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>960</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>899</v>
       </c>
       <c r="C8" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E8" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F8" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="H8" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="I8" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="J8" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="K8" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="L8" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="M8" t="s">
-        <v>699</v>
+        <v>913</v>
       </c>
       <c r="N8" t="s">
-        <v>700</v>
+        <v>914</v>
       </c>
       <c r="O8" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
       <c r="P8" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>711</v>
+      </c>
+      <c r="R8" t="s">
+        <v>722</v>
+      </c>
+      <c r="S8" t="s">
         <v>738</v>
       </c>
-      <c r="Q8" t="s">
-        <v>755</v>
-      </c>
-      <c r="R8" t="s">
-        <v>770</v>
-      </c>
-      <c r="S8" t="s">
-        <v>787</v>
-      </c>
       <c r="T8" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
       <c r="U8" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="V8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W8" t="s">
+        <v>836</v>
+      </c>
+      <c r="X8" t="s">
         <v>837</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>941</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>959</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D9" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="E9" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F9" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G9" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H9" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="I9" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="J9" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="K9" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="L9" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="M9" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="N9" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="O9" t="s">
-        <v>643</v>
+        <v>574</v>
       </c>
       <c r="P9" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>485</v>
+      </c>
+      <c r="R9" t="s">
+        <v>485</v>
+      </c>
+      <c r="S9" t="s">
         <v>739</v>
       </c>
-      <c r="Q9" t="s">
-        <v>756</v>
-      </c>
-      <c r="R9" t="s">
-        <v>771</v>
-      </c>
-      <c r="S9" t="s">
-        <v>788</v>
-      </c>
       <c r="T9" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
       <c r="U9" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="V9" t="s">
+        <v>779</v>
+      </c>
+      <c r="W9" t="s">
         <v>838</v>
+      </c>
+      <c r="X9" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>865</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>866</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>887</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>942</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>958</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C10" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="E10" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>901</v>
       </c>
       <c r="G10" t="s">
-        <v>585</v>
+        <v>648</v>
       </c>
       <c r="H10" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="I10" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="J10" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="K10" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="L10" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="M10" t="s">
-        <v>706</v>
+        <v>915</v>
       </c>
       <c r="N10" t="s">
-        <v>707</v>
+        <v>916</v>
       </c>
       <c r="O10" t="s">
-        <v>585</v>
+        <v>687</v>
       </c>
       <c r="P10" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>712</v>
+      </c>
+      <c r="R10" t="s">
+        <v>723</v>
+      </c>
+      <c r="S10" t="s">
         <v>740</v>
       </c>
-      <c r="Q10" t="s">
-        <v>485</v>
-      </c>
-      <c r="R10" t="s">
-        <v>485</v>
-      </c>
-      <c r="S10" t="s">
-        <v>789</v>
-      </c>
       <c r="T10" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="U10" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="V10" t="s">
-        <v>839</v>
+        <v>780</v>
+      </c>
+      <c r="W10" t="s">
+        <v>840</v>
+      </c>
+      <c r="X10" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>867</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>868</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>888</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>943</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>534</v>
+        <v>1004</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>1004</v>
       </c>
       <c r="E11" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F11" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G11" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J11" t="s">
         <v>623</v>
       </c>
-      <c r="I11" t="s">
-        <v>624</v>
-      </c>
-      <c r="J11" t="s">
-        <v>646</v>
-      </c>
       <c r="K11" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="L11" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="M11" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="N11" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="O11" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="P11" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R11" t="s">
+        <v>724</v>
+      </c>
+      <c r="S11" t="s">
         <v>741</v>
       </c>
-      <c r="Q11" t="s">
-        <v>757</v>
-      </c>
-      <c r="R11" t="s">
-        <v>772</v>
-      </c>
-      <c r="S11" t="s">
-        <v>790</v>
-      </c>
       <c r="T11" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="U11" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
       <c r="V11" t="s">
-        <v>840</v>
+        <v>781</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>889</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>956</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>511</v>
+        <v>500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" t="s">
+        <v>528</v>
       </c>
       <c r="E12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F12" t="s">
-        <v>588</v>
+        <v>900</v>
       </c>
       <c r="G12" t="s">
-        <v>589</v>
+        <v>904</v>
+      </c>
+      <c r="H12" t="s">
+        <v>604</v>
+      </c>
+      <c r="I12" t="s">
+        <v>605</v>
       </c>
       <c r="J12" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="K12" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="L12" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="M12" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="N12" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="O12" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="P12" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>713</v>
+      </c>
+      <c r="R12" t="s">
+        <v>725</v>
+      </c>
+      <c r="S12" t="s">
         <v>742</v>
       </c>
-      <c r="R12" t="s">
-        <v>773</v>
-      </c>
-      <c r="S12" t="s">
-        <v>791</v>
-      </c>
       <c r="T12" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="U12" t="s">
-        <v>824</v>
+        <v>769</v>
       </c>
       <c r="V12" t="s">
+        <v>782</v>
+      </c>
+      <c r="W12" t="s">
         <v>841</v>
+      </c>
+      <c r="X12" t="s">
+        <v>842</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>869</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>870</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>945</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" t="s">
+        <v>902</v>
+      </c>
+      <c r="G13" t="s">
+        <v>905</v>
+      </c>
+      <c r="H13" t="s">
+        <v>606</v>
+      </c>
+      <c r="I13" t="s">
+        <v>607</v>
+      </c>
+      <c r="J13" t="s">
+        <v>627</v>
+      </c>
+      <c r="K13" t="s">
+        <v>653</v>
+      </c>
+      <c r="L13" t="s">
+        <v>654</v>
+      </c>
+      <c r="M13" t="s">
+        <v>917</v>
+      </c>
+      <c r="N13" t="s">
+        <v>918</v>
+      </c>
+      <c r="O13" t="s">
+        <v>627</v>
+      </c>
+      <c r="P13" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>714</v>
+      </c>
+      <c r="R13" t="s">
+        <v>726</v>
+      </c>
+      <c r="S13" t="s">
+        <v>743</v>
+      </c>
+      <c r="T13" t="s">
+        <v>756</v>
+      </c>
+      <c r="U13" t="s">
+        <v>933</v>
+      </c>
+      <c r="V13" t="s">
+        <v>934</v>
+      </c>
+      <c r="W13" t="s">
+        <v>843</v>
+      </c>
+      <c r="X13" t="s">
+        <v>844</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>872</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>891</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" t="s">
+        <v>903</v>
+      </c>
+      <c r="G14" t="s">
+        <v>906</v>
+      </c>
+      <c r="H14" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" t="s">
+        <v>609</v>
+      </c>
+      <c r="J14" t="s">
+        <v>908</v>
+      </c>
+      <c r="K14" t="s">
+        <v>909</v>
+      </c>
+      <c r="L14" t="s">
+        <v>910</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="N14" t="s">
+        <v>920</v>
+      </c>
+      <c r="O14" t="s">
+        <v>921</v>
+      </c>
+      <c r="P14" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>715</v>
+      </c>
+      <c r="R14" t="s">
+        <v>727</v>
+      </c>
+      <c r="S14" t="s">
+        <v>744</v>
+      </c>
+      <c r="T14" t="s">
+        <v>929</v>
+      </c>
+      <c r="U14" t="s">
+        <v>770</v>
+      </c>
+      <c r="V14" t="s">
+        <v>783</v>
+      </c>
+      <c r="W14" t="s">
+        <v>845</v>
+      </c>
+      <c r="X14" t="s">
+        <v>846</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>873</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>947</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>954</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" t="s">
         <v>536</v>
       </c>
-      <c r="D13" t="s">
-        <v>537</v>
-      </c>
-      <c r="E13" t="s">
-        <v>560</v>
-      </c>
-      <c r="F13" t="s">
-        <v>590</v>
-      </c>
-      <c r="G13" t="s">
-        <v>591</v>
-      </c>
-      <c r="H13" t="s">
-        <v>625</v>
-      </c>
-      <c r="I13" t="s">
-        <v>626</v>
-      </c>
-      <c r="J13" t="s">
-        <v>648</v>
-      </c>
-      <c r="K13" t="s">
-        <v>675</v>
-      </c>
-      <c r="L13" t="s">
-        <v>676</v>
-      </c>
-      <c r="M13" t="s">
-        <v>713</v>
-      </c>
-      <c r="N13" t="s">
-        <v>712</v>
-      </c>
-      <c r="O13" t="s">
-        <v>727</v>
-      </c>
-      <c r="P13" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>758</v>
-      </c>
-      <c r="R13" t="s">
-        <v>774</v>
-      </c>
-      <c r="S13" t="s">
-        <v>792</v>
-      </c>
-      <c r="T13" t="s">
-        <v>807</v>
-      </c>
-      <c r="U13" t="s">
-        <v>826</v>
-      </c>
-      <c r="V13" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>510</v>
-      </c>
-      <c r="B14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C14" t="s">
-        <v>538</v>
-      </c>
-      <c r="D14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E14" t="s">
-        <v>561</v>
-      </c>
-      <c r="F14" t="s">
-        <v>592</v>
-      </c>
-      <c r="G14" t="s">
-        <v>593</v>
-      </c>
-      <c r="H14" t="s">
-        <v>627</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="E15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F15" t="s">
+        <v>578</v>
+      </c>
+      <c r="G15" t="s">
+        <v>579</v>
+      </c>
+      <c r="H15" t="s">
+        <v>610</v>
+      </c>
+      <c r="I15" t="s">
+        <v>611</v>
+      </c>
+      <c r="J15" t="s">
         <v>628</v>
       </c>
-      <c r="J14" t="s">
-        <v>649</v>
-      </c>
-      <c r="K14" t="s">
-        <v>677</v>
-      </c>
-      <c r="L14" t="s">
-        <v>678</v>
-      </c>
-      <c r="M14" t="s">
-        <v>714</v>
-      </c>
-      <c r="N14" t="s">
-        <v>715</v>
-      </c>
-      <c r="O14" t="s">
-        <v>649</v>
-      </c>
-      <c r="P14" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>759</v>
-      </c>
-      <c r="R14" t="s">
-        <v>775</v>
-      </c>
-      <c r="S14" t="s">
-        <v>793</v>
-      </c>
-      <c r="T14" t="s">
-        <v>808</v>
-      </c>
-      <c r="U14" t="s">
-        <v>827</v>
-      </c>
-      <c r="V14" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:62" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>488</v>
-      </c>
-      <c r="B15" t="s">
-        <v>729</v>
-      </c>
-      <c r="C15" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" t="s">
-        <v>562</v>
-      </c>
-      <c r="F15" t="s">
-        <v>594</v>
-      </c>
-      <c r="G15" t="s">
-        <v>595</v>
-      </c>
-      <c r="H15" t="s">
-        <v>629</v>
-      </c>
-      <c r="I15" t="s">
-        <v>630</v>
-      </c>
-      <c r="J15" t="s">
-        <v>703</v>
-      </c>
       <c r="K15" t="s">
+        <v>655</v>
+      </c>
+      <c r="L15" t="s">
+        <v>656</v>
+      </c>
+      <c r="M15" t="s">
         <v>679</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>680</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="O15" t="s">
+        <v>628</v>
+      </c>
+      <c r="P15" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q15" t="s">
         <v>716</v>
       </c>
-      <c r="N15" t="s">
-        <v>717</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>728</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" t="s">
         <v>745</v>
       </c>
-      <c r="Q15" t="s">
-        <v>760</v>
-      </c>
-      <c r="R15" t="s">
-        <v>776</v>
-      </c>
-      <c r="S15" t="s">
-        <v>794</v>
-      </c>
       <c r="T15" t="s">
-        <v>809</v>
+        <v>930</v>
       </c>
       <c r="U15" t="s">
-        <v>828</v>
+        <v>771</v>
       </c>
       <c r="V15" t="s">
-        <v>844</v>
+        <v>784</v>
+      </c>
+      <c r="W15" t="s">
+        <v>847</v>
+      </c>
+      <c r="X15" t="s">
+        <v>848</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>876</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>893</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>953</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B16" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E16" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F16" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="G16" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H16" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="I16" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="J16" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="K16" t="s">
+        <v>911</v>
+      </c>
+      <c r="L16" t="s">
+        <v>912</v>
+      </c>
+      <c r="M16" t="s">
         <v>681</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>682</v>
       </c>
-      <c r="M16" t="s">
-        <v>718</v>
-      </c>
-      <c r="N16" t="s">
-        <v>719</v>
-      </c>
       <c r="O16" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="P16" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="Q16" t="s">
-        <v>761</v>
+        <v>705</v>
       </c>
       <c r="R16" t="s">
-        <v>777</v>
+        <v>729</v>
       </c>
       <c r="S16" t="s">
-        <v>795</v>
+        <v>731</v>
       </c>
       <c r="T16" t="s">
-        <v>810</v>
+        <v>757</v>
       </c>
       <c r="U16" t="s">
-        <v>829</v>
+        <v>772</v>
       </c>
       <c r="V16" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+      <c r="W16" t="s">
+        <v>849</v>
+      </c>
+      <c r="X16" t="s">
+        <v>850</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>877</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>878</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>894</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>949</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>952</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>490</v>
+        <v>979</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>1002</v>
       </c>
       <c r="C17" t="s">
-        <v>546</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>547</v>
+        <v>1001</v>
       </c>
       <c r="E17" t="s">
-        <v>565</v>
+        <v>999</v>
       </c>
       <c r="F17" t="s">
-        <v>599</v>
+        <v>997</v>
       </c>
       <c r="G17" t="s">
-        <v>600</v>
+        <v>998</v>
       </c>
       <c r="H17" t="s">
-        <v>633</v>
+        <v>1004</v>
       </c>
       <c r="I17" t="s">
-        <v>634</v>
-      </c>
-      <c r="J17" t="s">
-        <v>651</v>
+        <v>1004</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>996</v>
       </c>
       <c r="K17" t="s">
-        <v>683</v>
+        <v>994</v>
       </c>
       <c r="L17" t="s">
-        <v>684</v>
+        <v>995</v>
       </c>
       <c r="M17" t="s">
-        <v>720</v>
+        <v>992</v>
       </c>
       <c r="N17" t="s">
-        <v>721</v>
+        <v>993</v>
       </c>
       <c r="O17" t="s">
-        <v>730</v>
+        <v>991</v>
       </c>
       <c r="P17" t="s">
-        <v>747</v>
+        <v>990</v>
       </c>
       <c r="Q17" t="s">
-        <v>749</v>
+        <v>981</v>
       </c>
       <c r="R17" t="s">
-        <v>778</v>
+        <v>989</v>
       </c>
       <c r="S17" t="s">
-        <v>780</v>
+        <v>988</v>
       </c>
       <c r="T17" t="s">
-        <v>811</v>
+        <v>987</v>
       </c>
       <c r="U17" t="s">
-        <v>830</v>
+        <v>985</v>
       </c>
       <c r="V17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>986</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>983</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>982</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>979</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>491</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>896</v>
       </c>
       <c r="C18" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D18" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F18" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="G18" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="H18" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="I18" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="J18" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="K18" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="L18" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="M18" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="N18" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="O18" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="P18" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>717</v>
+      </c>
+      <c r="R18" t="s">
+        <v>719</v>
+      </c>
+      <c r="S18" t="s">
         <v>732</v>
       </c>
-      <c r="Q18" t="s">
-        <v>762</v>
-      </c>
-      <c r="R18" t="s">
-        <v>764</v>
-      </c>
-      <c r="S18" t="s">
-        <v>781</v>
-      </c>
       <c r="T18" t="s">
-        <v>812</v>
+        <v>758</v>
       </c>
       <c r="U18" t="s">
-        <v>814</v>
+        <v>936</v>
       </c>
       <c r="V18" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+      <c r="W18" t="s">
+        <v>851</v>
+      </c>
+      <c r="X18" t="s">
+        <v>852</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>879</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>880</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>895</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>950</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>951</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -4960,7 +5836,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -5015,7 +5891,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -5055,7 +5931,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -5200,7 +6076,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
@@ -5375,19 +6251,19 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="B117" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C117" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D117" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="E117" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -5492,7 +6368,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>825</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -5782,1556 +6658,1561 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>170</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>647</v>
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>218</v>
+        <v>625</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>493</v>
+        <v>280</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>281</v>
+        <v>492</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>603</v>
+        <v>337</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>338</v>
+        <v>584</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>605</v>
+        <v>353</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>354</v>
+        <v>586</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
         <v>476</v>
       </c>
     </row>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CF28E-990E-854F-AC70-8A3ED91EEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81EE18-D402-144F-BB30-04F85CF19353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1098">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3035,6 +3035,285 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ハンノキ</t>
+  </si>
+  <si>
+    <t>JapTr</t>
+  </si>
+  <si>
+    <t>Hannoki</t>
+  </si>
+  <si>
+    <t>怒り, 怒った, 立腹した</t>
+  </si>
+  <si>
+    <t>Ikari, Okotta, Rippuku shita</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>Doubutsu</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>答え, 回答</t>
+  </si>
+  <si>
+    <t>Kotae, Kaitou</t>
+  </si>
+  <si>
+    <t>蟻</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>りんご, アップル</t>
+  </si>
+  <si>
+    <t>Ringo, Appuru</t>
+  </si>
+  <si>
+    <t>腕, アーム</t>
+  </si>
+  <si>
+    <t>Ude, Aamu</t>
+  </si>
+  <si>
+    <t>矢印, 矢</t>
+  </si>
+  <si>
+    <t>Yajirushi, Ya</t>
+  </si>
+  <si>
+    <t>恥ずかしかった, 恥ずかしい</t>
+  </si>
+  <si>
+    <t>Hazukashikatta, Hazukashii</t>
+  </si>
+  <si>
+    <t>灰, 灰分</t>
+  </si>
+  <si>
+    <t>Hai, Kaibun</t>
+  </si>
+  <si>
+    <t>聞く, 尋ねる, 頼む</t>
+  </si>
+  <si>
+    <t>Kiku, Tazuneru, Tanomu</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>Aki</t>
+  </si>
+  <si>
+    <t>目覚め, 覚ます</t>
+  </si>
+  <si>
+    <t>Mezame, Samasu</t>
+  </si>
+  <si>
+    <t>千枚通し</t>
+  </si>
+  <si>
+    <t>Senmaidooshi</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>Ono</t>
+  </si>
+  <si>
+    <t>балта</t>
+  </si>
+  <si>
+    <t>balta</t>
+  </si>
+  <si>
+    <t>алдер</t>
+  </si>
+  <si>
+    <t>ашулы</t>
+  </si>
+  <si>
+    <t>aşwlı</t>
+  </si>
+  <si>
+    <t>жануар</t>
+  </si>
+  <si>
+    <t>janwar</t>
+  </si>
+  <si>
+    <t>жауап</t>
+  </si>
+  <si>
+    <t>jawap</t>
+  </si>
+  <si>
+    <t>KazTr</t>
+  </si>
+  <si>
+    <t>құмырсқа</t>
+  </si>
+  <si>
+    <t>qumırsqa</t>
+  </si>
+  <si>
+    <t>алма</t>
+  </si>
+  <si>
+    <t>қол</t>
+  </si>
+  <si>
+    <t>qol</t>
+  </si>
+  <si>
+    <t>жебе</t>
+  </si>
+  <si>
+    <t>jebe</t>
+  </si>
+  <si>
+    <t>ұялды</t>
+  </si>
+  <si>
+    <t>uyaldı</t>
+  </si>
+  <si>
+    <t>күл</t>
+  </si>
+  <si>
+    <t>kül</t>
+  </si>
+  <si>
+    <t>сұраңыз, сұрау</t>
+  </si>
+  <si>
+    <t>surañız, suraw</t>
+  </si>
+  <si>
+    <t>күз</t>
+  </si>
+  <si>
+    <t>küz</t>
+  </si>
+  <si>
+    <t>ояту</t>
+  </si>
+  <si>
+    <t>oyatw</t>
+  </si>
+  <si>
+    <t>аул</t>
+  </si>
+  <si>
+    <t>KorTr</t>
+  </si>
+  <si>
+    <t>송곳</t>
+  </si>
+  <si>
+    <t>songgos</t>
+  </si>
+  <si>
+    <t>알더</t>
+  </si>
+  <si>
+    <t>aldeo</t>
+  </si>
+  <si>
+    <t>화난, 성난</t>
+  </si>
+  <si>
+    <t>hwanan, seongnan</t>
+  </si>
+  <si>
+    <t>동물</t>
+  </si>
+  <si>
+    <t>dongmul</t>
+  </si>
+  <si>
+    <t>답변, 답, 대답</t>
+  </si>
+  <si>
+    <t>dabbyeon, dab, daedab</t>
+  </si>
+  <si>
+    <t>개미</t>
+  </si>
+  <si>
+    <t>gaemi</t>
+  </si>
+  <si>
+    <t>사과, 애플</t>
+  </si>
+  <si>
+    <t>sagwa, aepeul</t>
+  </si>
+  <si>
+    <t>팔</t>
+  </si>
+  <si>
+    <t>pal</t>
+  </si>
+  <si>
+    <t>화살</t>
+  </si>
+  <si>
+    <t>hwasal</t>
+  </si>
+  <si>
+    <t>물푸레나무</t>
+  </si>
+  <si>
+    <t>mulpurenamu</t>
+  </si>
+  <si>
+    <t>부끄러운, 부끄러워</t>
+  </si>
+  <si>
+    <t>buggeureoun, buggeureoweo</t>
+  </si>
+  <si>
+    <t>재, 유골</t>
+  </si>
+  <si>
+    <t>jae, yugol</t>
+  </si>
+  <si>
+    <t>물어보기, 청하다,  청구하다</t>
+  </si>
+  <si>
+    <t>muleobogi, cheonghada, cheongguhada</t>
+  </si>
+  <si>
+    <t>가을</t>
+  </si>
+  <si>
+    <t>gaeul</t>
+  </si>
+  <si>
+    <t>깨우다, 자각시키다</t>
+  </si>
+  <si>
+    <t>ggaeuda, jagagsikada</t>
+  </si>
+  <si>
+    <t>도끼</t>
+  </si>
+  <si>
+    <t>doggi</t>
   </si>
 </sst>
 </file>
@@ -3878,13 +4157,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ507"/>
+  <dimension ref="A1:BM507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
+      <selection pane="bottomRight" activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3915,9 +4194,16 @@
     <col min="28" max="28" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" customWidth="1"/>
+    <col min="35" max="35" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -4012,100 +4298,109 @@
         <v>794</v>
       </c>
       <c r="AF1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AG1" t="s">
         <v>795</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AI1" t="s">
         <v>796</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AK1" t="s">
         <v>797</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>798</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>799</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>800</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>801</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>802</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>803</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>804</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>805</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>806</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>807</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>808</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>809</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>810</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>811</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>812</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>813</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>814</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>815</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>816</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>817</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>818</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>819</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>820</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>821</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>822</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>823</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>824</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -4200,7 +4495,7 @@
         <v>495</v>
       </c>
       <c r="AF2" t="s">
-        <v>495</v>
+        <v>1012</v>
       </c>
       <c r="AG2" t="s">
         <v>495</v>
@@ -4212,7 +4507,7 @@
         <v>495</v>
       </c>
       <c r="AJ2" t="s">
-        <v>495</v>
+        <v>1012</v>
       </c>
       <c r="AK2" t="s">
         <v>495</v>
@@ -4292,8 +4587,17 @@
       <c r="BJ2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -4378,8 +4682,26 @@
       <c r="AD3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="4" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+      <c r="AE3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -4470,8 +4792,26 @@
       <c r="AD4" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -4562,8 +4902,26 @@
       <c r="AD5" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -4654,8 +5012,26 @@
       <c r="AD6" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -4746,8 +5122,26 @@
       <c r="AD7" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -4838,8 +5232,26 @@
       <c r="AD8" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE8" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>886</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -4930,8 +5342,26 @@
       <c r="AD9" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -5022,8 +5452,26 @@
       <c r="AD10" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>503</v>
       </c>
@@ -5114,8 +5562,26 @@
       <c r="AD11" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -5206,8 +5672,26 @@
       <c r="AD12" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE12" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>504</v>
       </c>
@@ -5298,8 +5782,26 @@
       <c r="AD13" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="14" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+      <c r="AE13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>488</v>
       </c>
@@ -5390,8 +5892,26 @@
       <c r="AD14" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>489</v>
       </c>
@@ -5482,8 +6002,26 @@
       <c r="AD15" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AE15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>490</v>
       </c>
@@ -5574,8 +6112,26 @@
       <c r="AD16" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+      <c r="AE16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>979</v>
       </c>
@@ -5666,8 +6222,26 @@
       <c r="AD17" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>979</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>491</v>
       </c>
@@ -5758,73 +6332,91 @@
       <c r="AD18" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81EE18-D402-144F-BB30-04F85CF19353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677C309A-C3DE-F349-B29D-9008753BF74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1145">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1489,9 +1489,6 @@
     <t>ask (v)</t>
   </si>
   <si>
-    <t>autumn</t>
-  </si>
-  <si>
     <t>awaken</t>
   </si>
   <si>
@@ -3314,6 +3311,150 @@
   </si>
   <si>
     <t>doggi</t>
+  </si>
+  <si>
+    <t>KyrTr</t>
+  </si>
+  <si>
+    <t>ачуулуу</t>
+  </si>
+  <si>
+    <t>açuuluu</t>
+  </si>
+  <si>
+    <t>жаныбар</t>
+  </si>
+  <si>
+    <t>janıbar</t>
+  </si>
+  <si>
+    <t>жооп</t>
+  </si>
+  <si>
+    <t>joop</t>
+  </si>
+  <si>
+    <t>кумурска</t>
+  </si>
+  <si>
+    <t>kymurska</t>
+  </si>
+  <si>
+    <t>кол</t>
+  </si>
+  <si>
+    <t>kol</t>
+  </si>
+  <si>
+    <t>уялдым</t>
+  </si>
+  <si>
+    <t>uyaldım</t>
+  </si>
+  <si>
+    <t>сура</t>
+  </si>
+  <si>
+    <t>sura</t>
+  </si>
+  <si>
+    <t>ойготуу</t>
+  </si>
+  <si>
+    <t>oygotuu</t>
+  </si>
+  <si>
+    <t>securis</t>
+  </si>
+  <si>
+    <t>alnus</t>
+  </si>
+  <si>
+    <t>iratus</t>
+  </si>
+  <si>
+    <t>responsum</t>
+  </si>
+  <si>
+    <t>malum, pomum</t>
+  </si>
+  <si>
+    <t>brachium</t>
+  </si>
+  <si>
+    <t>saggita</t>
+  </si>
+  <si>
+    <t>fraxinus</t>
+  </si>
+  <si>
+    <t>pudet</t>
+  </si>
+  <si>
+    <t>cinis</t>
+  </si>
+  <si>
+    <t>quaero</t>
+  </si>
+  <si>
+    <t>autumnus</t>
+  </si>
+  <si>
+    <t>autumn, fall</t>
+  </si>
+  <si>
+    <t>expergiscimi, suscito, exuscito</t>
+  </si>
+  <si>
+    <t>subula</t>
+  </si>
+  <si>
+    <t>īlens</t>
+  </si>
+  <si>
+    <t>alksnis</t>
+  </si>
+  <si>
+    <t>dusmīgs</t>
+  </si>
+  <si>
+    <t>dzīvnieks</t>
+  </si>
+  <si>
+    <t>atbildi, atbilde</t>
+  </si>
+  <si>
+    <t>skudra</t>
+  </si>
+  <si>
+    <t>ābolu, ābols</t>
+  </si>
+  <si>
+    <t>roka</t>
+  </si>
+  <si>
+    <t>bultiņa, bulta</t>
+  </si>
+  <si>
+    <t>osis</t>
+  </si>
+  <si>
+    <t>kauns, apkaunots</t>
+  </si>
+  <si>
+    <t>pelni</t>
+  </si>
+  <si>
+    <t>jautāt, lūgt, prasīt</t>
+  </si>
+  <si>
+    <t>rudens</t>
+  </si>
+  <si>
+    <t>pamodināt, modināt</t>
+  </si>
+  <si>
+    <t>cirvis</t>
   </si>
 </sst>
 </file>
@@ -4157,13 +4298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM507"/>
+  <dimension ref="A1:BN508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK26" sqref="AK26"/>
+      <selection pane="bottomRight" activeCell="AD46" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4200,1105 +4341,1192 @@
     <col min="34" max="34" width="15.1640625" customWidth="1"/>
     <col min="35" max="35" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.1640625" customWidth="1"/>
+    <col min="39" max="39" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
       <c r="B1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" t="s">
-        <v>494</v>
-      </c>
       <c r="D1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" t="s">
         <v>558</v>
       </c>
-      <c r="G1" t="s">
-        <v>559</v>
-      </c>
       <c r="H1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1" t="s">
         <v>588</v>
       </c>
-      <c r="I1" t="s">
-        <v>589</v>
-      </c>
       <c r="J1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="W1" t="s">
+        <v>785</v>
+      </c>
+      <c r="X1" t="s">
         <v>786</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>787</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>788</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>789</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>790</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>791</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>792</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>793</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AG1" t="s">
         <v>794</v>
       </c>
-      <c r="AF1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AI1" t="s">
         <v>795</v>
       </c>
-      <c r="AH1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AK1" t="s">
         <v>796</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AM1" t="s">
         <v>797</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>798</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>799</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>800</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>801</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>802</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>803</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>804</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>805</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>806</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>807</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>808</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>809</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>810</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>811</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>812</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>813</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>814</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>815</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>816</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>817</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>818</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>819</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>820</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>821</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>822</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>823</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>824</v>
       </c>
-      <c r="BM1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Z2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AA2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AB2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AC2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AD2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AE2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AG2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AH2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AI2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AK2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AL2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AM2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AN2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AP2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AQ2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AR2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AS2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AT2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AU2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AW2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AX2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AY2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AZ2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BA2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BB2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BC2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BD2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BE2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BF2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BG2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BH2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BI2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BJ2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BK2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BL2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BM2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" t="s">
         <v>511</v>
       </c>
-      <c r="D3" t="s">
-        <v>512</v>
-      </c>
       <c r="E3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" t="s">
         <v>560</v>
       </c>
-      <c r="G3" t="s">
-        <v>561</v>
+      <c r="H3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1003</v>
       </c>
       <c r="J3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M3" t="s">
+        <v>661</v>
+      </c>
+      <c r="N3" t="s">
         <v>662</v>
       </c>
-      <c r="N3" t="s">
-        <v>663</v>
-      </c>
       <c r="O3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="S3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="W3" t="s">
+        <v>825</v>
+      </c>
+      <c r="X3" t="s">
         <v>826</v>
       </c>
-      <c r="X3" t="s">
-        <v>827</v>
-      </c>
       <c r="Y3" t="s">
+        <v>852</v>
+      </c>
+      <c r="Z3" t="s">
         <v>853</v>
       </c>
-      <c r="Z3" t="s">
-        <v>854</v>
-      </c>
       <c r="AA3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AB3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AC3" t="s">
+        <v>963</v>
+      </c>
+      <c r="AD3" t="s">
         <v>964</v>
       </c>
-      <c r="AD3" t="s">
-        <v>965</v>
-      </c>
       <c r="AE3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AG3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AH3" t="s">
         <v>479</v>
       </c>
       <c r="AI3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>1068</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:65" ht="17" x14ac:dyDescent="0.2">
+      <c r="AK3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" t="s">
         <v>514</v>
       </c>
-      <c r="D4" t="s">
-        <v>515</v>
-      </c>
       <c r="E4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" t="s">
         <v>562</v>
       </c>
-      <c r="G4" t="s">
-        <v>563</v>
-      </c>
       <c r="H4" t="s">
+        <v>589</v>
+      </c>
+      <c r="I4" t="s">
         <v>590</v>
       </c>
-      <c r="I4" t="s">
-        <v>591</v>
-      </c>
       <c r="J4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K4" t="s">
+        <v>634</v>
+      </c>
+      <c r="L4" t="s">
         <v>635</v>
       </c>
-      <c r="L4" t="s">
-        <v>636</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N4" t="s">
         <v>671</v>
       </c>
-      <c r="N4" t="s">
-        <v>672</v>
-      </c>
       <c r="O4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="P4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="Q4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="W4" t="s">
+        <v>827</v>
+      </c>
+      <c r="X4" t="s">
         <v>828</v>
       </c>
-      <c r="X4" t="s">
-        <v>829</v>
-      </c>
       <c r="Y4" t="s">
+        <v>854</v>
+      </c>
+      <c r="Z4" t="s">
         <v>855</v>
       </c>
-      <c r="Z4" t="s">
-        <v>856</v>
-      </c>
       <c r="AA4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AB4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AC4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AD4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AE4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF4" t="s">
         <v>1008</v>
       </c>
-      <c r="AF4" t="s">
-        <v>1009</v>
-      </c>
       <c r="AG4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AH4" t="s">
         <v>1040</v>
       </c>
-      <c r="AH4" t="s">
-        <v>1041</v>
-      </c>
       <c r="AI4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>1070</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AK4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" t="s">
         <v>516</v>
       </c>
-      <c r="D5" t="s">
-        <v>517</v>
-      </c>
       <c r="E5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G5" t="s">
         <v>564</v>
       </c>
-      <c r="G5" t="s">
-        <v>565</v>
-      </c>
       <c r="H5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I5" t="s">
         <v>592</v>
       </c>
-      <c r="I5" t="s">
-        <v>593</v>
-      </c>
       <c r="J5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K5" t="s">
+        <v>636</v>
+      </c>
+      <c r="L5" t="s">
         <v>637</v>
       </c>
-      <c r="L5" t="s">
-        <v>638</v>
-      </c>
       <c r="M5" t="s">
+        <v>664</v>
+      </c>
+      <c r="N5" t="s">
         <v>665</v>
       </c>
-      <c r="N5" t="s">
-        <v>666</v>
-      </c>
       <c r="O5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="R5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="W5" t="s">
+        <v>829</v>
+      </c>
+      <c r="X5" t="s">
         <v>830</v>
       </c>
-      <c r="X5" t="s">
-        <v>831</v>
-      </c>
       <c r="Y5" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z5" t="s">
         <v>857</v>
       </c>
-      <c r="Z5" t="s">
-        <v>858</v>
-      </c>
       <c r="AA5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AB5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AC5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AD5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AE5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AF5" t="s">
         <v>1010</v>
       </c>
-      <c r="AF5" t="s">
-        <v>1011</v>
-      </c>
       <c r="AG5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AH5" t="s">
         <v>1042</v>
       </c>
-      <c r="AH5" t="s">
-        <v>1043</v>
-      </c>
       <c r="AI5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>1072</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AK5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>481</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" t="s">
         <v>518</v>
       </c>
-      <c r="D6" t="s">
-        <v>519</v>
-      </c>
       <c r="E6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G6" t="s">
         <v>566</v>
       </c>
-      <c r="G6" t="s">
-        <v>567</v>
-      </c>
       <c r="H6" t="s">
+        <v>593</v>
+      </c>
+      <c r="I6" t="s">
         <v>594</v>
       </c>
-      <c r="I6" t="s">
-        <v>595</v>
-      </c>
       <c r="J6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K6" t="s">
+        <v>638</v>
+      </c>
+      <c r="L6" t="s">
         <v>639</v>
       </c>
-      <c r="L6" t="s">
-        <v>640</v>
-      </c>
       <c r="M6" t="s">
+        <v>666</v>
+      </c>
+      <c r="N6" t="s">
         <v>667</v>
       </c>
-      <c r="N6" t="s">
-        <v>668</v>
-      </c>
       <c r="O6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="Q6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R6" t="s">
+        <v>926</v>
+      </c>
+      <c r="S6" t="s">
+        <v>735</v>
+      </c>
+      <c r="T6" t="s">
         <v>927</v>
       </c>
-      <c r="S6" t="s">
-        <v>736</v>
-      </c>
-      <c r="T6" t="s">
-        <v>928</v>
-      </c>
       <c r="U6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W6" t="s">
+        <v>831</v>
+      </c>
+      <c r="X6" t="s">
         <v>832</v>
       </c>
-      <c r="X6" t="s">
-        <v>833</v>
-      </c>
       <c r="Y6" t="s">
+        <v>860</v>
+      </c>
+      <c r="Z6" t="s">
         <v>861</v>
       </c>
-      <c r="Z6" t="s">
-        <v>862</v>
-      </c>
       <c r="AA6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AB6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AC6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AD6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AE6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AF6" t="s">
         <v>1013</v>
       </c>
-      <c r="AF6" t="s">
-        <v>1014</v>
-      </c>
       <c r="AG6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AH6" t="s">
         <v>1044</v>
       </c>
-      <c r="AH6" t="s">
-        <v>1045</v>
-      </c>
       <c r="AI6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>1074</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AK6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" t="s">
         <v>520</v>
       </c>
-      <c r="D7" t="s">
-        <v>521</v>
-      </c>
       <c r="E7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G7" t="s">
         <v>568</v>
       </c>
-      <c r="G7" t="s">
-        <v>569</v>
-      </c>
       <c r="H7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I7" t="s">
         <v>596</v>
       </c>
-      <c r="I7" t="s">
-        <v>597</v>
-      </c>
       <c r="J7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K7" t="s">
+        <v>640</v>
+      </c>
+      <c r="L7" t="s">
         <v>641</v>
       </c>
-      <c r="L7" t="s">
-        <v>642</v>
-      </c>
       <c r="M7" t="s">
+        <v>668</v>
+      </c>
+      <c r="N7" t="s">
         <v>669</v>
       </c>
-      <c r="N7" t="s">
-        <v>670</v>
-      </c>
       <c r="O7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U7" t="s">
+        <v>930</v>
+      </c>
+      <c r="V7" t="s">
         <v>931</v>
       </c>
-      <c r="V7" t="s">
-        <v>932</v>
-      </c>
       <c r="W7" t="s">
+        <v>833</v>
+      </c>
+      <c r="X7" t="s">
         <v>834</v>
       </c>
-      <c r="X7" t="s">
-        <v>835</v>
-      </c>
       <c r="Y7" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z7" t="s">
         <v>859</v>
       </c>
-      <c r="Z7" t="s">
-        <v>860</v>
-      </c>
       <c r="AA7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AB7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AC7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AD7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AE7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AF7" t="s">
         <v>1015</v>
       </c>
-      <c r="AF7" t="s">
-        <v>1016</v>
-      </c>
       <c r="AG7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AH7" t="s">
         <v>1047</v>
       </c>
-      <c r="AH7" t="s">
-        <v>1048</v>
-      </c>
       <c r="AI7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>1076</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" ht="17" x14ac:dyDescent="0.2">
+      <c r="AK7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>967</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" t="s">
         <v>522</v>
       </c>
-      <c r="D8" t="s">
-        <v>523</v>
-      </c>
       <c r="E8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G8" t="s">
         <v>571</v>
       </c>
-      <c r="G8" t="s">
-        <v>572</v>
-      </c>
       <c r="H8" t="s">
+        <v>597</v>
+      </c>
+      <c r="I8" t="s">
         <v>598</v>
       </c>
-      <c r="I8" t="s">
-        <v>599</v>
-      </c>
       <c r="J8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K8" t="s">
+        <v>642</v>
+      </c>
+      <c r="L8" t="s">
         <v>643</v>
       </c>
-      <c r="L8" t="s">
-        <v>644</v>
-      </c>
       <c r="M8" t="s">
+        <v>912</v>
+      </c>
+      <c r="N8" t="s">
         <v>913</v>
       </c>
-      <c r="N8" t="s">
-        <v>914</v>
-      </c>
       <c r="O8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="S8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="T8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="W8" t="s">
+        <v>835</v>
+      </c>
+      <c r="X8" t="s">
         <v>836</v>
       </c>
-      <c r="X8" t="s">
-        <v>837</v>
-      </c>
       <c r="Y8" t="s">
+        <v>862</v>
+      </c>
+      <c r="Z8" t="s">
         <v>863</v>
       </c>
-      <c r="Z8" t="s">
-        <v>864</v>
-      </c>
       <c r="AA8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AB8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AC8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AD8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AE8" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AF8" t="s">
         <v>1017</v>
       </c>
-      <c r="AF8" t="s">
-        <v>1018</v>
-      </c>
       <c r="AG8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AH8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AI8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>1078</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AK8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>885</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>485</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D9" t="s">
         <v>485</v>
       </c>
       <c r="E9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9" t="s">
         <v>573</v>
       </c>
-      <c r="G9" t="s">
-        <v>574</v>
-      </c>
       <c r="H9" t="s">
+        <v>599</v>
+      </c>
+      <c r="I9" t="s">
         <v>600</v>
       </c>
-      <c r="I9" t="s">
-        <v>601</v>
-      </c>
       <c r="J9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K9" t="s">
+        <v>644</v>
+      </c>
+      <c r="L9" t="s">
         <v>645</v>
       </c>
-      <c r="L9" t="s">
-        <v>646</v>
-      </c>
       <c r="M9" t="s">
+        <v>672</v>
+      </c>
+      <c r="N9" t="s">
         <v>673</v>
       </c>
-      <c r="N9" t="s">
-        <v>674</v>
-      </c>
       <c r="O9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q9" t="s">
         <v>485</v>
@@ -5307,1116 +5535,1236 @@
         <v>485</v>
       </c>
       <c r="S9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="W9" t="s">
+        <v>837</v>
+      </c>
+      <c r="X9" t="s">
         <v>838</v>
       </c>
-      <c r="X9" t="s">
-        <v>839</v>
-      </c>
       <c r="Y9" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z9" t="s">
         <v>865</v>
       </c>
-      <c r="Z9" t="s">
-        <v>866</v>
-      </c>
       <c r="AA9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AB9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AC9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AD9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AE9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AF9" t="s">
         <v>1019</v>
       </c>
-      <c r="AF9" t="s">
-        <v>1020</v>
-      </c>
       <c r="AG9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AH9" t="s">
         <v>1050</v>
       </c>
-      <c r="AH9" t="s">
-        <v>1051</v>
-      </c>
       <c r="AI9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>1080</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AK9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
       <c r="B10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F10" t="s">
+        <v>900</v>
+      </c>
+      <c r="G10" t="s">
+        <v>647</v>
+      </c>
+      <c r="H10" t="s">
+        <v>601</v>
+      </c>
+      <c r="I10" t="s">
+        <v>602</v>
+      </c>
+      <c r="J10" t="s">
+        <v>623</v>
+      </c>
+      <c r="K10" t="s">
+        <v>646</v>
+      </c>
+      <c r="L10" t="s">
+        <v>647</v>
+      </c>
+      <c r="M10" t="s">
+        <v>914</v>
+      </c>
+      <c r="N10" t="s">
+        <v>915</v>
+      </c>
+      <c r="O10" t="s">
+        <v>686</v>
+      </c>
+      <c r="P10" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>711</v>
+      </c>
+      <c r="R10" t="s">
+        <v>722</v>
+      </c>
+      <c r="S10" t="s">
+        <v>739</v>
+      </c>
+      <c r="T10" t="s">
+        <v>752</v>
+      </c>
+      <c r="U10" t="s">
+        <v>765</v>
+      </c>
+      <c r="V10" t="s">
+        <v>779</v>
+      </c>
+      <c r="W10" t="s">
+        <v>839</v>
+      </c>
+      <c r="X10" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>866</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>887</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>942</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>956</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>970</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>502</v>
       </c>
-      <c r="C10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" t="s">
-        <v>526</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E11" t="s">
         <v>549</v>
       </c>
-      <c r="F10" t="s">
-        <v>901</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G11" t="s">
+        <v>575</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J11" t="s">
+        <v>622</v>
+      </c>
+      <c r="K11" t="s">
         <v>648</v>
       </c>
-      <c r="H10" t="s">
-        <v>602</v>
-      </c>
-      <c r="I10" t="s">
-        <v>603</v>
-      </c>
-      <c r="J10" t="s">
-        <v>624</v>
-      </c>
-      <c r="K10" t="s">
-        <v>647</v>
-      </c>
-      <c r="L10" t="s">
-        <v>648</v>
-      </c>
-      <c r="M10" t="s">
-        <v>915</v>
-      </c>
-      <c r="N10" t="s">
-        <v>916</v>
-      </c>
-      <c r="O10" t="s">
-        <v>687</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="L11" t="s">
+        <v>649</v>
+      </c>
+      <c r="M11" t="s">
+        <v>674</v>
+      </c>
+      <c r="N11" t="s">
+        <v>675</v>
+      </c>
+      <c r="O11" t="s">
+        <v>622</v>
+      </c>
+      <c r="P11" t="s">
         <v>698</v>
       </c>
-      <c r="Q10" t="s">
-        <v>712</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Q11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="R11" t="s">
         <v>723</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S11" t="s">
         <v>740</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T11" t="s">
         <v>753</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U11" t="s">
         <v>766</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V11" t="s">
         <v>780</v>
       </c>
-      <c r="W10" t="s">
-        <v>840</v>
-      </c>
-      <c r="X10" t="s">
-        <v>603</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>867</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>868</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="W11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AA11" t="s">
         <v>888</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB11" t="s">
         <v>943</v>
       </c>
-      <c r="AC10" t="s">
-        <v>957</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AC11" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD11" t="s">
         <v>971</v>
       </c>
-      <c r="AE10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AE11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AI11" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F11" t="s">
-        <v>575</v>
-      </c>
-      <c r="G11" t="s">
-        <v>576</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J11" t="s">
-        <v>623</v>
-      </c>
-      <c r="K11" t="s">
-        <v>649</v>
-      </c>
-      <c r="L11" t="s">
-        <v>650</v>
-      </c>
-      <c r="M11" t="s">
-        <v>675</v>
-      </c>
-      <c r="N11" t="s">
-        <v>676</v>
-      </c>
-      <c r="O11" t="s">
-        <v>623</v>
-      </c>
-      <c r="P11" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="R11" t="s">
-        <v>724</v>
-      </c>
-      <c r="S11" t="s">
-        <v>741</v>
-      </c>
-      <c r="T11" t="s">
-        <v>754</v>
-      </c>
-      <c r="U11" t="s">
-        <v>767</v>
-      </c>
-      <c r="V11" t="s">
-        <v>781</v>
-      </c>
-      <c r="W11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="X11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>889</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>944</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>956</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>972</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>1084</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" ht="34" x14ac:dyDescent="0.2">
+      <c r="AK11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D12" t="s">
         <v>527</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>550</v>
+      </c>
+      <c r="F12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G12" t="s">
+        <v>903</v>
+      </c>
+      <c r="H12" t="s">
+        <v>603</v>
+      </c>
+      <c r="I12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J12" t="s">
+        <v>625</v>
+      </c>
+      <c r="K12" t="s">
+        <v>650</v>
+      </c>
+      <c r="L12" t="s">
+        <v>651</v>
+      </c>
+      <c r="M12" t="s">
+        <v>677</v>
+      </c>
+      <c r="N12" t="s">
+        <v>676</v>
+      </c>
+      <c r="O12" t="s">
+        <v>687</v>
+      </c>
+      <c r="P12" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>712</v>
+      </c>
+      <c r="R12" t="s">
+        <v>724</v>
+      </c>
+      <c r="S12" t="s">
+        <v>741</v>
+      </c>
+      <c r="T12" t="s">
+        <v>754</v>
+      </c>
+      <c r="U12" t="s">
+        <v>768</v>
+      </c>
+      <c r="V12" t="s">
+        <v>781</v>
+      </c>
+      <c r="W12" t="s">
+        <v>840</v>
+      </c>
+      <c r="X12" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>889</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>954</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>972</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="s">
         <v>528</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" t="s">
         <v>551</v>
       </c>
-      <c r="F12" t="s">
-        <v>900</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F13" t="s">
+        <v>901</v>
+      </c>
+      <c r="G13" t="s">
         <v>904</v>
       </c>
-      <c r="H12" t="s">
-        <v>604</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H13" t="s">
         <v>605</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J13" t="s">
         <v>626</v>
       </c>
-      <c r="K12" t="s">
-        <v>651</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K13" t="s">
         <v>652</v>
       </c>
-      <c r="M12" t="s">
-        <v>678</v>
-      </c>
-      <c r="N12" t="s">
-        <v>677</v>
-      </c>
-      <c r="O12" t="s">
-        <v>688</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="L13" t="s">
+        <v>653</v>
+      </c>
+      <c r="M13" t="s">
+        <v>916</v>
+      </c>
+      <c r="N13" t="s">
+        <v>917</v>
+      </c>
+      <c r="O13" t="s">
+        <v>626</v>
+      </c>
+      <c r="P13" t="s">
         <v>700</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q13" t="s">
         <v>713</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R13" t="s">
         <v>725</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S13" t="s">
         <v>742</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T13" t="s">
         <v>755</v>
       </c>
-      <c r="U12" t="s">
-        <v>769</v>
-      </c>
-      <c r="V12" t="s">
-        <v>782</v>
-      </c>
-      <c r="W12" t="s">
-        <v>841</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="U13" t="s">
+        <v>932</v>
+      </c>
+      <c r="V13" t="s">
+        <v>933</v>
+      </c>
+      <c r="W13" t="s">
         <v>842</v>
       </c>
-      <c r="Y12" t="s">
-        <v>869</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="X13" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y13" t="s">
         <v>870</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="Z13" t="s">
+        <v>871</v>
+      </c>
+      <c r="AA13" t="s">
         <v>890</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB13" t="s">
         <v>945</v>
       </c>
-      <c r="AC12" t="s">
-        <v>955</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AC13" t="s">
+        <v>954</v>
+      </c>
+      <c r="AD13" t="s">
         <v>973</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AE13" t="s">
         <v>1024</v>
       </c>
-      <c r="AG12" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AF13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AG13" t="s">
         <v>1055</v>
       </c>
-      <c r="AI12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AH13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AI13" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>529</v>
-      </c>
-      <c r="D13" t="s">
-        <v>530</v>
-      </c>
-      <c r="E13" t="s">
-        <v>552</v>
-      </c>
-      <c r="F13" t="s">
-        <v>902</v>
-      </c>
-      <c r="G13" t="s">
-        <v>905</v>
-      </c>
-      <c r="H13" t="s">
-        <v>606</v>
-      </c>
-      <c r="I13" t="s">
-        <v>607</v>
-      </c>
-      <c r="J13" t="s">
-        <v>627</v>
-      </c>
-      <c r="K13" t="s">
-        <v>653</v>
-      </c>
-      <c r="L13" t="s">
-        <v>654</v>
-      </c>
-      <c r="M13" t="s">
-        <v>917</v>
-      </c>
-      <c r="N13" t="s">
-        <v>918</v>
-      </c>
-      <c r="O13" t="s">
-        <v>627</v>
-      </c>
-      <c r="P13" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>714</v>
-      </c>
-      <c r="R13" t="s">
-        <v>726</v>
-      </c>
-      <c r="S13" t="s">
-        <v>743</v>
-      </c>
-      <c r="T13" t="s">
-        <v>756</v>
-      </c>
-      <c r="U13" t="s">
-        <v>933</v>
-      </c>
-      <c r="V13" t="s">
-        <v>934</v>
-      </c>
-      <c r="W13" t="s">
-        <v>843</v>
-      </c>
-      <c r="X13" t="s">
-        <v>844</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>871</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>872</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>891</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>955</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>974</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AG13" t="s">
+      <c r="AJ13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AL13" t="s">
         <v>1056</v>
       </c>
-      <c r="AH13" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:65" ht="17" x14ac:dyDescent="0.2">
+      <c r="AM13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>488</v>
       </c>
       <c r="B14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" t="s">
+        <v>902</v>
+      </c>
+      <c r="G14" t="s">
+        <v>905</v>
+      </c>
+      <c r="H14" t="s">
+        <v>607</v>
+      </c>
+      <c r="I14" t="s">
+        <v>608</v>
+      </c>
+      <c r="J14" t="s">
+        <v>907</v>
+      </c>
+      <c r="K14" t="s">
+        <v>908</v>
+      </c>
+      <c r="L14" t="s">
+        <v>909</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="N14" t="s">
+        <v>919</v>
+      </c>
+      <c r="O14" t="s">
+        <v>920</v>
+      </c>
+      <c r="P14" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>714</v>
+      </c>
+      <c r="R14" t="s">
+        <v>726</v>
+      </c>
+      <c r="S14" t="s">
+        <v>743</v>
+      </c>
+      <c r="T14" t="s">
+        <v>928</v>
+      </c>
+      <c r="U14" t="s">
+        <v>769</v>
+      </c>
+      <c r="V14" t="s">
+        <v>782</v>
+      </c>
+      <c r="W14" t="s">
+        <v>844</v>
+      </c>
+      <c r="X14" t="s">
+        <v>845</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>872</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>873</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>953</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>974</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" t="s">
+        <v>535</v>
+      </c>
+      <c r="E15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" t="s">
+        <v>577</v>
+      </c>
+      <c r="G15" t="s">
+        <v>578</v>
+      </c>
+      <c r="H15" t="s">
+        <v>609</v>
+      </c>
+      <c r="I15" t="s">
+        <v>610</v>
+      </c>
+      <c r="J15" t="s">
+        <v>627</v>
+      </c>
+      <c r="K15" t="s">
+        <v>654</v>
+      </c>
+      <c r="L15" t="s">
+        <v>655</v>
+      </c>
+      <c r="M15" t="s">
+        <v>678</v>
+      </c>
+      <c r="N15" t="s">
+        <v>679</v>
+      </c>
+      <c r="O15" t="s">
+        <v>627</v>
+      </c>
+      <c r="P15" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>715</v>
+      </c>
+      <c r="R15" t="s">
+        <v>727</v>
+      </c>
+      <c r="S15" t="s">
+        <v>744</v>
+      </c>
+      <c r="T15" t="s">
+        <v>929</v>
+      </c>
+      <c r="U15" t="s">
+        <v>770</v>
+      </c>
+      <c r="V15" t="s">
+        <v>783</v>
+      </c>
+      <c r="W15" t="s">
+        <v>846</v>
+      </c>
+      <c r="X15" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>875</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>947</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>952</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>975</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" t="s">
+        <v>537</v>
+      </c>
+      <c r="E16" t="s">
+        <v>555</v>
+      </c>
+      <c r="F16" t="s">
+        <v>579</v>
+      </c>
+      <c r="G16" t="s">
+        <v>580</v>
+      </c>
+      <c r="H16" t="s">
+        <v>611</v>
+      </c>
+      <c r="I16" t="s">
+        <v>612</v>
+      </c>
+      <c r="J16" t="s">
+        <v>628</v>
+      </c>
+      <c r="K16" t="s">
+        <v>910</v>
+      </c>
+      <c r="L16" t="s">
+        <v>911</v>
+      </c>
+      <c r="M16" t="s">
+        <v>680</v>
+      </c>
+      <c r="N16" t="s">
+        <v>681</v>
+      </c>
+      <c r="O16" t="s">
         <v>689</v>
       </c>
-      <c r="C14" t="s">
-        <v>531</v>
-      </c>
-      <c r="D14" t="s">
-        <v>532</v>
-      </c>
-      <c r="E14" t="s">
-        <v>553</v>
-      </c>
-      <c r="F14" t="s">
-        <v>903</v>
-      </c>
-      <c r="G14" t="s">
-        <v>906</v>
-      </c>
-      <c r="H14" t="s">
-        <v>608</v>
-      </c>
-      <c r="I14" t="s">
-        <v>609</v>
-      </c>
-      <c r="J14" t="s">
-        <v>908</v>
-      </c>
-      <c r="K14" t="s">
-        <v>909</v>
-      </c>
-      <c r="L14" t="s">
-        <v>910</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="N14" t="s">
-        <v>920</v>
-      </c>
-      <c r="O14" t="s">
-        <v>921</v>
-      </c>
-      <c r="P14" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>715</v>
-      </c>
-      <c r="R14" t="s">
-        <v>727</v>
-      </c>
-      <c r="S14" t="s">
-        <v>744</v>
-      </c>
-      <c r="T14" t="s">
-        <v>929</v>
-      </c>
-      <c r="U14" t="s">
-        <v>770</v>
-      </c>
-      <c r="V14" t="s">
-        <v>783</v>
-      </c>
-      <c r="W14" t="s">
-        <v>845</v>
-      </c>
-      <c r="X14" t="s">
-        <v>846</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>873</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>874</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>892</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>947</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>954</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>975</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C15" t="s">
-        <v>535</v>
-      </c>
-      <c r="D15" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F15" t="s">
-        <v>578</v>
-      </c>
-      <c r="G15" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" t="s">
-        <v>610</v>
-      </c>
-      <c r="I15" t="s">
-        <v>611</v>
-      </c>
-      <c r="J15" t="s">
-        <v>628</v>
-      </c>
-      <c r="K15" t="s">
-        <v>655</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="P16" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>704</v>
+      </c>
+      <c r="R16" t="s">
+        <v>728</v>
+      </c>
+      <c r="S16" t="s">
+        <v>730</v>
+      </c>
+      <c r="T16" t="s">
+        <v>756</v>
+      </c>
+      <c r="U16" t="s">
+        <v>771</v>
+      </c>
+      <c r="V16" t="s">
+        <v>784</v>
+      </c>
+      <c r="W16" t="s">
+        <v>848</v>
+      </c>
+      <c r="X16" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>876</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>877</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>893</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>951</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>976</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>978</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>996</v>
+      </c>
+      <c r="G17" t="s">
+        <v>997</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="K17" t="s">
+        <v>993</v>
+      </c>
+      <c r="L17" t="s">
+        <v>994</v>
+      </c>
+      <c r="M17" t="s">
+        <v>991</v>
+      </c>
+      <c r="N17" t="s">
+        <v>992</v>
+      </c>
+      <c r="O17" t="s">
+        <v>990</v>
+      </c>
+      <c r="P17" t="s">
+        <v>989</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>980</v>
+      </c>
+      <c r="R17" t="s">
+        <v>988</v>
+      </c>
+      <c r="S17" t="s">
+        <v>987</v>
+      </c>
+      <c r="T17" t="s">
+        <v>986</v>
+      </c>
+      <c r="U17" t="s">
+        <v>984</v>
+      </c>
+      <c r="V17" t="s">
+        <v>985</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>982</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>983</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>981</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>980</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>978</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>979</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>978</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>895</v>
+      </c>
+      <c r="C18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E18" t="s">
+        <v>556</v>
+      </c>
+      <c r="F18" t="s">
+        <v>581</v>
+      </c>
+      <c r="G18" t="s">
+        <v>582</v>
+      </c>
+      <c r="H18" t="s">
+        <v>613</v>
+      </c>
+      <c r="I18" t="s">
+        <v>614</v>
+      </c>
+      <c r="J18" t="s">
+        <v>629</v>
+      </c>
+      <c r="K18" t="s">
         <v>656</v>
       </c>
-      <c r="M15" t="s">
-        <v>679</v>
-      </c>
-      <c r="N15" t="s">
-        <v>680</v>
-      </c>
-      <c r="O15" t="s">
-        <v>628</v>
-      </c>
-      <c r="P15" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="L18" t="s">
+        <v>657</v>
+      </c>
+      <c r="M18" t="s">
+        <v>659</v>
+      </c>
+      <c r="N18" t="s">
+        <v>660</v>
+      </c>
+      <c r="O18" t="s">
+        <v>629</v>
+      </c>
+      <c r="P18" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q18" t="s">
         <v>716</v>
       </c>
-      <c r="R15" t="s">
-        <v>728</v>
-      </c>
-      <c r="S15" t="s">
-        <v>745</v>
-      </c>
-      <c r="T15" t="s">
-        <v>930</v>
-      </c>
-      <c r="U15" t="s">
-        <v>771</v>
-      </c>
-      <c r="V15" t="s">
-        <v>784</v>
-      </c>
-      <c r="W15" t="s">
-        <v>847</v>
-      </c>
-      <c r="X15" t="s">
-        <v>848</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>875</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>876</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>893</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>948</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>953</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>976</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C16" t="s">
-        <v>537</v>
-      </c>
-      <c r="D16" t="s">
-        <v>538</v>
-      </c>
-      <c r="E16" t="s">
-        <v>556</v>
-      </c>
-      <c r="F16" t="s">
-        <v>580</v>
-      </c>
-      <c r="G16" t="s">
-        <v>581</v>
-      </c>
-      <c r="H16" t="s">
-        <v>612</v>
-      </c>
-      <c r="I16" t="s">
-        <v>613</v>
-      </c>
-      <c r="J16" t="s">
-        <v>629</v>
-      </c>
-      <c r="K16" t="s">
-        <v>911</v>
-      </c>
-      <c r="L16" t="s">
-        <v>912</v>
-      </c>
-      <c r="M16" t="s">
-        <v>681</v>
-      </c>
-      <c r="N16" t="s">
-        <v>682</v>
-      </c>
-      <c r="O16" t="s">
-        <v>690</v>
-      </c>
-      <c r="P16" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>705</v>
-      </c>
-      <c r="R16" t="s">
-        <v>729</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="R18" t="s">
+        <v>718</v>
+      </c>
+      <c r="S18" t="s">
         <v>731</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T18" t="s">
         <v>757</v>
       </c>
-      <c r="U16" t="s">
-        <v>772</v>
-      </c>
-      <c r="V16" t="s">
-        <v>785</v>
-      </c>
-      <c r="W16" t="s">
-        <v>849</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="U18" t="s">
+        <v>935</v>
+      </c>
+      <c r="V18" t="s">
+        <v>934</v>
+      </c>
+      <c r="W18" t="s">
         <v>850</v>
       </c>
-      <c r="Y16" t="s">
-        <v>877</v>
-      </c>
-      <c r="Z16" t="s">
+      <c r="X18" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y18" t="s">
         <v>878</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="Z18" t="s">
+        <v>879</v>
+      </c>
+      <c r="AA18" t="s">
         <v>894</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB18" t="s">
         <v>949</v>
       </c>
-      <c r="AC16" t="s">
-        <v>952</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AC18" t="s">
+        <v>950</v>
+      </c>
+      <c r="AD18" t="s">
         <v>977</v>
       </c>
-      <c r="AE16" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AE18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AI18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>979</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>997</v>
-      </c>
-      <c r="G17" t="s">
-        <v>998</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="K17" t="s">
-        <v>994</v>
-      </c>
-      <c r="L17" t="s">
-        <v>995</v>
-      </c>
-      <c r="M17" t="s">
-        <v>992</v>
-      </c>
-      <c r="N17" t="s">
-        <v>993</v>
-      </c>
-      <c r="O17" t="s">
-        <v>991</v>
-      </c>
-      <c r="P17" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>981</v>
-      </c>
-      <c r="R17" t="s">
-        <v>989</v>
-      </c>
-      <c r="S17" t="s">
-        <v>988</v>
-      </c>
-      <c r="T17" t="s">
-        <v>987</v>
-      </c>
-      <c r="U17" t="s">
-        <v>985</v>
-      </c>
-      <c r="V17" t="s">
-        <v>986</v>
-      </c>
-      <c r="W17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="X17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>983</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>984</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>982</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>981</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>979</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>980</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>979</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B18" t="s">
-        <v>896</v>
-      </c>
-      <c r="C18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D18" t="s">
-        <v>540</v>
-      </c>
-      <c r="E18" t="s">
-        <v>557</v>
-      </c>
-      <c r="F18" t="s">
-        <v>582</v>
-      </c>
-      <c r="G18" t="s">
-        <v>583</v>
-      </c>
-      <c r="H18" t="s">
-        <v>614</v>
-      </c>
-      <c r="I18" t="s">
-        <v>615</v>
-      </c>
-      <c r="J18" t="s">
-        <v>630</v>
-      </c>
-      <c r="K18" t="s">
-        <v>657</v>
-      </c>
-      <c r="L18" t="s">
-        <v>658</v>
-      </c>
-      <c r="M18" t="s">
-        <v>660</v>
-      </c>
-      <c r="N18" t="s">
-        <v>661</v>
-      </c>
-      <c r="O18" t="s">
-        <v>630</v>
-      </c>
-      <c r="P18" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>717</v>
-      </c>
-      <c r="R18" t="s">
-        <v>719</v>
-      </c>
-      <c r="S18" t="s">
-        <v>732</v>
-      </c>
-      <c r="T18" t="s">
-        <v>758</v>
-      </c>
-      <c r="U18" t="s">
-        <v>936</v>
-      </c>
-      <c r="V18" t="s">
-        <v>935</v>
-      </c>
-      <c r="W18" t="s">
-        <v>851</v>
-      </c>
-      <c r="X18" t="s">
-        <v>852</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>879</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>880</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>895</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>950</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>951</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>978</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AF18" t="s">
+      <c r="AJ18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AK18" t="s">
         <v>1036</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AL18" t="s">
         <v>1037</v>
       </c>
-      <c r="AH18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AM18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -6428,7 +6776,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -6463,2348 +6811,2353 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>587</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>498</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>585</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>577</v>
-      </c>
-      <c r="B117" t="s">
-        <v>507</v>
-      </c>
-      <c r="C117" t="s">
-        <v>533</v>
-      </c>
-      <c r="D117" t="s">
-        <v>534</v>
-      </c>
-      <c r="E117" t="s">
-        <v>554</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>576</v>
+      </c>
+      <c r="B118" t="s">
+        <v>506</v>
+      </c>
+      <c r="C118" t="s">
+        <v>532</v>
+      </c>
+      <c r="D118" t="s">
+        <v>533</v>
+      </c>
+      <c r="E118" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>768</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>113</v>
+        <v>767</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1003</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>170</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>217</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>218</v>
+        <v>624</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>492</v>
+        <v>280</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>584</v>
+        <v>337</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>338</v>
+        <v>583</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>586</v>
+        <v>353</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>354</v>
+        <v>585</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
         <v>476</v>
       </c>
     </row>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677C309A-C3DE-F349-B29D-9008753BF74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6ACB0-DEDD-AF40-84E0-669AA41F3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1203">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3455,6 +3467,180 @@
   </si>
   <si>
     <t>cirvis</t>
+  </si>
+  <si>
+    <t>алдр</t>
+  </si>
+  <si>
+    <t>MonTr</t>
+  </si>
+  <si>
+    <t>aldr</t>
+  </si>
+  <si>
+    <t>ууртай</t>
+  </si>
+  <si>
+    <t>uurtai</t>
+  </si>
+  <si>
+    <t>amitan, mal</t>
+  </si>
+  <si>
+    <t>амьтан, мал</t>
+  </si>
+  <si>
+    <t>хариулах,  хариулт</t>
+  </si>
+  <si>
+    <t>khariulakh, khariult</t>
+  </si>
+  <si>
+    <t>шоргоолж</t>
+  </si>
+  <si>
+    <t>shorgoolj</t>
+  </si>
+  <si>
+    <t>алим</t>
+  </si>
+  <si>
+    <t>alim</t>
+  </si>
+  <si>
+    <t>гар</t>
+  </si>
+  <si>
+    <t>gar</t>
+  </si>
+  <si>
+    <t>сум</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>ичиж байна, ичиж зовсон</t>
+  </si>
+  <si>
+    <t>ichij baina, ichij zovson</t>
+  </si>
+  <si>
+    <t>үнс, үнс нурам</t>
+  </si>
+  <si>
+    <t>üns, üns nuram</t>
+  </si>
+  <si>
+    <t>асуу, асуух</t>
+  </si>
+  <si>
+    <t>asuu, assukh</t>
+  </si>
+  <si>
+    <t>намар</t>
+  </si>
+  <si>
+    <t>namar</t>
+  </si>
+  <si>
+    <t>сэрээх</t>
+  </si>
+  <si>
+    <t>sereekh</t>
+  </si>
+  <si>
+    <t>сүх</t>
+  </si>
+  <si>
+    <t>sükh</t>
+  </si>
+  <si>
+    <t>ပုဆိန်</t>
+  </si>
+  <si>
+    <t>BurTr</t>
+  </si>
+  <si>
+    <t>pu sein</t>
+  </si>
+  <si>
+    <t>နိုးထပါ။</t>
+  </si>
+  <si>
+    <t>noeht par .</t>
+  </si>
+  <si>
+    <t>ဆောင်းဦး</t>
+  </si>
+  <si>
+    <t>saungg u</t>
+  </si>
+  <si>
+    <t>မေး, မေးမြန်း</t>
+  </si>
+  <si>
+    <t>mayy, mayymyan</t>
+  </si>
+  <si>
+    <t>ပြာ</t>
+  </si>
+  <si>
+    <t>pyaar</t>
+  </si>
+  <si>
+    <t>ရှက်တယ်။</t>
+  </si>
+  <si>
+    <t>shattaal .</t>
+  </si>
+  <si>
+    <t>မြှား</t>
+  </si>
+  <si>
+    <t>myahar</t>
+  </si>
+  <si>
+    <t>လက်မောင်း</t>
+  </si>
+  <si>
+    <t>laat maungg</t>
+  </si>
+  <si>
+    <t>ပန်းသီး</t>
+  </si>
+  <si>
+    <t>paansee</t>
+  </si>
+  <si>
+    <t>ပုရွက်ဆိတ်</t>
+  </si>
+  <si>
+    <t>purwatsate</t>
+  </si>
+  <si>
+    <t>ဖြေ</t>
+  </si>
+  <si>
+    <t>hpyay</t>
+  </si>
+  <si>
+    <t>တိရစ္ဆာန်</t>
+  </si>
+  <si>
+    <t>tirahcsaran</t>
+  </si>
+  <si>
+    <t>ဒေါသထွက်သည်။</t>
+  </si>
+  <si>
+    <t>dawsahtwat sai .</t>
+  </si>
+  <si>
+    <t>အယ်ဒါး</t>
+  </si>
+  <si>
+    <t>aaal darr</t>
   </si>
 </sst>
 </file>
@@ -4298,13 +4484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN508"/>
+  <dimension ref="A1:BP508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD46" sqref="AD46"/>
+      <selection pane="bottomRight" activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4344,10 +4530,14 @@
     <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.1640625" customWidth="1"/>
     <col min="39" max="39" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.83203125" customWidth="1"/>
+    <col min="42" max="42" width="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -4472,82 +4662,88 @@
         <v>799</v>
       </c>
       <c r="AP1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>800</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AS1" t="s">
         <v>801</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>802</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>803</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>804</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>805</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>806</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>807</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>808</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>809</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>810</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>811</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>812</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>813</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>814</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>815</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>816</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>817</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>818</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>819</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>820</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>821</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>822</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>823</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -4746,8 +4942,14 @@
       <c r="BN2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -4868,8 +5070,20 @@
       <c r="AN3" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="4" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+      <c r="AO3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -4990,8 +5204,20 @@
       <c r="AN4" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -5112,8 +5338,20 @@
       <c r="AN5" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO5" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -5234,8 +5472,20 @@
       <c r="AN6" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -5356,8 +5606,20 @@
       <c r="AN7" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="8" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+      <c r="AO7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -5478,8 +5740,20 @@
       <c r="AN8" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -5600,8 +5874,20 @@
       <c r="AN9" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -5722,8 +6008,20 @@
       <c r="AN10" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>502</v>
       </c>
@@ -5844,8 +6142,20 @@
       <c r="AN11" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="12" spans="1:66" ht="34" x14ac:dyDescent="0.2">
+      <c r="AO11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -5966,8 +6276,20 @@
       <c r="AN12" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO12" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>503</v>
       </c>
@@ -6088,8 +6410,20 @@
       <c r="AN13" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="14" spans="1:66" ht="17" x14ac:dyDescent="0.2">
+      <c r="AO13" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>488</v>
       </c>
@@ -6210,8 +6544,20 @@
       <c r="AN14" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO14" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1126</v>
       </c>
@@ -6332,8 +6678,20 @@
       <c r="AN15" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="AO15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>489</v>
       </c>
@@ -6454,8 +6812,20 @@
       <c r="AN16" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="17" x14ac:dyDescent="0.2">
+      <c r="AO16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>978</v>
       </c>
@@ -6576,8 +6946,20 @@
       <c r="AN17" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO17" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -6698,73 +7080,85 @@
       <c r="AN18" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6ACB0-DEDD-AF40-84E0-669AA41F3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A406C28-FCBE-0C40-B9B2-864C72455DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1229">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3641,6 +3641,84 @@
   </si>
   <si>
     <t>aaal darr</t>
+  </si>
+  <si>
+    <t>NepTr</t>
+  </si>
+  <si>
+    <t>क्रोधित, क्रोधित</t>
+  </si>
+  <si>
+    <t>Krōdhita, Rīsa</t>
+  </si>
+  <si>
+    <t>जनावर,  पशु</t>
+  </si>
+  <si>
+    <t>Janāvara,  Paśu</t>
+  </si>
+  <si>
+    <t>जवाफ, जवाफ, समाघान</t>
+  </si>
+  <si>
+    <t>Javāpha, Uttara, Samaghan</t>
+  </si>
+  <si>
+    <t>कमिला</t>
+  </si>
+  <si>
+    <t>Kamilā</t>
+  </si>
+  <si>
+    <t>स्याऊ</t>
+  </si>
+  <si>
+    <t>Syā'ū</t>
+  </si>
+  <si>
+    <t>हात, पाखुरा, बाहु</t>
+  </si>
+  <si>
+    <t>Hāta, Pākhurā, Bāhu</t>
+  </si>
+  <si>
+    <t>तीर, वाण</t>
+  </si>
+  <si>
+    <t>Tīra, Vāņa</t>
+  </si>
+  <si>
+    <t>लज्जित</t>
+  </si>
+  <si>
+    <t>खरानी</t>
+  </si>
+  <si>
+    <t>Kharānī</t>
+  </si>
+  <si>
+    <t>सोध्नु</t>
+  </si>
+  <si>
+    <t>Sōdhnu</t>
+  </si>
+  <si>
+    <t>शरद ऋतु</t>
+  </si>
+  <si>
+    <t>Śarada r̥tu</t>
+  </si>
+  <si>
+    <t>जगाउनु</t>
+  </si>
+  <si>
+    <t>Jagā'unu</t>
+  </si>
+  <si>
+    <t>कुल्हाडी, बन्चरो</t>
+  </si>
+  <si>
+    <t>Kul'hāḍī, Bancarō</t>
   </si>
 </sst>
 </file>
@@ -4484,13 +4562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP508"/>
+  <dimension ref="A1:BQ508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR3" sqref="AR3"/>
+      <selection pane="bottomRight" activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4521,7 +4599,7 @@
     <col min="28" max="28" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.1640625" customWidth="1"/>
@@ -4535,9 +4613,11 @@
     <col min="42" max="42" width="20" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15.1640625" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -4674,76 +4754,79 @@
         <v>801</v>
       </c>
       <c r="AT1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AU1" t="s">
         <v>802</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>803</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>804</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>805</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>806</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>807</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>808</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>809</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>810</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>811</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>812</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>813</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>814</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>815</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>816</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>817</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>818</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>819</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>820</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>821</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>822</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>823</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -4948,8 +5031,11 @@
       <c r="BP2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="BQ2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -5082,8 +5168,14 @@
       <c r="AR3" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="4" spans="1:68" ht="17" x14ac:dyDescent="0.2">
+      <c r="AS3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -5216,8 +5308,14 @@
       <c r="AR4" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:68" ht="17" x14ac:dyDescent="0.2">
+      <c r="AS4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -5350,8 +5448,14 @@
       <c r="AR5" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -5484,8 +5588,14 @@
       <c r="AR6" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -5618,8 +5728,14 @@
       <c r="AR7" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="8" spans="1:68" ht="17" x14ac:dyDescent="0.2">
+      <c r="AS7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -5752,8 +5868,14 @@
       <c r="AR8" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -5886,8 +6008,14 @@
       <c r="AR9" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -6020,8 +6148,14 @@
       <c r="AR10" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>502</v>
       </c>
@@ -6154,8 +6288,14 @@
       <c r="AR11" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="12" spans="1:68" ht="34" x14ac:dyDescent="0.2">
+      <c r="AS11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -6288,8 +6428,14 @@
       <c r="AR12" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="13" spans="1:68" ht="17" x14ac:dyDescent="0.2">
+      <c r="AS12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>503</v>
       </c>
@@ -6422,8 +6568,14 @@
       <c r="AR13" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="14" spans="1:68" ht="17" x14ac:dyDescent="0.2">
+      <c r="AS13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>488</v>
       </c>
@@ -6556,8 +6708,14 @@
       <c r="AR14" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1126</v>
       </c>
@@ -6690,8 +6848,14 @@
       <c r="AR15" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="AS15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>489</v>
       </c>
@@ -6824,8 +6988,14 @@
       <c r="AR16" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="AS16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>978</v>
       </c>
@@ -6958,8 +7128,14 @@
       <c r="AR17" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -7092,73 +7268,79 @@
       <c r="AR18" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AS18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A406C28-FCBE-0C40-B9B2-864C72455DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1017209-BCB0-8745-A4C8-F0C5788CA0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1327">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3719,6 +3719,300 @@
   </si>
   <si>
     <t>Kul'hāḍī, Bancarō</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>sint</t>
+  </si>
+  <si>
+    <t>eple</t>
+  </si>
+  <si>
+    <t>væpne</t>
+  </si>
+  <si>
+    <t>skammer seg, skamfull</t>
+  </si>
+  <si>
+    <t>spørre</t>
+  </si>
+  <si>
+    <t>høst</t>
+  </si>
+  <si>
+    <t>vekke</t>
+  </si>
+  <si>
+    <t>øks</t>
+  </si>
+  <si>
+    <t>PerTr</t>
+  </si>
+  <si>
+    <t>توسکا</t>
+  </si>
+  <si>
+    <t>خشمگین</t>
+  </si>
+  <si>
+    <t>حیوان</t>
+  </si>
+  <si>
+    <t>پاسخ, جواب</t>
+  </si>
+  <si>
+    <t>مورچه</t>
+  </si>
+  <si>
+    <t>سیب</t>
+  </si>
+  <si>
+    <t>بازو</t>
+  </si>
+  <si>
+    <t>فلش, پیکان</t>
+  </si>
+  <si>
+    <t>شرمنده</t>
+  </si>
+  <si>
+    <t>خاکستر</t>
+  </si>
+  <si>
+    <t>پرسیدن</t>
+  </si>
+  <si>
+    <t>فصل پاييز, پاییز</t>
+  </si>
+  <si>
+    <t>بیدار کردن</t>
+  </si>
+  <si>
+    <t>سوله, درفش, سوراخ کن</t>
+  </si>
+  <si>
+    <t>تبر</t>
+  </si>
+  <si>
+    <t>olcha</t>
+  </si>
+  <si>
+    <t>zły</t>
+  </si>
+  <si>
+    <t>zwierzę</t>
+  </si>
+  <si>
+    <t>odpowiedź</t>
+  </si>
+  <si>
+    <t>mrówka</t>
+  </si>
+  <si>
+    <t>jabłko</t>
+  </si>
+  <si>
+    <t>ramię</t>
+  </si>
+  <si>
+    <t>strzałka</t>
+  </si>
+  <si>
+    <t>jesion</t>
+  </si>
+  <si>
+    <t>zawstydzony</t>
+  </si>
+  <si>
+    <t>popiół</t>
+  </si>
+  <si>
+    <t>zapytać się, zapytać, poprosić</t>
+  </si>
+  <si>
+    <t>jesień</t>
+  </si>
+  <si>
+    <t>obudzić, rozbudzić</t>
+  </si>
+  <si>
+    <t>szydło</t>
+  </si>
+  <si>
+    <t>topór, siekiera</t>
+  </si>
+  <si>
+    <t>amiero</t>
+  </si>
+  <si>
+    <t>bravo, irritado</t>
+  </si>
+  <si>
+    <t>responda, resposta</t>
+  </si>
+  <si>
+    <t>formiga</t>
+  </si>
+  <si>
+    <t>maçã</t>
+  </si>
+  <si>
+    <t>braço</t>
+  </si>
+  <si>
+    <t>flecha, seta</t>
+  </si>
+  <si>
+    <t>freixo</t>
+  </si>
+  <si>
+    <t>beech</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>envergonhada</t>
+  </si>
+  <si>
+    <t>cinza</t>
+  </si>
+  <si>
+    <t>perguntar, pedir</t>
+  </si>
+  <si>
+    <t>outono</t>
+  </si>
+  <si>
+    <t>despertar, acordar</t>
+  </si>
+  <si>
+    <t>furador, sovela</t>
+  </si>
+  <si>
+    <t>machado</t>
+  </si>
+  <si>
+    <t>PunTr</t>
+  </si>
+  <si>
+    <t>ਗੁੱਸੇ</t>
+  </si>
+  <si>
+    <t>Gusē</t>
+  </si>
+  <si>
+    <t>ਜਾਨਵਰ</t>
+  </si>
+  <si>
+    <t>Jānavara</t>
+  </si>
+  <si>
+    <t>ਜਵਾਬ</t>
+  </si>
+  <si>
+    <t>ਕੀੜੀ</t>
+  </si>
+  <si>
+    <t>Kīṛī</t>
+  </si>
+  <si>
+    <t>ਸੇਬ</t>
+  </si>
+  <si>
+    <t>Sēba</t>
+  </si>
+  <si>
+    <t>ਬਾਂਹ</t>
+  </si>
+  <si>
+    <t>Bānha</t>
+  </si>
+  <si>
+    <t>ਤੀਰ</t>
+  </si>
+  <si>
+    <t>ਸੁਆਹ</t>
+  </si>
+  <si>
+    <t>Su'āha</t>
+  </si>
+  <si>
+    <t>ਸ਼ਰਮਿੰਦਾ</t>
+  </si>
+  <si>
+    <t>Śaramidā</t>
+  </si>
+  <si>
+    <t>ਪੁੱਛੋ</t>
+  </si>
+  <si>
+    <t>Puchō</t>
+  </si>
+  <si>
+    <t>ਪਤਝੜ</t>
+  </si>
+  <si>
+    <t>Patajhaṛa</t>
+  </si>
+  <si>
+    <t>ਜਗਾਉਣਾ</t>
+  </si>
+  <si>
+    <t>Jagā'uṇā</t>
+  </si>
+  <si>
+    <t>ਕੁਹਾੜੀ</t>
+  </si>
+  <si>
+    <t>Kuhāṛī</t>
+  </si>
+  <si>
+    <t>arin</t>
+  </si>
+  <si>
+    <t>furios</t>
+  </si>
+  <si>
+    <t>răspuns</t>
+  </si>
+  <si>
+    <t>furnică</t>
+  </si>
+  <si>
+    <t>măr</t>
+  </si>
+  <si>
+    <t>braţ</t>
+  </si>
+  <si>
+    <t>săgeată</t>
+  </si>
+  <si>
+    <t>frasin</t>
+  </si>
+  <si>
+    <t>ruşinat</t>
+  </si>
+  <si>
+    <t>cenuşă</t>
+  </si>
+  <si>
+    <t>cere</t>
+  </si>
+  <si>
+    <t>toamnă</t>
+  </si>
+  <si>
+    <t>a trezi, trezi</t>
+  </si>
+  <si>
+    <t>sulă</t>
+  </si>
+  <si>
+    <t>topor</t>
   </si>
 </sst>
 </file>
@@ -4562,13 +4856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ508"/>
+  <dimension ref="A1:BS509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS19" sqref="AS19"/>
+      <selection pane="bottomRight" activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4615,9 +4909,17 @@
     <col min="44" max="44" width="15.1640625" customWidth="1"/>
     <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.1640625" customWidth="1"/>
+    <col min="50" max="50" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.1640625" customWidth="1"/>
+    <col min="54" max="54" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -4763,70 +5065,76 @@
         <v>803</v>
       </c>
       <c r="AW1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AX1" t="s">
         <v>804</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>805</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>806</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BB1" t="s">
         <v>807</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>808</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>809</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>810</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>811</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>812</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>813</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>814</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>815</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>816</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>817</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>818</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>819</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>820</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>821</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>822</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>823</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -5034,8 +5342,14 @@
       <c r="BQ2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="BR2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -5174,8 +5488,29 @@
       <c r="AT3" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="4" spans="1:69" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -5314,8 +5649,29 @@
       <c r="AT4" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="5" spans="1:69" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -5454,8 +5810,29 @@
       <c r="AT5" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU5" t="s">
+        <v>707</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>481</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -5594,8 +5971,29 @@
       <c r="AT6" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU6" t="s">
+        <v>708</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>832</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -5734,8 +6132,29 @@
       <c r="AT7" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="8" spans="1:69" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU7" t="s">
+        <v>939</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -5874,8 +6293,29 @@
       <c r="AT8" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -6014,8 +6454,29 @@
       <c r="AT9" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -6154,8 +6615,29 @@
       <c r="AT10" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU10" t="s">
+        <v>711</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>602</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>502</v>
       </c>
@@ -6294,8 +6776,29 @@
       <c r="AT11" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="12" spans="1:69" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -6434,8 +6937,29 @@
       <c r="AT12" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="13" spans="1:69" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU12" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>503</v>
       </c>
@@ -6574,8 +7098,29 @@
       <c r="AT13" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="14" spans="1:69" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU13" t="s">
+        <v>713</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>488</v>
       </c>
@@ -6714,8 +7259,29 @@
       <c r="AT14" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1126</v>
       </c>
@@ -6854,8 +7420,29 @@
       <c r="AT15" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AU15" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>1307</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>489</v>
       </c>
@@ -6994,8 +7581,29 @@
       <c r="AT16" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" ht="17" x14ac:dyDescent="0.2">
+      <c r="AU16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>978</v>
       </c>
@@ -7134,8 +7742,29 @@
       <c r="AT17" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU17" t="s">
+        <v>980</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -7274,73 +7903,94 @@
       <c r="AT18" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1310</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1311</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -7352,2388 +8002,2393 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>512</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>496</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>586</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>497</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>584</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>576</v>
-      </c>
-      <c r="B118" t="s">
-        <v>506</v>
-      </c>
-      <c r="C118" t="s">
-        <v>532</v>
-      </c>
-      <c r="D118" t="s">
-        <v>533</v>
-      </c>
-      <c r="E118" t="s">
-        <v>553</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>576</v>
+      </c>
+      <c r="B119" t="s">
+        <v>506</v>
+      </c>
+      <c r="C119" t="s">
+        <v>532</v>
+      </c>
+      <c r="D119" t="s">
+        <v>533</v>
+      </c>
+      <c r="E119" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>767</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>767</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1002</v>
+        <v>169</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>170</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>624</v>
+        <v>217</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>218</v>
+        <v>624</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>491</v>
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>583</v>
+        <v>337</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>338</v>
+        <v>583</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>585</v>
+        <v>353</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>354</v>
+        <v>585</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
         <v>476</v>
       </c>
     </row>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1017209-BCB0-8745-A4C8-F0C5788CA0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7DD152-67A0-0147-B4E7-AFF821A871BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1440">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3748,9 +3748,6 @@
     <t>øks</t>
   </si>
   <si>
-    <t>PerTr</t>
-  </si>
-  <si>
     <t>توسکا</t>
   </si>
   <si>
@@ -4013,6 +4010,348 @@
   </si>
   <si>
     <t>topor</t>
+  </si>
+  <si>
+    <t>RusTr</t>
+  </si>
+  <si>
+    <t>ольха</t>
+  </si>
+  <si>
+    <t>ol'kha</t>
+  </si>
+  <si>
+    <t>злой, сердитый</t>
+  </si>
+  <si>
+    <t>sloy, serdityy</t>
+  </si>
+  <si>
+    <t>животное</t>
+  </si>
+  <si>
+    <t>zhivotnoye</t>
+  </si>
+  <si>
+    <t>ответ</t>
+  </si>
+  <si>
+    <t>otvet</t>
+  </si>
+  <si>
+    <t>муравей</t>
+  </si>
+  <si>
+    <t>muravey</t>
+  </si>
+  <si>
+    <t>яблоко</t>
+  </si>
+  <si>
+    <t>yabloko</t>
+  </si>
+  <si>
+    <t>стрелка, стрела</t>
+  </si>
+  <si>
+    <t>strelka, strela</t>
+  </si>
+  <si>
+    <t>yasen'</t>
+  </si>
+  <si>
+    <t>пепел, зола</t>
+  </si>
+  <si>
+    <t>pepel, zola</t>
+  </si>
+  <si>
+    <t>стыдящийся</t>
+  </si>
+  <si>
+    <t>stydyashchiysya</t>
+  </si>
+  <si>
+    <t>спросить, просить</t>
+  </si>
+  <si>
+    <t>sprosit', prosit'</t>
+  </si>
+  <si>
+    <t>осень</t>
+  </si>
+  <si>
+    <t>osen'</t>
+  </si>
+  <si>
+    <t>пробуждать</t>
+  </si>
+  <si>
+    <t>probuzhdat'</t>
+  </si>
+  <si>
+    <t>топор</t>
+  </si>
+  <si>
+    <t>क्रुद्धः</t>
+  </si>
+  <si>
+    <t>पशु</t>
+  </si>
+  <si>
+    <t>उत्तरम्‌</t>
+  </si>
+  <si>
+    <t>सेवफल</t>
+  </si>
+  <si>
+    <t>बाहु</t>
+  </si>
+  <si>
+    <t>बाण</t>
+  </si>
+  <si>
+    <t>विभूति</t>
+  </si>
+  <si>
+    <t>पृच्छतु</t>
+  </si>
+  <si>
+    <t>शरद</t>
+  </si>
+  <si>
+    <t>जागृत</t>
+  </si>
+  <si>
+    <t>अक्षः</t>
+  </si>
+  <si>
+    <t>feàrna</t>
+  </si>
+  <si>
+    <t>beathach</t>
+  </si>
+  <si>
+    <t>freagair</t>
+  </si>
+  <si>
+    <t>seang</t>
+  </si>
+  <si>
+    <t>ubhal</t>
+  </si>
+  <si>
+    <t>ghàirdean</t>
+  </si>
+  <si>
+    <t>uinnsinn</t>
+  </si>
+  <si>
+    <t>ioghnadh</t>
+  </si>
+  <si>
+    <t>luaithre</t>
+  </si>
+  <si>
+    <t>faighnich</t>
+  </si>
+  <si>
+    <t>foghar</t>
+  </si>
+  <si>
+    <t>dùisg</t>
+  </si>
+  <si>
+    <t>SerTr</t>
+  </si>
+  <si>
+    <t>joxa, јова</t>
+  </si>
+  <si>
+    <t>љут, гневан</t>
+  </si>
+  <si>
+    <t>ljut, gnevan</t>
+  </si>
+  <si>
+    <t>животиња</t>
+  </si>
+  <si>
+    <t>одговор</t>
+  </si>
+  <si>
+    <t>ант, мрав</t>
+  </si>
+  <si>
+    <t>јабука</t>
+  </si>
+  <si>
+    <t>руку</t>
+  </si>
+  <si>
+    <t>стрелац, стрела</t>
+  </si>
+  <si>
+    <t>strelac, strela</t>
+  </si>
+  <si>
+    <t>јасен</t>
+  </si>
+  <si>
+    <t>стиди се, постиђен</t>
+  </si>
+  <si>
+    <t>stidi se, postiđen</t>
+  </si>
+  <si>
+    <t>пепео</t>
+  </si>
+  <si>
+    <t>питати</t>
+  </si>
+  <si>
+    <t>pitati</t>
+  </si>
+  <si>
+    <t>јесен</t>
+  </si>
+  <si>
+    <t>пробудити</t>
+  </si>
+  <si>
+    <t>ак, секира</t>
+  </si>
+  <si>
+    <t>ak, sekira</t>
+  </si>
+  <si>
+    <t>ඇල්ඩර්</t>
+  </si>
+  <si>
+    <t>SinTr</t>
+  </si>
+  <si>
+    <t>ælḍar</t>
+  </si>
+  <si>
+    <t>කෝපයෙන්</t>
+  </si>
+  <si>
+    <t>kōpayen</t>
+  </si>
+  <si>
+    <t>සත්ව</t>
+  </si>
+  <si>
+    <t>satva</t>
+  </si>
+  <si>
+    <t>පිළිතුර</t>
+  </si>
+  <si>
+    <t>piḷitura</t>
+  </si>
+  <si>
+    <t>කූඹියා</t>
+  </si>
+  <si>
+    <t>kūm̆biyā</t>
+  </si>
+  <si>
+    <t>ඇපල්</t>
+  </si>
+  <si>
+    <t>æpal</t>
+  </si>
+  <si>
+    <t>හස්තය</t>
+  </si>
+  <si>
+    <t>hastaya</t>
+  </si>
+  <si>
+    <t>ඊතලය</t>
+  </si>
+  <si>
+    <t>ītalaya</t>
+  </si>
+  <si>
+    <t>ලැජ්ජයි</t>
+  </si>
+  <si>
+    <t>læjjayi</t>
+  </si>
+  <si>
+    <t>අළු</t>
+  </si>
+  <si>
+    <t>aḷu</t>
+  </si>
+  <si>
+    <t>අහන්න</t>
+  </si>
+  <si>
+    <t>ahanna</t>
+  </si>
+  <si>
+    <t>සරත් සෘතුවේ</t>
+  </si>
+  <si>
+    <t>sarat sṛtuvē</t>
+  </si>
+  <si>
+    <t>අවදි කරන්න</t>
+  </si>
+  <si>
+    <t>avadi karanna</t>
+  </si>
+  <si>
+    <t>පොරව</t>
+  </si>
+  <si>
+    <t>porava</t>
+  </si>
+  <si>
+    <t>jelša</t>
+  </si>
+  <si>
+    <t>nahnevaný, zlostný, rozhnevaný</t>
+  </si>
+  <si>
+    <t>zviera, živočích</t>
+  </si>
+  <si>
+    <t>odpoveď</t>
+  </si>
+  <si>
+    <t>mravec</t>
+  </si>
+  <si>
+    <t>rameno, plece</t>
+  </si>
+  <si>
+    <t>šípka, šíp</t>
+  </si>
+  <si>
+    <t>jaseň</t>
+  </si>
+  <si>
+    <t>hanbiť sa, zahanbený</t>
+  </si>
+  <si>
+    <t>popol</t>
+  </si>
+  <si>
+    <t>opýtať sa, pýtať sa, spytovať sa</t>
+  </si>
+  <si>
+    <t>jeseň</t>
+  </si>
+  <si>
+    <t>prebudiť</t>
+  </si>
+  <si>
+    <t>šidlo</t>
   </si>
 </sst>
 </file>
@@ -4856,13 +5195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS509"/>
+  <dimension ref="A1:BU509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BB18" sqref="BB18"/>
+      <selection pane="bottomRight" activeCell="BJ23" sqref="BJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4911,15 +5250,21 @@
     <col min="46" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.1640625" customWidth="1"/>
-    <col min="50" max="50" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.1640625" customWidth="1"/>
-    <col min="54" max="54" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.1640625" customWidth="1"/>
+    <col min="53" max="53" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.1640625" customWidth="1"/>
+    <col min="56" max="57" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="15.1640625" customWidth="1"/>
+    <col min="61" max="61" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -5065,25 +5410,25 @@
         <v>803</v>
       </c>
       <c r="AW1" t="s">
-        <v>1238</v>
+        <v>804</v>
       </c>
       <c r="AX1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AY1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AZ1" t="s">
-        <v>806</v>
+        <v>1286</v>
       </c>
       <c r="BA1" t="s">
-        <v>1287</v>
+        <v>807</v>
       </c>
       <c r="BB1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BC1" t="s">
-        <v>808</v>
+        <v>1326</v>
       </c>
       <c r="BD1" t="s">
         <v>809</v>
@@ -5095,46 +5440,52 @@
         <v>811</v>
       </c>
       <c r="BG1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="BH1" t="s">
         <v>812</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>813</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>814</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>815</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>816</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>817</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>818</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>819</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>820</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>821</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>822</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>823</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -5348,8 +5699,14 @@
       <c r="BS2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+      <c r="BT2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>479</v>
       </c>
@@ -5492,25 +5849,52 @@
         <v>1229</v>
       </c>
       <c r="AV3" t="s">
-        <v>1239</v>
+        <v>1238</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1253</v>
       </c>
       <c r="AX3" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="AY3" t="s">
-        <v>1270</v>
+        <v>1003</v>
       </c>
       <c r="AZ3" t="s">
         <v>1003</v>
       </c>
       <c r="BA3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BD3" t="s">
         <v>1003</v>
       </c>
-      <c r="BB3" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:71" ht="17" x14ac:dyDescent="0.2">
+      <c r="BE3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>616</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -5653,25 +6037,52 @@
         <v>1230</v>
       </c>
       <c r="AV4" t="s">
-        <v>1240</v>
+        <v>1239</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1254</v>
       </c>
       <c r="AX4" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="AY4" t="s">
-        <v>1271</v>
+        <v>1287</v>
       </c>
       <c r="AZ4" t="s">
         <v>1288</v>
       </c>
       <c r="BA4" t="s">
-        <v>1289</v>
+        <v>1312</v>
       </c>
       <c r="BB4" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71" ht="17" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>962</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>481</v>
       </c>
@@ -5814,25 +6225,52 @@
         <v>707</v>
       </c>
       <c r="AV5" t="s">
-        <v>1241</v>
+        <v>1240</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1255</v>
       </c>
       <c r="AX5" t="s">
-        <v>1256</v>
+        <v>481</v>
       </c>
       <c r="AY5" t="s">
-        <v>481</v>
+        <v>1289</v>
       </c>
       <c r="AZ5" t="s">
         <v>1290</v>
       </c>
       <c r="BA5" t="s">
-        <v>1291</v>
+        <v>481</v>
       </c>
       <c r="BB5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+        <v>1331</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>617</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -5975,25 +6413,52 @@
         <v>708</v>
       </c>
       <c r="AV6" t="s">
-        <v>1242</v>
+        <v>1241</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1256</v>
       </c>
       <c r="AX6" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="AY6" t="s">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1292</v>
+        <v>832</v>
       </c>
       <c r="BA6" t="s">
-        <v>832</v>
+        <v>1313</v>
       </c>
       <c r="BB6" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+        <v>1333</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>684</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -6136,25 +6601,52 @@
         <v>939</v>
       </c>
       <c r="AV7" t="s">
-        <v>1243</v>
+        <v>1242</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1257</v>
       </c>
       <c r="AX7" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="AY7" t="s">
-        <v>1273</v>
+        <v>1292</v>
       </c>
       <c r="AZ7" t="s">
         <v>1293</v>
       </c>
       <c r="BA7" t="s">
-        <v>1294</v>
+        <v>1314</v>
       </c>
       <c r="BB7" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71" ht="17" x14ac:dyDescent="0.2">
+        <v>1335</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>619</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -6297,25 +6789,52 @@
         <v>1231</v>
       </c>
       <c r="AV8" t="s">
-        <v>1244</v>
+        <v>1243</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1258</v>
       </c>
       <c r="AX8" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="AY8" t="s">
-        <v>1274</v>
+        <v>1294</v>
       </c>
       <c r="AZ8" t="s">
         <v>1295</v>
       </c>
       <c r="BA8" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
       <c r="BB8" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+        <v>1337</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>620</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -6458,25 +6977,52 @@
         <v>1232</v>
       </c>
       <c r="AV9" t="s">
-        <v>1245</v>
+        <v>1244</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>1259</v>
       </c>
       <c r="AX9" t="s">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="AY9" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
       <c r="AZ9" t="s">
         <v>1297</v>
       </c>
       <c r="BA9" t="s">
-        <v>1298</v>
+        <v>1316</v>
       </c>
       <c r="BB9" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>573</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>621</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -6619,25 +7165,52 @@
         <v>711</v>
       </c>
       <c r="AV10" t="s">
-        <v>1246</v>
+        <v>1245</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>1260</v>
       </c>
       <c r="AX10" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="AY10" t="s">
-        <v>1276</v>
+        <v>1298</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1299</v>
+        <v>602</v>
       </c>
       <c r="BA10" t="s">
-        <v>602</v>
+        <v>1317</v>
       </c>
       <c r="BB10" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+        <v>1339</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>956</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>502</v>
       </c>
@@ -6782,23 +7355,50 @@
       <c r="AV11" t="s">
         <v>1003</v>
       </c>
+      <c r="AW11" t="s">
+        <v>1261</v>
+      </c>
       <c r="AX11" t="s">
-        <v>1262</v>
+        <v>1276</v>
       </c>
       <c r="AY11" t="s">
-        <v>1277</v>
+        <v>1003</v>
       </c>
       <c r="AZ11" t="s">
         <v>1003</v>
       </c>
       <c r="BA11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>574</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BD11" t="s">
         <v>1003</v>
       </c>
-      <c r="BB11" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71" ht="17" x14ac:dyDescent="0.2">
+      <c r="BE11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>622</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>487</v>
       </c>
@@ -6941,25 +7541,52 @@
         <v>1233</v>
       </c>
       <c r="AV12" t="s">
-        <v>1247</v>
+        <v>1246</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>1262</v>
       </c>
       <c r="AX12" t="s">
-        <v>1263</v>
+        <v>1279</v>
       </c>
       <c r="AY12" t="s">
-        <v>1280</v>
+        <v>1301</v>
       </c>
       <c r="AZ12" t="s">
         <v>1302</v>
       </c>
       <c r="BA12" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="BB12" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71" ht="17" x14ac:dyDescent="0.2">
+        <v>1344</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>503</v>
       </c>
@@ -7102,25 +7729,52 @@
         <v>713</v>
       </c>
       <c r="AV13" t="s">
-        <v>1248</v>
+        <v>1247</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1263</v>
       </c>
       <c r="AX13" t="s">
-        <v>1264</v>
+        <v>1280</v>
       </c>
       <c r="AY13" t="s">
-        <v>1281</v>
+        <v>1299</v>
       </c>
       <c r="AZ13" t="s">
         <v>1300</v>
       </c>
       <c r="BA13" t="s">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="BB13" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71" ht="17" x14ac:dyDescent="0.2">
+        <v>1342</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>626</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>488</v>
       </c>
@@ -7263,25 +7917,52 @@
         <v>1234</v>
       </c>
       <c r="AV14" t="s">
-        <v>1249</v>
+        <v>1248</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1264</v>
       </c>
       <c r="AX14" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="AY14" t="s">
-        <v>1282</v>
+        <v>1303</v>
       </c>
       <c r="AZ14" t="s">
         <v>1304</v>
       </c>
       <c r="BA14" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="BB14" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+        <v>1346</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>1418</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1126</v>
       </c>
@@ -7424,25 +8105,52 @@
         <v>1235</v>
       </c>
       <c r="AV15" t="s">
-        <v>1250</v>
+        <v>1249</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>1265</v>
       </c>
       <c r="AX15" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
       <c r="AY15" t="s">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="AZ15" t="s">
         <v>1306</v>
       </c>
       <c r="BA15" t="s">
-        <v>1307</v>
+        <v>1322</v>
       </c>
       <c r="BB15" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+        <v>1348</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>1361</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>627</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>1421</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>489</v>
       </c>
@@ -7585,25 +8293,52 @@
         <v>1236</v>
       </c>
       <c r="AV16" t="s">
-        <v>1251</v>
+        <v>1250</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>1266</v>
       </c>
       <c r="AX16" t="s">
-        <v>1267</v>
+        <v>1283</v>
       </c>
       <c r="AY16" t="s">
-        <v>1284</v>
+        <v>1307</v>
       </c>
       <c r="AZ16" t="s">
         <v>1308</v>
       </c>
       <c r="BA16" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="BB16" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:54" ht="17" x14ac:dyDescent="0.2">
+        <v>1350</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>689</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>1422</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>978</v>
       </c>
@@ -7746,25 +8481,52 @@
         <v>980</v>
       </c>
       <c r="AV17" t="s">
-        <v>1252</v>
+        <v>1251</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1267</v>
       </c>
       <c r="AX17" t="s">
-        <v>1268</v>
+        <v>1284</v>
       </c>
       <c r="AY17" t="s">
-        <v>1285</v>
+        <v>1003</v>
       </c>
       <c r="AZ17" t="s">
         <v>1003</v>
       </c>
       <c r="BA17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>993</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>994</v>
+      </c>
+      <c r="BD17" t="s">
         <v>1003</v>
       </c>
-      <c r="BB17" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BE17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>993</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>990</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -7907,90 +8669,117 @@
         <v>1237</v>
       </c>
       <c r="AV18" t="s">
-        <v>1253</v>
+        <v>1252</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1268</v>
       </c>
       <c r="AX18" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="AY18" t="s">
-        <v>1286</v>
+        <v>1309</v>
       </c>
       <c r="AZ18" t="s">
         <v>1310</v>
       </c>
       <c r="BA18" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
       <c r="BB18" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+        <v>1352</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1363</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>950</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>1424</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>1425</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -8002,7 +8791,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7DD152-67A0-0147-B4E7-AFF821A871BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C91F456-3634-9A46-94CC-E4535357309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1479">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -4352,6 +4352,123 @@
   </si>
   <si>
     <t>šidlo</t>
+  </si>
+  <si>
+    <t>jezen</t>
+  </si>
+  <si>
+    <t>žival</t>
+  </si>
+  <si>
+    <t>odgovori, odgovor</t>
+  </si>
+  <si>
+    <t>mravlja</t>
+  </si>
+  <si>
+    <t>jabolko</t>
+  </si>
+  <si>
+    <t>puščica</t>
+  </si>
+  <si>
+    <t>plane (tree)</t>
+  </si>
+  <si>
+    <t>sram, osramočen</t>
+  </si>
+  <si>
+    <t>vprašaj, vprašati</t>
+  </si>
+  <si>
+    <t>jeseni</t>
+  </si>
+  <si>
+    <t>prebuditi</t>
+  </si>
+  <si>
+    <t>sekira</t>
+  </si>
+  <si>
+    <t>aliso</t>
+  </si>
+  <si>
+    <t>enfadado, enojado</t>
+  </si>
+  <si>
+    <t>respuesta</t>
+  </si>
+  <si>
+    <t>hormiga</t>
+  </si>
+  <si>
+    <t>manzana</t>
+  </si>
+  <si>
+    <t>brazo</t>
+  </si>
+  <si>
+    <t>fresno</t>
+  </si>
+  <si>
+    <t>flecha</t>
+  </si>
+  <si>
+    <t>avergonzado</t>
+  </si>
+  <si>
+    <t>ceniza</t>
+  </si>
+  <si>
+    <t>pedir, preguntar</t>
+  </si>
+  <si>
+    <t>otoño</t>
+  </si>
+  <si>
+    <t>despertar</t>
+  </si>
+  <si>
+    <t>punzón, lezna</t>
+  </si>
+  <si>
+    <t>hacha</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>djur-</t>
+  </si>
+  <si>
+    <t>myra</t>
+  </si>
+  <si>
+    <t>äpple</t>
+  </si>
+  <si>
+    <t>ärm, arm</t>
+  </si>
+  <si>
+    <t>ask, askträ</t>
+  </si>
+  <si>
+    <t>skamsen</t>
+  </si>
+  <si>
+    <t>fråga, be</t>
+  </si>
+  <si>
+    <t>höst</t>
+  </si>
+  <si>
+    <t>väcka</t>
+  </si>
+  <si>
+    <t>yxa</t>
   </si>
 </sst>
 </file>
@@ -5195,13 +5312,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU509"/>
+  <dimension ref="A1:BU510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ23" sqref="BJ23"/>
+      <selection pane="bottomRight" activeCell="BM19" sqref="BM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5262,6 +5379,9 @@
     <col min="59" max="60" width="15.1640625" customWidth="1"/>
     <col min="61" max="61" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.2">
@@ -5893,6 +6013,15 @@
       <c r="BJ3" t="s">
         <v>1426</v>
       </c>
+      <c r="BK3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="4" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -6081,6 +6210,15 @@
       <c r="BJ4" t="s">
         <v>1427</v>
       </c>
+      <c r="BK4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="5" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6269,6 +6407,15 @@
       <c r="BJ5" t="s">
         <v>1428</v>
       </c>
+      <c r="BK5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>481</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1469</v>
+      </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -6457,6 +6604,15 @@
       <c r="BJ6" t="s">
         <v>1429</v>
       </c>
+      <c r="BK6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -6645,6 +6801,15 @@
       <c r="BJ7" t="s">
         <v>1430</v>
       </c>
+      <c r="BK7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="8" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -6833,6 +6998,15 @@
       <c r="BJ8" t="s">
         <v>695</v>
       </c>
+      <c r="BK8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7021,6 +7195,15 @@
       <c r="BJ9" t="s">
         <v>1431</v>
       </c>
+      <c r="BK9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>1472</v>
+      </c>
     </row>
     <row r="10" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -7209,6 +7392,15 @@
       <c r="BJ10" t="s">
         <v>1432</v>
       </c>
+      <c r="BK10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -7397,6 +7589,15 @@
       <c r="BJ11" t="s">
         <v>1433</v>
       </c>
+      <c r="BK11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="12" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -7585,6 +7786,15 @@
       <c r="BJ12" t="s">
         <v>1434</v>
       </c>
+      <c r="BK12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="13" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -7773,6 +7983,15 @@
       <c r="BJ13" t="s">
         <v>1435</v>
       </c>
+      <c r="BK13" t="s">
+        <v>653</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="14" spans="1:73" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -7961,6 +8180,15 @@
       <c r="BJ14" s="1" t="s">
         <v>1436</v>
       </c>
+      <c r="BK14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>1475</v>
+      </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -8149,6 +8377,15 @@
       <c r="BJ15" t="s">
         <v>1437</v>
       </c>
+      <c r="BK15" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>1476</v>
+      </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -8337,8 +8574,17 @@
       <c r="BJ16" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" ht="17" x14ac:dyDescent="0.2">
+      <c r="BK16" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>978</v>
       </c>
@@ -8525,8 +8771,17 @@
       <c r="BJ17" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK17" t="s">
+        <v>990</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -8713,73 +8968,82 @@
       <c r="BJ18" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="BK18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -10293,891 +10557,896 @@
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>301</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>583</v>
+        <v>337</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>338</v>
+        <v>583</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>585</v>
+        <v>353</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>354</v>
+        <v>585</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
         <v>476</v>
       </c>
     </row>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C91F456-3634-9A46-94CC-E4535357309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37C883-71FF-CD4B-99FB-5670A80C9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1644">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -4469,6 +4469,501 @@
   </si>
   <si>
     <t>yxa</t>
+  </si>
+  <si>
+    <t>TajTr</t>
+  </si>
+  <si>
+    <t>хашмгин</t>
+  </si>
+  <si>
+    <t>xaşmgin</t>
+  </si>
+  <si>
+    <t>ҳайвон</t>
+  </si>
+  <si>
+    <t>hajvon</t>
+  </si>
+  <si>
+    <t>ҷавоб, ьавоб</t>
+  </si>
+  <si>
+    <t>çavoʙ, ʹavoʙ</t>
+  </si>
+  <si>
+    <t>мӯрча, мурча</t>
+  </si>
+  <si>
+    <t>mūrca, murca</t>
+  </si>
+  <si>
+    <t>себ</t>
+  </si>
+  <si>
+    <t>seʙ</t>
+  </si>
+  <si>
+    <t>бозу</t>
+  </si>
+  <si>
+    <t>ʙozu</t>
+  </si>
+  <si>
+    <t>тир</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>шарм, нангин</t>
+  </si>
+  <si>
+    <t>şarm, nangin</t>
+  </si>
+  <si>
+    <t>хокистар</t>
+  </si>
+  <si>
+    <t>xokistar</t>
+  </si>
+  <si>
+    <t>пурсед, пурсед</t>
+  </si>
+  <si>
+    <t>pursed, pursidan</t>
+  </si>
+  <si>
+    <t>тирамоҳ</t>
+  </si>
+  <si>
+    <t>tiramoh</t>
+  </si>
+  <si>
+    <t>бедор кардан</t>
+  </si>
+  <si>
+    <t>ʙedor kardan</t>
+  </si>
+  <si>
+    <t>авл</t>
+  </si>
+  <si>
+    <t>avl</t>
+  </si>
+  <si>
+    <t>табар</t>
+  </si>
+  <si>
+    <t>taʙar</t>
+  </si>
+  <si>
+    <t>ачулы</t>
+  </si>
+  <si>
+    <t>хайван</t>
+  </si>
+  <si>
+    <t>җавап</t>
+  </si>
+  <si>
+    <t>кырмыска</t>
+  </si>
+  <si>
+    <t>Алма</t>
+  </si>
+  <si>
+    <t>кул</t>
+  </si>
+  <si>
+    <t>ук</t>
+  </si>
+  <si>
+    <t>оят</t>
+  </si>
+  <si>
+    <t>көл</t>
+  </si>
+  <si>
+    <t>сора</t>
+  </si>
+  <si>
+    <t>көз</t>
+  </si>
+  <si>
+    <t>уян</t>
+  </si>
+  <si>
+    <t>kızılağaç</t>
+  </si>
+  <si>
+    <t>acorn</t>
+  </si>
+  <si>
+    <t>meşe palamudu</t>
+  </si>
+  <si>
+    <t>sinirli, kızgın</t>
+  </si>
+  <si>
+    <t>hayvan</t>
+  </si>
+  <si>
+    <t>cevap</t>
+  </si>
+  <si>
+    <t>karınca</t>
+  </si>
+  <si>
+    <t>elma</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>dişbudak ağacı</t>
+  </si>
+  <si>
+    <t>utanmış</t>
+  </si>
+  <si>
+    <t>sormak</t>
+  </si>
+  <si>
+    <t>sonbahar mevsimi, sonbahar</t>
+  </si>
+  <si>
+    <t>uyandırmak</t>
+  </si>
+  <si>
+    <t>bız, biz</t>
+  </si>
+  <si>
+    <t>lis, lende</t>
+  </si>
+  <si>
+    <t>կաղին</t>
+  </si>
+  <si>
+    <t>kaghin</t>
+  </si>
+  <si>
+    <t>ezkurra</t>
+  </si>
+  <si>
+    <t>жолуд</t>
+  </si>
+  <si>
+    <t>žolud</t>
+  </si>
+  <si>
+    <t>žir</t>
+  </si>
+  <si>
+    <t>жълъд</t>
+  </si>
+  <si>
+    <t>zhŭlŭd</t>
+  </si>
+  <si>
+    <t>橡子</t>
+  </si>
+  <si>
+    <t>xiàngzi</t>
+  </si>
+  <si>
+    <t>žalud</t>
+  </si>
+  <si>
+    <t>agern</t>
+  </si>
+  <si>
+    <t>eikel</t>
+  </si>
+  <si>
+    <t>gland</t>
+  </si>
+  <si>
+    <t>Eichel</t>
+  </si>
+  <si>
+    <t>βελανίδι</t>
+  </si>
+  <si>
+    <t>velanídi</t>
+  </si>
+  <si>
+    <t>એકોર્ન</t>
+  </si>
+  <si>
+    <t>Ēkōrna</t>
+  </si>
+  <si>
+    <t>बलूत का फल</t>
+  </si>
+  <si>
+    <t>baloot ka phal</t>
+  </si>
+  <si>
+    <t>makk</t>
+  </si>
+  <si>
+    <t>どんぐり</t>
+  </si>
+  <si>
+    <t>donguri</t>
+  </si>
+  <si>
+    <t>ақжелкен</t>
+  </si>
+  <si>
+    <t>aqjelken</t>
+  </si>
+  <si>
+    <t>도토리</t>
+  </si>
+  <si>
+    <t>dotoli</t>
+  </si>
+  <si>
+    <t>аккорн</t>
+  </si>
+  <si>
+    <t>akkorn</t>
+  </si>
+  <si>
+    <t>glandem</t>
+  </si>
+  <si>
+    <t>ozolzīle</t>
+  </si>
+  <si>
+    <t>царсны боргоцой</t>
+  </si>
+  <si>
+    <t>tsarsny borgotsoi</t>
+  </si>
+  <si>
+    <t>သစ်သီး, ဝက်သစ်ချသီး</t>
+  </si>
+  <si>
+    <t>saistsee, waat sait hkya see</t>
+  </si>
+  <si>
+    <t>एकोर्न</t>
+  </si>
+  <si>
+    <t>eikenøtt</t>
+  </si>
+  <si>
+    <t>بلوط</t>
+  </si>
+  <si>
+    <t>żołądź</t>
+  </si>
+  <si>
+    <t>bolota</t>
+  </si>
+  <si>
+    <t>ਐਕੋਰਨ</t>
+  </si>
+  <si>
+    <t>Aikōrana</t>
+  </si>
+  <si>
+    <t>ghindă</t>
+  </si>
+  <si>
+    <t>желудь</t>
+  </si>
+  <si>
+    <t>zhelud'</t>
+  </si>
+  <si>
+    <t>एकोर्णः</t>
+  </si>
+  <si>
+    <t>dearcan</t>
+  </si>
+  <si>
+    <t>жир</t>
+  </si>
+  <si>
+    <t>žaluď</t>
+  </si>
+  <si>
+    <t>želod</t>
+  </si>
+  <si>
+    <t>bellota</t>
+  </si>
+  <si>
+    <t>ekollon</t>
+  </si>
+  <si>
+    <t>зардолу</t>
+  </si>
+  <si>
+    <t>zardolu</t>
+  </si>
+  <si>
+    <t>акорн</t>
+  </si>
+  <si>
+    <t>gaharly</t>
+  </si>
+  <si>
+    <t>haýwan</t>
+  </si>
+  <si>
+    <t>jogap ber</t>
+  </si>
+  <si>
+    <t>garynja</t>
+  </si>
+  <si>
+    <t>gol</t>
+  </si>
+  <si>
+    <t>utandym</t>
+  </si>
+  <si>
+    <t>sora</t>
+  </si>
+  <si>
+    <t>güýz</t>
+  </si>
+  <si>
+    <t>oýan</t>
+  </si>
+  <si>
+    <t>palta</t>
+  </si>
+  <si>
+    <t>вільха</t>
+  </si>
+  <si>
+    <t>UkrTr</t>
+  </si>
+  <si>
+    <t>vilʹkha</t>
+  </si>
+  <si>
+    <t>жолудь</t>
+  </si>
+  <si>
+    <t>zholudʹ</t>
+  </si>
+  <si>
+    <t>злий, гнівний, почервонілий</t>
+  </si>
+  <si>
+    <t>zlyy, hnivnyy, pochervonilyy</t>
+  </si>
+  <si>
+    <t>тварина, звір</t>
+  </si>
+  <si>
+    <t>tvaryna, zvir</t>
+  </si>
+  <si>
+    <t>відповісти</t>
+  </si>
+  <si>
+    <t>vidpovisty</t>
+  </si>
+  <si>
+    <t>мураха, муравель, мурашка</t>
+  </si>
+  <si>
+    <t>murakha, muravel', murashka</t>
+  </si>
+  <si>
+    <t>яблуко, яблуня</t>
+  </si>
+  <si>
+    <t>yabluko, yablunya</t>
+  </si>
+  <si>
+    <t>стрілка, стріла</t>
+  </si>
+  <si>
+    <t>strilka, strila</t>
+  </si>
+  <si>
+    <t>зола, попелястий колір, вулканічна лава</t>
+  </si>
+  <si>
+    <t>zola, popelyastyy kolir, vulkanichna lava</t>
+  </si>
+  <si>
+    <t>соромно, засоромлений, присоромлений</t>
+  </si>
+  <si>
+    <t>soromno, zasoromlenyy, prysoromlenyy</t>
+  </si>
+  <si>
+    <t>запитай, хотіти бачити, запитувати</t>
+  </si>
+  <si>
+    <t>zapytay, khotity bachyty, zapytuvaty</t>
+  </si>
+  <si>
+    <t>осінь</t>
+  </si>
+  <si>
+    <t>osin'</t>
+  </si>
+  <si>
+    <t>розбудити, пробуджувати</t>
+  </si>
+  <si>
+    <t>rozbudyty, probudzhuvaty</t>
+  </si>
+  <si>
+    <t>shylo</t>
+  </si>
+  <si>
+    <t>сокира, відтинання голови,  колун</t>
+  </si>
+  <si>
+    <t>sokyra, vidtynannya holovy, kolun</t>
+  </si>
+  <si>
+    <t>ئاچچىقلاندى</t>
+  </si>
+  <si>
+    <t>ھايۋان</t>
+  </si>
+  <si>
+    <t>جاۋاب</t>
+  </si>
+  <si>
+    <t>چۈمۈلە</t>
+  </si>
+  <si>
+    <t>ئالما</t>
+  </si>
+  <si>
+    <t>يا ئوق</t>
+  </si>
+  <si>
+    <t>كۈل</t>
+  </si>
+  <si>
+    <t>نومۇس قىلدى</t>
+  </si>
+  <si>
+    <t>سوراڭ</t>
+  </si>
+  <si>
+    <t>كۈز</t>
+  </si>
+  <si>
+    <t>ئويغان</t>
+  </si>
+  <si>
+    <t>پالتا</t>
   </si>
 </sst>
 </file>
@@ -5312,13 +5807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU510"/>
+  <dimension ref="A1:BW511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BM19" sqref="BM19"/>
+      <selection pane="bottomRight" activeCell="BV19" sqref="BV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5361,8 +5856,8 @@
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="22.83203125" customWidth="1"/>
     <col min="42" max="42" width="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.1640625" customWidth="1"/>
+    <col min="43" max="43" width="21" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -5381,10 +5876,17 @@
     <col min="62" max="62" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.1640625" customWidth="1"/>
+    <col min="68" max="68" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="36" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="34" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>477</v>
       </c>
@@ -5584,28 +6086,34 @@
         <v>817</v>
       </c>
       <c r="BO1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BP1" t="s">
         <v>818</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>819</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>820</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>821</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BU1" t="s">
         <v>822</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>823</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>478</v>
       </c>
@@ -5825,28 +6333,34 @@
       <c r="BU2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BV2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>1521</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>1535</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>1536</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>1537</v>
       </c>
       <c r="E3" t="s">
-        <v>541</v>
+        <v>1538</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>1539</v>
       </c>
       <c r="G3" t="s">
-        <v>560</v>
+        <v>1540</v>
       </c>
       <c r="H3" t="s">
         <v>1003</v>
@@ -5855,1948 +6369,2179 @@
         <v>1003</v>
       </c>
       <c r="J3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G4" t="s">
+        <v>560</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J4" t="s">
         <v>616</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>631</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>633</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M4" t="s">
         <v>661</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>662</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O4" t="s">
         <v>683</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P4" t="s">
         <v>692</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q4" t="s">
         <v>705</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R4" t="s">
         <v>924</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S4" t="s">
         <v>732</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T4" t="s">
         <v>746</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U4" t="s">
         <v>759</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V4" t="s">
         <v>773</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W4" t="s">
         <v>825</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X4" t="s">
         <v>826</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y4" t="s">
         <v>852</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z4" t="s">
         <v>853</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA4" t="s">
         <v>880</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB4" t="s">
         <v>936</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC4" t="s">
         <v>963</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD4" t="s">
         <v>964</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE4" t="s">
         <v>1004</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF4" t="s">
         <v>1006</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG4" t="s">
         <v>1038</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH4" t="s">
         <v>479</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI4" t="s">
         <v>1067</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ4" t="s">
         <v>1068</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK4" t="s">
         <v>1038</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL4" t="s">
         <v>479</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM4" t="s">
         <v>1115</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN4" t="s">
         <v>1130</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO4" t="s">
         <v>1145</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP4" t="s">
         <v>1147</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ4" t="s">
         <v>1201</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR4" t="s">
         <v>1202</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS4" t="s">
         <v>1003</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT4" t="s">
         <v>1003</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU4" t="s">
         <v>1229</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV4" t="s">
         <v>1238</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW4" t="s">
         <v>1253</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX4" t="s">
         <v>1269</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY4" t="s">
         <v>1003</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ4" t="s">
         <v>1003</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA4" t="s">
         <v>1311</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB4" t="s">
         <v>1327</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC4" t="s">
         <v>1328</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD4" t="s">
         <v>1003</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE4" t="s">
         <v>1364</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF4" t="s">
         <v>1377</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG4" t="s">
         <v>616</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH4" t="s">
         <v>1397</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI4" t="s">
         <v>1399</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ4" t="s">
         <v>1426</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BK4" t="s">
         <v>1426</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL4" t="s">
         <v>1452</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BM4" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="4" spans="1:73" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="BN4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>480</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>896</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>513</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>514</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>542</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>561</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>562</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>589</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>590</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>906</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>634</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>635</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" t="s">
         <v>671</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O5" t="s">
         <v>906</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P5" t="s">
         <v>921</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5" t="s">
         <v>706</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R5" t="s">
         <v>925</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S5" t="s">
         <v>733</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T5" t="s">
         <v>747</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U5" t="s">
         <v>760</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V5" t="s">
         <v>776</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W5" t="s">
         <v>827</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X5" t="s">
         <v>828</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y5" t="s">
         <v>854</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z5" t="s">
         <v>855</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA5" t="s">
         <v>881</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB5" t="s">
         <v>937</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC5" t="s">
         <v>962</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD5" t="s">
         <v>965</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE5" t="s">
         <v>1007</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF5" t="s">
         <v>1008</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG5" t="s">
         <v>1039</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH5" t="s">
         <v>1040</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI5" t="s">
         <v>1069</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ5" t="s">
         <v>1070</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK5" t="s">
         <v>1098</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL5" t="s">
         <v>1099</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM5" t="s">
         <v>1116</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN5" t="s">
         <v>1131</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO5" t="s">
         <v>1148</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP5" t="s">
         <v>1149</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ5" t="s">
         <v>1199</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR5" t="s">
         <v>1200</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS5" t="s">
         <v>1204</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT5" t="s">
         <v>1205</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU5" t="s">
         <v>1230</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV5" t="s">
         <v>1239</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW5" t="s">
         <v>1254</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX5" t="s">
         <v>1270</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY5" t="s">
         <v>1287</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ5" t="s">
         <v>1288</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA5" t="s">
         <v>1312</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB5" t="s">
         <v>1329</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC5" t="s">
         <v>1330</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD5" t="s">
         <v>1353</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE5" t="s">
         <v>962</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BF5" t="s">
         <v>1378</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BG5" t="s">
         <v>1379</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BH5" t="s">
         <v>1400</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BI5" t="s">
         <v>1401</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BJ5" t="s">
         <v>1427</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BK5" t="s">
         <v>1440</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BL5" t="s">
         <v>1453</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BM5" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="5" spans="1:73" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="BN5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>481</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>897</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>515</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>516</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>543</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>563</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>564</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>591</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>592</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>617</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>636</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" t="s">
         <v>637</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M6" t="s">
         <v>664</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N6" t="s">
         <v>665</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O6" t="s">
         <v>617</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P6" t="s">
         <v>693</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q6" t="s">
         <v>707</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R6" t="s">
         <v>719</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S6" t="s">
         <v>734</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T6" t="s">
         <v>748</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U6" t="s">
         <v>761</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V6" t="s">
         <v>774</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W6" t="s">
         <v>829</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X6" t="s">
         <v>830</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y6" t="s">
         <v>856</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z6" t="s">
         <v>857</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA6" t="s">
         <v>882</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB6" t="s">
         <v>938</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC6" t="s">
         <v>961</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD6" t="s">
         <v>734</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE6" t="s">
         <v>1009</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF6" t="s">
         <v>1010</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG6" t="s">
         <v>1041</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH6" t="s">
         <v>1042</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI6" t="s">
         <v>1071</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ6" t="s">
         <v>1072</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK6" t="s">
         <v>1100</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL6" t="s">
         <v>1101</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM6" t="s">
         <v>481</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN6" t="s">
         <v>1132</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP6" t="s">
         <v>1150</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ6" t="s">
         <v>1197</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR6" t="s">
         <v>1198</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AS6" t="s">
         <v>1206</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT6" t="s">
         <v>1207</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AU6" t="s">
         <v>707</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AV6" t="s">
         <v>1240</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW6" t="s">
         <v>1255</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX6" t="s">
         <v>481</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY6" t="s">
         <v>1289</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AZ6" t="s">
         <v>1290</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BA6" t="s">
         <v>481</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BB6" t="s">
         <v>1331</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BC6" t="s">
         <v>1332</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD6" t="s">
         <v>1354</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BE6" t="s">
         <v>1365</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BF6" t="s">
         <v>1380</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BG6" t="s">
         <v>617</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BH6" t="s">
         <v>1402</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BI6" t="s">
         <v>1403</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BJ6" t="s">
         <v>1428</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BK6" t="s">
         <v>1441</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BL6" t="s">
         <v>481</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BM6" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="BN6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>1593</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>482</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>498</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>517</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>518</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>544</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>565</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>566</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>593</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>594</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>618</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>638</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" t="s">
         <v>639</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>666</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N7" t="s">
         <v>667</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O7" t="s">
         <v>684</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P7" t="s">
         <v>922</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q7" t="s">
         <v>708</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R7" t="s">
         <v>926</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S7" t="s">
         <v>735</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T7" t="s">
         <v>927</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U7" t="s">
         <v>762</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V7" t="s">
         <v>775</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W7" t="s">
         <v>831</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X7" t="s">
         <v>832</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y7" t="s">
         <v>860</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z7" t="s">
         <v>861</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA7" t="s">
         <v>883</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB7" t="s">
         <v>708</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC7" t="s">
         <v>960</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD7" t="s">
         <v>966</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE7" t="s">
         <v>1012</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF7" t="s">
         <v>1013</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG7" t="s">
         <v>1043</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH7" t="s">
         <v>1044</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI7" t="s">
         <v>1073</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ7" t="s">
         <v>1074</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK7" t="s">
         <v>1102</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL7" t="s">
         <v>1103</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM7" t="s">
         <v>1117</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN7" t="s">
         <v>1133</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO7" t="s">
         <v>1152</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AP7" t="s">
         <v>1153</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ7" t="s">
         <v>1195</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR7" t="s">
         <v>1196</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AS7" t="s">
         <v>1208</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AT7" t="s">
         <v>1209</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU7" t="s">
         <v>708</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV7" t="s">
         <v>1241</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW7" t="s">
         <v>1256</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX7" t="s">
         <v>1271</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AY7" t="s">
         <v>1291</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AZ7" t="s">
         <v>832</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BA7" t="s">
         <v>1313</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BB7" t="s">
         <v>1333</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BC7" t="s">
         <v>1334</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BD7" t="s">
         <v>1355</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BE7" t="s">
         <v>1366</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BF7" t="s">
         <v>1381</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BG7" t="s">
         <v>684</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BH7" t="s">
         <v>1404</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BI7" t="s">
         <v>1405</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BJ7" t="s">
         <v>1429</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BK7" t="s">
         <v>1442</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BL7" t="s">
         <v>1454</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BM7" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="BN7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>483</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>569</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>519</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>520</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>545</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>567</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>568</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>595</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>596</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>619</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>640</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>641</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
         <v>668</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N8" t="s">
         <v>669</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O8" t="s">
         <v>685</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P8" t="s">
         <v>694</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q8" t="s">
         <v>709</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R8" t="s">
         <v>720</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S8" t="s">
         <v>736</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T8" t="s">
         <v>749</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U8" t="s">
         <v>930</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V8" t="s">
         <v>931</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W8" t="s">
         <v>833</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X8" t="s">
         <v>834</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y8" t="s">
         <v>858</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z8" t="s">
         <v>859</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA8" t="s">
         <v>884</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB8" t="s">
         <v>939</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC8" t="s">
         <v>959</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD8" t="s">
         <v>967</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE8" t="s">
         <v>1014</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF8" t="s">
         <v>1015</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG8" t="s">
         <v>1046</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH8" t="s">
         <v>1047</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI8" t="s">
         <v>1075</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ8" t="s">
         <v>1076</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK8" t="s">
         <v>1104</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL8" t="s">
         <v>1105</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM8" t="s">
         <v>967</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN8" t="s">
         <v>1134</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO8" t="s">
         <v>1154</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP8" t="s">
         <v>1155</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AQ8" t="s">
         <v>1193</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR8" t="s">
         <v>1194</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS8" t="s">
         <v>1210</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AT8" t="s">
         <v>1211</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU8" t="s">
         <v>939</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AV8" t="s">
         <v>1242</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW8" t="s">
         <v>1257</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX8" t="s">
         <v>1272</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AY8" t="s">
         <v>1292</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AZ8" t="s">
         <v>1293</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BA8" t="s">
         <v>1314</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BB8" t="s">
         <v>1335</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BC8" t="s">
         <v>1336</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BD8" t="s">
         <v>1003</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BE8" t="s">
         <v>1367</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BF8" t="s">
         <v>1382</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BG8" t="s">
         <v>619</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BH8" t="s">
         <v>1406</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BI8" t="s">
         <v>1407</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BJ8" t="s">
         <v>1430</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BK8" t="s">
         <v>1443</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BL8" t="s">
         <v>1455</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BM8" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="8" spans="1:73" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="BN8" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>484</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>898</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>521</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>522</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>547</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>570</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>571</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>597</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>598</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>620</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>642</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>643</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>912</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N9" t="s">
         <v>913</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O9" t="s">
         <v>620</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P9" t="s">
         <v>695</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q9" t="s">
         <v>710</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>721</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S9" t="s">
         <v>737</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T9" t="s">
         <v>750</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U9" t="s">
         <v>763</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V9" t="s">
         <v>777</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W9" t="s">
         <v>835</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X9" t="s">
         <v>836</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y9" t="s">
         <v>862</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z9" t="s">
         <v>863</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA9" t="s">
         <v>885</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB9" t="s">
         <v>940</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC9" t="s">
         <v>958</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD9" t="s">
         <v>968</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF9" t="s">
         <v>1017</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG9" t="s">
         <v>1048</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH9" t="s">
         <v>885</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI9" t="s">
         <v>1077</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AJ9" t="s">
         <v>1078</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AK9" t="s">
         <v>1048</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AL9" t="s">
         <v>885</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM9" t="s">
         <v>1118</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN9" t="s">
         <v>1135</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO9" t="s">
         <v>1156</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP9" t="s">
         <v>1157</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AQ9" t="s">
         <v>1191</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AR9" t="s">
         <v>1192</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AS9" t="s">
         <v>1212</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AT9" t="s">
         <v>1213</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AU9" t="s">
         <v>1231</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AV9" t="s">
         <v>1243</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AW9" t="s">
         <v>1258</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AX9" t="s">
         <v>1273</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AY9" t="s">
         <v>1294</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="AZ9" t="s">
         <v>1295</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BA9" t="s">
         <v>1315</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BB9" t="s">
         <v>1337</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BC9" t="s">
         <v>1338</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BD9" t="s">
         <v>1356</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BE9" t="s">
         <v>1368</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BF9" t="s">
         <v>1383</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BG9" t="s">
         <v>620</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BH9" t="s">
         <v>1408</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BI9" t="s">
         <v>1409</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BJ9" t="s">
         <v>695</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BK9" t="s">
         <v>1444</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BL9" t="s">
         <v>1456</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BM9" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="BN9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>885</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>485</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>523</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>485</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>546</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>572</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>573</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>599</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>600</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>621</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>644</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>645</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>672</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>673</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O10" t="s">
         <v>573</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P10" t="s">
         <v>696</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q10" t="s">
         <v>485</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R10" t="s">
         <v>485</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S10" t="s">
         <v>738</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T10" t="s">
         <v>751</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U10" t="s">
         <v>764</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V10" t="s">
         <v>778</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W10" t="s">
         <v>837</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X10" t="s">
         <v>838</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y10" t="s">
         <v>864</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z10" t="s">
         <v>865</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA10" t="s">
         <v>886</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB10" t="s">
         <v>941</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC10" t="s">
         <v>957</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD10" t="s">
         <v>969</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE10" t="s">
         <v>1018</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF10" t="s">
         <v>1019</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG10" t="s">
         <v>1049</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH10" t="s">
         <v>1050</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI10" t="s">
         <v>1079</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ10" t="s">
         <v>1080</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK10" t="s">
         <v>1106</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL10" t="s">
         <v>1107</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AM10" t="s">
         <v>1119</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN10" t="s">
         <v>1136</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO10" t="s">
         <v>1158</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP10" t="s">
         <v>1159</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AQ10" t="s">
         <v>1189</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR10" t="s">
         <v>1190</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS10" t="s">
         <v>1214</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AT10" t="s">
         <v>1215</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU10" t="s">
         <v>1232</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV10" t="s">
         <v>1244</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AW10" t="s">
         <v>1259</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AX10" t="s">
         <v>1274</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AY10" t="s">
         <v>1296</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AZ10" t="s">
         <v>1297</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BA10" t="s">
         <v>1316</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BB10" t="s">
         <v>572</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BC10" t="s">
         <v>573</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BD10" t="s">
         <v>1357</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BE10" t="s">
         <v>1369</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BF10" t="s">
         <v>1384</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BG10" t="s">
         <v>621</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BH10" t="s">
         <v>1410</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BI10" t="s">
         <v>1411</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BJ10" t="s">
         <v>1431</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BK10" t="s">
         <v>1136</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BL10" t="s">
         <v>1457</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BM10" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="10" spans="1:73" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="BN10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>572</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>573</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>486</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>501</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>524</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>525</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>548</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>900</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>647</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>601</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>602</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>623</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>646</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>647</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" t="s">
         <v>914</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>915</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O11" t="s">
         <v>686</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P11" t="s">
         <v>697</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" t="s">
         <v>711</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R11" t="s">
         <v>722</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S11" t="s">
         <v>739</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T11" t="s">
         <v>752</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U11" t="s">
         <v>765</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V11" t="s">
         <v>779</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W11" t="s">
         <v>839</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X11" t="s">
         <v>602</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y11" t="s">
         <v>866</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z11" t="s">
         <v>867</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA11" t="s">
         <v>887</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB11" t="s">
         <v>942</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC11" t="s">
         <v>956</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD11" t="s">
         <v>970</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE11" t="s">
         <v>1020</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF11" t="s">
         <v>1021</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG11" t="s">
         <v>1051</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AH11" t="s">
         <v>1052</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI11" t="s">
         <v>1081</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ11" t="s">
         <v>1082</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK11" t="s">
         <v>1051</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL11" t="s">
         <v>1052</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM11" t="s">
         <v>1120</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN11" t="s">
         <v>1137</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO11" t="s">
         <v>1160</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP11" t="s">
         <v>1161</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AQ11" t="s">
         <v>1187</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AR11" t="s">
         <v>1188</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS11" t="s">
         <v>1216</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AT11" t="s">
         <v>1217</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AU11" t="s">
         <v>711</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AV11" t="s">
         <v>1245</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AW11" t="s">
         <v>1260</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AX11" t="s">
         <v>1275</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AY11" t="s">
         <v>1298</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AZ11" t="s">
         <v>602</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BA11" t="s">
         <v>1317</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BB11" t="s">
         <v>1339</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BC11" t="s">
         <v>1340</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BD11" t="s">
         <v>1358</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BE11" t="s">
         <v>956</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BF11" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BG11" t="s">
         <v>1386</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BH11" t="s">
         <v>1412</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BI11" t="s">
         <v>1413</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BJ11" t="s">
         <v>1432</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BK11" t="s">
         <v>1445</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BL11" t="s">
         <v>1459</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BM11" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="BN11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>1528</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>1528</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>502</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>504</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>1003</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>1003</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>549</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>574</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>575</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>1003</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>1003</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>622</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>648</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>649</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" t="s">
         <v>674</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N12" t="s">
         <v>675</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O12" t="s">
         <v>622</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P12" t="s">
         <v>698</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q12" t="s">
         <v>1003</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R12" t="s">
         <v>723</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S12" t="s">
         <v>740</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T12" t="s">
         <v>753</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U12" t="s">
         <v>766</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V12" t="s">
         <v>780</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W12" t="s">
         <v>1003</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X12" t="s">
         <v>1003</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y12" t="s">
         <v>1003</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z12" t="s">
         <v>1003</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA12" t="s">
         <v>888</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB12" t="s">
         <v>943</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC12" t="s">
         <v>955</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD12" t="s">
         <v>971</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AE12" t="s">
         <v>1003</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF12" t="s">
         <v>1003</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG12" t="s">
         <v>1003</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AH12" t="s">
         <v>1003</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI12" t="s">
         <v>1083</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ12" t="s">
         <v>1084</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK12" t="s">
         <v>1003</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AL12" t="s">
         <v>1003</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AM12" t="s">
         <v>1121</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN12" t="s">
         <v>1138</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AO12" t="s">
         <v>1003</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP12" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AQ12" t="s">
         <v>1003</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AR12" t="s">
         <v>1003</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS12" t="s">
         <v>1003</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AT12" t="s">
         <v>1003</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AU12" t="s">
         <v>1003</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AV12" t="s">
         <v>1003</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AW12" t="s">
         <v>1261</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AX12" t="s">
         <v>1276</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AY12" t="s">
         <v>1003</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="AZ12" t="s">
         <v>1003</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BA12" t="s">
         <v>1318</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BB12" t="s">
         <v>574</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BC12" t="s">
         <v>1341</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BD12" t="s">
         <v>1003</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BE12" t="s">
         <v>1370</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BF12" t="s">
         <v>1387</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BG12" t="s">
         <v>622</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BH12" t="s">
         <v>1003</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BI12" t="s">
         <v>1003</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BJ12" t="s">
         <v>1433</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BK12" t="s">
         <v>1003</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BL12" t="s">
         <v>1458</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BM12" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="12" spans="1:73" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" t="s">
-        <v>499</v>
-      </c>
-      <c r="C12" t="s">
-        <v>526</v>
-      </c>
-      <c r="D12" t="s">
-        <v>527</v>
-      </c>
-      <c r="E12" t="s">
-        <v>550</v>
-      </c>
-      <c r="F12" t="s">
-        <v>899</v>
-      </c>
-      <c r="G12" t="s">
-        <v>903</v>
-      </c>
-      <c r="H12" t="s">
-        <v>603</v>
-      </c>
-      <c r="I12" t="s">
-        <v>604</v>
-      </c>
-      <c r="J12" t="s">
-        <v>625</v>
-      </c>
-      <c r="K12" t="s">
-        <v>650</v>
-      </c>
-      <c r="L12" t="s">
-        <v>651</v>
-      </c>
-      <c r="M12" t="s">
-        <v>677</v>
-      </c>
-      <c r="N12" t="s">
-        <v>676</v>
-      </c>
-      <c r="O12" t="s">
-        <v>687</v>
-      </c>
-      <c r="P12" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>712</v>
-      </c>
-      <c r="R12" t="s">
-        <v>724</v>
-      </c>
-      <c r="S12" t="s">
-        <v>741</v>
-      </c>
-      <c r="T12" t="s">
-        <v>754</v>
-      </c>
-      <c r="U12" t="s">
-        <v>768</v>
-      </c>
-      <c r="V12" t="s">
-        <v>781</v>
-      </c>
-      <c r="W12" t="s">
-        <v>840</v>
-      </c>
-      <c r="X12" t="s">
-        <v>841</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>868</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>869</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>889</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>944</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>954</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>972</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>604</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>1302</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>1319</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>1344</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>1345</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>1218</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>1371</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>1388</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>1414</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>1415</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>1434</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>1460</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:73" ht="17" x14ac:dyDescent="0.2">
+      <c r="BN12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>648</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>649</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>503</v>
       </c>
@@ -7992,3461 +8737,3826 @@
       <c r="BM13" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="14" spans="1:73" ht="17" x14ac:dyDescent="0.2">
+      <c r="BN13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>1620</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" t="s">
+        <v>550</v>
+      </c>
+      <c r="F14" t="s">
+        <v>899</v>
+      </c>
+      <c r="G14" t="s">
+        <v>903</v>
+      </c>
+      <c r="H14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I14" t="s">
+        <v>604</v>
+      </c>
+      <c r="J14" t="s">
+        <v>625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>650</v>
+      </c>
+      <c r="L14" t="s">
+        <v>651</v>
+      </c>
+      <c r="M14" t="s">
+        <v>677</v>
+      </c>
+      <c r="N14" t="s">
+        <v>676</v>
+      </c>
+      <c r="O14" t="s">
+        <v>687</v>
+      </c>
+      <c r="P14" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>712</v>
+      </c>
+      <c r="R14" t="s">
+        <v>724</v>
+      </c>
+      <c r="S14" t="s">
+        <v>741</v>
+      </c>
+      <c r="T14" t="s">
+        <v>754</v>
+      </c>
+      <c r="U14" t="s">
+        <v>768</v>
+      </c>
+      <c r="V14" t="s">
+        <v>781</v>
+      </c>
+      <c r="W14" t="s">
+        <v>840</v>
+      </c>
+      <c r="X14" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>954</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>972</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>604</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1371</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>1414</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="BS14" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>1622</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>488</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>688</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>530</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>531</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>552</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>902</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>905</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>607</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>608</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J15" t="s">
         <v>907</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>908</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>909</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N15" t="s">
         <v>919</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>920</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P15" t="s">
         <v>923</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>714</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>726</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S15" t="s">
         <v>743</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T15" t="s">
         <v>928</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U15" t="s">
         <v>769</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V15" t="s">
         <v>782</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W15" t="s">
         <v>844</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X15" t="s">
         <v>845</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y15" t="s">
         <v>872</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z15" t="s">
         <v>873</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AA15" t="s">
         <v>891</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB15" t="s">
         <v>946</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC15" t="s">
         <v>953</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD15" t="s">
         <v>974</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AE15" t="s">
         <v>1026</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF15" t="s">
         <v>1027</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG15" t="s">
         <v>1057</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AH15" t="s">
         <v>1058</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AI15" t="s">
         <v>1089</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ15" t="s">
         <v>1090</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK15" t="s">
         <v>1110</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AL15" t="s">
         <v>1111</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AM15" t="s">
         <v>1124</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN15" t="s">
         <v>1141</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AO15" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AP15" t="s">
         <v>1167</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AQ15" t="s">
         <v>1181</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AR15" t="s">
         <v>1182</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AS15" t="s">
         <v>1221</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AT15" t="s">
         <v>1222</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AU15" t="s">
         <v>1234</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AV15" t="s">
         <v>1248</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AW15" t="s">
         <v>1264</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AX15" t="s">
         <v>1281</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AY15" t="s">
         <v>1303</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="AZ15" t="s">
         <v>1304</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BA15" t="s">
         <v>1321</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BB15" t="s">
         <v>1346</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BC15" t="s">
         <v>1347</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BD15" t="s">
         <v>1360</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BE15" t="s">
         <v>1373</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BF15" t="s">
         <v>1391</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BG15" t="s">
         <v>1392</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BH15" t="s">
         <v>1418</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BI15" t="s">
         <v>1419</v>
       </c>
-      <c r="BJ14" s="1" t="s">
+      <c r="BJ15" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BK15" t="s">
         <v>1448</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BL15" t="s">
         <v>1462</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BM15" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="BN15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>1499</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>1517</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>1531</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>1598</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>1623</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>1624</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>1126</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>507</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>534</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>535</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>554</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>577</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>578</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>609</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>610</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>627</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>654</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L16" t="s">
         <v>655</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>678</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N16" t="s">
         <v>679</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" t="s">
         <v>627</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P16" t="s">
         <v>701</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q16" t="s">
         <v>715</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R16" t="s">
         <v>727</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S16" t="s">
         <v>744</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T16" t="s">
         <v>929</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U16" t="s">
         <v>770</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V16" t="s">
         <v>783</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W16" t="s">
         <v>846</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X16" t="s">
         <v>847</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y16" t="s">
         <v>874</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z16" t="s">
         <v>875</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA16" t="s">
         <v>892</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB16" t="s">
         <v>947</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC16" t="s">
         <v>952</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD16" t="s">
         <v>975</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AE16" t="s">
         <v>1028</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AF16" t="s">
         <v>1029</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG16" t="s">
         <v>1059</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AH16" t="s">
         <v>1060</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AI16" t="s">
         <v>1091</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ16" t="s">
         <v>1092</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK16" t="s">
         <v>1059</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL16" t="s">
         <v>1060</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AM16" t="s">
         <v>1125</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN16" t="s">
         <v>1142</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO16" t="s">
         <v>1168</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AP16" t="s">
         <v>1169</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AQ16" t="s">
         <v>1179</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AR16" t="s">
         <v>1180</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AS16" t="s">
         <v>1223</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AT16" t="s">
         <v>1224</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AU16" t="s">
         <v>1235</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AV16" t="s">
         <v>1249</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AW16" t="s">
         <v>1265</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AX16" t="s">
         <v>1282</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AY16" t="s">
         <v>1305</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="AZ16" t="s">
         <v>1306</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BA16" t="s">
         <v>1322</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BB16" t="s">
         <v>1348</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BC16" t="s">
         <v>1349</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BD16" t="s">
         <v>1361</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BE16" t="s">
         <v>1374</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BF16" t="s">
         <v>1393</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BG16" t="s">
         <v>627</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BH16" t="s">
         <v>1420</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BI16" t="s">
         <v>1421</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BJ16" t="s">
         <v>1437</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BK16" t="s">
         <v>1449</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BL16" t="s">
         <v>1463</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BM16" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="BN16" t="s">
+        <v>1500</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>1518</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>489</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>508</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>536</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>537</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>555</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>579</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>580</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>611</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>612</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J17" t="s">
         <v>628</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>910</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>911</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>680</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N17" t="s">
         <v>681</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>689</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P17" t="s">
         <v>702</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q17" t="s">
         <v>704</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R17" t="s">
         <v>728</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S17" t="s">
         <v>730</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T17" t="s">
         <v>756</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U17" t="s">
         <v>771</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V17" t="s">
         <v>784</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W17" t="s">
         <v>848</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X17" t="s">
         <v>849</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y17" t="s">
         <v>876</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z17" t="s">
         <v>877</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AA17" t="s">
         <v>893</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB17" t="s">
         <v>948</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC17" t="s">
         <v>951</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD17" t="s">
         <v>976</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE17" t="s">
         <v>1030</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AF17" t="s">
         <v>1031</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG17" t="s">
         <v>1061</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AH17" t="s">
         <v>1062</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AI17" t="s">
         <v>1093</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AJ17" t="s">
         <v>1094</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AK17" t="s">
         <v>1112</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AL17" t="s">
         <v>1113</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AM17" t="s">
         <v>1127</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AN17" t="s">
         <v>1143</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AO17" t="s">
         <v>1170</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AP17" t="s">
         <v>1171</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AQ17" t="s">
         <v>1177</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AR17" t="s">
         <v>1178</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AS17" t="s">
         <v>1225</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AT17" t="s">
         <v>1226</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AU17" t="s">
         <v>1236</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AV17" t="s">
         <v>1250</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AW17" t="s">
         <v>1266</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AX17" t="s">
         <v>1283</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AY17" t="s">
         <v>1307</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="AZ17" t="s">
         <v>1308</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BA17" t="s">
         <v>1323</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BB17" t="s">
         <v>1350</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BC17" t="s">
         <v>1351</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BD17" t="s">
         <v>1362</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BE17" t="s">
         <v>1375</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BF17" t="s">
         <v>1394</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BG17" t="s">
         <v>689</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BH17" t="s">
         <v>1422</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BI17" t="s">
         <v>1423</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BJ17" t="s">
         <v>1438</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BK17" t="s">
         <v>1450</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BL17" t="s">
         <v>1464</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BM17" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="17" spans="1:65" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="BN17" t="s">
+        <v>1502</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1519</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>1600</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>1627</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>1628</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:73" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>978</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>1001</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>999</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>1000</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>998</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>996</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>997</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>1003</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>1003</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>993</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>994</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>991</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N18" t="s">
         <v>992</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" t="s">
         <v>990</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P18" t="s">
         <v>989</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q18" t="s">
         <v>980</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R18" t="s">
         <v>988</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S18" t="s">
         <v>987</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T18" t="s">
         <v>986</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U18" t="s">
         <v>984</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V18" t="s">
         <v>985</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W18" t="s">
         <v>1003</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X18" t="s">
         <v>1003</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y18" t="s">
         <v>982</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z18" t="s">
         <v>983</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA18" t="s">
         <v>981</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB18" t="s">
         <v>980</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC18" t="s">
         <v>978</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD18" t="s">
         <v>979</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE18" t="s">
         <v>1032</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF18" t="s">
         <v>1033</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG18" t="s">
         <v>1063</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH18" t="s">
         <v>978</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI18" t="s">
         <v>1065</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AJ18" t="s">
         <v>1066</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK18" t="s">
         <v>1003</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL18" t="s">
         <v>1003</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AM18" t="s">
         <v>1128</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AN18" t="s">
         <v>1129</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AO18" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AP18" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AQ18" t="s">
         <v>1003</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AR18" t="s">
         <v>1003</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AS18" t="s">
         <v>1003</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AT18" t="s">
         <v>1003</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AU18" t="s">
         <v>980</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AV18" t="s">
         <v>1251</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AW18" t="s">
         <v>1267</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AX18" t="s">
         <v>1284</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AY18" t="s">
         <v>1003</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="AZ18" t="s">
         <v>1003</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BA18" t="s">
         <v>1324</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BB18" t="s">
         <v>993</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BC18" t="s">
         <v>994</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BD18" t="s">
         <v>1003</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BE18" t="s">
         <v>1003</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BF18" t="s">
         <v>993</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BG18" t="s">
         <v>990</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BH18" t="s">
         <v>1003</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BI18" t="s">
         <v>1003</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BJ18" t="s">
         <v>1439</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BK18" t="s">
         <v>990</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BL18" t="s">
         <v>1465</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BM18" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="BN18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1505</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>978</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>993</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>1629</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>490</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>895</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>538</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>539</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>556</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>581</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>582</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>613</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>614</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>629</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K19" t="s">
         <v>656</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>657</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>659</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N19" t="s">
         <v>660</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O19" t="s">
         <v>629</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P19" t="s">
         <v>691</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q19" t="s">
         <v>716</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R19" t="s">
         <v>718</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S19" t="s">
         <v>731</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T19" t="s">
         <v>757</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U19" t="s">
         <v>935</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V19" t="s">
         <v>934</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W19" t="s">
         <v>850</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X19" t="s">
         <v>851</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y19" t="s">
         <v>878</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z19" t="s">
         <v>879</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA19" t="s">
         <v>894</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB19" t="s">
         <v>949</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC19" t="s">
         <v>950</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AD19" t="s">
         <v>977</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AE19" t="s">
         <v>1034</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF19" t="s">
         <v>1035</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG19" t="s">
         <v>1036</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AH19" t="s">
         <v>1037</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AI19" t="s">
         <v>1095</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ19" t="s">
         <v>1096</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK19" t="s">
         <v>1036</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AL19" t="s">
         <v>1037</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM19" t="s">
         <v>1114</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AN19" t="s">
         <v>1144</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO19" t="s">
         <v>1172</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AP19" t="s">
         <v>1173</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AQ19" t="s">
         <v>1174</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AR19" t="s">
         <v>1176</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AS19" t="s">
         <v>1227</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AT19" t="s">
         <v>1228</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AU19" t="s">
         <v>1237</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AV19" t="s">
         <v>1252</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AW19" t="s">
         <v>1268</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AX19" t="s">
         <v>1285</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AY19" t="s">
         <v>1309</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="AZ19" t="s">
         <v>1310</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BA19" t="s">
         <v>1325</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BB19" t="s">
         <v>1352</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BC19" t="s">
         <v>1325</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BD19" t="s">
         <v>1363</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BE19" t="s">
         <v>950</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BF19" t="s">
         <v>1395</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="BG19" t="s">
         <v>1396</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BH19" t="s">
         <v>1424</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BI19" t="s">
         <v>1425</v>
       </c>
-      <c r="BJ18" t="s">
+      <c r="BJ19" t="s">
         <v>691</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BK19" t="s">
         <v>1451</v>
       </c>
-      <c r="BL18" t="s">
+      <c r="BL19" t="s">
         <v>1466</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BM19" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="BN19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>1601</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>1630</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>1631</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1277</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>512</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>496</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>586</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>497</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>584</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>584</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>576</v>
-      </c>
-      <c r="B119" t="s">
-        <v>506</v>
-      </c>
-      <c r="C119" t="s">
-        <v>532</v>
-      </c>
-      <c r="D119" t="s">
-        <v>533</v>
-      </c>
-      <c r="E119" t="s">
-        <v>553</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>576</v>
+      </c>
+      <c r="B120" t="s">
+        <v>506</v>
+      </c>
+      <c r="C120" t="s">
+        <v>532</v>
+      </c>
+      <c r="D120" t="s">
+        <v>533</v>
+      </c>
+      <c r="E120" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>767</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>767</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1002</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>624</v>
+        <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>218</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>491</v>
+        <v>280</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1446</v>
+        <v>300</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>301</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>583</v>
+        <v>337</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>338</v>
+        <v>583</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>585</v>
+        <v>353</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>354</v>
+        <v>585</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
         <v>476</v>
       </c>
     </row>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37C883-71FF-CD4B-99FB-5670A80C9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE14D8-58C8-F94D-9618-A6B2A9017CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="1677">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -4964,6 +4964,105 @@
   </si>
   <si>
     <t>پالتا</t>
+  </si>
+  <si>
+    <t>boshoq, cho'chqayong'oq</t>
+  </si>
+  <si>
+    <t>alder, olxa</t>
+  </si>
+  <si>
+    <t>badjahl</t>
+  </si>
+  <si>
+    <t>hayvon</t>
+  </si>
+  <si>
+    <t>javob bering</t>
+  </si>
+  <si>
+    <t>chumoli</t>
+  </si>
+  <si>
+    <t>olma</t>
+  </si>
+  <si>
+    <t>qo'l</t>
+  </si>
+  <si>
+    <t>o'q, strelka</t>
+  </si>
+  <si>
+    <t>kul</t>
+  </si>
+  <si>
+    <t>uyaldi, uyalgan</t>
+  </si>
+  <si>
+    <t>so'rang, iltimos qilmoq</t>
+  </si>
+  <si>
+    <t>kuz</t>
+  </si>
+  <si>
+    <t>uyg'otmoq, qo'zg'atmoq</t>
+  </si>
+  <si>
+    <t>awl, bigiz</t>
+  </si>
+  <si>
+    <t>bolta</t>
+  </si>
+  <si>
+    <t>mesen, fesen</t>
+  </si>
+  <si>
+    <t>gwernen, gwerni</t>
+  </si>
+  <si>
+    <t>blin, dig</t>
+  </si>
+  <si>
+    <t>anifail, anifeiliaid</t>
+  </si>
+  <si>
+    <t>ateb</t>
+  </si>
+  <si>
+    <t>morgrugyn, morgrug</t>
+  </si>
+  <si>
+    <t>afal</t>
+  </si>
+  <si>
+    <t>braich, fraich</t>
+  </si>
+  <si>
+    <t>saeth</t>
+  </si>
+  <si>
+    <t>honnen, onnen</t>
+  </si>
+  <si>
+    <t>lludw</t>
+  </si>
+  <si>
+    <t>cywilydd</t>
+  </si>
+  <si>
+    <t>gofyn, ofyn, gofennwch</t>
+  </si>
+  <si>
+    <t>hydref</t>
+  </si>
+  <si>
+    <t>deffro, ennyn, enynasai</t>
+  </si>
+  <si>
+    <t>awl, mynawyd</t>
+  </si>
+  <si>
+    <t>bwyell, fwyell</t>
   </si>
 </sst>
 </file>
@@ -5810,10 +5909,10 @@
   <dimension ref="A1:BW511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BV19" sqref="BV19"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5884,6 +5983,8 @@
     <col min="71" max="71" width="36" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="34" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" x14ac:dyDescent="0.2">
@@ -6551,6 +6652,12 @@
       <c r="BU3" t="s">
         <v>1003</v>
       </c>
+      <c r="BV3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -6772,6 +6879,12 @@
       <c r="BU4" t="s">
         <v>1003</v>
       </c>
+      <c r="BV4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -6993,6 +7106,12 @@
       <c r="BU5" t="s">
         <v>1632</v>
       </c>
+      <c r="BV5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7214,6 +7333,12 @@
       <c r="BU6" t="s">
         <v>1633</v>
       </c>
+      <c r="BV6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>1663</v>
+      </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7435,6 +7560,12 @@
       <c r="BU7" t="s">
         <v>1634</v>
       </c>
+      <c r="BV7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>1664</v>
+      </c>
     </row>
     <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7656,6 +7787,12 @@
       <c r="BU8" t="s">
         <v>1635</v>
       </c>
+      <c r="BV8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>1665</v>
+      </c>
     </row>
     <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7877,6 +8014,12 @@
       <c r="BU9" t="s">
         <v>1636</v>
       </c>
+      <c r="BV9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>1666</v>
+      </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8098,6 +8241,12 @@
       <c r="BU10" t="s">
         <v>1003</v>
       </c>
+      <c r="BV10" t="s">
+        <v>1651</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8319,6 +8468,12 @@
       <c r="BU11" t="s">
         <v>1637</v>
       </c>
+      <c r="BV11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>1668</v>
+      </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8540,6 +8695,12 @@
       <c r="BU12" t="s">
         <v>1003</v>
       </c>
+      <c r="BV12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>1669</v>
+      </c>
     </row>
     <row r="13" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8761,6 +8922,12 @@
       <c r="BU13" t="s">
         <v>1638</v>
       </c>
+      <c r="BV13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>1670</v>
+      </c>
     </row>
     <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -8982,6 +9149,12 @@
       <c r="BU14" t="s">
         <v>1639</v>
       </c>
+      <c r="BV14" t="s">
+        <v>1654</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="15" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9203,6 +9376,12 @@
       <c r="BU15" t="s">
         <v>1640</v>
       </c>
+      <c r="BV15" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9424,8 +9603,14 @@
       <c r="BU16" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BV16" t="s">
+        <v>1656</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>489</v>
       </c>
@@ -9645,8 +9830,14 @@
       <c r="BU17" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="18" spans="1:73" ht="17" x14ac:dyDescent="0.2">
+      <c r="BV17" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>978</v>
       </c>
@@ -9866,8 +10057,14 @@
       <c r="BU18" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BV18" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>490</v>
       </c>
@@ -10087,68 +10284,74 @@
       <c r="BU19" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="BV19" t="s">
+        <v>1659</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE14D8-58C8-F94D-9618-A6B2A9017CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D0A070-7053-824B-BCA3-4D333A38D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="1677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1738">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -97,9 +97,6 @@
     <t xml:space="preserve">bird						</t>
   </si>
   <si>
-    <t xml:space="preserve">bite						</t>
-  </si>
-  <si>
     <t xml:space="preserve">bitter						</t>
   </si>
   <si>
@@ -112,18 +109,9 @@
     <t xml:space="preserve">blood						</t>
   </si>
   <si>
-    <t xml:space="preserve">blow						</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue						</t>
-  </si>
-  <si>
     <t xml:space="preserve">boat						</t>
   </si>
   <si>
-    <t xml:space="preserve">boil						</t>
-  </si>
-  <si>
     <t xml:space="preserve">bone						</t>
   </si>
   <si>
@@ -5063,6 +5051,201 @@
   </si>
   <si>
     <t>bwyell, fwyell</t>
+  </si>
+  <si>
+    <t>throat</t>
+  </si>
+  <si>
+    <t>willow</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>heel</t>
+  </si>
+  <si>
+    <t>bebe</t>
+  </si>
+  <si>
+    <t>mbrapa, shpinë</t>
+  </si>
+  <si>
+    <t>keq, i keq</t>
+  </si>
+  <si>
+    <t>bambu</t>
+  </si>
+  <si>
+    <t>lëvore</t>
+  </si>
+  <si>
+    <t>elbi, elb</t>
+  </si>
+  <si>
+    <t>shporta, shportë</t>
+  </si>
+  <si>
+    <t>lakuriq nate</t>
+  </si>
+  <si>
+    <t>plazhi, plazh</t>
+  </si>
+  <si>
+    <t>binar</t>
+  </si>
+  <si>
+    <t>fasule, bathë</t>
+  </si>
+  <si>
+    <t>ariu, arush, ari</t>
+  </si>
+  <si>
+    <t>e bukur, i bukur</t>
+  </si>
+  <si>
+    <t>shtrat, krevat</t>
+  </si>
+  <si>
+    <t>bleta, bletë</t>
+  </si>
+  <si>
+    <t>ahu</t>
+  </si>
+  <si>
+    <t>birrë</t>
+  </si>
+  <si>
+    <t>brumbulli, brumbull</t>
+  </si>
+  <si>
+    <t>fillojnë, filloj</t>
+  </si>
+  <si>
+    <t>nxjerr, gromësij, vjell</t>
+  </si>
+  <si>
+    <t>zile, kambanë</t>
+  </si>
+  <si>
+    <t>barku, bark</t>
+  </si>
+  <si>
+    <t>i madh</t>
+  </si>
+  <si>
+    <t>thupër, mështekën</t>
+  </si>
+  <si>
+    <t>zog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite (v)				</t>
+  </si>
+  <si>
+    <t>kafshoj</t>
+  </si>
+  <si>
+    <t>e hidhur, i hidhëruar</t>
+  </si>
+  <si>
+    <t>i zi</t>
+  </si>
+  <si>
+    <t>teh</t>
+  </si>
+  <si>
+    <t>të verbër, i verbër, qorr</t>
+  </si>
+  <si>
+    <t>gjaku, gjak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow (wind)					</t>
+  </si>
+  <si>
+    <t>fryj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue (adj)				</t>
+  </si>
+  <si>
+    <t>blu, i kaltër</t>
+  </si>
+  <si>
+    <t>varkë, barkë</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boil (v)			</t>
+  </si>
+  <si>
+    <t>valoj</t>
+  </si>
+  <si>
+    <t>kockë</t>
+  </si>
+  <si>
+    <t>lind</t>
+  </si>
+  <si>
+    <t>hark</t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>djalë</t>
+  </si>
+  <si>
+    <t>trurit, tru</t>
+  </si>
+  <si>
+    <t>degë</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>bukë</t>
+  </si>
+  <si>
+    <t>thyej</t>
+  </si>
+  <si>
+    <t>gjirit, gji</t>
+  </si>
+  <si>
+    <t>marr frymë</t>
+  </si>
+  <si>
+    <t>të ndritshme, i ndrithsëm</t>
+  </si>
+  <si>
+    <t>ndërtou</t>
+  </si>
+  <si>
+    <t>djeg</t>
+  </si>
+  <si>
+    <t>varros</t>
+  </si>
+  <si>
+    <t>prapanicë, poligon</t>
+  </si>
+  <si>
+    <t>buttocks</t>
+  </si>
+  <si>
+    <t>vithet, mollaqe</t>
+  </si>
+  <si>
+    <t>flutur</t>
+  </si>
+  <si>
+    <t>blej</t>
   </si>
 </sst>
 </file>
@@ -5906,13 +6089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW511"/>
+  <dimension ref="A1:BW517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5989,6778 +6172,6973 @@
   <sheetData>
     <row r="1" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="K1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="N1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="O1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="P1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="Q1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="R1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="S1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="T1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="U1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="V1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="W1" t="s">
+        <v>781</v>
+      </c>
+      <c r="X1" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>783</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>784</v>
+      </c>
+      <c r="AA1" t="s">
         <v>785</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>786</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>787</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>788</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>789</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AG1" t="s">
         <v>790</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AI1" t="s">
         <v>791</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AK1" t="s">
         <v>792</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AL1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AM1" t="s">
         <v>793</v>
       </c>
-      <c r="AF1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AN1" t="s">
         <v>794</v>
       </c>
-      <c r="AH1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AO1" t="s">
         <v>795</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>796</v>
       </c>
-      <c r="AL1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AS1" t="s">
         <v>797</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AU1" t="s">
         <v>798</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AV1" t="s">
         <v>799</v>
       </c>
-      <c r="AP1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AW1" t="s">
         <v>800</v>
       </c>
-      <c r="AR1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>801</v>
       </c>
-      <c r="AT1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>802</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BA1" t="s">
         <v>803</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>804</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BD1" t="s">
         <v>805</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BE1" t="s">
         <v>806</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
         <v>807</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BH1" t="s">
         <v>808</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>809</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BK1" t="s">
         <v>810</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BL1" t="s">
         <v>811</v>
       </c>
-      <c r="BG1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BM1" t="s">
         <v>812</v>
       </c>
-      <c r="BI1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>813</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BP1" t="s">
         <v>814</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BQ1" t="s">
         <v>815</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BR1" t="s">
         <v>816</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BS1" t="s">
         <v>817</v>
       </c>
-      <c r="BO1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="BU1" t="s">
         <v>818</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BV1" t="s">
         <v>819</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BW1" t="s">
         <v>820</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>821</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>822</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>823</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="N2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="S2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="T2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="U2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="V2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="W2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="X2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Y2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Z2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AA2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AB2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AC2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AD2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AE2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AF2" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="AG2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AH2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AI2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="AK2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AL2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AM2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AN2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AO2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AP2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AQ2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AR2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AS2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AT2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AU2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AV2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AW2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AX2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AY2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AZ2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BA2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BB2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BC2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BD2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BE2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BF2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BG2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BH2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BI2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BJ2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BK2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BL2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BM2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BN2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BO2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BP2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BQ2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BR2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BS2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BT2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BU2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BV2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BW2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="B3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F3" t="s">
         <v>1535</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>1536</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>999</v>
+      </c>
+      <c r="J3" t="s">
         <v>1537</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>1538</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>1539</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>1540</v>
       </c>
-      <c r="H3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>1541</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="P3" t="s">
         <v>1542</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>1543</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>1544</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>1545</v>
       </c>
-      <c r="O3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>1546</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>1547</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>1548</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>1549</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>1550</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>1551</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>1552</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AA3" t="s">
         <v>1553</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AE3" t="s">
         <v>1554</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AF3" t="s">
         <v>1555</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AG3" t="s">
         <v>1556</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AH3" t="s">
         <v>1557</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AI3" t="s">
         <v>1558</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AJ3" t="s">
         <v>1559</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AK3" t="s">
         <v>1560</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>1561</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AM3" t="s">
         <v>1562</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AN3" t="s">
         <v>1563</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AO3" t="s">
         <v>1564</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AP3" t="s">
         <v>1565</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>1566</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AR3" t="s">
         <v>1567</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AS3" t="s">
         <v>1568</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AT3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU3" t="s">
         <v>1569</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AV3" t="s">
         <v>1570</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AW3" t="s">
         <v>1571</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AX3" t="s">
         <v>1572</v>
       </c>
-      <c r="AT3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AU3" t="s">
+      <c r="AY3" t="s">
         <v>1573</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AZ3" t="s">
         <v>1574</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BA3" t="s">
         <v>1575</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BB3" t="s">
         <v>1576</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BC3" t="s">
         <v>1577</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BD3" t="s">
         <v>1578</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BE3" t="s">
         <v>1579</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BF3" t="s">
         <v>1580</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BG3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>999</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>999</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>1581</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BK3" t="s">
         <v>1582</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BL3" t="s">
         <v>1583</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BM3" t="s">
         <v>1584</v>
       </c>
-      <c r="BG3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BJ3" t="s">
+      <c r="BN3" t="s">
         <v>1585</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BO3" t="s">
         <v>1586</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BP3" t="s">
         <v>1587</v>
       </c>
-      <c r="BM3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1589</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1591</v>
-      </c>
       <c r="BQ3" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="BR3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="BS3" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="BT3" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="BU3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BV3" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="BW3" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="I4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="J4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="L4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="N4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="O4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="P4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="Q4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="R4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="S4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="T4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="U4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="V4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="W4" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="X4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="Y4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="Z4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AA4" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AB4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AC4" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AD4" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AE4" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AG4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="AH4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AI4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="AK4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="AL4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AM4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AN4" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="AO4" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="AP4" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="AR4" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="AS4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AT4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AU4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="AV4" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="AW4" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="AX4" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="AY4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BA4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="BB4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="BC4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="BD4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BE4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="BF4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="BG4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="BH4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="BI4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="BJ4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BK4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BL4" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="BM4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="BN4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="BO4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="BP4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="BR4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="BS4" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="BT4" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="BU4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BV4" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="BW4" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="K5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="L5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="O5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="P5" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>702</v>
+      </c>
+      <c r="R5" t="s">
         <v>921</v>
       </c>
-      <c r="Q5" t="s">
-        <v>706</v>
-      </c>
-      <c r="R5" t="s">
-        <v>925</v>
-      </c>
       <c r="S5" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="T5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="U5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="V5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="W5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="X5" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="Y5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="Z5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AA5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="AB5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AC5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AD5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AE5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="AF5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="AG5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="AH5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="AI5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="AK5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="AL5" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="AM5" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AN5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="AO5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="AP5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AR5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AS5" t="s">
         <v>1200</v>
       </c>
-      <c r="AS5" t="s">
-        <v>1204</v>
-      </c>
       <c r="AT5" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="AU5" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="AV5" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="AW5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="AX5" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="AY5" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="BA5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="BB5" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="BC5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="BD5" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="BE5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="BF5" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="BG5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="BH5" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="BI5" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="BK5" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="BL5" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="BM5" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="BN5" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="BO5" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="BP5" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="BR5" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="BS5" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="BT5" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="BU5" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="BV5" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="BW5" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G6" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K6" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L6" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="O6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="Q6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="R6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="S6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="T6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="U6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="V6" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="W6" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="X6" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="Y6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="Z6" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="AA6" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="AB6" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AC6" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AD6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="AE6" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="AF6" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="AG6" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="AH6" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="AI6" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="AK6" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="AL6" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AM6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AN6" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="AP6" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="AR6" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="AS6" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="AT6" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AU6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AV6" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="AW6" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="AX6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AY6" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="BA6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="BB6" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="BC6" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="BD6" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="BE6" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="BF6" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="BG6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="BH6" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="BI6" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="BJ6" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="BK6" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="BL6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="BM6" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="BN6" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="BO6" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="BP6" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="BR6" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="BS6" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="BT6" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="BU6" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="BV6" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="BW6" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="O7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="P7" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>704</v>
+      </c>
+      <c r="R7" t="s">
         <v>922</v>
       </c>
-      <c r="Q7" t="s">
-        <v>708</v>
-      </c>
-      <c r="R7" t="s">
-        <v>926</v>
-      </c>
       <c r="S7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="T7" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="U7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="V7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="W7" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="X7" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="Y7" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="Z7" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AA7" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="AB7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AC7" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AD7" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AE7" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="AF7" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="AG7" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AH7" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AI7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="AK7" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AL7" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AM7" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AN7" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AO7" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="AP7" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="AR7" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="AS7" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="AT7" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="AU7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AV7" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="AW7" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="AX7" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="AY7" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="AZ7" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="BA7" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="BB7" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="BC7" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="BD7" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="BE7" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="BF7" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="BG7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="BH7" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="BI7" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="BJ7" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="BK7" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="BL7" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="BM7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="BN7" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="BO7" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="BP7" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="BR7" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="BS7" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="BT7" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="BU7" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="BV7" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="BW7" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M8" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="N8" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="O8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="P8" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="Q8" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="R8" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="S8" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="T8" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="U8" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="V8" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="W8" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="X8" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="Y8" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="Z8" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="AA8" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="AB8" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AC8" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AD8" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AE8" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="AF8" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="AG8" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AH8" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AI8" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="AK8" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="AL8" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="AM8" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AN8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AO8" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AP8" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="AR8" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="AS8" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="AT8" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="AU8" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AV8" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="AW8" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="AX8" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="AY8" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="BA8" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="BB8" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="BC8" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="BD8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BE8" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="BF8" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BG8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="BH8" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="BI8" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="BJ8" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="BK8" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="BL8" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="BM8" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="BO8" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="BP8" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="BQ8" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="BR8" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="BS8" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="BT8" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="BU8" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="BV8" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="BW8" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E9" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G9" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H9" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I9" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L9" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M9" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="N9" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="O9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="P9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="Q9" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="R9" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="S9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="T9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="U9" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="V9" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="W9" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="X9" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="Y9" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="Z9" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="AA9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AB9" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AC9" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AD9" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="AF9" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="AG9" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AH9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AI9" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="AK9" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AL9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AM9" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="AN9" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AO9" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AP9" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="AR9" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="AS9" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="AT9" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="AU9" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AV9" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="AW9" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="AX9" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="AY9" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="BA9" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="BB9" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="BC9" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="BD9" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="BE9" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="BF9" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="BG9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="BH9" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="BI9" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="BJ9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="BK9" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="BL9" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="BM9" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="BN9" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="BO9" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="BP9" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="BR9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="BS9" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="BT9" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="BU9" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="BV9" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="BW9" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K10" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="M10" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="N10" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="O10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Q10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="R10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="S10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="T10" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="U10" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="V10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="W10" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="X10" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="Y10" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="Z10" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AA10" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="AB10" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AC10" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AD10" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="AE10" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="AF10" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="AG10" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="AH10" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="AI10" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AK10" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="AL10" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="AM10" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="AN10" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AO10" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="AP10" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="AR10" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="AS10" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="AT10" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="AU10" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="AV10" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AW10" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="AX10" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="AY10" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="BA10" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="BB10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="BC10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="BD10" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="BE10" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="BF10" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="BG10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="BH10" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="BI10" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="BJ10" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="BK10" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="BL10" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="BM10" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="BN10" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="BO10" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="BP10" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="BR10" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="BS10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="BT10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="BU10" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BV10" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="BW10" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F11" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M11" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="N11" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="O11" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="P11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Q11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="R11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="S11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="T11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="U11" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="V11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="W11" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="X11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Y11" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="Z11" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="AA11" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="AB11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AC11" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AD11" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="AE11" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="AF11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="AG11" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="AH11" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="AI11" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="AK11" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="AL11" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="AM11" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="AN11" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="AO11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AP11" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="AR11" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="AS11" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="AT11" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="AU11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AV11" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AW11" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="AX11" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AY11" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AZ11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="BA11" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="BB11" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="BC11" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="BD11" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="BE11" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="BG11" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="BH11" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="BI11" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="BK11" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="BL11" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BM11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="BN11" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="BO11" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="BP11" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="BR11" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="BS11" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="BT11" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="BU11" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="BV11" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="BW11" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="I12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="J12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M12" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="N12" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="O12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="Q12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="R12" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="S12" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="T12" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="U12" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="V12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="W12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="X12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="Y12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="Z12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AA12" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="AB12" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AC12" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="AD12" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AE12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AF12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AG12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AH12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AI12" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="AJ12" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="AK12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AL12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AM12" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="AN12" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AO12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AP12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AR12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AS12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AT12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AU12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AV12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AW12" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="AX12" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AY12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BA12" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="BB12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="BC12" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="BD12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BE12" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="BF12" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="BG12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="BH12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BI12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BJ12" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="BK12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BL12" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="BM12" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="BN12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BO12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BP12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BQ12" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="BR12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BS12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="BT12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="BU12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BV12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BW12" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="13" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F13" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="G13" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H13" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I13" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K13" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L13" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M13" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="N13" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="O13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="P13" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Q13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="R13" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="S13" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="T13" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="U13" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="V13" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="W13" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="X13" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Y13" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="Z13" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="AA13" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="AB13" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AC13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AD13" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="AE13" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="AF13" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="AG13" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="AH13" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AI13" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AK13" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="AL13" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AM13" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="AN13" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AP13" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="AR13" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="AS13" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="AT13" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="AU13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="AV13" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="AW13" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="AX13" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="AY13" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="BA13" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="BB13" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="BC13" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="BD13" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="BE13" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="BF13" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="BG13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="BH13" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="BI13" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="BJ13" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="BK13" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="BL13" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="BM13" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="BN13" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="BO13" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BP13" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="BR13" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="BS13" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="BT13" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="BU13" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="BV13" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="BW13" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B14" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F14" t="s">
+        <v>895</v>
+      </c>
+      <c r="G14" t="s">
         <v>899</v>
       </c>
-      <c r="G14" t="s">
-        <v>903</v>
-      </c>
       <c r="H14" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I14" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J14" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="K14" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L14" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M14" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="N14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O14" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="P14" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q14" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="R14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="S14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="T14" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="U14" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="V14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="W14" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="X14" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Y14" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="Z14" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="AA14" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="AB14" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AC14" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AD14" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="AF14" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="AG14" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="AH14" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="AI14" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="AJ14" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AK14" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="AL14" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="AM14" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="AN14" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="AP14" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="AR14" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="AS14" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="AT14" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AU14" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="AV14" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AW14" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="AX14" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="AY14" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="BA14" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="BB14" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="BC14" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="BD14" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="BE14" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="BF14" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="BG14" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="BH14" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="BI14" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="BK14" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="BL14" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="BM14" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="BN14" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="BO14" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="BP14" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="BR14" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="BT14" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="BU14" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="BV14" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="BW14" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="15" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C15" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F15" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G15" t="s">
+        <v>901</v>
+      </c>
+      <c r="H15" t="s">
+        <v>603</v>
+      </c>
+      <c r="I15" t="s">
+        <v>604</v>
+      </c>
+      <c r="J15" t="s">
+        <v>903</v>
+      </c>
+      <c r="K15" t="s">
+        <v>904</v>
+      </c>
+      <c r="L15" t="s">
         <v>905</v>
       </c>
-      <c r="H15" t="s">
-        <v>607</v>
-      </c>
-      <c r="I15" t="s">
-        <v>608</v>
-      </c>
-      <c r="J15" t="s">
-        <v>907</v>
-      </c>
-      <c r="K15" t="s">
-        <v>908</v>
-      </c>
-      <c r="L15" t="s">
-        <v>909</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="N15" t="s">
+        <v>915</v>
+      </c>
+      <c r="O15" t="s">
+        <v>916</v>
+      </c>
+      <c r="P15" t="s">
         <v>919</v>
       </c>
-      <c r="O15" t="s">
-        <v>920</v>
-      </c>
-      <c r="P15" t="s">
-        <v>923</v>
-      </c>
       <c r="Q15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="R15" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="S15" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="T15" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="U15" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="V15" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="W15" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="X15" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="Y15" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="Z15" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="AA15" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="AB15" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AC15" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AD15" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="AF15" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="AG15" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AH15" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="AI15" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AJ15" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AK15" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="AL15" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AM15" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="AN15" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AP15" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="AR15" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="AS15" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="AT15" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="AU15" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="AV15" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AW15" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="AX15" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="AY15" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="BA15" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="BB15" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="BC15" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="BD15" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="BE15" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="BF15" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="BG15" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="BH15" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="BI15" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="BJ15" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="BK15" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="BL15" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="BM15" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="BN15" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="BO15" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="BP15" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="BR15" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="BS15" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="BT15" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="BU15" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="BV15" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="BW15" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="J16" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K16" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L16" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N16" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="O16" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="P16" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="Q16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="R16" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="S16" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="T16" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="U16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="V16" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="W16" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="X16" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="Y16" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="Z16" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="AA16" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="AB16" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AC16" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AD16" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="AE16" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="AF16" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="AG16" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AH16" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AI16" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AJ16" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AK16" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AL16" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AM16" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="AN16" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="AO16" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="AP16" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AR16" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AS16" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AT16" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AU16" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="AV16" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="AW16" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="AX16" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="AY16" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="BA16" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="BB16" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="BC16" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="BD16" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="BE16" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="BF16" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="BG16" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="BH16" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="BI16" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="BJ16" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="BK16" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="BL16" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="BM16" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="BN16" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="BO16" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="BP16" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="BR16" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="BS16" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="BT16" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="BU16" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="BV16" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="BW16" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E17" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F17" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I17" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J17" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K17" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L17" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="M17" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="N17" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="O17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="P17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="Q17" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="R17" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="S17" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="T17" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="U17" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="V17" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="W17" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="X17" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="Y17" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="Z17" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="AA17" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="AB17" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AC17" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AD17" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="AE17" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="AF17" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="AG17" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="AH17" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="AI17" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="AK17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AL17" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="AM17" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="AN17" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="AO17" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="AP17" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="AR17" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="AS17" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="AT17" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="AU17" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="AV17" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="AW17" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="AX17" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="AY17" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="BA17" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="BB17" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="BC17" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="BD17" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="BE17" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="BF17" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="BG17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="BH17" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="BI17" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BJ17" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="BK17" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="BL17" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="BM17" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="BN17" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="BO17" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="BP17" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="BR17" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="BS17" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="BT17" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="BU17" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="BV17" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="BW17" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="18" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>974</v>
+      </c>
+      <c r="B18" t="s">
+        <v>997</v>
+      </c>
+      <c r="C18" t="s">
+        <v>995</v>
+      </c>
+      <c r="D18" t="s">
+        <v>996</v>
+      </c>
+      <c r="E18" t="s">
+        <v>994</v>
+      </c>
+      <c r="F18" t="s">
+        <v>992</v>
+      </c>
+      <c r="G18" t="s">
+        <v>993</v>
+      </c>
+      <c r="H18" t="s">
+        <v>999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>999</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="K18" t="s">
+        <v>989</v>
+      </c>
+      <c r="L18" t="s">
+        <v>990</v>
+      </c>
+      <c r="M18" t="s">
+        <v>987</v>
+      </c>
+      <c r="N18" t="s">
+        <v>988</v>
+      </c>
+      <c r="O18" t="s">
+        <v>986</v>
+      </c>
+      <c r="P18" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>976</v>
+      </c>
+      <c r="R18" t="s">
+        <v>984</v>
+      </c>
+      <c r="S18" t="s">
+        <v>983</v>
+      </c>
+      <c r="T18" t="s">
+        <v>982</v>
+      </c>
+      <c r="U18" t="s">
+        <v>980</v>
+      </c>
+      <c r="V18" t="s">
+        <v>981</v>
+      </c>
+      <c r="W18" t="s">
+        <v>999</v>
+      </c>
+      <c r="X18" t="s">
+        <v>999</v>
+      </c>
+      <c r="Y18" t="s">
         <v>978</v>
       </c>
-      <c r="B18" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="Z18" t="s">
+        <v>979</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>977</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>976</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>974</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>975</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>974</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AK18" t="s">
         <v>999</v>
       </c>
-      <c r="D18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>998</v>
-      </c>
-      <c r="F18" t="s">
-        <v>996</v>
-      </c>
-      <c r="G18" t="s">
-        <v>997</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="K18" t="s">
-        <v>993</v>
-      </c>
-      <c r="L18" t="s">
-        <v>994</v>
-      </c>
-      <c r="M18" t="s">
-        <v>991</v>
-      </c>
-      <c r="N18" t="s">
-        <v>992</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="AL18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>976</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>999</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>999</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>989</v>
+      </c>
+      <c r="BC18" t="s">
         <v>990</v>
       </c>
-      <c r="P18" t="s">
+      <c r="BD18" t="s">
+        <v>999</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>999</v>
+      </c>
+      <c r="BF18" t="s">
         <v>989</v>
       </c>
-      <c r="Q18" t="s">
-        <v>980</v>
-      </c>
-      <c r="R18" t="s">
-        <v>988</v>
-      </c>
-      <c r="S18" t="s">
-        <v>987</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="BG18" t="s">
         <v>986</v>
       </c>
-      <c r="U18" t="s">
-        <v>984</v>
-      </c>
-      <c r="V18" t="s">
-        <v>985</v>
-      </c>
-      <c r="W18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="X18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>982</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>981</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>980</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>978</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>979</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>978</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>980</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1324</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>994</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>990</v>
-      </c>
       <c r="BH18" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BI18" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BJ18" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BK18" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="BL18" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="BM18" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="BN18" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="BO18" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="BP18" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="BR18" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="BS18" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="BT18" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="BU18" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="BW18" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E19" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G19" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H19" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I19" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K19" t="s">
+        <v>652</v>
+      </c>
+      <c r="L19" t="s">
+        <v>653</v>
+      </c>
+      <c r="M19" t="s">
+        <v>655</v>
+      </c>
+      <c r="N19" t="s">
         <v>656</v>
       </c>
-      <c r="L19" t="s">
-        <v>657</v>
-      </c>
-      <c r="M19" t="s">
-        <v>659</v>
-      </c>
-      <c r="N19" t="s">
-        <v>660</v>
-      </c>
       <c r="O19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P19" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Q19" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="R19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="S19" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="T19" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="U19" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="V19" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="W19" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="X19" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="Y19" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="Z19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AA19" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="AB19" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AC19" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AD19" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="AE19" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="AF19" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="AG19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AH19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="AI19" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="AJ19" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="AK19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AL19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="AM19" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AN19" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AO19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AR19" t="s">
         <v>1172</v>
       </c>
-      <c r="AP19" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>1176</v>
-      </c>
       <c r="AS19" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="AT19" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="AU19" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="AV19" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="AW19" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="AX19" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="AY19" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="BA19" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="BB19" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="BC19" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="BD19" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="BE19" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="BF19" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="BG19" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="BH19" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="BI19" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="BJ19" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="BK19" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="BL19" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="BM19" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="BN19" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="BO19" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="BP19" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="BR19" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="BS19" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="BT19" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="BU19" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="BV19" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="BW19" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
+      <c r="B20" t="s">
+        <v>1678</v>
+      </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
+      <c r="B21" t="s">
+        <v>1679</v>
+      </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
+      <c r="B22" t="s">
+        <v>1680</v>
+      </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
+      <c r="B23" t="s">
+        <v>1681</v>
+      </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
+      <c r="B24" t="s">
+        <v>1682</v>
+      </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
+      <c r="B25" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
+      <c r="B26" t="s">
+        <v>1684</v>
+      </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
+      <c r="B27" t="s">
+        <v>1685</v>
+      </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1278</v>
+        <v>1274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
+      <c r="B29" t="s">
+        <v>1687</v>
+      </c>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
+      <c r="B30" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
+      <c r="B31" t="s">
+        <v>1689</v>
+      </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1273</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>582</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B53" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B55" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>493</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B57" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B58" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B59" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B60" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B61" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B62" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B63" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B64" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B65" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B66" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B67" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B68" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B69" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B70" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B71" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B73" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B74" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>584</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>576</v>
-      </c>
-      <c r="B120" t="s">
-        <v>506</v>
-      </c>
-      <c r="C120" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" t="s">
-        <v>533</v>
-      </c>
-      <c r="E120" t="s">
-        <v>553</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>572</v>
+      </c>
+      <c r="B121" t="s">
+        <v>502</v>
+      </c>
+      <c r="C121" t="s">
+        <v>528</v>
+      </c>
+      <c r="D121" t="s">
+        <v>529</v>
+      </c>
+      <c r="E121" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>767</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>113</v>
+        <v>763</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>158</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1002</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>998</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>181</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>624</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>220</v>
+        <v>620</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>491</v>
+        <v>274</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>283</v>
+        <v>487</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>288</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1446</v>
+        <v>293</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>304</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>583</v>
+        <v>330</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>341</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>585</v>
+        <v>346</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>357</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>423</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>467</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>476</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECBF90F-5BAB-3E49-B1B5-A76DDED29F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEE7BB-FB84-C74E-8C09-FB52527AA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1847">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -5570,6 +5570,9 @@
   </si>
   <si>
     <t>gnel</t>
+  </si>
+  <si>
+    <t>gromise, gromësij</t>
   </si>
 </sst>
 </file>
@@ -6419,7 +6422,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11488,6 +11491,9 @@
       <c r="A69" t="s">
         <v>1775</v>
       </c>
+      <c r="B69" t="s">
+        <v>1846</v>
+      </c>
       <c r="C69" t="s">
         <v>1836</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEE7BB-FB84-C74E-8C09-FB52527AA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26308811-1168-364A-BED8-15C0F90B06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1900">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -5573,6 +5573,165 @@
   </si>
   <si>
     <t>gromise, gromësij</t>
+  </si>
+  <si>
+    <t>umea, haurtxo</t>
+  </si>
+  <si>
+    <t>bizkar, atzealde</t>
+  </si>
+  <si>
+    <t>azal</t>
+  </si>
+  <si>
+    <t>garagar</t>
+  </si>
+  <si>
+    <t>banbu</t>
+  </si>
+  <si>
+    <t>txar</t>
+  </si>
+  <si>
+    <t>saskia, otarre</t>
+  </si>
+  <si>
+    <t>saguzar</t>
+  </si>
+  <si>
+    <t>hondartza</t>
+  </si>
+  <si>
+    <t>habea, izpi</t>
+  </si>
+  <si>
+    <t>babarrun</t>
+  </si>
+  <si>
+    <t>hartz</t>
+  </si>
+  <si>
+    <t>ederra</t>
+  </si>
+  <si>
+    <t>ohe</t>
+  </si>
+  <si>
+    <t>erle</t>
+  </si>
+  <si>
+    <t>pagoa</t>
+  </si>
+  <si>
+    <t>garagardo</t>
+  </si>
+  <si>
+    <t>kakaklardo</t>
+  </si>
+  <si>
+    <t>hasi</t>
+  </si>
+  <si>
+    <t>kanpaia, ezkila</t>
+  </si>
+  <si>
+    <t>sabel</t>
+  </si>
+  <si>
+    <t>handi</t>
+  </si>
+  <si>
+    <t>urkia</t>
+  </si>
+  <si>
+    <t>txori</t>
+  </si>
+  <si>
+    <t>ausiki egin</t>
+  </si>
+  <si>
+    <t>mingots</t>
+  </si>
+  <si>
+    <t>beltz</t>
+  </si>
+  <si>
+    <t>pala, pizki, xafla</t>
+  </si>
+  <si>
+    <t>itsu</t>
+  </si>
+  <si>
+    <t>odol</t>
+  </si>
+  <si>
+    <t>urdin</t>
+  </si>
+  <si>
+    <t>txalupa</t>
+  </si>
+  <si>
+    <t>irakin</t>
+  </si>
+  <si>
+    <t>hezur</t>
+  </si>
+  <si>
+    <t>jaio</t>
+  </si>
+  <si>
+    <t>arku, branka</t>
+  </si>
+  <si>
+    <t>katilu</t>
+  </si>
+  <si>
+    <t>mutila, mutiko</t>
+  </si>
+  <si>
+    <t>garuna, barmuin</t>
+  </si>
+  <si>
+    <t>adar</t>
+  </si>
+  <si>
+    <t>ausarta, adoretsu</t>
+  </si>
+  <si>
+    <t>ogi</t>
+  </si>
+  <si>
+    <t>hautsi</t>
+  </si>
+  <si>
+    <t>bular</t>
+  </si>
+  <si>
+    <t>arnasa hartu, arnastu</t>
+  </si>
+  <si>
+    <t>distiratsu</t>
+  </si>
+  <si>
+    <t>eraiki</t>
+  </si>
+  <si>
+    <t>erre</t>
+  </si>
+  <si>
+    <t>lurperatu, ehortzi</t>
+  </si>
+  <si>
+    <t>ipurdia</t>
+  </si>
+  <si>
+    <t>ipurmasail</t>
+  </si>
+  <si>
+    <t>tximeleta</t>
+  </si>
+  <si>
+    <t>erosi</t>
   </si>
 </sst>
 </file>
@@ -6419,10 +6578,10 @@
   <dimension ref="A1:BW518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10814,6 +10973,9 @@
       <c r="D20" t="s">
         <v>1738</v>
       </c>
+      <c r="E20" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -10828,6 +10990,9 @@
       <c r="D21" t="s">
         <v>1740</v>
       </c>
+      <c r="E21" t="s">
+        <v>1848</v>
+      </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -10842,6 +11007,9 @@
       <c r="D22" t="s">
         <v>1742</v>
       </c>
+      <c r="E22" t="s">
+        <v>1852</v>
+      </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -10856,6 +11024,9 @@
       <c r="D23" t="s">
         <v>1744</v>
       </c>
+      <c r="E23" t="s">
+        <v>1851</v>
+      </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -10870,6 +11041,9 @@
       <c r="D24" t="s">
         <v>1746</v>
       </c>
+      <c r="E24" t="s">
+        <v>1849</v>
+      </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -10884,6 +11058,9 @@
       <c r="D25" t="s">
         <v>1748</v>
       </c>
+      <c r="E25" t="s">
+        <v>1850</v>
+      </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -10898,6 +11075,9 @@
       <c r="D26" t="s">
         <v>1750</v>
       </c>
+      <c r="E26" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -10912,6 +11092,9 @@
       <c r="D27" t="s">
         <v>1752</v>
       </c>
+      <c r="E27" t="s">
+        <v>1854</v>
+      </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -10926,6 +11109,9 @@
       <c r="D28" t="s">
         <v>1754</v>
       </c>
+      <c r="E28" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -10940,6 +11126,9 @@
       <c r="D29" t="s">
         <v>1756</v>
       </c>
+      <c r="E29" t="s">
+        <v>1856</v>
+      </c>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -10954,6 +11143,9 @@
       <c r="D30" t="s">
         <v>1758</v>
       </c>
+      <c r="E30" t="s">
+        <v>1857</v>
+      </c>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -10968,6 +11160,9 @@
       <c r="D31" t="s">
         <v>1760</v>
       </c>
+      <c r="E31" t="s">
+        <v>1858</v>
+      </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -10982,8 +11177,11 @@
       <c r="D32" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -10996,8 +11194,11 @@
       <c r="D33" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -11010,8 +11211,11 @@
       <c r="D34" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1272</v>
       </c>
@@ -11024,8 +11228,11 @@
       <c r="D35" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>507</v>
       </c>
@@ -11038,8 +11245,11 @@
       <c r="D36" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -11052,8 +11262,11 @@
       <c r="D37" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -11066,8 +11279,11 @@
       <c r="D38" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -11080,8 +11296,11 @@
       <c r="D39" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -11094,8 +11313,11 @@
       <c r="D40" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -11108,8 +11330,11 @@
       <c r="D41" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>491</v>
       </c>
@@ -11122,8 +11347,11 @@
       <c r="D42" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -11136,8 +11364,11 @@
       <c r="D43" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1701</v>
       </c>
@@ -11150,8 +11381,11 @@
       <c r="D44" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -11164,8 +11398,11 @@
       <c r="D45" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -11178,8 +11415,11 @@
       <c r="D46" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>581</v>
       </c>
@@ -11192,8 +11432,11 @@
       <c r="D47" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -11206,8 +11449,11 @@
       <c r="D48" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -11220,8 +11466,11 @@
       <c r="D49" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1708</v>
       </c>
@@ -11234,8 +11483,11 @@
       <c r="D50" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1710</v>
       </c>
@@ -11248,8 +11500,11 @@
       <c r="D51" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -11262,8 +11517,11 @@
       <c r="D52" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1713</v>
       </c>
@@ -11276,8 +11534,11 @@
       <c r="D53" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -11290,8 +11551,11 @@
       <c r="D54" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>492</v>
       </c>
@@ -11304,8 +11568,11 @@
       <c r="D55" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -11318,8 +11585,11 @@
       <c r="D56" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -11332,8 +11602,11 @@
       <c r="D57" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -11346,8 +11619,11 @@
       <c r="D58" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -11360,8 +11636,11 @@
       <c r="D59" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -11374,8 +11653,11 @@
       <c r="D60" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -11388,8 +11670,11 @@
       <c r="D61" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -11402,8 +11687,11 @@
       <c r="D62" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -11416,8 +11704,11 @@
       <c r="D63" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -11430,8 +11721,11 @@
       <c r="D64" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -11444,8 +11738,11 @@
       <c r="D65" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -11458,8 +11755,11 @@
       <c r="D66" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -11472,8 +11772,11 @@
       <c r="D67" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -11486,8 +11789,11 @@
       <c r="D68" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1775</v>
       </c>
@@ -11500,8 +11806,11 @@
       <c r="D69" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -11514,8 +11823,11 @@
       <c r="D70" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -11528,8 +11840,11 @@
       <c r="D71" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1732</v>
       </c>
@@ -11542,8 +11857,11 @@
       <c r="D72" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -11556,8 +11874,11 @@
       <c r="D73" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -11570,33 +11891,36 @@
       <c r="D74" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26308811-1168-364A-BED8-15C0F90B06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0447D6-77D3-C642-A1EC-10FE57DBD3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="2008">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -5158,12 +5158,6 @@
     <t>gjaku, gjak</t>
   </si>
   <si>
-    <t xml:space="preserve">blow (wind)					</t>
-  </si>
-  <si>
-    <t>fryj</t>
-  </si>
-  <si>
     <t xml:space="preserve">blue (adj)				</t>
   </si>
   <si>
@@ -5230,9 +5224,6 @@
     <t>prapanicë, poligon</t>
   </si>
   <si>
-    <t>buttocks</t>
-  </si>
-  <si>
     <t>vithet, mollaqe</t>
   </si>
   <si>
@@ -5428,12 +5419,6 @@
     <t>aryun</t>
   </si>
   <si>
-    <t>փչել</t>
-  </si>
-  <si>
-    <t>p'ch'el</t>
-  </si>
-  <si>
     <t>kapuyt, yerknaguyn</t>
   </si>
   <si>
@@ -5732,6 +5717,358 @@
   </si>
   <si>
     <t>erosi</t>
+  </si>
+  <si>
+    <t>дзіцятка, немаўля</t>
+  </si>
+  <si>
+    <t>dziciatka, niemaŭlia</t>
+  </si>
+  <si>
+    <t>спіна</t>
+  </si>
+  <si>
+    <t>spina</t>
+  </si>
+  <si>
+    <t>дрэнна, кепскі</t>
+  </si>
+  <si>
+    <t>drenna, kiepski</t>
+  </si>
+  <si>
+    <t>бамбук</t>
+  </si>
+  <si>
+    <t>кары, лай, кара</t>
+  </si>
+  <si>
+    <t>kary, laj, kara</t>
+  </si>
+  <si>
+    <t>ячмень</t>
+  </si>
+  <si>
+    <t>jačmień</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">кошык, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>кош</t>
+    </r>
+  </si>
+  <si>
+    <t>košyk, koš</t>
+  </si>
+  <si>
+    <t>кажан</t>
+  </si>
+  <si>
+    <t>kažan</t>
+  </si>
+  <si>
+    <t>пляж</t>
+  </si>
+  <si>
+    <t>pliaž</t>
+  </si>
+  <si>
+    <t>бэлька</t>
+  </si>
+  <si>
+    <t>beĺka</t>
+  </si>
+  <si>
+    <t>babovyja, bob</t>
+  </si>
+  <si>
+    <t>бабовыя, боб</t>
+  </si>
+  <si>
+    <t>мядзведзь</t>
+  </si>
+  <si>
+    <t>miadzviedź</t>
+  </si>
+  <si>
+    <t>прыгожы</t>
+  </si>
+  <si>
+    <t>pryhožy</t>
+  </si>
+  <si>
+    <t>ложак</t>
+  </si>
+  <si>
+    <t>ložak</t>
+  </si>
+  <si>
+    <t>пчала</t>
+  </si>
+  <si>
+    <t>pčala</t>
+  </si>
+  <si>
+    <t>бук</t>
+  </si>
+  <si>
+    <t>buk</t>
+  </si>
+  <si>
+    <t>піва</t>
+  </si>
+  <si>
+    <t>piva</t>
+  </si>
+  <si>
+    <t>жук</t>
+  </si>
+  <si>
+    <t>žuk</t>
+  </si>
+  <si>
+    <t>pačać, pačynać</t>
+  </si>
+  <si>
+    <t>пачаць, пачынаць</t>
+  </si>
+  <si>
+    <t>званочак, звон</t>
+  </si>
+  <si>
+    <t>zvanočak, zvon</t>
+  </si>
+  <si>
+    <t>жывот, чэрава</t>
+  </si>
+  <si>
+    <t>žyvot, čerava</t>
+  </si>
+  <si>
+    <t>вялікі</t>
+  </si>
+  <si>
+    <t>vialiki</t>
+  </si>
+  <si>
+    <t>бярозавы</t>
+  </si>
+  <si>
+    <t>biarozavy</t>
+  </si>
+  <si>
+    <t>птушка</t>
+  </si>
+  <si>
+    <t>ptuška</t>
+  </si>
+  <si>
+    <t>кусаць</t>
+  </si>
+  <si>
+    <t>kusać</t>
+  </si>
+  <si>
+    <t>горкі</t>
+  </si>
+  <si>
+    <t>horki</t>
+  </si>
+  <si>
+    <t>чорны</t>
+  </si>
+  <si>
+    <t>čorny</t>
+  </si>
+  <si>
+    <t>лязо, травінка</t>
+  </si>
+  <si>
+    <t>liazo, travinka</t>
+  </si>
+  <si>
+    <t>сляпы</t>
+  </si>
+  <si>
+    <t>cliapy</t>
+  </si>
+  <si>
+    <t>кроў</t>
+  </si>
+  <si>
+    <t>kroŭ</t>
+  </si>
+  <si>
+    <t>блакітны</t>
+  </si>
+  <si>
+    <t>blakitny</t>
+  </si>
+  <si>
+    <t>лодка, судна</t>
+  </si>
+  <si>
+    <t>lodka, sudna</t>
+  </si>
+  <si>
+    <t>кіпяціць, кіпець</t>
+  </si>
+  <si>
+    <t>kipiacić, kipieć</t>
+  </si>
+  <si>
+    <t>костка</t>
+  </si>
+  <si>
+    <t>kostka</t>
+  </si>
+  <si>
+    <t>нарадзіцца</t>
+  </si>
+  <si>
+    <t>naradzicca</t>
+  </si>
+  <si>
+    <t>лук</t>
+  </si>
+  <si>
+    <t>luk</t>
+  </si>
+  <si>
+    <t>чара, міска</t>
+  </si>
+  <si>
+    <t>čara, miska</t>
+  </si>
+  <si>
+    <t>хлопчык, хлопец</t>
+  </si>
+  <si>
+    <t>chlopčyk, chlopiec</t>
+  </si>
+  <si>
+    <t>мозгу, мозг</t>
+  </si>
+  <si>
+    <t>mozhu, mozh</t>
+  </si>
+  <si>
+    <t>галіна</t>
+  </si>
+  <si>
+    <t>halina</t>
+  </si>
+  <si>
+    <t>адважны, смелы</t>
+  </si>
+  <si>
+    <t>advažny, smiely</t>
+  </si>
+  <si>
+    <t>хлеб</t>
+  </si>
+  <si>
+    <t>chlieb</t>
+  </si>
+  <si>
+    <t>ламаць</t>
+  </si>
+  <si>
+    <t>lamać</t>
+  </si>
+  <si>
+    <t>beak</t>
+  </si>
+  <si>
+    <t>дзюба</t>
+  </si>
+  <si>
+    <t>dziuba</t>
+  </si>
+  <si>
+    <t>грудзі</t>
+  </si>
+  <si>
+    <t>hrudzi</t>
+  </si>
+  <si>
+    <t>дыхаць</t>
+  </si>
+  <si>
+    <t>dychać</t>
+  </si>
+  <si>
+    <t>яркі, светлы</t>
+  </si>
+  <si>
+    <t>jarki, svietly</t>
+  </si>
+  <si>
+    <t>будаваць</t>
+  </si>
+  <si>
+    <t>budavać</t>
+  </si>
+  <si>
+    <t>спаліць, гарэць</t>
+  </si>
+  <si>
+    <t>spalić, hareć</t>
+  </si>
+  <si>
+    <t>адрыжка</t>
+  </si>
+  <si>
+    <t>adryžka</t>
+  </si>
+  <si>
+    <t>пахаваць, хаваць</t>
+  </si>
+  <si>
+    <t>pachavać, chavać</t>
+  </si>
+  <si>
+    <t>buttock</t>
+  </si>
+  <si>
+    <t>ягадзіцы</t>
+  </si>
+  <si>
+    <t>jahadzicy</t>
+  </si>
+  <si>
+    <t>матылёк, матыль</t>
+  </si>
+  <si>
+    <t>matyliok, matyĺ</t>
+  </si>
+  <si>
+    <t>купіць, купляць</t>
+  </si>
+  <si>
+    <t>kupić, kupliać</t>
+  </si>
+  <si>
+    <t>sqep</t>
+  </si>
+  <si>
+    <t>կտուց</t>
+  </si>
+  <si>
+    <t>ktuts'</t>
+  </si>
+  <si>
+    <t>moko</t>
   </si>
 </sst>
 </file>
@@ -6578,10 +6915,10 @@
   <dimension ref="A1:BW518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10968,13 +11305,19 @@
         <v>1677</v>
       </c>
       <c r="C20" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D20" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="E20" t="s">
-        <v>1847</v>
+        <v>1842</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.2">
@@ -10985,13 +11328,19 @@
         <v>1678</v>
       </c>
       <c r="C21" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D21" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="E21" t="s">
-        <v>1848</v>
+        <v>1843</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.2">
@@ -11002,13 +11351,19 @@
         <v>1679</v>
       </c>
       <c r="C22" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D22" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E22" t="s">
-        <v>1852</v>
+        <v>1847</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.2">
@@ -11019,13 +11374,19 @@
         <v>1680</v>
       </c>
       <c r="C23" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D23" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="E23" t="s">
-        <v>1851</v>
+        <v>1846</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.2">
@@ -11036,13 +11397,19 @@
         <v>1681</v>
       </c>
       <c r="C24" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="D24" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="E24" t="s">
-        <v>1849</v>
+        <v>1844</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.2">
@@ -11053,13 +11420,19 @@
         <v>1682</v>
       </c>
       <c r="C25" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D25" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="E25" t="s">
-        <v>1850</v>
+        <v>1845</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1905</v>
       </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.2">
@@ -11070,13 +11443,19 @@
         <v>1683</v>
       </c>
       <c r="C26" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="D26" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="E26" t="s">
-        <v>1853</v>
+        <v>1848</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
@@ -11087,13 +11466,19 @@
         <v>1684</v>
       </c>
       <c r="C27" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D27" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="E27" t="s">
-        <v>1854</v>
+        <v>1849</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
@@ -11104,735 +11489,993 @@
         <v>1685</v>
       </c>
       <c r="C28" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D28" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="E28" t="s">
-        <v>1855</v>
+        <v>1850</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>1980</v>
       </c>
       <c r="B29" t="s">
-        <v>1686</v>
+        <v>2004</v>
       </c>
       <c r="C29" t="s">
-        <v>1755</v>
+        <v>2005</v>
       </c>
       <c r="D29" t="s">
-        <v>1756</v>
+        <v>2006</v>
       </c>
       <c r="E29" t="s">
-        <v>1856</v>
+        <v>2007</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C30" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="D30" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="E30" t="s">
-        <v>1857</v>
+        <v>1851</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C31" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="D31" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="E31" t="s">
-        <v>1858</v>
+        <v>1852</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>1689</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D34" t="s">
         <v>1761</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E34" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C35" t="s">
         <v>1762</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D35" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E38" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F38" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E39" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F39" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E40" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F40" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E41" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>507</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F41" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E42" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1772</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F42" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E43" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F43" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E44" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F44" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E45" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F45" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E46" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F46" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E47" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>491</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F47" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>581</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E48" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F48" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E49" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F49" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E50" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F50" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E51" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>581</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E50" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
       <c r="B52" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B53" t="s">
         <v>1712</v>
       </c>
-      <c r="C52" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1714</v>
-      </c>
       <c r="C53" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="D53" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="E53" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1874</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C54" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="D54" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="E54" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1875</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>492</v>
       </c>
       <c r="B55" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C55" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="D55" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="E55" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1876</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C56" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="D56" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="E56" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1877</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C57" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="D57" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="E57" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1878</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C58" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="D58" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="E58" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1879</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C59" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="D59" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="E59" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1880</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C60" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="D60" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="E60" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1881</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C61" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="D61" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="E61" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1882</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C62" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="D62" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="E62" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1883</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="C63" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="D63" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="E63" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1884</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C64" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="D64" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="E64" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1885</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C65" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="D65" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="E65" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1886</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C66" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="D66" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="E66" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1887</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C67" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="D67" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="E67" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1888</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C68" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="D68" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="E68" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1889</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B69" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="C69" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="D69" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="E69" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C70" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="D70" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="E70" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1890</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C71" t="s">
         <v>998</v>
@@ -11841,86 +12484,110 @@
         <v>998</v>
       </c>
       <c r="E71" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1891</v>
+      </c>
+      <c r="F71" t="s">
+        <v>998</v>
+      </c>
+      <c r="G71" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1732</v>
+        <v>1997</v>
       </c>
       <c r="B72" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C72" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="D72" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="E72" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1892</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C73" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="D73" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="E73" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1893</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="C74" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="D74" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="E74" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1894</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -12759,7 +13426,7 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF88C5D-6CD6-D547-82DA-D90D4B8FA91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEC4EF-C31C-1E4C-9C76-A524C77F86CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="2242">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6441,6 +6441,336 @@
   </si>
   <si>
     <t>Mǎi</t>
+  </si>
+  <si>
+    <t>μωρό</t>
+  </si>
+  <si>
+    <t>moró</t>
+  </si>
+  <si>
+    <t>πλάτη</t>
+  </si>
+  <si>
+    <t>pláti</t>
+  </si>
+  <si>
+    <t>κακό, κακός</t>
+  </si>
+  <si>
+    <t>kakó, kakós</t>
+  </si>
+  <si>
+    <t>μπαμπού</t>
+  </si>
+  <si>
+    <t>bampoú</t>
+  </si>
+  <si>
+    <t>φλοιός</t>
+  </si>
+  <si>
+    <t>floiós</t>
+  </si>
+  <si>
+    <t>κριθάρι</t>
+  </si>
+  <si>
+    <t>krithári</t>
+  </si>
+  <si>
+    <t>καλάθι</t>
+  </si>
+  <si>
+    <t>kaláthi</t>
+  </si>
+  <si>
+    <t>νυχτερίδα</t>
+  </si>
+  <si>
+    <t>nychterída</t>
+  </si>
+  <si>
+    <t>παραλία</t>
+  </si>
+  <si>
+    <t>paralía</t>
+  </si>
+  <si>
+    <t>ράμφος</t>
+  </si>
+  <si>
+    <t>rámfos</t>
+  </si>
+  <si>
+    <t>δοκός</t>
+  </si>
+  <si>
+    <t>dokós</t>
+  </si>
+  <si>
+    <t>φασόλι</t>
+  </si>
+  <si>
+    <t>fasóli</t>
+  </si>
+  <si>
+    <t>αρκούδα</t>
+  </si>
+  <si>
+    <t>arkoúda</t>
+  </si>
+  <si>
+    <t>πανεμορφη, όμορφος</t>
+  </si>
+  <si>
+    <t>panemorfi, ómorfos</t>
+  </si>
+  <si>
+    <t>κρεβάτι</t>
+  </si>
+  <si>
+    <t>kreváti</t>
+  </si>
+  <si>
+    <t>μέλισσα</t>
+  </si>
+  <si>
+    <t>mélissa</t>
+  </si>
+  <si>
+    <t>φηγός, οξύα</t>
+  </si>
+  <si>
+    <t>figós, oxya</t>
+  </si>
+  <si>
+    <t>μπύρα, μπίρα</t>
+  </si>
+  <si>
+    <t>byra, bíra</t>
+  </si>
+  <si>
+    <t>σκαθάρι</t>
+  </si>
+  <si>
+    <t>skathári</t>
+  </si>
+  <si>
+    <t>να αρχίσει. αρχίζω</t>
+  </si>
+  <si>
+    <t>na archísei, archízo</t>
+  </si>
+  <si>
+    <t>κουδούνι, καμπάνα</t>
+  </si>
+  <si>
+    <t>koudoúni, kampána</t>
+  </si>
+  <si>
+    <t>κοιλιά</t>
+  </si>
+  <si>
+    <t>koiliá</t>
+  </si>
+  <si>
+    <t>μεγάλο, μεγάλος</t>
+  </si>
+  <si>
+    <t>megálo, megálos</t>
+  </si>
+  <si>
+    <t>σημύδα</t>
+  </si>
+  <si>
+    <t>simyda</t>
+  </si>
+  <si>
+    <t>πουλί</t>
+  </si>
+  <si>
+    <t>poulí</t>
+  </si>
+  <si>
+    <t>δαγκώνω</t>
+  </si>
+  <si>
+    <t>dankóno</t>
+  </si>
+  <si>
+    <t>πικρός</t>
+  </si>
+  <si>
+    <t>pikrós</t>
+  </si>
+  <si>
+    <t>μαύρος</t>
+  </si>
+  <si>
+    <t>mávros</t>
+  </si>
+  <si>
+    <t>λεπίδα</t>
+  </si>
+  <si>
+    <t>lepída</t>
+  </si>
+  <si>
+    <t>tyflós</t>
+  </si>
+  <si>
+    <t>τυφλός</t>
+  </si>
+  <si>
+    <t>αίμα</t>
+  </si>
+  <si>
+    <t>aíma</t>
+  </si>
+  <si>
+    <t>μπλε</t>
+  </si>
+  <si>
+    <t>ble</t>
+  </si>
+  <si>
+    <t>σκάφος, βάρκα</t>
+  </si>
+  <si>
+    <t>skáfos, várka</t>
+  </si>
+  <si>
+    <t>βράζω</t>
+  </si>
+  <si>
+    <t>vrázo</t>
+  </si>
+  <si>
+    <t>οστό, κόκαλο, κόκκαλο</t>
+  </si>
+  <si>
+    <t>ostó, kókalo, kókkalo</t>
+  </si>
+  <si>
+    <t>γεννιέμαι</t>
+  </si>
+  <si>
+    <t>genniémai</t>
+  </si>
+  <si>
+    <t>τόξο</t>
+  </si>
+  <si>
+    <t>tóxo</t>
+  </si>
+  <si>
+    <t>γαβάθα</t>
+  </si>
+  <si>
+    <t>gavátha</t>
+  </si>
+  <si>
+    <t>αγόρι</t>
+  </si>
+  <si>
+    <t>agóri</t>
+  </si>
+  <si>
+    <t>εγκέφαλος</t>
+  </si>
+  <si>
+    <t>enkéfalos</t>
+  </si>
+  <si>
+    <t>κλαδί</t>
+  </si>
+  <si>
+    <t>kladí</t>
+  </si>
+  <si>
+    <t>γενναίος</t>
+  </si>
+  <si>
+    <t>gennaíos</t>
+  </si>
+  <si>
+    <t>ψωμί</t>
+  </si>
+  <si>
+    <t>psomí</t>
+  </si>
+  <si>
+    <t>σπάζω, ρηγνύω, θραύω</t>
+  </si>
+  <si>
+    <t>spázo, rignyo, thrávo</t>
+  </si>
+  <si>
+    <t>στήθος</t>
+  </si>
+  <si>
+    <t>stíthos</t>
+  </si>
+  <si>
+    <t>αναπνέω</t>
+  </si>
+  <si>
+    <t>anapnéo</t>
+  </si>
+  <si>
+    <t>λαμπρός</t>
+  </si>
+  <si>
+    <t>lamprós</t>
+  </si>
+  <si>
+    <t>χτίζω, οικοδομώ, κτίζω</t>
+  </si>
+  <si>
+    <t>chtízo, oikodomó, ktízo</t>
+  </si>
+  <si>
+    <t>καίω, καίομαι</t>
+  </si>
+  <si>
+    <t>kaío, kaíomai</t>
+  </si>
+  <si>
+    <t>ρέψιμο</t>
+  </si>
+  <si>
+    <t>répsimo</t>
+  </si>
+  <si>
+    <t>θάβω</t>
+  </si>
+  <si>
+    <t>thávo</t>
+  </si>
+  <si>
+    <t>άκρο</t>
+  </si>
+  <si>
+    <t>ákro</t>
+  </si>
+  <si>
+    <t>γλουτός</t>
+  </si>
+  <si>
+    <t>gloutós</t>
+  </si>
+  <si>
+    <t>πεταλούδα</t>
+  </si>
+  <si>
+    <t>petaloúda</t>
+  </si>
+  <si>
+    <t>αγοράζω</t>
+  </si>
+  <si>
+    <t>agorázo</t>
   </si>
 </sst>
 </file>
@@ -7287,10 +7617,10 @@
   <dimension ref="A1:BY532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11694,6 +12024,12 @@
       <c r="G20" t="s">
         <v>1735</v>
       </c>
+      <c r="H20" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2133</v>
+      </c>
       <c r="O20" t="s">
         <v>1895</v>
       </c>
@@ -11723,6 +12059,12 @@
       <c r="G21" t="s">
         <v>1737</v>
       </c>
+      <c r="H21" t="s">
+        <v>2134</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2135</v>
+      </c>
       <c r="O21" t="s">
         <v>1897</v>
       </c>
@@ -11752,6 +12094,12 @@
       <c r="G22" t="s">
         <v>1739</v>
       </c>
+      <c r="H22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2137</v>
+      </c>
       <c r="O22" t="s">
         <v>1899</v>
       </c>
@@ -11781,6 +12129,12 @@
       <c r="G23" t="s">
         <v>1741</v>
       </c>
+      <c r="H23" t="s">
+        <v>2138</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2139</v>
+      </c>
       <c r="O23" t="s">
         <v>1901</v>
       </c>
@@ -11810,6 +12164,12 @@
       <c r="G24" t="s">
         <v>1743</v>
       </c>
+      <c r="H24" t="s">
+        <v>2140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2141</v>
+      </c>
       <c r="O24" t="s">
         <v>1902</v>
       </c>
@@ -11839,6 +12199,12 @@
       <c r="G25" t="s">
         <v>1745</v>
       </c>
+      <c r="H25" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2143</v>
+      </c>
       <c r="O25" t="s">
         <v>1904</v>
       </c>
@@ -11868,6 +12234,12 @@
       <c r="G26" t="s">
         <v>1747</v>
       </c>
+      <c r="H26" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2145</v>
+      </c>
       <c r="O26" t="s">
         <v>1906</v>
       </c>
@@ -11897,6 +12269,12 @@
       <c r="G27" t="s">
         <v>1749</v>
       </c>
+      <c r="H27" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2147</v>
+      </c>
       <c r="O27" t="s">
         <v>1908</v>
       </c>
@@ -11926,6 +12304,12 @@
       <c r="G28" t="s">
         <v>1751</v>
       </c>
+      <c r="H28" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2149</v>
+      </c>
       <c r="O28" t="s">
         <v>1910</v>
       </c>
@@ -11955,6 +12339,12 @@
       <c r="G29" t="s">
         <v>2006</v>
       </c>
+      <c r="H29" t="s">
+        <v>2150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2151</v>
+      </c>
       <c r="O29" t="s">
         <v>1981</v>
       </c>
@@ -11984,6 +12374,12 @@
       <c r="G30" t="s">
         <v>1753</v>
       </c>
+      <c r="H30" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2153</v>
+      </c>
       <c r="O30" t="s">
         <v>1912</v>
       </c>
@@ -12013,6 +12409,12 @@
       <c r="G31" t="s">
         <v>1755</v>
       </c>
+      <c r="H31" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2155</v>
+      </c>
       <c r="O31" t="s">
         <v>1915</v>
       </c>
@@ -12042,6 +12444,12 @@
       <c r="G32" t="s">
         <v>1757</v>
       </c>
+      <c r="H32" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2157</v>
+      </c>
       <c r="O32" t="s">
         <v>1916</v>
       </c>
@@ -12071,6 +12479,12 @@
       <c r="G33" t="s">
         <v>1759</v>
       </c>
+      <c r="H33" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2159</v>
+      </c>
       <c r="O33" t="s">
         <v>1918</v>
       </c>
@@ -12100,6 +12514,12 @@
       <c r="G34" t="s">
         <v>1761</v>
       </c>
+      <c r="H34" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2161</v>
+      </c>
       <c r="O34" t="s">
         <v>1920</v>
       </c>
@@ -12129,6 +12549,12 @@
       <c r="G35" t="s">
         <v>1763</v>
       </c>
+      <c r="H35" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2163</v>
+      </c>
       <c r="O35" t="s">
         <v>1922</v>
       </c>
@@ -12158,6 +12584,12 @@
       <c r="G36" t="s">
         <v>1765</v>
       </c>
+      <c r="H36" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2165</v>
+      </c>
       <c r="O36" t="s">
         <v>1924</v>
       </c>
@@ -12187,6 +12619,12 @@
       <c r="G37" t="s">
         <v>1767</v>
       </c>
+      <c r="H37" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2167</v>
+      </c>
       <c r="O37" t="s">
         <v>1926</v>
       </c>
@@ -12216,6 +12654,12 @@
       <c r="G38" t="s">
         <v>1769</v>
       </c>
+      <c r="H38" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2169</v>
+      </c>
       <c r="O38" t="s">
         <v>1928</v>
       </c>
@@ -12223,7 +12667,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -12244,6 +12688,12 @@
       </c>
       <c r="G39" t="s">
         <v>1771</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2171</v>
       </c>
       <c r="O39" t="s">
         <v>1931</v>
@@ -12274,6 +12724,12 @@
       <c r="G40" t="s">
         <v>1774</v>
       </c>
+      <c r="H40" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2173</v>
+      </c>
       <c r="O40" t="s">
         <v>1932</v>
       </c>
@@ -12303,6 +12759,12 @@
       <c r="G41" t="s">
         <v>1776</v>
       </c>
+      <c r="H41" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2175</v>
+      </c>
       <c r="O41" t="s">
         <v>1934</v>
       </c>
@@ -12332,6 +12794,12 @@
       <c r="G42" t="s">
         <v>1778</v>
       </c>
+      <c r="H42" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2177</v>
+      </c>
       <c r="O42" t="s">
         <v>1936</v>
       </c>
@@ -12361,6 +12829,12 @@
       <c r="G43" t="s">
         <v>1780</v>
       </c>
+      <c r="H43" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2179</v>
+      </c>
       <c r="O43" t="s">
         <v>1938</v>
       </c>
@@ -12390,6 +12864,12 @@
       <c r="G44" t="s">
         <v>1782</v>
       </c>
+      <c r="H44" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2181</v>
+      </c>
       <c r="O44" t="s">
         <v>1940</v>
       </c>
@@ -12419,6 +12899,12 @@
       <c r="G45" t="s">
         <v>1784</v>
       </c>
+      <c r="H45" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2183</v>
+      </c>
       <c r="O45" t="s">
         <v>1942</v>
       </c>
@@ -12448,6 +12934,12 @@
       <c r="G46" t="s">
         <v>1786</v>
       </c>
+      <c r="H46" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2185</v>
+      </c>
       <c r="O46" t="s">
         <v>1944</v>
       </c>
@@ -12477,6 +12969,12 @@
       <c r="G47" t="s">
         <v>1788</v>
       </c>
+      <c r="H47" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2187</v>
+      </c>
       <c r="O47" t="s">
         <v>1946</v>
       </c>
@@ -12506,6 +13004,12 @@
       <c r="G48" t="s">
         <v>1790</v>
       </c>
+      <c r="H48" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2189</v>
+      </c>
       <c r="O48" s="1" t="s">
         <v>1948</v>
       </c>
@@ -12535,6 +13039,12 @@
       <c r="G49" t="s">
         <v>1792</v>
       </c>
+      <c r="H49" t="s">
+        <v>2191</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2190</v>
+      </c>
       <c r="O49" t="s">
         <v>1950</v>
       </c>
@@ -12564,6 +13074,12 @@
       <c r="G50" t="s">
         <v>1794</v>
       </c>
+      <c r="H50" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2193</v>
+      </c>
       <c r="O50" t="s">
         <v>1952</v>
       </c>
@@ -12593,6 +13109,12 @@
       <c r="G51" t="s">
         <v>1795</v>
       </c>
+      <c r="H51" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2195</v>
+      </c>
       <c r="O51" t="s">
         <v>1954</v>
       </c>
@@ -12622,6 +13144,12 @@
       <c r="G52" t="s">
         <v>1798</v>
       </c>
+      <c r="H52" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2197</v>
+      </c>
       <c r="O52" t="s">
         <v>1956</v>
       </c>
@@ -12651,6 +13179,12 @@
       <c r="G53" t="s">
         <v>1800</v>
       </c>
+      <c r="H53" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2199</v>
+      </c>
       <c r="O53" s="1" t="s">
         <v>1958</v>
       </c>
@@ -12680,6 +13214,12 @@
       <c r="G54" t="s">
         <v>1802</v>
       </c>
+      <c r="H54" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2201</v>
+      </c>
       <c r="O54" t="s">
         <v>1960</v>
       </c>
@@ -12709,6 +13249,12 @@
       <c r="G55" t="s">
         <v>1804</v>
       </c>
+      <c r="H55" t="s">
+        <v>2202</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2203</v>
+      </c>
       <c r="O55" t="s">
         <v>1962</v>
       </c>
@@ -12738,6 +13284,12 @@
       <c r="G56" t="s">
         <v>1806</v>
       </c>
+      <c r="H56" t="s">
+        <v>2204</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2205</v>
+      </c>
       <c r="O56" t="s">
         <v>1964</v>
       </c>
@@ -12767,6 +13319,12 @@
       <c r="G57" t="s">
         <v>1808</v>
       </c>
+      <c r="H57" t="s">
+        <v>2206</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2207</v>
+      </c>
       <c r="O57" t="s">
         <v>1966</v>
       </c>
@@ -12796,6 +13354,12 @@
       <c r="G58" t="s">
         <v>1810</v>
       </c>
+      <c r="H58" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2209</v>
+      </c>
       <c r="O58" t="s">
         <v>1968</v>
       </c>
@@ -12825,6 +13389,12 @@
       <c r="G59" t="s">
         <v>1812</v>
       </c>
+      <c r="H59" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2211</v>
+      </c>
       <c r="O59" t="s">
         <v>1970</v>
       </c>
@@ -12854,6 +13424,12 @@
       <c r="G60" t="s">
         <v>1814</v>
       </c>
+      <c r="H60" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2213</v>
+      </c>
       <c r="O60" t="s">
         <v>1972</v>
       </c>
@@ -12883,6 +13459,12 @@
       <c r="G61" t="s">
         <v>1815</v>
       </c>
+      <c r="H61" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2215</v>
+      </c>
       <c r="O61" s="1" t="s">
         <v>1974</v>
       </c>
@@ -12912,6 +13494,12 @@
       <c r="G62" t="s">
         <v>1818</v>
       </c>
+      <c r="H62" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2217</v>
+      </c>
       <c r="O62" t="s">
         <v>1976</v>
       </c>
@@ -12941,6 +13529,12 @@
       <c r="G63" t="s">
         <v>1820</v>
       </c>
+      <c r="H63" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2219</v>
+      </c>
       <c r="O63" t="s">
         <v>1978</v>
       </c>
@@ -12970,6 +13564,12 @@
       <c r="G64" t="s">
         <v>1821</v>
       </c>
+      <c r="H64" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2221</v>
+      </c>
       <c r="O64" t="s">
         <v>1983</v>
       </c>
@@ -12999,6 +13599,12 @@
       <c r="G65" t="s">
         <v>1824</v>
       </c>
+      <c r="H65" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2223</v>
+      </c>
       <c r="O65" t="s">
         <v>1985</v>
       </c>
@@ -13028,6 +13634,12 @@
       <c r="G66" t="s">
         <v>1826</v>
       </c>
+      <c r="H66" t="s">
+        <v>2224</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2225</v>
+      </c>
       <c r="O66" t="s">
         <v>1987</v>
       </c>
@@ -13035,7 +13647,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -13056,6 +13668,12 @@
       </c>
       <c r="G67" t="s">
         <v>1828</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2227</v>
       </c>
       <c r="O67" t="s">
         <v>1989</v>
@@ -13086,6 +13704,12 @@
       <c r="G68" t="s">
         <v>1830</v>
       </c>
+      <c r="H68" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2229</v>
+      </c>
       <c r="O68" t="s">
         <v>1991</v>
       </c>
@@ -13115,6 +13739,12 @@
       <c r="G69" t="s">
         <v>1832</v>
       </c>
+      <c r="H69" t="s">
+        <v>2230</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2231</v>
+      </c>
       <c r="O69" t="s">
         <v>1993</v>
       </c>
@@ -13144,6 +13774,12 @@
       <c r="G70" t="s">
         <v>1834</v>
       </c>
+      <c r="H70" t="s">
+        <v>2232</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2233</v>
+      </c>
       <c r="O70" t="s">
         <v>1995</v>
       </c>
@@ -13173,6 +13809,12 @@
       <c r="G71" t="s">
         <v>998</v>
       </c>
+      <c r="H71" t="s">
+        <v>2234</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2235</v>
+      </c>
       <c r="O71" t="s">
         <v>998</v>
       </c>
@@ -13202,6 +13844,12 @@
       <c r="G72" t="s">
         <v>1836</v>
       </c>
+      <c r="H72" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2237</v>
+      </c>
       <c r="O72" t="s">
         <v>1998</v>
       </c>
@@ -13231,6 +13879,12 @@
       <c r="G73" t="s">
         <v>1838</v>
       </c>
+      <c r="H73" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2239</v>
+      </c>
       <c r="O73" t="s">
         <v>2000</v>
       </c>
@@ -13259,6 +13913,12 @@
       </c>
       <c r="G74" t="s">
         <v>1840</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2241</v>
       </c>
       <c r="O74" t="s">
         <v>2002</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEC4EF-C31C-1E4C-9C76-A524C77F86CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D46687-B35B-144A-B845-C70A2CCF0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="2252">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6771,6 +6771,36 @@
   </si>
   <si>
     <t>agorázo</t>
+  </si>
+  <si>
+    <t>منقار</t>
+  </si>
+  <si>
+    <t>عزیزم, نوزاد, بچه</t>
+  </si>
+  <si>
+    <t>عقب, پشت</t>
+  </si>
+  <si>
+    <t>بد</t>
+  </si>
+  <si>
+    <t>بامبو, چوب خیزرانخیزران, خیزران</t>
+  </si>
+  <si>
+    <t>پوست</t>
+  </si>
+  <si>
+    <t>جو. شعیر</t>
+  </si>
+  <si>
+    <t>شعیر</t>
+  </si>
+  <si>
+    <t>خفاش</t>
+  </si>
+  <si>
+    <t>ساحل دریا, ساحل</t>
   </si>
 </sst>
 </file>
@@ -7617,10 +7647,10 @@
   <dimension ref="A1:BY532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H75" sqref="H75"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7727,42 +7757,45 @@
         <v>767</v>
       </c>
       <c r="J1" t="s">
+        <v>798</v>
+      </c>
+      <c r="L1" t="s">
         <v>582</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>583</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>610</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>625</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>627</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>552</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>553</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>677</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>685</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>698</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>712</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>724</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>740</v>
       </c>
       <c r="Y1" t="s">
@@ -7839,9 +7872,6 @@
       </c>
       <c r="AW1" t="s">
         <v>797</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>798</v>
       </c>
       <c r="AY1" t="s">
         <v>799</v>
@@ -7956,9 +7986,6 @@
       <c r="J2" t="s">
         <v>489</v>
       </c>
-      <c r="K2" t="s">
-        <v>489</v>
-      </c>
       <c r="L2" t="s">
         <v>489</v>
       </c>
@@ -7992,6 +8019,12 @@
       <c r="V2" t="s">
         <v>489</v>
       </c>
+      <c r="W2" t="s">
+        <v>489</v>
+      </c>
+      <c r="X2" t="s">
+        <v>489</v>
+      </c>
       <c r="Y2" t="s">
         <v>489</v>
       </c>
@@ -8065,9 +8098,6 @@
         <v>489</v>
       </c>
       <c r="AW2" t="s">
-        <v>489</v>
-      </c>
-      <c r="AX2" t="s">
         <v>489</v>
       </c>
       <c r="AY2" t="s">
@@ -8181,42 +8211,45 @@
         <v>1547</v>
       </c>
       <c r="J3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L3" t="s">
         <v>998</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>998</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>1536</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>1537</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>1538</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>1534</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>1535</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>1536</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>1541</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>1542</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>1543</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>1544</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>1545</v>
       </c>
       <c r="Y3" t="s">
@@ -8284,9 +8317,6 @@
       </c>
       <c r="AW3" t="s">
         <v>1568</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>1569</v>
       </c>
       <c r="AY3" t="s">
         <v>1570</v>
@@ -8399,42 +8429,45 @@
         <v>768</v>
       </c>
       <c r="J4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L4" t="s">
         <v>998</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>998</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>611</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>626</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>628</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>554</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>555</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>678</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>687</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>700</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>919</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>727</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>741</v>
       </c>
       <c r="Y4" t="s">
@@ -8511,9 +8544,6 @@
       </c>
       <c r="AW4" t="s">
         <v>1224</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>1233</v>
       </c>
       <c r="AY4" t="s">
         <v>1248</v>
@@ -8626,42 +8656,45 @@
         <v>771</v>
       </c>
       <c r="J5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L5" t="s">
         <v>584</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>585</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>901</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>629</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>630</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>556</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>557</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>901</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>916</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>701</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>920</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>728</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>742</v>
       </c>
       <c r="Y5" t="s">
@@ -8738,9 +8771,6 @@
       </c>
       <c r="AW5" t="s">
         <v>1225</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>1234</v>
       </c>
       <c r="AY5" t="s">
         <v>1249</v>
@@ -8853,42 +8883,45 @@
         <v>769</v>
       </c>
       <c r="J6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L6" t="s">
         <v>586</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>587</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>612</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>631</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>632</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>558</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>559</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>612</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>688</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>702</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>714</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>729</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>743</v>
       </c>
       <c r="Y6" t="s">
@@ -8965,9 +8998,6 @@
       </c>
       <c r="AW6" t="s">
         <v>702</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>1235</v>
       </c>
       <c r="AY6" t="s">
         <v>1250</v>
@@ -9080,42 +9110,45 @@
         <v>770</v>
       </c>
       <c r="J7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L7" t="s">
         <v>588</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>589</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>613</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>633</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>634</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>560</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>561</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>679</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>917</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>703</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>921</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>730</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>922</v>
       </c>
       <c r="Y7" t="s">
@@ -9192,9 +9225,6 @@
       </c>
       <c r="AW7" t="s">
         <v>703</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>1236</v>
       </c>
       <c r="AY7" t="s">
         <v>1251</v>
@@ -9307,42 +9337,45 @@
         <v>926</v>
       </c>
       <c r="J8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L8" t="s">
         <v>590</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>591</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>614</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>635</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>636</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>562</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>563</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>680</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>689</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>704</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>715</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>731</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>744</v>
       </c>
       <c r="Y8" t="s">
@@ -9419,9 +9452,6 @@
       </c>
       <c r="AW8" t="s">
         <v>934</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>1237</v>
       </c>
       <c r="AY8" t="s">
         <v>1252</v>
@@ -9534,42 +9564,45 @@
         <v>772</v>
       </c>
       <c r="J9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L9" t="s">
         <v>592</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>593</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>615</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>637</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>638</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>565</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>566</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>615</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>690</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>705</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>716</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>732</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>745</v>
       </c>
       <c r="Y9" t="s">
@@ -9646,9 +9679,6 @@
       </c>
       <c r="AW9" t="s">
         <v>1226</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>1238</v>
       </c>
       <c r="AY9" t="s">
         <v>1253</v>
@@ -9761,42 +9791,45 @@
         <v>773</v>
       </c>
       <c r="J10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L10" t="s">
         <v>594</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>595</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>616</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>639</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>640</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>567</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>568</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>568</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>691</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>480</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>480</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>733</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>746</v>
       </c>
       <c r="Y10" t="s">
@@ -9873,9 +9906,6 @@
       </c>
       <c r="AW10" t="s">
         <v>1227</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>1239</v>
       </c>
       <c r="AY10" t="s">
         <v>1254</v>
@@ -9988,42 +10018,45 @@
         <v>774</v>
       </c>
       <c r="J11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L11" t="s">
         <v>596</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>597</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>618</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>641</v>
-      </c>
-      <c r="N11" t="s">
-        <v>642</v>
-      </c>
-      <c r="O11" t="s">
-        <v>895</v>
       </c>
       <c r="P11" t="s">
         <v>642</v>
       </c>
       <c r="Q11" t="s">
+        <v>895</v>
+      </c>
+      <c r="R11" t="s">
+        <v>642</v>
+      </c>
+      <c r="S11" t="s">
         <v>681</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>692</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>706</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>717</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>734</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>747</v>
       </c>
       <c r="Y11" t="s">
@@ -10100,9 +10133,6 @@
       </c>
       <c r="AW11" t="s">
         <v>706</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>1240</v>
       </c>
       <c r="AY11" t="s">
         <v>1255</v>
@@ -10217,40 +10247,43 @@
       <c r="J12" t="s">
         <v>998</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>998</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>998</v>
+      </c>
+      <c r="N12" t="s">
         <v>617</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>643</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>644</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>569</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>570</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>617</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>693</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>998</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>718</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>735</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>748</v>
       </c>
       <c r="Y12" t="s">
@@ -10326,9 +10359,6 @@
         <v>998</v>
       </c>
       <c r="AW12" t="s">
-        <v>998</v>
-      </c>
-      <c r="AX12" t="s">
         <v>998</v>
       </c>
       <c r="AY12" t="s">
@@ -10442,42 +10472,45 @@
         <v>928</v>
       </c>
       <c r="J13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L13" t="s">
         <v>600</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>601</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>621</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>647</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>648</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>896</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>899</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>621</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>695</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>708</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>720</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>737</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>750</v>
       </c>
       <c r="Y13" t="s">
@@ -10554,9 +10587,6 @@
       </c>
       <c r="AW13" t="s">
         <v>708</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>1242</v>
       </c>
       <c r="AY13" t="s">
         <v>1258</v>
@@ -10669,42 +10699,45 @@
         <v>776</v>
       </c>
       <c r="J14" t="s">
+        <v>1241</v>
+      </c>
+      <c r="L14" t="s">
         <v>598</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>599</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>620</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>645</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>646</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>894</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>898</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>682</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>694</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>707</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>719</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>736</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>749</v>
       </c>
       <c r="Y14" t="s">
@@ -10781,9 +10814,6 @@
       </c>
       <c r="AW14" t="s">
         <v>1228</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>1241</v>
       </c>
       <c r="AY14" t="s">
         <v>1257</v>
@@ -10896,42 +10926,45 @@
         <v>777</v>
       </c>
       <c r="J15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L15" t="s">
         <v>602</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>603</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>902</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>903</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>904</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>897</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>900</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>915</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>918</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>709</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>721</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>738</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>923</v>
       </c>
       <c r="Y15" t="s">
@@ -11008,9 +11041,6 @@
       </c>
       <c r="AW15" t="s">
         <v>1229</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>1243</v>
       </c>
       <c r="AY15" t="s">
         <v>1259</v>
@@ -11123,42 +11153,45 @@
         <v>778</v>
       </c>
       <c r="J16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="L16" t="s">
         <v>604</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>605</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>622</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>649</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>650</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>572</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>573</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>622</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>696</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>710</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>722</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>739</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>924</v>
       </c>
       <c r="Y16" t="s">
@@ -11235,9 +11268,6 @@
       </c>
       <c r="AW16" t="s">
         <v>1230</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>1244</v>
       </c>
       <c r="AY16" t="s">
         <v>1260</v>
@@ -11350,42 +11380,45 @@
         <v>779</v>
       </c>
       <c r="J17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L17" t="s">
         <v>606</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>607</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>623</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>905</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>906</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>574</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>575</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>684</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>697</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>699</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>723</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>725</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>751</v>
       </c>
       <c r="Y17" t="s">
@@ -11462,9 +11495,6 @@
       </c>
       <c r="AW17" t="s">
         <v>1231</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>1245</v>
       </c>
       <c r="AY17" t="s">
         <v>1261</v>
@@ -11577,42 +11607,45 @@
         <v>980</v>
       </c>
       <c r="J18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L18" t="s">
         <v>998</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>998</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>988</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>989</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>991</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>992</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>985</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>984</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>975</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>983</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" t="s">
         <v>982</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>981</v>
       </c>
       <c r="Y18" t="s">
@@ -11689,9 +11722,6 @@
       </c>
       <c r="AW18" t="s">
         <v>975</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>1246</v>
       </c>
       <c r="AY18" t="s">
         <v>1262</v>
@@ -11804,42 +11834,45 @@
         <v>929</v>
       </c>
       <c r="J19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L19" t="s">
         <v>608</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>609</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>624</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>651</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>652</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>576</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>577</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>624</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>686</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>711</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>713</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W19" t="s">
         <v>726</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>752</v>
       </c>
       <c r="Y19" t="s">
@@ -11916,9 +11949,6 @@
       </c>
       <c r="AW19" t="s">
         <v>1232</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>1247</v>
       </c>
       <c r="AY19" t="s">
         <v>1263</v>
@@ -12030,10 +12060,13 @@
       <c r="I20" t="s">
         <v>2133</v>
       </c>
-      <c r="O20" t="s">
+      <c r="J20" t="s">
+        <v>2243</v>
+      </c>
+      <c r="Q20" t="s">
         <v>1895</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -12065,10 +12098,13 @@
       <c r="I21" t="s">
         <v>2135</v>
       </c>
-      <c r="O21" t="s">
+      <c r="J21" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Q21" t="s">
         <v>1897</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -12100,10 +12136,13 @@
       <c r="I22" t="s">
         <v>2137</v>
       </c>
-      <c r="O22" t="s">
+      <c r="J22" t="s">
+        <v>2245</v>
+      </c>
+      <c r="Q22" t="s">
         <v>1899</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>1900</v>
       </c>
     </row>
@@ -12135,10 +12174,13 @@
       <c r="I23" t="s">
         <v>2139</v>
       </c>
-      <c r="O23" t="s">
+      <c r="J23" t="s">
+        <v>2246</v>
+      </c>
+      <c r="Q23" t="s">
         <v>1901</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>1741</v>
       </c>
     </row>
@@ -12170,10 +12212,13 @@
       <c r="I24" t="s">
         <v>2141</v>
       </c>
-      <c r="O24" t="s">
+      <c r="J24" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q24" t="s">
         <v>1902</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>1903</v>
       </c>
     </row>
@@ -12205,10 +12250,13 @@
       <c r="I25" t="s">
         <v>2143</v>
       </c>
-      <c r="O25" t="s">
+      <c r="J25" t="s">
+        <v>2248</v>
+      </c>
+      <c r="Q25" t="s">
         <v>1904</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>1905</v>
       </c>
     </row>
@@ -12240,10 +12288,13 @@
       <c r="I26" t="s">
         <v>2145</v>
       </c>
-      <c r="O26" t="s">
+      <c r="J26" t="s">
+        <v>2249</v>
+      </c>
+      <c r="Q26" t="s">
         <v>1906</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>1907</v>
       </c>
     </row>
@@ -12275,10 +12326,13 @@
       <c r="I27" t="s">
         <v>2147</v>
       </c>
-      <c r="O27" t="s">
+      <c r="J27" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q27" t="s">
         <v>1908</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>1909</v>
       </c>
     </row>
@@ -12310,10 +12364,13 @@
       <c r="I28" t="s">
         <v>2149</v>
       </c>
-      <c r="O28" t="s">
+      <c r="J28" t="s">
+        <v>2251</v>
+      </c>
+      <c r="Q28" t="s">
         <v>1910</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>1911</v>
       </c>
     </row>
@@ -12345,10 +12402,13 @@
       <c r="I29" t="s">
         <v>2151</v>
       </c>
-      <c r="O29" t="s">
+      <c r="J29" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Q29" t="s">
         <v>1981</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>1982</v>
       </c>
     </row>
@@ -12380,10 +12440,10 @@
       <c r="I30" t="s">
         <v>2153</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>1912</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -12415,10 +12475,10 @@
       <c r="I31" t="s">
         <v>2155</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>1915</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>1914</v>
       </c>
     </row>
@@ -12450,14 +12510,14 @@
       <c r="I32" t="s">
         <v>2157</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>1916</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -12485,14 +12545,14 @@
       <c r="I33" t="s">
         <v>2159</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>1918</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -12520,14 +12580,14 @@
       <c r="I34" t="s">
         <v>2161</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>1920</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -12555,14 +12615,14 @@
       <c r="I35" t="s">
         <v>2163</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>1922</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1272</v>
       </c>
@@ -12590,14 +12650,14 @@
       <c r="I36" t="s">
         <v>2165</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
         <v>1924</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>507</v>
       </c>
@@ -12625,14 +12685,14 @@
       <c r="I37" t="s">
         <v>2167</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>1926</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -12660,14 +12720,14 @@
       <c r="I38" t="s">
         <v>2169</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>1928</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -12695,14 +12755,14 @@
       <c r="I39" t="s">
         <v>2171</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>1931</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -12730,14 +12790,14 @@
       <c r="I40" t="s">
         <v>2173</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>1932</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -12765,14 +12825,14 @@
       <c r="I41" t="s">
         <v>2175</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>1934</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -12800,14 +12860,14 @@
       <c r="I42" t="s">
         <v>2177</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>1936</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>491</v>
       </c>
@@ -12835,14 +12895,14 @@
       <c r="I43" t="s">
         <v>2179</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>1938</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -12870,14 +12930,14 @@
       <c r="I44" t="s">
         <v>2181</v>
       </c>
-      <c r="O44" t="s">
+      <c r="Q44" t="s">
         <v>1940</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1701</v>
       </c>
@@ -12905,14 +12965,14 @@
       <c r="I45" t="s">
         <v>2183</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>1942</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -12940,14 +13000,14 @@
       <c r="I46" t="s">
         <v>2185</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>1944</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -12975,14 +13035,14 @@
       <c r="I47" t="s">
         <v>2187</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>1946</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>581</v>
       </c>
@@ -13010,14 +13070,14 @@
       <c r="I48" t="s">
         <v>2189</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -13045,14 +13105,14 @@
       <c r="I49" t="s">
         <v>2190</v>
       </c>
-      <c r="O49" t="s">
+      <c r="Q49" t="s">
         <v>1950</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -13080,14 +13140,14 @@
       <c r="I50" t="s">
         <v>2193</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>1952</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1708</v>
       </c>
@@ -13115,14 +13175,14 @@
       <c r="I51" t="s">
         <v>2195</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
         <v>1954</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -13150,14 +13210,14 @@
       <c r="I52" t="s">
         <v>2197</v>
       </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>1956</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1711</v>
       </c>
@@ -13185,14 +13245,14 @@
       <c r="I53" t="s">
         <v>2199</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -13220,14 +13280,14 @@
       <c r="I54" t="s">
         <v>2201</v>
       </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
         <v>1960</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>492</v>
       </c>
@@ -13255,14 +13315,14 @@
       <c r="I55" t="s">
         <v>2203</v>
       </c>
-      <c r="O55" t="s">
+      <c r="Q55" t="s">
         <v>1962</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -13290,14 +13350,14 @@
       <c r="I56" t="s">
         <v>2205</v>
       </c>
-      <c r="O56" t="s">
+      <c r="Q56" t="s">
         <v>1964</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -13325,14 +13385,14 @@
       <c r="I57" t="s">
         <v>2207</v>
       </c>
-      <c r="O57" t="s">
+      <c r="Q57" t="s">
         <v>1966</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -13360,14 +13420,14 @@
       <c r="I58" t="s">
         <v>2209</v>
       </c>
-      <c r="O58" t="s">
+      <c r="Q58" t="s">
         <v>1968</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -13395,14 +13455,14 @@
       <c r="I59" t="s">
         <v>2211</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
         <v>1970</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -13430,14 +13490,14 @@
       <c r="I60" t="s">
         <v>2213</v>
       </c>
-      <c r="O60" t="s">
+      <c r="Q60" t="s">
         <v>1972</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -13465,14 +13525,14 @@
       <c r="I61" t="s">
         <v>2215</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -13500,14 +13560,14 @@
       <c r="I62" t="s">
         <v>2217</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
         <v>1976</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -13535,14 +13595,14 @@
       <c r="I63" t="s">
         <v>2219</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>1978</v>
       </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -13570,14 +13630,14 @@
       <c r="I64" t="s">
         <v>2221</v>
       </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
         <v>1983</v>
       </c>
-      <c r="P64" t="s">
+      <c r="R64" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -13605,14 +13665,14 @@
       <c r="I65" t="s">
         <v>2223</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>1985</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -13640,14 +13700,14 @@
       <c r="I66" t="s">
         <v>2225</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
         <v>1987</v>
       </c>
-      <c r="P66" t="s">
+      <c r="R66" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -13675,14 +13735,14 @@
       <c r="I67" t="s">
         <v>2227</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
         <v>1989</v>
       </c>
-      <c r="P67" t="s">
+      <c r="R67" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -13710,14 +13770,14 @@
       <c r="I68" t="s">
         <v>2229</v>
       </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
         <v>1991</v>
       </c>
-      <c r="P68" t="s">
+      <c r="R68" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1772</v>
       </c>
@@ -13745,14 +13805,14 @@
       <c r="I69" t="s">
         <v>2231</v>
       </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
         <v>1993</v>
       </c>
-      <c r="P69" t="s">
+      <c r="R69" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -13780,14 +13840,14 @@
       <c r="I70" t="s">
         <v>2233</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q70" t="s">
         <v>1995</v>
       </c>
-      <c r="P70" t="s">
+      <c r="R70" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -13815,14 +13875,14 @@
       <c r="I71" t="s">
         <v>2235</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
         <v>998</v>
       </c>
-      <c r="P71" t="s">
+      <c r="R71" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1997</v>
       </c>
@@ -13850,14 +13910,14 @@
       <c r="I72" t="s">
         <v>2237</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
         <v>1998</v>
       </c>
-      <c r="P72" t="s">
+      <c r="R72" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -13885,14 +13945,14 @@
       <c r="I73" t="s">
         <v>2239</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>2000</v>
       </c>
-      <c r="P73" t="s">
+      <c r="R73" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -13920,39 +13980,39 @@
       <c r="I74" t="s">
         <v>2241</v>
       </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
         <v>2002</v>
       </c>
-      <c r="P74" t="s">
+      <c r="R74" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D46687-B35B-144A-B845-C70A2CCF0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F13498-E5EA-AC47-8616-F1C249B220AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="2252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="2262">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6801,6 +6801,36 @@
   </si>
   <si>
     <t>ساحل دریا, ساحل</t>
+  </si>
+  <si>
+    <t>شروع, اغاز نهادن, اغاز شدن</t>
+  </si>
+  <si>
+    <t>شاهین ترازو</t>
+  </si>
+  <si>
+    <t>لوبیا, باقلا, حبوبات</t>
+  </si>
+  <si>
+    <t>خرس</t>
+  </si>
+  <si>
+    <t>زیبا</t>
+  </si>
+  <si>
+    <t>بستر, رختخواب</t>
+  </si>
+  <si>
+    <t>زنبور عسل, زنبور</t>
+  </si>
+  <si>
+    <t>راش</t>
+  </si>
+  <si>
+    <t>آبجو</t>
+  </si>
+  <si>
+    <t>سوسک</t>
   </si>
 </sst>
 </file>
@@ -7650,7 +7680,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7664,7 +7694,8 @@
     <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
@@ -12440,6 +12471,9 @@
       <c r="I30" t="s">
         <v>2153</v>
       </c>
+      <c r="J30" t="s">
+        <v>2253</v>
+      </c>
       <c r="Q30" t="s">
         <v>1912</v>
       </c>
@@ -12475,6 +12509,9 @@
       <c r="I31" t="s">
         <v>2155</v>
       </c>
+      <c r="J31" t="s">
+        <v>2254</v>
+      </c>
       <c r="Q31" t="s">
         <v>1915</v>
       </c>
@@ -12510,6 +12547,9 @@
       <c r="I32" t="s">
         <v>2157</v>
       </c>
+      <c r="J32" t="s">
+        <v>2255</v>
+      </c>
       <c r="Q32" t="s">
         <v>1916</v>
       </c>
@@ -12545,6 +12585,9 @@
       <c r="I33" t="s">
         <v>2159</v>
       </c>
+      <c r="J33" t="s">
+        <v>2256</v>
+      </c>
       <c r="Q33" t="s">
         <v>1918</v>
       </c>
@@ -12580,6 +12623,9 @@
       <c r="I34" t="s">
         <v>2161</v>
       </c>
+      <c r="J34" t="s">
+        <v>2257</v>
+      </c>
       <c r="Q34" t="s">
         <v>1920</v>
       </c>
@@ -12615,6 +12661,9 @@
       <c r="I35" t="s">
         <v>2163</v>
       </c>
+      <c r="J35" t="s">
+        <v>2258</v>
+      </c>
       <c r="Q35" t="s">
         <v>1922</v>
       </c>
@@ -12650,6 +12699,9 @@
       <c r="I36" t="s">
         <v>2165</v>
       </c>
+      <c r="J36" t="s">
+        <v>2259</v>
+      </c>
       <c r="Q36" t="s">
         <v>1924</v>
       </c>
@@ -12685,6 +12737,9 @@
       <c r="I37" t="s">
         <v>2167</v>
       </c>
+      <c r="J37" t="s">
+        <v>2260</v>
+      </c>
       <c r="Q37" t="s">
         <v>1926</v>
       </c>
@@ -12720,6 +12775,9 @@
       <c r="I38" t="s">
         <v>2169</v>
       </c>
+      <c r="J38" t="s">
+        <v>2261</v>
+      </c>
       <c r="Q38" t="s">
         <v>1928</v>
       </c>
@@ -12754,6 +12812,9 @@
       </c>
       <c r="I39" t="s">
         <v>2171</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2252</v>
       </c>
       <c r="Q39" t="s">
         <v>1931</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F13498-E5EA-AC47-8616-F1C249B220AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B466B-2D53-F042-83B1-D52D412D4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="2262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="2272">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6831,6 +6831,36 @@
   </si>
   <si>
     <t>سوسک</t>
+  </si>
+  <si>
+    <t>کور, نابینا</t>
+  </si>
+  <si>
+    <t>زنگ, ناقوس</t>
+  </si>
+  <si>
+    <t>شکم</t>
+  </si>
+  <si>
+    <t>بزرگ</t>
+  </si>
+  <si>
+    <t>توس</t>
+  </si>
+  <si>
+    <t>پرنده</t>
+  </si>
+  <si>
+    <t>گاز گرفتن</t>
+  </si>
+  <si>
+    <t>تلخ</t>
+  </si>
+  <si>
+    <t>سیاه</t>
+  </si>
+  <si>
+    <t>تیغه, پره</t>
   </si>
 </sst>
 </file>
@@ -7680,7 +7710,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7699,8 +7729,8 @@
     <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -12851,6 +12881,9 @@
       <c r="I40" t="s">
         <v>2173</v>
       </c>
+      <c r="J40" t="s">
+        <v>2263</v>
+      </c>
       <c r="Q40" t="s">
         <v>1932</v>
       </c>
@@ -12886,6 +12919,9 @@
       <c r="I41" t="s">
         <v>2175</v>
       </c>
+      <c r="J41" t="s">
+        <v>2264</v>
+      </c>
       <c r="Q41" t="s">
         <v>1934</v>
       </c>
@@ -12921,6 +12957,9 @@
       <c r="I42" t="s">
         <v>2177</v>
       </c>
+      <c r="J42" t="s">
+        <v>2265</v>
+      </c>
       <c r="Q42" t="s">
         <v>1936</v>
       </c>
@@ -12956,6 +12995,9 @@
       <c r="I43" t="s">
         <v>2179</v>
       </c>
+      <c r="J43" t="s">
+        <v>2266</v>
+      </c>
       <c r="Q43" t="s">
         <v>1938</v>
       </c>
@@ -12991,6 +13033,9 @@
       <c r="I44" t="s">
         <v>2181</v>
       </c>
+      <c r="J44" t="s">
+        <v>2267</v>
+      </c>
       <c r="Q44" t="s">
         <v>1940</v>
       </c>
@@ -13026,6 +13071,9 @@
       <c r="I45" t="s">
         <v>2183</v>
       </c>
+      <c r="J45" t="s">
+        <v>2268</v>
+      </c>
       <c r="Q45" t="s">
         <v>1942</v>
       </c>
@@ -13061,6 +13109,9 @@
       <c r="I46" t="s">
         <v>2185</v>
       </c>
+      <c r="J46" t="s">
+        <v>2269</v>
+      </c>
       <c r="Q46" t="s">
         <v>1944</v>
       </c>
@@ -13096,6 +13147,9 @@
       <c r="I47" t="s">
         <v>2187</v>
       </c>
+      <c r="J47" t="s">
+        <v>2270</v>
+      </c>
       <c r="Q47" t="s">
         <v>1946</v>
       </c>
@@ -13131,6 +13185,9 @@
       <c r="I48" t="s">
         <v>2189</v>
       </c>
+      <c r="J48" t="s">
+        <v>2271</v>
+      </c>
       <c r="Q48" s="1" t="s">
         <v>1948</v>
       </c>
@@ -13165,6 +13222,9 @@
       </c>
       <c r="I49" t="s">
         <v>2190</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2262</v>
       </c>
       <c r="Q49" t="s">
         <v>1950</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B466B-2D53-F042-83B1-D52D412D4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66749434-ED8F-2E48-88EF-9BE0CC653892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="2282">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6861,6 +6861,36 @@
   </si>
   <si>
     <t>تیغه, پره</t>
+  </si>
+  <si>
+    <t>مغز</t>
+  </si>
+  <si>
+    <t>خون</t>
+  </si>
+  <si>
+    <t>آبی</t>
+  </si>
+  <si>
+    <t>قایق</t>
+  </si>
+  <si>
+    <t>جوشیدن</t>
+  </si>
+  <si>
+    <t>استخوان</t>
+  </si>
+  <si>
+    <t>متولد شدن</t>
+  </si>
+  <si>
+    <t>کمان</t>
+  </si>
+  <si>
+    <t>کاسه</t>
+  </si>
+  <si>
+    <t>پسر</t>
   </si>
 </sst>
 </file>
@@ -7707,10 +7737,10 @@
   <dimension ref="A1:BY532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13261,6 +13291,9 @@
       <c r="I50" t="s">
         <v>2193</v>
       </c>
+      <c r="J50" t="s">
+        <v>2273</v>
+      </c>
       <c r="Q50" t="s">
         <v>1952</v>
       </c>
@@ -13296,6 +13329,9 @@
       <c r="I51" t="s">
         <v>2195</v>
       </c>
+      <c r="J51" t="s">
+        <v>2274</v>
+      </c>
       <c r="Q51" t="s">
         <v>1954</v>
       </c>
@@ -13331,6 +13367,9 @@
       <c r="I52" t="s">
         <v>2197</v>
       </c>
+      <c r="J52" t="s">
+        <v>2275</v>
+      </c>
       <c r="Q52" t="s">
         <v>1956</v>
       </c>
@@ -13366,6 +13405,9 @@
       <c r="I53" t="s">
         <v>2199</v>
       </c>
+      <c r="J53" t="s">
+        <v>2276</v>
+      </c>
       <c r="Q53" s="1" t="s">
         <v>1958</v>
       </c>
@@ -13401,6 +13443,9 @@
       <c r="I54" t="s">
         <v>2201</v>
       </c>
+      <c r="J54" t="s">
+        <v>2277</v>
+      </c>
       <c r="Q54" t="s">
         <v>1960</v>
       </c>
@@ -13436,6 +13481,9 @@
       <c r="I55" t="s">
         <v>2203</v>
       </c>
+      <c r="J55" t="s">
+        <v>2278</v>
+      </c>
       <c r="Q55" t="s">
         <v>1962</v>
       </c>
@@ -13471,6 +13519,9 @@
       <c r="I56" t="s">
         <v>2205</v>
       </c>
+      <c r="J56" t="s">
+        <v>2279</v>
+      </c>
       <c r="Q56" t="s">
         <v>1964</v>
       </c>
@@ -13506,6 +13557,9 @@
       <c r="I57" t="s">
         <v>2207</v>
       </c>
+      <c r="J57" t="s">
+        <v>2280</v>
+      </c>
       <c r="Q57" t="s">
         <v>1966</v>
       </c>
@@ -13541,6 +13595,9 @@
       <c r="I58" t="s">
         <v>2209</v>
       </c>
+      <c r="J58" t="s">
+        <v>2281</v>
+      </c>
       <c r="Q58" t="s">
         <v>1968</v>
       </c>
@@ -13575,6 +13632,9 @@
       </c>
       <c r="I59" t="s">
         <v>2211</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2272</v>
       </c>
       <c r="Q59" t="s">
         <v>1970</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D73E9C-4FD0-E24A-8558-372CFB4BF7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED6647-18D8-A041-8614-69F11CE81210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="2317">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6921,6 +6921,81 @@
   </si>
   <si>
     <t>سوختن</t>
+  </si>
+  <si>
+    <t>دفن کردن,  از نظر پوشاندن</t>
+  </si>
+  <si>
+    <t>لب به لب, لب به لب</t>
+  </si>
+  <si>
+    <t>باسن, باسن, کپل</t>
+  </si>
+  <si>
+    <t>پروانه</t>
+  </si>
+  <si>
+    <t>خرید</t>
+  </si>
+  <si>
+    <t>चुच्चो</t>
+  </si>
+  <si>
+    <t>Cuccō</t>
+  </si>
+  <si>
+    <t>Samudra taṭa, Samudra vā nadikō kināra, Bagara</t>
+  </si>
+  <si>
+    <t>समुद्र तट, समुद्र वा नदिको किनार, बगर</t>
+  </si>
+  <si>
+    <t>ब्याट, चमेरो</t>
+  </si>
+  <si>
+    <t>Byāṭa, Camērō</t>
+  </si>
+  <si>
+    <t>टोकरी, डालो</t>
+  </si>
+  <si>
+    <t>Ṭōkarī, Ḍālō</t>
+  </si>
+  <si>
+    <t>जौ, जौं</t>
+  </si>
+  <si>
+    <t>Jau, Jaum?</t>
+  </si>
+  <si>
+    <t>बार्क, रुखको बोक्रा</t>
+  </si>
+  <si>
+    <t>Bārka, Rukhakō bōkrā</t>
+  </si>
+  <si>
+    <t>बाँस, बास</t>
+  </si>
+  <si>
+    <t>Bām̐sa, Bāsa</t>
+  </si>
+  <si>
+    <t>नराम्रो, खराब</t>
+  </si>
+  <si>
+    <t>Narāmrō, Kharāb</t>
+  </si>
+  <si>
+    <t>फिर्ता, पिठिउ, पछिल्तिर</t>
+  </si>
+  <si>
+    <t>Phirtā, Piṭhiu, Pachiltira</t>
+  </si>
+  <si>
+    <t>बच्चा</t>
+  </si>
+  <si>
+    <t>Baccā</t>
   </si>
 </sst>
 </file>
@@ -7764,13 +7839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY532"/>
+  <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7785,71 +7860,72 @@
     <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1640625" customWidth="1"/>
-    <col min="37" max="37" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.1640625" customWidth="1"/>
-    <col min="41" max="41" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.83203125" customWidth="1"/>
-    <col min="44" max="44" width="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1640625" customWidth="1"/>
-    <col min="55" max="55" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.1640625" customWidth="1"/>
-    <col min="58" max="59" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="15.1640625" customWidth="1"/>
-    <col min="63" max="63" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.1640625" customWidth="1"/>
-    <col min="70" max="70" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="36" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="34" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" customWidth="1"/>
+    <col min="38" max="38" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.1640625" customWidth="1"/>
+    <col min="42" max="42" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.83203125" customWidth="1"/>
+    <col min="45" max="45" width="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.1640625" customWidth="1"/>
+    <col min="56" max="56" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.1640625" customWidth="1"/>
+    <col min="59" max="60" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="15.1640625" customWidth="1"/>
+    <col min="64" max="64" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.1640625" customWidth="1"/>
+    <col min="71" max="71" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="25" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="36" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="34" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>471</v>
       </c>
@@ -7880,203 +7956,203 @@
       <c r="J1" t="s">
         <v>797</v>
       </c>
+      <c r="K1" t="s">
+        <v>795</v>
+      </c>
       <c r="L1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M1" t="s">
         <v>581</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>582</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>609</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>624</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>626</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>551</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>552</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>676</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>684</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>697</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>711</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>723</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>739</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>779</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>780</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>781</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>782</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>783</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>784</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>785</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>786</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>787</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>999</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>788</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1039</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>789</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>1058</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>790</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>1091</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>791</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>792</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>793</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>1140</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>794</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>1169</v>
       </c>
-      <c r="AU1" t="s">
-        <v>795</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>796</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>798</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>799</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>800</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>1280</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>801</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>802</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>1320</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>803</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>804</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>805</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>1370</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>806</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>1392</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>807</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>808</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>809</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>810</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>811</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>1473</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>812</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>813</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>814</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>815</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>1597</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>816</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>817</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -8107,6 +8183,9 @@
       <c r="J2" t="s">
         <v>488</v>
       </c>
+      <c r="K2" t="s">
+        <v>488</v>
+      </c>
       <c r="L2" t="s">
         <v>488</v>
       </c>
@@ -8174,10 +8253,10 @@
         <v>488</v>
       </c>
       <c r="AH2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI2" t="s">
         <v>1005</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>488</v>
       </c>
       <c r="AJ2" t="s">
         <v>488</v>
@@ -8186,10 +8265,10 @@
         <v>488</v>
       </c>
       <c r="AL2" t="s">
+        <v>488</v>
+      </c>
+      <c r="AM2" t="s">
         <v>1005</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>488</v>
       </c>
       <c r="AN2" t="s">
         <v>488</v>
@@ -8215,13 +8294,7 @@
       <c r="AU2" t="s">
         <v>488</v>
       </c>
-      <c r="AV2" t="s">
-        <v>488</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="AX2" t="s">
         <v>488</v>
       </c>
       <c r="AZ2" t="s">
@@ -8302,8 +8375,11 @@
       <c r="BY2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="BZ2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1515</v>
       </c>
@@ -8334,194 +8410,194 @@
       <c r="J3" t="s">
         <v>1568</v>
       </c>
+      <c r="K3" t="s">
+        <v>1566</v>
+      </c>
       <c r="L3" t="s">
-        <v>997</v>
+        <v>1548</v>
       </c>
       <c r="M3" t="s">
         <v>997</v>
       </c>
       <c r="N3" t="s">
+        <v>997</v>
+      </c>
+      <c r="O3" t="s">
         <v>1535</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>1536</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>1537</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>1533</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>1534</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>1535</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>1540</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>1541</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>1542</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>1543</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>1544</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>1547</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>1548</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>1549</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>1550</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>1551</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>1552</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>1553</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>1554</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>1555</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>1556</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>1557</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>1558</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>1559</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>1560</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>1561</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>1562</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>1563</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>1564</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>1565</v>
       </c>
-      <c r="AU3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>1567</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>1569</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>1570</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>1571</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>1572</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>1573</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>1574</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>1575</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>1576</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>1577</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>1578</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>1535</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>997</v>
       </c>
       <c r="BK3" t="s">
         <v>997</v>
       </c>
       <c r="BL3" t="s">
+        <v>997</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1579</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>1580</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>1581</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>1582</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>1583</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>1584</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BS3" t="s">
         <v>1585</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
         <v>1516</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>1515</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>1599</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BW3" t="s">
         <v>1600</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>997</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BY3" t="s">
         <v>1638</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -8552,6 +8628,9 @@
       <c r="J4" t="s">
         <v>1232</v>
       </c>
+      <c r="K4" t="s">
+        <v>997</v>
+      </c>
       <c r="L4" t="s">
         <v>997</v>
       </c>
@@ -8559,196 +8638,193 @@
         <v>997</v>
       </c>
       <c r="N4" t="s">
+        <v>997</v>
+      </c>
+      <c r="O4" t="s">
         <v>610</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>625</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>627</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>553</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>554</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>677</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>686</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>699</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>918</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>726</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>740</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>819</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>820</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>846</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>847</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>874</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>930</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>957</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>958</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>998</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>1000</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>1032</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>473</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>1061</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>1062</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>1032</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>473</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>1109</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>1124</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>1139</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>1141</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>1195</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>1196</v>
       </c>
-      <c r="AU4" t="s">
-        <v>997</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>997</v>
-      </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>1223</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>1247</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>1263</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>997</v>
       </c>
       <c r="BB4" t="s">
         <v>997</v>
       </c>
       <c r="BC4" t="s">
+        <v>997</v>
+      </c>
+      <c r="BD4" t="s">
         <v>1305</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>1321</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>1322</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>997</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>1358</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>1371</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>610</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>1391</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>1393</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>1420</v>
       </c>
       <c r="BM4" t="s">
         <v>1420</v>
       </c>
       <c r="BN4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BO4" t="s">
         <v>1446</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>1461</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>1032</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>473</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BS4" t="s">
         <v>1032</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>1514</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>473</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>1596</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BW4" t="s">
         <v>1598</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BX4" t="s">
         <v>997</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BY4" t="s">
         <v>1639</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BZ4" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="5" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>474</v>
       </c>
@@ -8779,203 +8855,203 @@
       <c r="J5" t="s">
         <v>1233</v>
       </c>
+      <c r="K5" t="s">
+        <v>1198</v>
+      </c>
       <c r="L5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M5" t="s">
         <v>583</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>584</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>900</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>628</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>629</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>555</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>556</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>900</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>915</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>700</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>919</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>727</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>741</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>821</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>822</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>848</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>849</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>875</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>931</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>956</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>959</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>1001</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>1002</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>1033</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>1034</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>1063</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>1064</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>1092</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>1093</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>1110</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>1125</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>1142</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>1143</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>1193</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>1194</v>
       </c>
-      <c r="AU5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>1224</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>1248</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>1264</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>1281</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>1282</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>1306</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>1323</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>1324</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>1347</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>956</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>1372</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>1373</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>1394</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>1395</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>1421</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>1434</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>1447</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>1462</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>1474</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>1475</v>
       </c>
-      <c r="BR5" t="s">
+      <c r="BS5" t="s">
         <v>1502</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BT5" t="s">
         <v>1517</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU5" t="s">
         <v>1586</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>1601</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BW5" t="s">
         <v>1602</v>
       </c>
-      <c r="BW5" t="s">
+      <c r="BX5" t="s">
         <v>1626</v>
       </c>
-      <c r="BX5" t="s">
+      <c r="BY5" t="s">
         <v>1640</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="BZ5" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="6" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>475</v>
       </c>
@@ -9006,203 +9082,203 @@
       <c r="J6" t="s">
         <v>1234</v>
       </c>
+      <c r="K6" t="s">
+        <v>1200</v>
+      </c>
       <c r="L6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M6" t="s">
         <v>585</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>586</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>611</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>630</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>631</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>557</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>558</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>611</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>687</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>701</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>713</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>728</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>742</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>823</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>824</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>850</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>851</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>876</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>932</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>955</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>728</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>1003</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>1004</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>1035</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>1036</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>1065</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>1066</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>1094</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>1095</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>475</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>1126</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>1144</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>1191</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>1192</v>
       </c>
-      <c r="AU6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>701</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>1249</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>475</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>1283</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>1284</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>475</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>1325</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>1326</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>1348</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BH6" t="s">
         <v>1359</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>1374</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>611</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>1396</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>1397</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
         <v>1422</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BN6" t="s">
         <v>1435</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BO6" t="s">
         <v>475</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>1463</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>1476</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>1477</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BS6" t="s">
         <v>1503</v>
       </c>
-      <c r="BS6" t="s">
+      <c r="BT6" t="s">
         <v>1518</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BU6" t="s">
         <v>1587</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BV6" t="s">
         <v>1603</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BW6" t="s">
         <v>1604</v>
       </c>
-      <c r="BW6" t="s">
+      <c r="BX6" t="s">
         <v>1627</v>
       </c>
-      <c r="BX6" t="s">
+      <c r="BY6" t="s">
         <v>1641</v>
       </c>
-      <c r="BY6" t="s">
+      <c r="BZ6" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>476</v>
       </c>
@@ -9233,203 +9309,203 @@
       <c r="J7" t="s">
         <v>1235</v>
       </c>
+      <c r="K7" t="s">
+        <v>1202</v>
+      </c>
       <c r="L7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M7" t="s">
         <v>587</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>588</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>612</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>632</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>633</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>559</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>560</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>678</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>916</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>702</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>920</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>729</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>921</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>825</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>826</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>854</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>855</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>877</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>702</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>954</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>960</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>1006</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>1007</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>1037</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>1038</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>1067</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>1068</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>1096</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>1097</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>1111</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>1127</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>1146</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>1147</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>1189</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>1190</v>
       </c>
-      <c r="AU7" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>702</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>1250</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>1265</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>1285</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>826</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>1307</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>1327</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>1328</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>1349</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BH7" t="s">
         <v>1360</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>1375</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>678</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>1398</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>1399</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
         <v>1423</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BN7" t="s">
         <v>1436</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>1448</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>702</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>1478</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>1479</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="BS7" t="s">
         <v>1504</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="BT7" t="s">
         <v>1519</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>1588</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BV7" t="s">
         <v>1605</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BW7" t="s">
         <v>1606</v>
       </c>
-      <c r="BW7" t="s">
+      <c r="BX7" t="s">
         <v>1628</v>
       </c>
-      <c r="BX7" t="s">
+      <c r="BY7" t="s">
         <v>1642</v>
       </c>
-      <c r="BY7" t="s">
+      <c r="BZ7" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>477</v>
       </c>
@@ -9460,203 +9536,203 @@
       <c r="J8" t="s">
         <v>1236</v>
       </c>
+      <c r="K8" t="s">
+        <v>1204</v>
+      </c>
       <c r="L8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M8" t="s">
         <v>589</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>590</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>613</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>634</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>635</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>561</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>562</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>679</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>688</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>703</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>714</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>730</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>743</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>827</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>828</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>852</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>853</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>878</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>933</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>953</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>961</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>1008</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>1009</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>1040</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>1041</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>1069</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>1070</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>1098</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>1099</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>961</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>1128</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>1148</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>1149</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>1187</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>1188</v>
       </c>
-      <c r="AU8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>933</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>1251</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>1266</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>1286</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>1287</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>1308</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>1329</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>1330</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>997</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BH8" t="s">
         <v>1361</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>1376</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>613</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>1400</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>1401</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>1424</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BN8" t="s">
         <v>1437</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BO8" t="s">
         <v>1449</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>1464</v>
       </c>
-      <c r="BP8" s="1" t="s">
+      <c r="BQ8" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>1481</v>
       </c>
-      <c r="BR8" t="s">
+      <c r="BS8" t="s">
         <v>1505</v>
       </c>
-      <c r="BS8" t="s">
+      <c r="BT8" t="s">
         <v>1520</v>
       </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>1589</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>1607</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="BW8" t="s">
         <v>1608</v>
       </c>
-      <c r="BW8" t="s">
+      <c r="BX8" t="s">
         <v>1629</v>
       </c>
-      <c r="BX8" t="s">
+      <c r="BY8" t="s">
         <v>1643</v>
       </c>
-      <c r="BY8" t="s">
+      <c r="BZ8" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="9" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>478</v>
       </c>
@@ -9687,203 +9763,203 @@
       <c r="J9" t="s">
         <v>1237</v>
       </c>
+      <c r="K9" t="s">
+        <v>1206</v>
+      </c>
       <c r="L9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M9" t="s">
         <v>591</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>592</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>614</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>636</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>637</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>564</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>565</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>614</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>689</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>704</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>715</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>731</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>744</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>829</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>830</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>856</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>857</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>879</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>934</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>952</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>962</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>1011</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>1042</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>879</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>1071</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>1072</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>1042</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>879</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>1112</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>1129</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>1150</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>1151</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>1185</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>1186</v>
       </c>
-      <c r="AU9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>1225</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>1252</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>1267</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>1288</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>1289</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>1309</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>1331</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>1332</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>1350</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BH9" t="s">
         <v>1362</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>1377</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>614</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>1402</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>1403</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>689</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BN9" t="s">
         <v>1438</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BO9" t="s">
         <v>1450</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>1465</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>1482</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BR9" t="s">
         <v>1483</v>
       </c>
-      <c r="BR9" t="s">
+      <c r="BS9" t="s">
         <v>1506</v>
       </c>
-      <c r="BS9" t="s">
+      <c r="BT9" t="s">
         <v>1521</v>
       </c>
-      <c r="BT9" t="s">
+      <c r="BU9" t="s">
         <v>879</v>
       </c>
-      <c r="BU9" t="s">
+      <c r="BV9" t="s">
         <v>1609</v>
       </c>
-      <c r="BV9" t="s">
+      <c r="BW9" t="s">
         <v>1610</v>
       </c>
-      <c r="BW9" t="s">
+      <c r="BX9" t="s">
         <v>1630</v>
       </c>
-      <c r="BX9" t="s">
+      <c r="BY9" t="s">
         <v>1644</v>
       </c>
-      <c r="BY9" t="s">
+      <c r="BZ9" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>479</v>
       </c>
@@ -9914,203 +9990,203 @@
       <c r="J10" t="s">
         <v>1238</v>
       </c>
+      <c r="K10" t="s">
+        <v>1208</v>
+      </c>
       <c r="L10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M10" t="s">
         <v>593</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>594</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>615</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>638</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>639</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>566</v>
-      </c>
-      <c r="R10" t="s">
-        <v>567</v>
       </c>
       <c r="S10" t="s">
         <v>567</v>
       </c>
       <c r="T10" t="s">
+        <v>567</v>
+      </c>
+      <c r="U10" t="s">
         <v>690</v>
-      </c>
-      <c r="U10" t="s">
-        <v>479</v>
       </c>
       <c r="V10" t="s">
         <v>479</v>
       </c>
       <c r="W10" t="s">
+        <v>479</v>
+      </c>
+      <c r="X10" t="s">
         <v>732</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>745</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>831</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>832</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>858</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>859</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>880</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>935</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>951</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>963</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>1012</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>1013</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>1043</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>1044</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>1073</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>1074</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>1100</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>1101</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>1113</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>1130</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>1152</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>1153</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>1183</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>1184</v>
       </c>
-      <c r="AU10" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>1226</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>1253</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>1268</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>1290</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>1291</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>1310</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>566</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>567</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>1351</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>1363</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>1378</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>615</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>1404</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>1405</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BM10" t="s">
         <v>1425</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BN10" t="s">
         <v>1130</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>1451</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>1466</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>1484</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>1485</v>
       </c>
-      <c r="BR10" t="s">
+      <c r="BS10" t="s">
         <v>1507</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>1101</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>1590</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>566</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BW10" t="s">
         <v>567</v>
       </c>
-      <c r="BW10" t="s">
+      <c r="BX10" t="s">
         <v>997</v>
       </c>
-      <c r="BX10" t="s">
+      <c r="BY10" t="s">
         <v>1645</v>
       </c>
-      <c r="BY10" t="s">
+      <c r="BZ10" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="11" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>480</v>
       </c>
@@ -10141,203 +10217,203 @@
       <c r="J11" t="s">
         <v>1239</v>
       </c>
+      <c r="K11" t="s">
+        <v>1210</v>
+      </c>
       <c r="L11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M11" t="s">
         <v>595</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>596</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>617</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>640</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>641</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>894</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>641</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>680</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>691</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>705</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>716</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>733</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>746</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>833</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>596</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>860</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>861</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>881</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>936</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>950</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>964</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>1014</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>1015</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>1045</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>1046</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>1075</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>1076</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>1045</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>1046</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>1114</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>1131</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>1154</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>1155</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>1181</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>1182</v>
       </c>
-      <c r="AU11" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>705</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>1254</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>1269</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>1292</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>596</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>1311</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
         <v>1333</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>1334</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>1352</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BH11" t="s">
         <v>950</v>
       </c>
-      <c r="BH11" s="1" t="s">
+      <c r="BI11" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>1380</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>1406</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>1407</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BM11" t="s">
         <v>1426</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BN11" t="s">
         <v>1439</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>1453</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>705</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>1486</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
         <v>1487</v>
       </c>
-      <c r="BR11" t="s">
+      <c r="BS11" t="s">
         <v>1508</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>1522</v>
       </c>
       <c r="BT11" t="s">
         <v>1522</v>
       </c>
       <c r="BU11" t="s">
+        <v>1522</v>
+      </c>
+      <c r="BV11" t="s">
         <v>1611</v>
       </c>
-      <c r="BV11" t="s">
+      <c r="BW11" t="s">
         <v>1612</v>
       </c>
-      <c r="BW11" t="s">
+      <c r="BX11" t="s">
         <v>1631</v>
       </c>
-      <c r="BX11" t="s">
+      <c r="BY11" t="s">
         <v>1646</v>
       </c>
-      <c r="BY11" t="s">
+      <c r="BZ11" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>496</v>
       </c>
@@ -10368,6 +10444,9 @@
       <c r="J12" t="s">
         <v>997</v>
       </c>
+      <c r="K12" t="s">
+        <v>997</v>
+      </c>
       <c r="L12" t="s">
         <v>997</v>
       </c>
@@ -10375,40 +10454,40 @@
         <v>997</v>
       </c>
       <c r="N12" t="s">
+        <v>997</v>
+      </c>
+      <c r="O12" t="s">
         <v>616</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>642</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>643</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>568</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>569</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>616</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>692</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>997</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>717</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>734</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>747</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>997</v>
       </c>
       <c r="Z12" t="s">
         <v>997</v>
@@ -10420,19 +10499,19 @@
         <v>997</v>
       </c>
       <c r="AC12" t="s">
+        <v>997</v>
+      </c>
+      <c r="AD12" t="s">
         <v>882</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>937</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>949</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>965</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>997</v>
       </c>
       <c r="AH12" t="s">
         <v>997</v>
@@ -10444,25 +10523,25 @@
         <v>997</v>
       </c>
       <c r="AK12" t="s">
+        <v>997</v>
+      </c>
+      <c r="AL12" t="s">
         <v>1077</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>1078</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>997</v>
       </c>
       <c r="AN12" t="s">
         <v>997</v>
       </c>
       <c r="AO12" t="s">
+        <v>997</v>
+      </c>
+      <c r="AP12" t="s">
         <v>1115</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>1132</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>997</v>
       </c>
       <c r="AR12" t="s">
         <v>997</v>
@@ -10476,65 +10555,59 @@
       <c r="AU12" t="s">
         <v>997</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AX12" t="s">
         <v>997</v>
       </c>
-      <c r="AW12" t="s">
-        <v>997</v>
-      </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>1255</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>1270</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>997</v>
       </c>
       <c r="BB12" t="s">
         <v>997</v>
       </c>
       <c r="BC12" t="s">
+        <v>997</v>
+      </c>
+      <c r="BD12" t="s">
         <v>1312</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>568</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>1335</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>997</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>1364</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>1381</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>616</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>997</v>
       </c>
       <c r="BK12" t="s">
         <v>997</v>
       </c>
       <c r="BL12" t="s">
+        <v>997</v>
+      </c>
+      <c r="BM12" t="s">
         <v>1427</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>997</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>1452</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>1467</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>997</v>
       </c>
       <c r="BQ12" t="s">
         <v>997</v>
@@ -10543,28 +10616,31 @@
         <v>997</v>
       </c>
       <c r="BS12" t="s">
+        <v>997</v>
+      </c>
+      <c r="BT12" t="s">
         <v>1523</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>997</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>642</v>
       </c>
-      <c r="BV12" t="s">
+      <c r="BW12" t="s">
         <v>643</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>997</v>
       </c>
       <c r="BX12" t="s">
         <v>997</v>
       </c>
       <c r="BY12" t="s">
+        <v>997</v>
+      </c>
+      <c r="BZ12" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="13" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>497</v>
       </c>
@@ -10595,203 +10671,203 @@
       <c r="J13" t="s">
         <v>1241</v>
       </c>
+      <c r="K13" t="s">
+        <v>1213</v>
+      </c>
       <c r="L13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M13" t="s">
         <v>599</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>600</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>620</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>646</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>647</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>895</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>898</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>620</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>694</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>707</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>719</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>736</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>749</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>836</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>837</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>864</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>865</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>884</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>939</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>948</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>967</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>1018</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>1019</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>1049</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>1050</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>1081</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>1082</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>1049</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>1050</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>1117</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>1134</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>1159</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>1177</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>1178</v>
       </c>
-      <c r="AU13" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>707</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>1257</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>1274</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>1293</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>1294</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>1314</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>1336</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>1337</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>1353</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BH13" t="s">
         <v>1366</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>1384</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>620</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>1410</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>1411</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BM13" t="s">
         <v>1429</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BN13" t="s">
         <v>647</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>1455</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>939</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>1490</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BR13" t="s">
         <v>1491</v>
       </c>
-      <c r="BR13" t="s">
+      <c r="BS13" t="s">
         <v>1510</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>1050</v>
       </c>
       <c r="BT13" t="s">
         <v>1050</v>
       </c>
       <c r="BU13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BV13" t="s">
         <v>1613</v>
       </c>
-      <c r="BV13" t="s">
+      <c r="BW13" t="s">
         <v>1614</v>
       </c>
-      <c r="BW13" t="s">
+      <c r="BX13" t="s">
         <v>1632</v>
       </c>
-      <c r="BX13" t="s">
+      <c r="BY13" t="s">
         <v>1647</v>
       </c>
-      <c r="BY13" t="s">
+      <c r="BZ13" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="14" spans="1:77" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>481</v>
       </c>
@@ -10822,203 +10898,203 @@
       <c r="J14" t="s">
         <v>1240</v>
       </c>
+      <c r="K14" t="s">
+        <v>1212</v>
+      </c>
       <c r="L14" t="s">
+        <v>598</v>
+      </c>
+      <c r="M14" t="s">
         <v>597</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>598</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>619</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>644</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>645</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>893</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>897</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>681</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>693</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>706</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>718</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>735</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>748</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>834</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>835</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>862</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>863</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>883</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>938</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>948</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>966</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AH14" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>1017</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>1047</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>1048</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>1079</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>1080</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>1102</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>1103</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>1116</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>1133</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>1157</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>1179</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>1180</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AX14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>1256</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BG14" t="s">
         <v>1212</v>
       </c>
-      <c r="AV14" t="s">
-        <v>598</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>1273</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>1295</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>1296</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>1313</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>1338</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>1339</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>1212</v>
-      </c>
-      <c r="BG14" t="s">
+      <c r="BH14" t="s">
         <v>1365</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>1382</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>1383</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BK14" t="s">
         <v>1408</v>
       </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
         <v>1409</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BM14" t="s">
         <v>1428</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BN14" t="s">
         <v>1441</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BO14" t="s">
         <v>1454</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BP14" t="s">
         <v>1468</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BQ14" t="s">
         <v>1488</v>
       </c>
-      <c r="BQ14" t="s">
+      <c r="BR14" t="s">
         <v>1489</v>
       </c>
-      <c r="BR14" t="s">
+      <c r="BS14" t="s">
         <v>1509</v>
       </c>
-      <c r="BS14" t="s">
+      <c r="BT14" t="s">
         <v>1524</v>
       </c>
-      <c r="BT14" t="s">
+      <c r="BU14" t="s">
         <v>1591</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="BV14" t="s">
+      <c r="BW14" t="s">
         <v>1616</v>
       </c>
-      <c r="BW14" t="s">
+      <c r="BX14" t="s">
         <v>1633</v>
       </c>
-      <c r="BX14" t="s">
+      <c r="BY14" t="s">
         <v>1648</v>
       </c>
-      <c r="BY14" t="s">
+      <c r="BZ14" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="15" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>482</v>
       </c>
@@ -11049,203 +11125,203 @@
       <c r="J15" t="s">
         <v>1242</v>
       </c>
+      <c r="K15" t="s">
+        <v>1215</v>
+      </c>
       <c r="L15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M15" t="s">
         <v>601</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>602</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>901</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>902</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>903</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>896</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>899</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>914</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>917</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>708</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>720</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>737</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>922</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>838</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>839</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>866</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>867</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>885</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>940</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>947</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>968</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>1020</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>1021</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>1051</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>1052</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>1083</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>1084</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>1104</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>1105</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>1118</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>1135</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>1161</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>1175</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>1176</v>
       </c>
-      <c r="AU15" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>1216</v>
-      </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>1228</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>1258</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>1275</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>1297</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>1298</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BD15" t="s">
         <v>1315</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>1340</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>1341</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BG15" t="s">
         <v>1354</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BH15" t="s">
         <v>1367</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>1385</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>1386</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>1412</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
         <v>1413</v>
       </c>
-      <c r="BL15" s="1" t="s">
+      <c r="BM15" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BN15" t="s">
         <v>1442</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="BO15" t="s">
         <v>1456</v>
       </c>
-      <c r="BO15" t="s">
+      <c r="BP15" t="s">
         <v>1469</v>
       </c>
-      <c r="BP15" t="s">
+      <c r="BQ15" t="s">
         <v>1492</v>
       </c>
-      <c r="BQ15" t="s">
+      <c r="BR15" t="s">
         <v>1493</v>
       </c>
-      <c r="BR15" t="s">
+      <c r="BS15" t="s">
         <v>1511</v>
       </c>
-      <c r="BS15" t="s">
+      <c r="BT15" t="s">
         <v>1525</v>
       </c>
-      <c r="BT15" t="s">
+      <c r="BU15" t="s">
         <v>1592</v>
       </c>
-      <c r="BU15" t="s">
+      <c r="BV15" t="s">
         <v>1617</v>
       </c>
-      <c r="BV15" t="s">
+      <c r="BW15" t="s">
         <v>1618</v>
       </c>
-      <c r="BW15" t="s">
+      <c r="BX15" t="s">
         <v>1634</v>
       </c>
-      <c r="BX15" t="s">
+      <c r="BY15" t="s">
         <v>1649</v>
       </c>
-      <c r="BY15" t="s">
+      <c r="BZ15" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1120</v>
       </c>
@@ -11276,203 +11352,203 @@
       <c r="J16" t="s">
         <v>1243</v>
       </c>
+      <c r="K16" t="s">
+        <v>1217</v>
+      </c>
       <c r="L16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M16" t="s">
         <v>603</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>604</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>621</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>648</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>649</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>571</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>572</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>621</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>695</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>709</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>721</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>738</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>923</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>840</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>841</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>868</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>869</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>886</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>941</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>946</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>969</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>1022</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>1023</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>1053</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>1054</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>1085</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>1086</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>1053</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>1054</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>1119</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>1136</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>1162</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>1163</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>1173</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>1174</v>
       </c>
-      <c r="AU16" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>1229</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>1259</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>1276</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>1299</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>1300</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BD16" t="s">
         <v>1316</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
         <v>1342</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>1343</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>1355</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
         <v>1368</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>1387</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>621</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>1414</v>
       </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
         <v>1415</v>
       </c>
-      <c r="BL16" t="s">
+      <c r="BM16" t="s">
         <v>1431</v>
       </c>
-      <c r="BM16" t="s">
+      <c r="BN16" t="s">
         <v>1443</v>
       </c>
-      <c r="BN16" t="s">
+      <c r="BO16" t="s">
         <v>1457</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BP16" t="s">
         <v>1470</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
         <v>1494</v>
       </c>
-      <c r="BQ16" t="s">
+      <c r="BR16" t="s">
         <v>1495</v>
       </c>
-      <c r="BR16" t="s">
+      <c r="BS16" t="s">
         <v>1512</v>
       </c>
-      <c r="BS16" t="s">
+      <c r="BT16" t="s">
         <v>1526</v>
       </c>
-      <c r="BT16" t="s">
+      <c r="BU16" t="s">
         <v>1593</v>
       </c>
-      <c r="BU16" t="s">
+      <c r="BV16" t="s">
         <v>1619</v>
       </c>
-      <c r="BV16" t="s">
+      <c r="BW16" t="s">
         <v>1620</v>
       </c>
-      <c r="BW16" t="s">
+      <c r="BX16" t="s">
         <v>1635</v>
       </c>
-      <c r="BX16" t="s">
+      <c r="BY16" t="s">
         <v>1650</v>
       </c>
-      <c r="BY16" t="s">
+      <c r="BZ16" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -11503,203 +11579,203 @@
       <c r="J17" t="s">
         <v>1244</v>
       </c>
+      <c r="K17" t="s">
+        <v>1219</v>
+      </c>
       <c r="L17" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M17" t="s">
         <v>605</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>606</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>622</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>904</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>905</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>573</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>574</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>683</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>696</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>698</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>722</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>724</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>750</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>842</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>843</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>870</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>871</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>887</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>942</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>945</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>970</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>1024</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>1025</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>1055</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>1056</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>1087</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>1088</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>1106</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>1107</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>1121</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>1137</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>1164</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>1165</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>1171</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>1172</v>
       </c>
-      <c r="AU17" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>1230</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>1260</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>1277</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>1301</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>1302</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>1317</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>1344</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>1345</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>1356</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>1369</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>1388</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>683</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>1416</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>1417</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>1432</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>1444</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>1458</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
         <v>1471</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>1496</v>
       </c>
-      <c r="BQ17" t="s">
+      <c r="BR17" t="s">
         <v>1497</v>
       </c>
-      <c r="BR17" t="s">
+      <c r="BS17" t="s">
         <v>1513</v>
       </c>
-      <c r="BS17" t="s">
+      <c r="BT17" t="s">
         <v>1527</v>
       </c>
-      <c r="BT17" t="s">
+      <c r="BU17" t="s">
         <v>1594</v>
       </c>
-      <c r="BU17" t="s">
+      <c r="BV17" t="s">
         <v>1621</v>
       </c>
-      <c r="BV17" t="s">
+      <c r="BW17" t="s">
         <v>1622</v>
       </c>
-      <c r="BW17" t="s">
+      <c r="BX17" t="s">
         <v>1636</v>
       </c>
-      <c r="BX17" t="s">
+      <c r="BY17" t="s">
         <v>1651</v>
       </c>
-      <c r="BY17" t="s">
+      <c r="BZ17" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="18" spans="1:77" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>972</v>
       </c>
@@ -11730,103 +11806,106 @@
       <c r="J18" t="s">
         <v>1245</v>
       </c>
+      <c r="K18" t="s">
+        <v>997</v>
+      </c>
       <c r="L18" t="s">
         <v>997</v>
       </c>
       <c r="M18" t="s">
         <v>997</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>997</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>987</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>988</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>990</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>991</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>984</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>983</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>974</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>982</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>981</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>980</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>997</v>
       </c>
       <c r="Z18" t="s">
         <v>997</v>
       </c>
       <c r="AA18" t="s">
+        <v>997</v>
+      </c>
+      <c r="AB18" t="s">
         <v>976</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>977</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>975</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>974</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>972</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>973</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>1026</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>1027</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>1057</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>972</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>1059</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>1060</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>997</v>
       </c>
       <c r="AN18" t="s">
         <v>997</v>
       </c>
       <c r="AO18" t="s">
+        <v>997</v>
+      </c>
+      <c r="AP18" t="s">
         <v>1122</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>1123</v>
       </c>
-      <c r="AQ18" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AR18" t="s">
+      <c r="AR18" s="1" t="s">
         <v>997</v>
       </c>
       <c r="AS18" t="s">
@@ -11838,95 +11917,92 @@
       <c r="AU18" t="s">
         <v>997</v>
       </c>
-      <c r="AV18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>974</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>1261</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>1278</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>997</v>
       </c>
       <c r="BB18" t="s">
         <v>997</v>
       </c>
       <c r="BC18" t="s">
+        <v>997</v>
+      </c>
+      <c r="BD18" t="s">
         <v>1318</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BE18" t="s">
         <v>987</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>988</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>997</v>
       </c>
       <c r="BG18" t="s">
         <v>997</v>
       </c>
       <c r="BH18" t="s">
+        <v>997</v>
+      </c>
+      <c r="BI18" t="s">
         <v>987</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>984</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>997</v>
       </c>
       <c r="BK18" t="s">
         <v>997</v>
       </c>
       <c r="BL18" t="s">
+        <v>997</v>
+      </c>
+      <c r="BM18" t="s">
         <v>1433</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BN18" t="s">
         <v>984</v>
       </c>
-      <c r="BN18" t="s">
+      <c r="BO18" t="s">
         <v>1459</v>
       </c>
-      <c r="BO18" t="s">
+      <c r="BP18" t="s">
         <v>974</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BQ18" t="s">
         <v>1498</v>
       </c>
-      <c r="BQ18" t="s">
+      <c r="BR18" t="s">
         <v>1499</v>
       </c>
-      <c r="BR18" t="s">
+      <c r="BS18" t="s">
         <v>997</v>
       </c>
-      <c r="BS18" t="s">
+      <c r="BT18" t="s">
         <v>1528</v>
       </c>
-      <c r="BT18" t="s">
+      <c r="BU18" t="s">
         <v>972</v>
       </c>
-      <c r="BU18" t="s">
+      <c r="BV18" t="s">
         <v>987</v>
       </c>
-      <c r="BV18" t="s">
+      <c r="BW18" t="s">
         <v>1623</v>
       </c>
-      <c r="BW18" t="s">
+      <c r="BX18" t="s">
         <v>997</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="BY18" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="BY18" t="s">
+      <c r="BZ18" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -11957,203 +12033,203 @@
       <c r="J19" t="s">
         <v>1246</v>
       </c>
+      <c r="K19" t="s">
+        <v>1221</v>
+      </c>
       <c r="L19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M19" t="s">
         <v>607</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>608</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>623</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>650</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>651</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>575</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>576</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>623</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>685</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>710</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>712</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>725</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>751</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>844</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>845</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>872</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>873</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>888</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>943</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>944</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>971</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>1028</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>1029</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>1030</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>1031</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>1089</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>1090</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>1030</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AO19" t="s">
         <v>1031</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>1108</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>1138</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>1166</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AS19" t="s">
         <v>1167</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>1168</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>1170</v>
       </c>
-      <c r="AU19" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>1231</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>1262</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>1279</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>1303</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>1304</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BD19" t="s">
         <v>1319</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BE19" t="s">
         <v>1346</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>1319</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BG19" t="s">
         <v>1357</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BH19" t="s">
         <v>944</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>1389</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>1390</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>1418</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BL19" t="s">
         <v>1419</v>
       </c>
-      <c r="BL19" t="s">
+      <c r="BM19" t="s">
         <v>685</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BN19" t="s">
         <v>1445</v>
       </c>
-      <c r="BN19" t="s">
+      <c r="BO19" t="s">
         <v>1460</v>
       </c>
-      <c r="BO19" t="s">
+      <c r="BP19" t="s">
         <v>1472</v>
       </c>
-      <c r="BP19" t="s">
+      <c r="BQ19" t="s">
         <v>1500</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BR19" t="s">
         <v>1501</v>
       </c>
-      <c r="BR19" t="s">
+      <c r="BS19" t="s">
         <v>1030</v>
       </c>
-      <c r="BS19" t="s">
+      <c r="BT19" t="s">
         <v>1031</v>
       </c>
-      <c r="BT19" t="s">
+      <c r="BU19" t="s">
         <v>1595</v>
       </c>
-      <c r="BU19" t="s">
+      <c r="BV19" t="s">
         <v>1624</v>
       </c>
-      <c r="BV19" t="s">
+      <c r="BW19" t="s">
         <v>1625</v>
       </c>
-      <c r="BW19" t="s">
+      <c r="BX19" t="s">
         <v>1637</v>
       </c>
-      <c r="BX19" t="s">
+      <c r="BY19" t="s">
         <v>1653</v>
       </c>
-      <c r="BY19" t="s">
+      <c r="BZ19" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -12184,14 +12260,20 @@
       <c r="J20" t="s">
         <v>2241</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="K20" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2316</v>
+      </c>
+      <c r="R20" t="s">
         <v>1893</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -12222,14 +12304,20 @@
       <c r="J21" t="s">
         <v>2242</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="K21" t="s">
+        <v>2313</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2314</v>
+      </c>
+      <c r="R21" t="s">
         <v>1895</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -12260,14 +12348,20 @@
       <c r="J22" t="s">
         <v>2243</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="K22" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2312</v>
+      </c>
+      <c r="R22" t="s">
         <v>1897</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -12298,14 +12392,20 @@
       <c r="J23" t="s">
         <v>2244</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="K23" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2310</v>
+      </c>
+      <c r="R23" t="s">
         <v>1899</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -12336,14 +12436,20 @@
       <c r="J24" t="s">
         <v>2245</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="K24" t="s">
+        <v>2307</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2308</v>
+      </c>
+      <c r="R24" t="s">
         <v>1900</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -12374,14 +12480,20 @@
       <c r="J25" t="s">
         <v>2246</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="K25" t="s">
+        <v>2305</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2306</v>
+      </c>
+      <c r="R25" t="s">
         <v>1902</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -12412,14 +12524,20 @@
       <c r="J26" t="s">
         <v>2247</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="K26" t="s">
+        <v>2303</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2304</v>
+      </c>
+      <c r="R26" t="s">
         <v>1904</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -12450,14 +12568,20 @@
       <c r="J27" t="s">
         <v>2248</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="K27" t="s">
+        <v>2301</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2302</v>
+      </c>
+      <c r="R27" t="s">
         <v>1906</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1272</v>
       </c>
@@ -12488,14 +12612,20 @@
       <c r="J28" t="s">
         <v>2249</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="K28" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2299</v>
+      </c>
+      <c r="R28" t="s">
         <v>1908</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1978</v>
       </c>
@@ -12526,14 +12656,20 @@
       <c r="J29" t="s">
         <v>2240</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="K29" t="s">
+        <v>2297</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2298</v>
+      </c>
+      <c r="R29" t="s">
         <v>1979</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -12564,14 +12700,14 @@
       <c r="J30" t="s">
         <v>2251</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>1910</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -12602,14 +12738,14 @@
       <c r="J31" t="s">
         <v>2252</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>1913</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -12640,14 +12776,14 @@
       <c r="J32" t="s">
         <v>2253</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>1914</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -12678,14 +12814,14 @@
       <c r="J33" t="s">
         <v>2254</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>1916</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -12716,14 +12852,14 @@
       <c r="J34" t="s">
         <v>2255</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>1918</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -12754,14 +12890,14 @@
       <c r="J35" t="s">
         <v>2256</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>1920</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1271</v>
       </c>
@@ -12792,14 +12928,14 @@
       <c r="J36" t="s">
         <v>2257</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>1922</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>506</v>
       </c>
@@ -12830,14 +12966,14 @@
       <c r="J37" t="s">
         <v>2258</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>1924</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -12868,14 +13004,14 @@
       <c r="J38" t="s">
         <v>2259</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>1926</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -12906,14 +13042,14 @@
       <c r="J39" t="s">
         <v>2250</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>1929</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -12944,14 +13080,14 @@
       <c r="J40" t="s">
         <v>2261</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>1930</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -12982,14 +13118,14 @@
       <c r="J41" t="s">
         <v>2262</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>1932</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -13020,14 +13156,14 @@
       <c r="J42" t="s">
         <v>2263</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>1934</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>490</v>
       </c>
@@ -13058,14 +13194,14 @@
       <c r="J43" t="s">
         <v>2264</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>1936</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -13096,14 +13232,14 @@
       <c r="J44" t="s">
         <v>2265</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>1938</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>1939</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1700</v>
       </c>
@@ -13134,14 +13270,14 @@
       <c r="J45" t="s">
         <v>2266</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>1940</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -13172,14 +13308,14 @@
       <c r="J46" t="s">
         <v>2267</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>1942</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -13210,14 +13346,14 @@
       <c r="J47" t="s">
         <v>2268</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>1944</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>580</v>
       </c>
@@ -13248,14 +13384,14 @@
       <c r="J48" t="s">
         <v>2269</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>1946</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -13286,14 +13422,14 @@
       <c r="J49" t="s">
         <v>2260</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>1948</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -13324,14 +13460,14 @@
       <c r="J50" t="s">
         <v>2271</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>1950</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1707</v>
       </c>
@@ -13362,14 +13498,14 @@
       <c r="J51" t="s">
         <v>2272</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>1952</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -13400,14 +13536,14 @@
       <c r="J52" t="s">
         <v>2273</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>1954</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1710</v>
       </c>
@@ -13438,14 +13574,14 @@
       <c r="J53" t="s">
         <v>2274</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -13476,14 +13612,14 @@
       <c r="J54" t="s">
         <v>2275</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>1958</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>491</v>
       </c>
@@ -13514,14 +13650,14 @@
       <c r="J55" t="s">
         <v>2276</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>1960</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -13552,14 +13688,14 @@
       <c r="J56" t="s">
         <v>2277</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>1962</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -13590,14 +13726,14 @@
       <c r="J57" t="s">
         <v>2278</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>1964</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -13628,14 +13764,14 @@
       <c r="J58" t="s">
         <v>2279</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>1966</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -13666,14 +13802,14 @@
       <c r="J59" t="s">
         <v>2270</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>1968</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -13704,14 +13840,14 @@
       <c r="J60" t="s">
         <v>2282</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>1970</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -13742,14 +13878,14 @@
       <c r="J61" t="s">
         <v>2283</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -13780,14 +13916,14 @@
       <c r="J62" t="s">
         <v>2284</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>1974</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2286</v>
       </c>
@@ -13818,14 +13954,14 @@
       <c r="J63" t="s">
         <v>2285</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>1976</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -13856,14 +13992,14 @@
       <c r="J64" t="s">
         <v>2287</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>1981</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -13894,14 +14030,14 @@
       <c r="J65" t="s">
         <v>2288</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>1983</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -13932,14 +14068,14 @@
       <c r="J66" t="s">
         <v>2289</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>1985</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -13970,14 +14106,14 @@
       <c r="J67" t="s">
         <v>2290</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>1987</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -14008,14 +14144,14 @@
       <c r="J68" t="s">
         <v>2291</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>1989</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2281</v>
       </c>
@@ -14046,14 +14182,14 @@
       <c r="J69" t="s">
         <v>2280</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>1991</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -14081,14 +14217,17 @@
       <c r="I70" t="s">
         <v>2231</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="J70" t="s">
+        <v>2292</v>
+      </c>
+      <c r="R70" t="s">
         <v>1993</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -14116,14 +14255,17 @@
       <c r="I71" t="s">
         <v>2233</v>
       </c>
-      <c r="Q71" t="s">
-        <v>997</v>
+      <c r="J71" t="s">
+        <v>2293</v>
       </c>
       <c r="R71" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1995</v>
       </c>
@@ -14151,14 +14293,17 @@
       <c r="I72" t="s">
         <v>2235</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="J72" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="R72" t="s">
         <v>1996</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -14186,14 +14331,17 @@
       <c r="I73" t="s">
         <v>2237</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="J73" t="s">
+        <v>2295</v>
+      </c>
+      <c r="R73" t="s">
         <v>1998</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -14221,39 +14369,42 @@
       <c r="I74" t="s">
         <v>2239</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="J74" t="s">
+        <v>2296</v>
+      </c>
+      <c r="R74" t="s">
         <v>2000</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FED6647-18D8-A041-8614-69F11CE81210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C328E-A6F1-094A-AA35-31F3600317BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="2317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="2337">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -6996,6 +6996,66 @@
   </si>
   <si>
     <t>Baccā</t>
+  </si>
+  <si>
+    <t>सुरु गर्नुहोस्, थाल्नु, सुरु गर्नु</t>
+  </si>
+  <si>
+    <t>Suru garnuhōs, Thālnu, Suru garnu</t>
+  </si>
+  <si>
+    <t>लामो मोटो काठ</t>
+  </si>
+  <si>
+    <t>Lāmō mōṭō kāṭha</t>
+  </si>
+  <si>
+    <t>भालु</t>
+  </si>
+  <si>
+    <t>Bhālu</t>
+  </si>
+  <si>
+    <t>बीन, सिमि</t>
+  </si>
+  <si>
+    <t>Bīna, Simi</t>
+  </si>
+  <si>
+    <t>सुन्दर</t>
+  </si>
+  <si>
+    <t>Sundara</t>
+  </si>
+  <si>
+    <t>ओछ्यान, पलङ्, सुत्ने ठाउ</t>
+  </si>
+  <si>
+    <t>Ōchyāna, Palad?, Sutnē ṭhā'u</t>
+  </si>
+  <si>
+    <t>मौरी</t>
+  </si>
+  <si>
+    <t>Maurī</t>
+  </si>
+  <si>
+    <t>बिच</t>
+  </si>
+  <si>
+    <t>Bica</t>
+  </si>
+  <si>
+    <t>बियर</t>
+  </si>
+  <si>
+    <t>Biyara</t>
+  </si>
+  <si>
+    <t>बीटल, गोब्रे कीरा</t>
+  </si>
+  <si>
+    <t>Bīṭala, Gōbrē kīrā</t>
   </si>
 </sst>
 </file>
@@ -7845,7 +7905,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12700,6 +12760,12 @@
       <c r="J30" t="s">
         <v>2251</v>
       </c>
+      <c r="K30" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2320</v>
+      </c>
       <c r="R30" t="s">
         <v>1910</v>
       </c>
@@ -12738,6 +12804,12 @@
       <c r="J31" t="s">
         <v>2252</v>
       </c>
+      <c r="K31" t="s">
+        <v>2323</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2324</v>
+      </c>
       <c r="R31" t="s">
         <v>1913</v>
       </c>
@@ -12776,6 +12848,12 @@
       <c r="J32" t="s">
         <v>2253</v>
       </c>
+      <c r="K32" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2322</v>
+      </c>
       <c r="R32" t="s">
         <v>1914</v>
       </c>
@@ -12814,6 +12892,12 @@
       <c r="J33" t="s">
         <v>2254</v>
       </c>
+      <c r="K33" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2326</v>
+      </c>
       <c r="R33" t="s">
         <v>1916</v>
       </c>
@@ -12852,6 +12936,12 @@
       <c r="J34" t="s">
         <v>2255</v>
       </c>
+      <c r="K34" t="s">
+        <v>2327</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2328</v>
+      </c>
       <c r="R34" t="s">
         <v>1918</v>
       </c>
@@ -12890,6 +12980,12 @@
       <c r="J35" t="s">
         <v>2256</v>
       </c>
+      <c r="K35" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L35" t="s">
+        <v>2330</v>
+      </c>
       <c r="R35" t="s">
         <v>1920</v>
       </c>
@@ -12928,6 +13024,12 @@
       <c r="J36" t="s">
         <v>2257</v>
       </c>
+      <c r="K36" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>2332</v>
+      </c>
       <c r="R36" t="s">
         <v>1922</v>
       </c>
@@ -12966,6 +13068,12 @@
       <c r="J37" t="s">
         <v>2258</v>
       </c>
+      <c r="K37" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2334</v>
+      </c>
       <c r="R37" t="s">
         <v>1924</v>
       </c>
@@ -13004,6 +13112,12 @@
       <c r="J38" t="s">
         <v>2259</v>
       </c>
+      <c r="K38" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2336</v>
+      </c>
       <c r="R38" t="s">
         <v>1926</v>
       </c>
@@ -13041,6 +13155,12 @@
       </c>
       <c r="J39" t="s">
         <v>2250</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2318</v>
       </c>
       <c r="R39" t="s">
         <v>1929</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C328E-A6F1-094A-AA35-31F3600317BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9B1ED-35A3-7A4E-9361-0091AEFA5DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="2337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="2357">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -7056,6 +7056,66 @@
   </si>
   <si>
     <t>Bīṭala, Gōbrē kīrā</t>
+  </si>
+  <si>
+    <t>अन्धा</t>
+  </si>
+  <si>
+    <t>Andhā</t>
+  </si>
+  <si>
+    <t>घण्टी</t>
+  </si>
+  <si>
+    <t>Ghaṇṭī</t>
+  </si>
+  <si>
+    <t>पेट</t>
+  </si>
+  <si>
+    <t>Pēṭa</t>
+  </si>
+  <si>
+    <t>ठूलो</t>
+  </si>
+  <si>
+    <t>Ṭhūlō</t>
+  </si>
+  <si>
+    <t>बर्च</t>
+  </si>
+  <si>
+    <t>Barca</t>
+  </si>
+  <si>
+    <t>टोक्नु</t>
+  </si>
+  <si>
+    <t>Ṭōknu</t>
+  </si>
+  <si>
+    <t>चरा</t>
+  </si>
+  <si>
+    <t>Carā</t>
+  </si>
+  <si>
+    <t>तीतो</t>
+  </si>
+  <si>
+    <t>Tītō</t>
+  </si>
+  <si>
+    <t>कालो, अध्यारो</t>
+  </si>
+  <si>
+    <t>Kālō, Adhyārō</t>
+  </si>
+  <si>
+    <t>ब्लेड, छुरा</t>
+  </si>
+  <si>
+    <t>Blēḍa, Churā</t>
   </si>
 </sst>
 </file>
@@ -7905,7 +7965,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13200,6 +13260,12 @@
       <c r="J40" t="s">
         <v>2261</v>
       </c>
+      <c r="K40" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2340</v>
+      </c>
       <c r="R40" t="s">
         <v>1930</v>
       </c>
@@ -13238,6 +13304,12 @@
       <c r="J41" t="s">
         <v>2262</v>
       </c>
+      <c r="K41" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>2342</v>
+      </c>
       <c r="R41" t="s">
         <v>1932</v>
       </c>
@@ -13276,6 +13348,12 @@
       <c r="J42" t="s">
         <v>2263</v>
       </c>
+      <c r="K42" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2344</v>
+      </c>
       <c r="R42" t="s">
         <v>1934</v>
       </c>
@@ -13314,6 +13392,12 @@
       <c r="J43" t="s">
         <v>2264</v>
       </c>
+      <c r="K43" t="s">
+        <v>2345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2346</v>
+      </c>
       <c r="R43" t="s">
         <v>1936</v>
       </c>
@@ -13352,6 +13436,12 @@
       <c r="J44" t="s">
         <v>2265</v>
       </c>
+      <c r="K44" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2350</v>
+      </c>
       <c r="R44" t="s">
         <v>1938</v>
       </c>
@@ -13390,6 +13480,12 @@
       <c r="J45" t="s">
         <v>2266</v>
       </c>
+      <c r="K45" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2348</v>
+      </c>
       <c r="R45" t="s">
         <v>1940</v>
       </c>
@@ -13428,6 +13524,12 @@
       <c r="J46" t="s">
         <v>2267</v>
       </c>
+      <c r="K46" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2352</v>
+      </c>
       <c r="R46" t="s">
         <v>1942</v>
       </c>
@@ -13466,6 +13568,12 @@
       <c r="J47" t="s">
         <v>2268</v>
       </c>
+      <c r="K47" t="s">
+        <v>2353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>2354</v>
+      </c>
       <c r="R47" t="s">
         <v>1944</v>
       </c>
@@ -13504,6 +13612,12 @@
       <c r="J48" t="s">
         <v>2269</v>
       </c>
+      <c r="K48" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2356</v>
+      </c>
       <c r="R48" s="1" t="s">
         <v>1946</v>
       </c>
@@ -13541,6 +13655,12 @@
       </c>
       <c r="J49" t="s">
         <v>2260</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2337</v>
+      </c>
+      <c r="L49" t="s">
+        <v>2338</v>
       </c>
       <c r="R49" t="s">
         <v>1948</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9B1ED-35A3-7A4E-9361-0091AEFA5DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B45351-1EF4-6547-87BA-59CE8ABE1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="2357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="2377">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -7031,9 +7031,6 @@
     <t>ओछ्यान, पलङ्, सुत्ने ठाउ</t>
   </si>
   <si>
-    <t>Ōchyāna, Palad?, Sutnē ṭhā'u</t>
-  </si>
-  <si>
     <t>मौरी</t>
   </si>
   <si>
@@ -7116,6 +7113,69 @@
   </si>
   <si>
     <t>Blēḍa, Churā</t>
+  </si>
+  <si>
+    <t>मस्तिष्क, दिमाग</t>
+  </si>
+  <si>
+    <t>Mastiṣka, Dimāga</t>
+  </si>
+  <si>
+    <t>रगत</t>
+  </si>
+  <si>
+    <t>Ragata</t>
+  </si>
+  <si>
+    <t>नीलो</t>
+  </si>
+  <si>
+    <t>Nīlō</t>
+  </si>
+  <si>
+    <t>Ōchyāna, Palaṅ, Sutnē ṭhā'u</t>
+  </si>
+  <si>
+    <t>Ḍuṅgā, Nā'u</t>
+  </si>
+  <si>
+    <t>डुङ्गा, नाउ</t>
+  </si>
+  <si>
+    <t>उमाल्नु, उम्लनु, उसिन्नु</t>
+  </si>
+  <si>
+    <t>Umālnu, Umlanu, Usinnu</t>
+  </si>
+  <si>
+    <t>हड्डी, हडी</t>
+  </si>
+  <si>
+    <t>Haḍḍī, Haḍī</t>
+  </si>
+  <si>
+    <t>जन्म</t>
+  </si>
+  <si>
+    <t>Janma</t>
+  </si>
+  <si>
+    <t>कचौरा</t>
+  </si>
+  <si>
+    <t>Kacaurā</t>
+  </si>
+  <si>
+    <t>धनु</t>
+  </si>
+  <si>
+    <t>Dhanu</t>
+  </si>
+  <si>
+    <t>केटा, केटो</t>
+  </si>
+  <si>
+    <t>Kēṭā, Kēṭō</t>
   </si>
 </sst>
 </file>
@@ -7962,10 +8022,10 @@
   <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13000,7 +13060,7 @@
         <v>2327</v>
       </c>
       <c r="L34" t="s">
-        <v>2328</v>
+        <v>2362</v>
       </c>
       <c r="R34" t="s">
         <v>1918</v>
@@ -13041,10 +13101,10 @@
         <v>2256</v>
       </c>
       <c r="K35" t="s">
+        <v>2328</v>
+      </c>
+      <c r="L35" t="s">
         <v>2329</v>
-      </c>
-      <c r="L35" t="s">
-        <v>2330</v>
       </c>
       <c r="R35" t="s">
         <v>1920</v>
@@ -13085,10 +13145,10 @@
         <v>2257</v>
       </c>
       <c r="K36" t="s">
+        <v>2330</v>
+      </c>
+      <c r="L36" t="s">
         <v>2331</v>
-      </c>
-      <c r="L36" t="s">
-        <v>2332</v>
       </c>
       <c r="R36" t="s">
         <v>1922</v>
@@ -13129,10 +13189,10 @@
         <v>2258</v>
       </c>
       <c r="K37" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L37" t="s">
         <v>2333</v>
-      </c>
-      <c r="L37" t="s">
-        <v>2334</v>
       </c>
       <c r="R37" t="s">
         <v>1924</v>
@@ -13173,10 +13233,10 @@
         <v>2259</v>
       </c>
       <c r="K38" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L38" t="s">
         <v>2335</v>
-      </c>
-      <c r="L38" t="s">
-        <v>2336</v>
       </c>
       <c r="R38" t="s">
         <v>1926</v>
@@ -13261,10 +13321,10 @@
         <v>2261</v>
       </c>
       <c r="K40" t="s">
+        <v>2338</v>
+      </c>
+      <c r="L40" t="s">
         <v>2339</v>
-      </c>
-      <c r="L40" t="s">
-        <v>2340</v>
       </c>
       <c r="R40" t="s">
         <v>1930</v>
@@ -13305,10 +13365,10 @@
         <v>2262</v>
       </c>
       <c r="K41" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L41" t="s">
         <v>2341</v>
-      </c>
-      <c r="L41" t="s">
-        <v>2342</v>
       </c>
       <c r="R41" t="s">
         <v>1932</v>
@@ -13349,10 +13409,10 @@
         <v>2263</v>
       </c>
       <c r="K42" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L42" t="s">
         <v>2343</v>
-      </c>
-      <c r="L42" t="s">
-        <v>2344</v>
       </c>
       <c r="R42" t="s">
         <v>1934</v>
@@ -13393,10 +13453,10 @@
         <v>2264</v>
       </c>
       <c r="K43" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L43" t="s">
         <v>2345</v>
-      </c>
-      <c r="L43" t="s">
-        <v>2346</v>
       </c>
       <c r="R43" t="s">
         <v>1936</v>
@@ -13437,10 +13497,10 @@
         <v>2265</v>
       </c>
       <c r="K44" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L44" t="s">
         <v>2349</v>
-      </c>
-      <c r="L44" t="s">
-        <v>2350</v>
       </c>
       <c r="R44" t="s">
         <v>1938</v>
@@ -13481,10 +13541,10 @@
         <v>2266</v>
       </c>
       <c r="K45" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L45" t="s">
         <v>2347</v>
-      </c>
-      <c r="L45" t="s">
-        <v>2348</v>
       </c>
       <c r="R45" t="s">
         <v>1940</v>
@@ -13525,10 +13585,10 @@
         <v>2267</v>
       </c>
       <c r="K46" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L46" t="s">
         <v>2351</v>
-      </c>
-      <c r="L46" t="s">
-        <v>2352</v>
       </c>
       <c r="R46" t="s">
         <v>1942</v>
@@ -13569,10 +13629,10 @@
         <v>2268</v>
       </c>
       <c r="K47" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L47" t="s">
         <v>2353</v>
-      </c>
-      <c r="L47" t="s">
-        <v>2354</v>
       </c>
       <c r="R47" t="s">
         <v>1944</v>
@@ -13613,10 +13673,10 @@
         <v>2269</v>
       </c>
       <c r="K48" t="s">
+        <v>2354</v>
+      </c>
+      <c r="L48" t="s">
         <v>2355</v>
-      </c>
-      <c r="L48" t="s">
-        <v>2356</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>1946</v>
@@ -13657,10 +13717,10 @@
         <v>2260</v>
       </c>
       <c r="K49" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L49" t="s">
         <v>2337</v>
-      </c>
-      <c r="L49" t="s">
-        <v>2338</v>
       </c>
       <c r="R49" t="s">
         <v>1948</v>
@@ -13700,6 +13760,12 @@
       <c r="J50" t="s">
         <v>2271</v>
       </c>
+      <c r="K50" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L50" t="s">
+        <v>2359</v>
+      </c>
       <c r="R50" t="s">
         <v>1950</v>
       </c>
@@ -13738,6 +13804,12 @@
       <c r="J51" t="s">
         <v>2272</v>
       </c>
+      <c r="K51" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2361</v>
+      </c>
       <c r="R51" t="s">
         <v>1952</v>
       </c>
@@ -13776,6 +13848,12 @@
       <c r="J52" t="s">
         <v>2273</v>
       </c>
+      <c r="K52" t="s">
+        <v>2364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>2363</v>
+      </c>
       <c r="R52" t="s">
         <v>1954</v>
       </c>
@@ -13814,6 +13892,12 @@
       <c r="J53" t="s">
         <v>2274</v>
       </c>
+      <c r="K53" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>2366</v>
+      </c>
       <c r="R53" s="1" t="s">
         <v>1956</v>
       </c>
@@ -13852,6 +13936,12 @@
       <c r="J54" t="s">
         <v>2275</v>
       </c>
+      <c r="K54" t="s">
+        <v>2367</v>
+      </c>
+      <c r="L54" t="s">
+        <v>2368</v>
+      </c>
       <c r="R54" t="s">
         <v>1958</v>
       </c>
@@ -13890,6 +13980,12 @@
       <c r="J55" t="s">
         <v>2276</v>
       </c>
+      <c r="K55" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2370</v>
+      </c>
       <c r="R55" t="s">
         <v>1960</v>
       </c>
@@ -13928,6 +14024,12 @@
       <c r="J56" t="s">
         <v>2277</v>
       </c>
+      <c r="K56" t="s">
+        <v>2373</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2374</v>
+      </c>
       <c r="R56" t="s">
         <v>1962</v>
       </c>
@@ -13966,6 +14068,12 @@
       <c r="J57" t="s">
         <v>2278</v>
       </c>
+      <c r="K57" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L57" t="s">
+        <v>2372</v>
+      </c>
       <c r="R57" t="s">
         <v>1964</v>
       </c>
@@ -14004,6 +14112,12 @@
       <c r="J58" t="s">
         <v>2279</v>
       </c>
+      <c r="K58" t="s">
+        <v>2375</v>
+      </c>
+      <c r="L58" t="s">
+        <v>2376</v>
+      </c>
       <c r="R58" t="s">
         <v>1966</v>
       </c>
@@ -14041,6 +14155,12 @@
       </c>
       <c r="J59" t="s">
         <v>2270</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2357</v>
       </c>
       <c r="R59" t="s">
         <v>1968</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B45351-1EF4-6547-87BA-59CE8ABE1358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DC18C-7B3F-C34F-B060-427E7694D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="2377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="2393">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -7176,6 +7176,54 @@
   </si>
   <si>
     <t>Kēṭā, Kēṭō</t>
+  </si>
+  <si>
+    <t>निर्माण, निर्माण गर्नु</t>
+  </si>
+  <si>
+    <t>Nirmāṇa, Nirmāṇa garnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sākhā, Śākhā, Hāngā </t>
+  </si>
+  <si>
+    <t>साखा, शाखा, हांगा</t>
+  </si>
+  <si>
+    <t>बहादुर, बीर</t>
+  </si>
+  <si>
+    <t>Bahādura, Bīr</t>
+  </si>
+  <si>
+    <t>रोटी</t>
+  </si>
+  <si>
+    <t>Rōṭī</t>
+  </si>
+  <si>
+    <t>ब्रेक, भाच्नु, चुड्नु</t>
+  </si>
+  <si>
+    <t>Brēka, Bhācnu, Cuḍnu</t>
+  </si>
+  <si>
+    <t>स्तन</t>
+  </si>
+  <si>
+    <t>Stana</t>
+  </si>
+  <si>
+    <t>उज्यालो, चहकिलो</t>
+  </si>
+  <si>
+    <t>Ujyālō, Cahakilō</t>
+  </si>
+  <si>
+    <t>सास फेर्न</t>
+  </si>
+  <si>
+    <t>Sāsa phērna</t>
   </si>
 </sst>
 </file>
@@ -8025,7 +8073,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14200,6 +14248,12 @@
       <c r="J60" t="s">
         <v>2282</v>
       </c>
+      <c r="K60" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2379</v>
+      </c>
       <c r="R60" t="s">
         <v>1970</v>
       </c>
@@ -14238,6 +14292,12 @@
       <c r="J61" t="s">
         <v>2283</v>
       </c>
+      <c r="K61" t="s">
+        <v>2381</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2382</v>
+      </c>
       <c r="R61" s="1" t="s">
         <v>1972</v>
       </c>
@@ -14276,6 +14336,12 @@
       <c r="J62" t="s">
         <v>2284</v>
       </c>
+      <c r="K62" t="s">
+        <v>2383</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2384</v>
+      </c>
       <c r="R62" t="s">
         <v>1974</v>
       </c>
@@ -14314,6 +14380,12 @@
       <c r="J63" t="s">
         <v>2285</v>
       </c>
+      <c r="K63" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2386</v>
+      </c>
       <c r="R63" t="s">
         <v>1976</v>
       </c>
@@ -14352,6 +14424,12 @@
       <c r="J64" t="s">
         <v>2287</v>
       </c>
+      <c r="K64" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2388</v>
+      </c>
       <c r="R64" t="s">
         <v>1981</v>
       </c>
@@ -14390,6 +14468,12 @@
       <c r="J65" t="s">
         <v>2288</v>
       </c>
+      <c r="K65" t="s">
+        <v>2391</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2392</v>
+      </c>
       <c r="R65" t="s">
         <v>1983</v>
       </c>
@@ -14428,6 +14512,12 @@
       <c r="J66" t="s">
         <v>2289</v>
       </c>
+      <c r="K66" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2390</v>
+      </c>
       <c r="R66" t="s">
         <v>1985</v>
       </c>
@@ -14465,6 +14555,12 @@
       </c>
       <c r="J67" t="s">
         <v>2290</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2377</v>
+      </c>
+      <c r="L67" t="s">
+        <v>2378</v>
       </c>
       <c r="R67" t="s">
         <v>1987</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369DC18C-7B3F-C34F-B060-427E7694D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53800601-7AB4-9F4D-B882-5EE56D8A3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="2393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2407">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -7224,6 +7224,48 @@
   </si>
   <si>
     <t>Sāsa phērna</t>
+  </si>
+  <si>
+    <t>जलाउनु, जल्नु</t>
+  </si>
+  <si>
+    <t>Jalā'unu, Jalnu</t>
+  </si>
+  <si>
+    <t>बर्प गर्न</t>
+  </si>
+  <si>
+    <t>Barpa garna</t>
+  </si>
+  <si>
+    <t>गाड्न, मुर्दा गाड्नु, भुईमुनि गाड्नु</t>
+  </si>
+  <si>
+    <t>Gāḍna, Murdā gāḍnu, Bhu'īmuni gāḍnu</t>
+  </si>
+  <si>
+    <t>बट</t>
+  </si>
+  <si>
+    <t>Baṭa</t>
+  </si>
+  <si>
+    <t>नितम्ब</t>
+  </si>
+  <si>
+    <t>Nitamba</t>
+  </si>
+  <si>
+    <t>पुतली</t>
+  </si>
+  <si>
+    <t>Putalī</t>
+  </si>
+  <si>
+    <t>किन्नुहोस्, किन्नु, खरिद गर्नु</t>
+  </si>
+  <si>
+    <t>Kinnuhōs, Kinnu, Kharida garnu</t>
   </si>
 </sst>
 </file>
@@ -8073,7 +8115,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14600,6 +14642,12 @@
       <c r="J68" t="s">
         <v>2291</v>
       </c>
+      <c r="K68" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L68" t="s">
+        <v>2394</v>
+      </c>
       <c r="R68" t="s">
         <v>1989</v>
       </c>
@@ -14638,6 +14686,12 @@
       <c r="J69" t="s">
         <v>2280</v>
       </c>
+      <c r="K69" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2396</v>
+      </c>
       <c r="R69" t="s">
         <v>1991</v>
       </c>
@@ -14676,6 +14730,12 @@
       <c r="J70" t="s">
         <v>2292</v>
       </c>
+      <c r="K70" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2398</v>
+      </c>
       <c r="R70" t="s">
         <v>1993</v>
       </c>
@@ -14714,6 +14774,12 @@
       <c r="J71" t="s">
         <v>2293</v>
       </c>
+      <c r="K71" t="s">
+        <v>2399</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2400</v>
+      </c>
       <c r="R71" t="s">
         <v>997</v>
       </c>
@@ -14752,6 +14818,12 @@
       <c r="J72" s="1" t="s">
         <v>2294</v>
       </c>
+      <c r="K72" t="s">
+        <v>2401</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2402</v>
+      </c>
       <c r="R72" t="s">
         <v>1996</v>
       </c>
@@ -14790,6 +14862,12 @@
       <c r="J73" t="s">
         <v>2295</v>
       </c>
+      <c r="K73" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2404</v>
+      </c>
       <c r="R73" t="s">
         <v>1998</v>
       </c>
@@ -14827,6 +14905,12 @@
       </c>
       <c r="J74" t="s">
         <v>2296</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2405</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2406</v>
       </c>
       <c r="R74" t="s">
         <v>2000</v>

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53800601-7AB4-9F4D-B882-5EE56D8A3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA59924-A5AA-7B4F-85DD-653D1F6D76D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1567,12 +1567,6 @@
     <t>kendani</t>
   </si>
   <si>
-    <t>պատասխանել</t>
-  </si>
-  <si>
-    <t>pataskhanel</t>
-  </si>
-  <si>
     <t>մրջյուն</t>
   </si>
   <si>
@@ -7266,6 +7260,12 @@
   </si>
   <si>
     <t>Kinnuhōs, Kinnu, Kharida garnu</t>
+  </si>
+  <si>
+    <t>պատասխանել, պատասխան</t>
+  </si>
+  <si>
+    <t>pataskhanel, pataskhan</t>
   </si>
 </sst>
 </file>
@@ -8112,10 +8112,10 @@
   <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8200,13 +8200,13 @@
         <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E1" t="s">
         <v>486</v>
@@ -8218,208 +8218,208 @@
         <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J1" t="s">
+        <v>795</v>
+      </c>
+      <c r="K1" t="s">
+        <v>793</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M1" t="s">
+        <v>579</v>
+      </c>
+      <c r="N1" t="s">
+        <v>580</v>
+      </c>
+      <c r="O1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T1" t="s">
+        <v>674</v>
+      </c>
+      <c r="U1" t="s">
+        <v>682</v>
+      </c>
+      <c r="V1" t="s">
+        <v>695</v>
+      </c>
+      <c r="W1" t="s">
+        <v>709</v>
+      </c>
+      <c r="X1" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>737</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>784</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>786</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>787</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>788</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>790</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>791</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>792</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>794</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>796</v>
+      </c>
+      <c r="BA1" t="s">
         <v>797</v>
       </c>
-      <c r="K1" t="s">
-        <v>795</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N1" t="s">
-        <v>582</v>
-      </c>
-      <c r="O1" t="s">
-        <v>609</v>
-      </c>
-      <c r="P1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>626</v>
-      </c>
-      <c r="R1" t="s">
-        <v>551</v>
-      </c>
-      <c r="S1" t="s">
-        <v>552</v>
-      </c>
-      <c r="T1" t="s">
-        <v>676</v>
-      </c>
-      <c r="U1" t="s">
-        <v>684</v>
-      </c>
-      <c r="V1" t="s">
-        <v>697</v>
-      </c>
-      <c r="W1" t="s">
-        <v>711</v>
-      </c>
-      <c r="X1" t="s">
-        <v>723</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>739</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>779</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>785</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>999</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>790</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>791</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>792</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>793</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>794</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>796</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>798</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="BD1" t="s">
         <v>799</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>800</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BG1" t="s">
         <v>801</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>802</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>803</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BK1" t="s">
         <v>804</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="BM1" t="s">
         <v>805</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>806</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>807</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>808</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>809</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BS1" t="s">
         <v>810</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>811</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>812</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>813</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BX1" t="s">
         <v>814</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>815</v>
       </c>
-      <c r="BW1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>816</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>817</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8526,7 +8526,7 @@
         <v>488</v>
       </c>
       <c r="AI2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AJ2" t="s">
         <v>488</v>
@@ -8538,7 +8538,7 @@
         <v>488</v>
       </c>
       <c r="AM2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AN2" t="s">
         <v>488</v>
@@ -8651,220 +8651,220 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M3" t="s">
+        <v>995</v>
+      </c>
+      <c r="N3" t="s">
+        <v>995</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="S3" t="s">
         <v>1532</v>
       </c>
-      <c r="C3" t="s">
+      <c r="T3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="U3" t="s">
         <v>1538</v>
       </c>
-      <c r="D3" t="s">
+      <c r="V3" t="s">
         <v>1539</v>
       </c>
-      <c r="E3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="W3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Z3" t="s">
         <v>1545</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AA3" t="s">
         <v>1546</v>
       </c>
-      <c r="J3" t="s">
+      <c r="AB3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BA3" t="s">
         <v>1568</v>
       </c>
-      <c r="K3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="M3" t="s">
-        <v>997</v>
-      </c>
-      <c r="N3" t="s">
-        <v>997</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="BB3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>1533</v>
       </c>
-      <c r="S3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>1561</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>1571</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>1575</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BK3" t="s">
+        <v>995</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>995</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1577</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BN3" t="s">
         <v>1578</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>997</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>997</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BO3" t="s">
         <v>1579</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BP3" t="s">
         <v>1580</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BQ3" t="s">
         <v>1581</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
         <v>1582</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BS3" t="s">
         <v>1583</v>
       </c>
-      <c r="BR3" t="s">
-        <v>1584</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1585</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="BU3" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="BV3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="BW3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="BX3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BY3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8872,13 +8872,13 @@
         <v>473</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E4" t="s">
         <v>489</v>
@@ -8890,208 +8890,208 @@
         <v>505</v>
       </c>
       <c r="H4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="K4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="N4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="O4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P4" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q4" t="s">
         <v>625</v>
       </c>
-      <c r="Q4" t="s">
-        <v>627</v>
-      </c>
       <c r="R4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="S4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="V4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="W4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="X4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AA4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AB4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AC4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AD4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AE4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AF4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AG4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AH4" t="s">
+        <v>996</v>
+      </c>
+      <c r="AI4" t="s">
         <v>998</v>
       </c>
-      <c r="AI4" t="s">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AK4" t="s">
         <v>473</v>
       </c>
       <c r="AL4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AM4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AN4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AO4" t="s">
         <v>473</v>
       </c>
       <c r="AP4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AR4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AS4" t="s">
         <v>1139</v>
       </c>
-      <c r="AS4" t="s">
-        <v>1141</v>
-      </c>
       <c r="AT4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AU4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AX4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BA4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BB4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BC4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BD4" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="BE4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="BF4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="BG4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BH4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="BI4" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="BJ4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="BK4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BL4" t="s">
         <v>1391</v>
       </c>
-      <c r="BL4" t="s">
-        <v>1393</v>
-      </c>
       <c r="BM4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="BN4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="BO4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="BP4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="BT4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BW4" t="s">
         <v>1596</v>
       </c>
-      <c r="BW4" t="s">
-        <v>1598</v>
-      </c>
       <c r="BX4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BY4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9099,16 +9099,16 @@
         <v>474</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F5" t="s">
         <v>507</v>
@@ -9117,208 +9117,208 @@
         <v>508</v>
       </c>
       <c r="H5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="K5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="M5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="P5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Q5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="T5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="U5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="V5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="W5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="X5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Y5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="Z5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AA5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AB5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AC5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AD5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AE5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AF5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AH5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AI5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AK5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AL5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AM5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AN5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AO5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AP5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AR5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AS5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AT5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="AU5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AX5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="BA5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="BB5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="BC5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="BD5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="BE5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="BF5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="BG5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="BH5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="BI5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="BK5" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="BL5" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="BM5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BN5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="BO5" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="BP5" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="BR5" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="BS5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="BT5" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="BU5" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="BV5" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="BW5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="BX5" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="BY5" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9326,16 +9326,16 @@
         <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F6" t="s">
         <v>509</v>
@@ -9344,208 +9344,208 @@
         <v>510</v>
       </c>
       <c r="H6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J6" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K6" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="L6" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="T6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="U6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="V6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="X6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Y6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="Z6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AA6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AB6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AC6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AD6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AE6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AF6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AG6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AH6" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AI6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AK6" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AL6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AM6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AN6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AO6" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AP6" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AS6" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AT6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="AU6" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AX6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="BC6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="BF6" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="BG6" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="BH6" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="BI6" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="BJ6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="BK6" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="BL6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="BM6" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="BN6" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="BR6" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="BS6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="BT6" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="BU6" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="BV6" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="BW6" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="BX6" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="BY6" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9553,226 +9553,226 @@
         <v>476</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E7" t="s">
         <v>492</v>
       </c>
       <c r="F7" t="s">
-        <v>511</v>
+        <v>2405</v>
       </c>
       <c r="G7" t="s">
-        <v>512</v>
+        <v>2406</v>
       </c>
       <c r="H7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="K7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="L7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="M7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="R7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="T7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="U7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="V7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="W7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="X7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Y7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="Z7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AA7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AB7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AC7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AD7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AE7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AF7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AG7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AH7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="AI7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AK7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AL7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AM7" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AN7" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AO7" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AP7" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AR7" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AS7" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AT7" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AU7" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AX7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BA7" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="BB7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="BC7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="BD7" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="BE7" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="BF7" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="BG7" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="BH7" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="BI7" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="BJ7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="BK7" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="BL7" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="BM7" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="BN7" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="BO7" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="BP7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="BR7" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="BS7" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="BT7" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="BU7" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="BV7" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="BW7" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="BX7" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="BY7" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9780,226 +9780,226 @@
         <v>477</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I8" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K8" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="L8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="M8" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="O8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="T8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="U8" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="V8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="W8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="X8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Y8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Z8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AA8" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AB8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AC8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AD8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AE8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AF8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AG8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AH8" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AI8" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AK8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AL8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AM8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AN8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AO8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AP8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AR8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AS8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AT8" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AU8" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="AX8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="BA8" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="BB8" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="BC8" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="BD8" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="BE8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="BF8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="BG8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BH8" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="BI8" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="BJ8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="BK8" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="BL8" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="BM8" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="BN8" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="BO8" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="BP8" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="BR8" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="BS8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="BT8" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="BU8" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="BV8" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BW8" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="BX8" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="BY8" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10007,226 +10007,226 @@
         <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E9" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K9" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="L9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="M9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="P9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="U9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="V9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="W9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="X9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Y9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Z9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AA9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AB9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AC9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AD9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AE9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AF9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AG9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AI9" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AK9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AL9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AM9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AN9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AP9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AR9" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AS9" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AT9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AU9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="AX9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="BA9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="BB9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="BC9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="BD9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="BE9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="BF9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="BG9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="BH9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="BI9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="BJ9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="BK9" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="BL9" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="BM9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="BN9" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="BO9" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="BP9" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="BR9" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="BS9" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="BT9" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="BU9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BV9" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="BW9" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="BX9" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="BY9" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10234,64 +10234,64 @@
         <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E10" t="s">
         <v>494</v>
       </c>
       <c r="F10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G10" t="s">
         <v>479</v>
       </c>
       <c r="H10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="L10" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="M10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Q10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="U10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V10" t="s">
         <v>479</v>
@@ -10300,160 +10300,160 @@
         <v>479</v>
       </c>
       <c r="X10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Z10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AA10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AB10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AC10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AD10" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AE10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AF10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AG10" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AH10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AI10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AK10" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AL10" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AM10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AN10" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AO10" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AP10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AR10" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AS10" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AT10" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="AU10" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AX10" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="BA10" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="BB10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="BC10" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="BD10" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="BE10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="BF10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="BG10" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="BH10" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="BI10" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="BJ10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="BK10" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="BL10" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="BM10" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="BN10" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="BO10" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="BP10" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="BR10" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="BS10" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="BT10" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="BU10" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="BV10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="BW10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="BX10" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BY10" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10461,226 +10461,226 @@
         <v>480</v>
       </c>
       <c r="B11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E11" t="s">
         <v>495</v>
       </c>
       <c r="F11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J11" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="K11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="L11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="M11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="R11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="S11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="T11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="U11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="W11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="X11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Y11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Z11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AA11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AB11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AC11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AD11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AE11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AF11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AG11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AH11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AI11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AK11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AL11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AM11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AN11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AO11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AP11" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AR11" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AS11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AT11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="AU11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AX11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="BA11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="BB11" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="BC11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="BD11" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="BE11" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="BF11" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="BG11" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="BH11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="BK11" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="BL11" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="BM11" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="BN11" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="BO11" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="BP11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="BR11" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="BS11" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="BT11" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="BU11" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="BV11" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="BW11" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="BX11" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="BY11" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10688,226 +10688,226 @@
         <v>496</v>
       </c>
       <c r="B12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E12" t="s">
         <v>498</v>
       </c>
       <c r="F12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H12" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="N12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="O12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="R12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="S12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="U12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="V12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="W12" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="X12" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="Y12" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Z12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AA12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AB12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AC12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AD12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AE12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AF12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AG12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AH12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AI12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AJ12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AK12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AL12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AM12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AN12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AO12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AP12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AR12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AS12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AT12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AU12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AX12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="BA12" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="BB12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BC12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BD12" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="BE12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="BF12" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="BG12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BH12" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="BI12" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="BJ12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BK12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BL12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BM12" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="BN12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BO12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="BP12" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="BQ12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BR12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BS12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BT12" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="BU12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BV12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="BW12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="BX12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BY12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10915,226 +10915,226 @@
         <v>497</v>
       </c>
       <c r="B13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C13" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E13" t="s">
         <v>499</v>
       </c>
       <c r="F13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J13" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="K13" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="L13" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="M13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O13" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="R13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="S13" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="T13" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="U13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="W13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="X13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Y13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Z13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AA13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AB13" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AC13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AD13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AE13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AF13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AG13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AH13" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AI13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AK13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AL13" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AM13" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AN13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AO13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AP13" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AS13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AT13" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AU13" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AX13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="BA13" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="BB13" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="BC13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="BD13" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="BE13" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="BF13" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="BG13" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="BH13" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="BI13" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BJ13" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="BK13" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="BL13" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="BM13" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="BN13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="BO13" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="BP13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="BR13" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="BS13" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="BT13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BU13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="BV13" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="BW13" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="BX13" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="BY13" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11142,226 +11142,226 @@
         <v>481</v>
       </c>
       <c r="B14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E14" t="s">
         <v>493</v>
       </c>
       <c r="F14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J14" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="K14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="L14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="O14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="P14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R14" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="S14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="T14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="U14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="V14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="W14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="X14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Y14" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="Z14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AA14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AB14" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AC14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AD14" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="AE14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AF14" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AG14" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AI14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AJ14" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AK14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AL14" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AM14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AN14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AO14" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AP14" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AS14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AT14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AU14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AX14" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="BA14" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="BB14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="BC14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="BD14" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="BE14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="BF14" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="BG14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BH14" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BI14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="BK14" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="BL14" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="BM14" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="BN14" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="BO14" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="BP14" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="BR14" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="BS14" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="BT14" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="BU14" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="BW14" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="BX14" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="BY14" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11369,453 +11369,453 @@
         <v>482</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D15" t="s">
+        <v>911</v>
+      </c>
+      <c r="E15" t="s">
+        <v>680</v>
+      </c>
+      <c r="F15" t="s">
+        <v>522</v>
+      </c>
+      <c r="G15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H15" t="s">
+        <v>761</v>
+      </c>
+      <c r="I15" t="s">
+        <v>774</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M15" t="s">
+        <v>599</v>
+      </c>
+      <c r="N15" t="s">
+        <v>600</v>
+      </c>
+      <c r="O15" t="s">
+        <v>899</v>
+      </c>
+      <c r="P15" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>901</v>
+      </c>
+      <c r="R15" t="s">
+        <v>894</v>
+      </c>
+      <c r="S15" t="s">
+        <v>897</v>
+      </c>
+      <c r="T15" t="s">
         <v>912</v>
       </c>
-      <c r="D15" t="s">
-        <v>913</v>
-      </c>
-      <c r="E15" t="s">
-        <v>682</v>
-      </c>
-      <c r="F15" t="s">
-        <v>524</v>
-      </c>
-      <c r="G15" t="s">
-        <v>525</v>
-      </c>
-      <c r="H15" t="s">
-        <v>763</v>
-      </c>
-      <c r="I15" t="s">
-        <v>776</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M15" t="s">
-        <v>601</v>
-      </c>
-      <c r="N15" t="s">
-        <v>602</v>
-      </c>
-      <c r="O15" t="s">
-        <v>901</v>
-      </c>
-      <c r="P15" t="s">
-        <v>902</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>903</v>
-      </c>
-      <c r="R15" t="s">
-        <v>896</v>
-      </c>
-      <c r="S15" t="s">
-        <v>899</v>
-      </c>
-      <c r="T15" t="s">
-        <v>914</v>
-      </c>
       <c r="U15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="V15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="W15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="X15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Y15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="Z15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AA15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AB15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AC15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AD15" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AE15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AF15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AG15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AH15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AI15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AJ15" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AK15" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AL15" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AM15" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AN15" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AO15" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AP15" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AS15" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AT15" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AU15" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="AX15" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="BA15" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="BB15" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="BC15" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="BD15" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="BE15" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="BF15" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="BG15" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="BH15" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="BI15" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="BK15" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="BL15" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="BN15" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="BO15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="BP15" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="BR15" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="BS15" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="BT15" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="BU15" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="BV15" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="BW15" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="BX15" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="BY15" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E16" t="s">
         <v>501</v>
       </c>
       <c r="F16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I16" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J16" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K16" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L16" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="M16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="O16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Q16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="R16" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S16" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="T16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="U16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="V16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="W16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="X16" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Y16" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="Z16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AA16" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AB16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AC16" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AD16" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AE16" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AF16" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AG16" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AH16" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AI16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AJ16" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AK16" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AL16" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AM16" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AN16" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AO16" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AP16" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AR16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AS16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AT16" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="AU16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AX16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="BA16" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="BB16" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="BC16" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="BD16" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="BE16" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="BF16" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="BG16" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="BH16" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="BI16" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="BJ16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="BK16" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="BL16" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="BM16" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="BN16" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="BO16" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="BP16" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="BR16" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="BS16" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="BT16" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="BU16" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="BV16" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="BW16" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="BX16" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BY16" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11823,453 +11823,453 @@
         <v>483</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C17" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E17" t="s">
         <v>502</v>
       </c>
       <c r="F17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H17" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I17" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J17" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K17" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L17" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="N17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O17" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="P17" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="Q17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="R17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="T17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="U17" t="s">
+        <v>694</v>
+      </c>
+      <c r="V17" t="s">
         <v>696</v>
       </c>
-      <c r="V17" t="s">
-        <v>698</v>
-      </c>
       <c r="W17" t="s">
+        <v>720</v>
+      </c>
+      <c r="X17" t="s">
         <v>722</v>
       </c>
-      <c r="X17" t="s">
-        <v>724</v>
-      </c>
       <c r="Y17" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Z17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AA17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AB17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AC17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AD17" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="AE17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AF17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AG17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AH17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AI17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AK17" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AL17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AM17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AN17" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AO17" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AP17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AR17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AS17" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AT17" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AU17" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AX17" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="BA17" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="BB17" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="BC17" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="BD17" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="BE17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="BF17" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="BG17" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="BH17" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="BI17" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="BJ17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BK17" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="BL17" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="BM17" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="BN17" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="BO17" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="BP17" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="BR17" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="BS17" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="BT17" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="BU17" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="BV17" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="BW17" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="BX17" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="BY17" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>970</v>
+      </c>
+      <c r="B18" t="s">
+        <v>990</v>
+      </c>
+      <c r="C18" t="s">
+        <v>983</v>
+      </c>
+      <c r="D18" t="s">
+        <v>984</v>
+      </c>
+      <c r="E18" t="s">
+        <v>993</v>
+      </c>
+      <c r="F18" t="s">
+        <v>991</v>
+      </c>
+      <c r="G18" t="s">
+        <v>992</v>
+      </c>
+      <c r="H18" t="s">
+        <v>976</v>
+      </c>
+      <c r="I18" t="s">
+        <v>977</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K18" t="s">
+        <v>995</v>
+      </c>
+      <c r="L18" t="s">
+        <v>995</v>
+      </c>
+      <c r="M18" t="s">
+        <v>995</v>
+      </c>
+      <c r="N18" t="s">
+        <v>995</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="P18" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>986</v>
+      </c>
+      <c r="R18" t="s">
+        <v>988</v>
+      </c>
+      <c r="S18" t="s">
+        <v>989</v>
+      </c>
+      <c r="T18" t="s">
+        <v>982</v>
+      </c>
+      <c r="U18" t="s">
+        <v>981</v>
+      </c>
+      <c r="V18" t="s">
         <v>972</v>
       </c>
-      <c r="B18" t="s">
-        <v>992</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="W18" t="s">
+        <v>980</v>
+      </c>
+      <c r="X18" t="s">
+        <v>979</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>978</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>974</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>975</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>973</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>972</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>970</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>971</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>970</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>995</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>972</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>995</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>995</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BE18" t="s">
         <v>985</v>
       </c>
-      <c r="D18" t="s">
+      <c r="BF18" t="s">
         <v>986</v>
       </c>
-      <c r="E18" t="s">
+      <c r="BG18" t="s">
         <v>995</v>
       </c>
-      <c r="F18" t="s">
-        <v>993</v>
-      </c>
-      <c r="G18" t="s">
-        <v>994</v>
-      </c>
-      <c r="H18" t="s">
-        <v>978</v>
-      </c>
-      <c r="I18" t="s">
-        <v>979</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K18" t="s">
-        <v>997</v>
-      </c>
-      <c r="L18" t="s">
-        <v>997</v>
-      </c>
-      <c r="M18" t="s">
-        <v>997</v>
-      </c>
-      <c r="N18" t="s">
-        <v>997</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="P18" t="s">
-        <v>987</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>988</v>
-      </c>
-      <c r="R18" t="s">
-        <v>990</v>
-      </c>
-      <c r="S18" t="s">
-        <v>991</v>
-      </c>
-      <c r="T18" t="s">
-        <v>984</v>
-      </c>
-      <c r="U18" t="s">
-        <v>983</v>
-      </c>
-      <c r="V18" t="s">
-        <v>974</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="BH18" t="s">
+        <v>995</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>985</v>
+      </c>
+      <c r="BJ18" t="s">
         <v>982</v>
       </c>
-      <c r="X18" t="s">
-        <v>981</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>980</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>976</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>977</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>975</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>974</v>
-      </c>
-      <c r="AF18" t="s">
+      <c r="BK18" t="s">
+        <v>995</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>995</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1431</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>982</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BP18" t="s">
         <v>972</v>
       </c>
-      <c r="AG18" t="s">
-        <v>973</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>972</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>997</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>974</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1261</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1278</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>997</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>997</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1318</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>987</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>988</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>997</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>997</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>987</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>984</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>997</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>997</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>1433</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>984</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>974</v>
-      </c>
       <c r="BQ18" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="BR18" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="BS18" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BT18" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="BU18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="BV18" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="BW18" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="BX18" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12277,226 +12277,226 @@
         <v>484</v>
       </c>
       <c r="B19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="K19" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="L19" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="M19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="O19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Q19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="R19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="S19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="T19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="U19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="V19" t="s">
+        <v>708</v>
+      </c>
+      <c r="W19" t="s">
         <v>710</v>
       </c>
-      <c r="W19" t="s">
-        <v>712</v>
-      </c>
       <c r="X19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Y19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Z19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AA19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AC19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AD19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AE19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AF19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AG19" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AH19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>1028</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
         <v>1029</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>1031</v>
-      </c>
       <c r="AL19" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AM19" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AN19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AO19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AP19" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AQ19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AR19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AT19" t="s">
         <v>1166</v>
       </c>
-      <c r="AS19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>1168</v>
       </c>
-      <c r="AU19" t="s">
-        <v>1170</v>
-      </c>
       <c r="AX19" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="BA19" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="BB19" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="BC19" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="BD19" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="BE19" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="BF19" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="BG19" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="BH19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="BI19" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="BK19" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BL19" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BM19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="BN19" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="BO19" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="BP19" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="BR19" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="BS19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="BT19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="BU19" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="BV19" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="BW19" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="BX19" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="BY19" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12504,43 +12504,43 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C20" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D20" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E20" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F20" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="G20" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H20" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="I20" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="J20" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="K20" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="L20" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="R20" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="S20" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.2">
@@ -12548,43 +12548,43 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C21" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D21" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E21" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F21" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="G21" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H21" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="I21" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="J21" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="K21" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="L21" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="R21" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="S21" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.2">
@@ -12592,43 +12592,43 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C22" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D22" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E22" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F22" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="G22" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H22" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="I22" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="J22" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="K22" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="L22" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="R22" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="S22" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.2">
@@ -12636,43 +12636,43 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C23" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D23" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E23" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F23" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G23" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H23" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="I23" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J23" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="K23" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="L23" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="R23" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="S23" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.2">
@@ -12680,43 +12680,43 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C24" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D24" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E24" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F24" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="G24" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H24" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="I24" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="J24" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="K24" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="L24" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="R24" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="S24" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.2">
@@ -12724,43 +12724,43 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C25" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E25" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F25" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="G25" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="H25" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="I25" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J25" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="K25" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="L25" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="R25" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="S25" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.2">
@@ -12768,43 +12768,43 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C26" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D26" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E26" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F26" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G26" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H26" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="I26" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="J26" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="K26" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="L26" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="R26" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="S26" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.2">
@@ -12812,131 +12812,131 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C27" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E27" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F27" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="G27" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H27" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="I27" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J27" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="K27" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="L27" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="R27" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S27" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B28" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C28" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D28" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E28" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F28" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="G28" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="H28" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="I28" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="J28" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="L28" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="R28" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="S28" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2295</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2296</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1977</v>
+      </c>
+      <c r="S29" t="s">
         <v>1978</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2027</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2003</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2148</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2149</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2240</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2297</v>
-      </c>
-      <c r="L29" t="s">
-        <v>2298</v>
-      </c>
-      <c r="R29" t="s">
-        <v>1979</v>
-      </c>
-      <c r="S29" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.2">
@@ -12944,43 +12944,43 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C30" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D30" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="E30" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F30" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="G30" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H30" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="I30" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="J30" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="K30" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="L30" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="R30" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="S30" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.2">
@@ -12988,43 +12988,43 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C31" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D31" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="E31" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F31" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="G31" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="H31" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="I31" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="J31" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="K31" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="L31" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="R31" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="S31" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.2">
@@ -13032,43 +13032,43 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C32" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D32" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="E32" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F32" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="G32" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H32" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="I32" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="J32" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="K32" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="L32" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="R32" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="S32" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -13076,43 +13076,43 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C33" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D33" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="E33" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F33" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G33" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H33" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="I33" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="J33" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="K33" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="L33" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="R33" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="S33" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -13120,43 +13120,43 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C34" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D34" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E34" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F34" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G34" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H34" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="I34" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="J34" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="K34" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="L34" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="R34" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="S34" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -13164,87 +13164,87 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C35" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D35" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E35" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F35" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="G35" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H35" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="I35" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="J35" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="K35" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="L35" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="R35" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="S35" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B36" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C36" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D36" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E36" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F36" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="G36" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H36" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="I36" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="J36" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="K36" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="L36" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="R36" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="S36" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -13252,43 +13252,43 @@
         <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C37" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D37" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E37" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F37" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="G37" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="H37" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="I37" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="J37" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="K37" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="L37" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="R37" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="S37" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -13296,43 +13296,43 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C38" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D38" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="E38" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F38" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="G38" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="H38" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="I38" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="J38" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="K38" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="L38" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="R38" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="S38" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13340,43 +13340,43 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C39" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D39" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E39" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F39" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="G39" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="I39" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="J39" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="K39" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="L39" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="R39" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="S39" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -13384,43 +13384,43 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C40" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D40" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E40" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F40" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="G40" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="H40" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="I40" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="J40" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="K40" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="L40" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="R40" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="S40" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -13428,43 +13428,43 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C41" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D41" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E41" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F41" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="G41" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H41" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="I41" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J41" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="K41" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="L41" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="R41" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="S41" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -13472,43 +13472,43 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C42" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D42" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E42" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="F42" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="G42" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H42" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="I42" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="J42" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="K42" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="L42" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="R42" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="S42" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -13516,43 +13516,43 @@
         <v>490</v>
       </c>
       <c r="B43" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C43" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D43" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="E43" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F43" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="G43" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="H43" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="I43" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="J43" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="K43" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="L43" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="R43" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="S43" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -13560,87 +13560,87 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C44" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D44" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="E44" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F44" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="G44" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="H44" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="I44" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="J44" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="K44" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="L44" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="R44" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S44" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B45" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C45" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D45" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E45" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F45" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="G45" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="H45" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="I45" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="J45" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="K45" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="L45" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="R45" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="S45" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -13648,43 +13648,43 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C46" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D46" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E46" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F46" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="G46" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H46" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="I46" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="J46" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="K46" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="L46" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="R46" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="S46" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -13692,87 +13692,87 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C47" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D47" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="E47" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F47" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="G47" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="H47" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="I47" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="J47" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="K47" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="L47" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="R47" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="S47" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B48" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C48" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D48" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="E48" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F48" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="G48" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="H48" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="I48" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="J48" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="K48" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="L48" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="S48" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -13780,43 +13780,43 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C49" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D49" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="E49" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F49" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="G49" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="H49" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="I49" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="J49" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="K49" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="L49" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="R49" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="S49" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -13824,87 +13824,87 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C50" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D50" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E50" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F50" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="G50" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H50" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="I50" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="J50" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="K50" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="L50" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="R50" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="S50" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B51" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C51" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D51" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E51" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F51" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="G51" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H51" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="I51" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="J51" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="K51" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="L51" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="R51" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="S51" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -13912,87 +13912,87 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="C52" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D52" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E52" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F52" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G52" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H52" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="I52" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J52" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="K52" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="L52" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="R52" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="S52" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B53" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C53" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D53" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="E53" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F53" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G53" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="H53" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="I53" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="J53" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="K53" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="L53" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="S53" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -14000,43 +14000,43 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C54" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D54" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="E54" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F54" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G54" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H54" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="I54" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="J54" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="K54" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="L54" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="R54" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="S54" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -14044,43 +14044,43 @@
         <v>491</v>
       </c>
       <c r="B55" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C55" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D55" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E55" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F55" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="G55" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="H55" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="I55" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="J55" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="K55" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="L55" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="R55" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="S55" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -14088,43 +14088,43 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C56" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D56" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="E56" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F56" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="G56" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="H56" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="I56" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="J56" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="K56" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="L56" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="R56" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="S56" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -14132,43 +14132,43 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C57" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D57" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="E57" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F57" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="G57" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="H57" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="I57" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="J57" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="K57" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="L57" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="R57" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="S57" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -14176,43 +14176,43 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C58" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D58" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E58" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F58" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="G58" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="H58" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="I58" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="J58" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="K58" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="L58" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="R58" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="S58" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -14220,43 +14220,43 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C59" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D59" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="E59" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F59" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="G59" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="H59" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="I59" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="J59" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="K59" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="L59" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="R59" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="S59" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -14264,43 +14264,43 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C60" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D60" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="E60" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F60" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="G60" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="H60" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="I60" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="J60" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="K60" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="L60" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="R60" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="S60" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14308,43 +14308,43 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C61" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D61" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="E61" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F61" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G61" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="H61" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="I61" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="J61" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="K61" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="L61" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="S61" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -14352,87 +14352,87 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C62" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D62" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="E62" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="F62" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="G62" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H62" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="I62" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="J62" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="K62" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="L62" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="R62" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="S62" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B63" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="C63" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D63" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="E63" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F63" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="G63" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="H63" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="I63" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="J63" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="K63" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="L63" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="R63" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="S63" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -14440,43 +14440,43 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C64" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D64" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="E64" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="F64" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="G64" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="H64" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="I64" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="J64" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="K64" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="L64" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="R64" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="S64" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -14484,43 +14484,43 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C65" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D65" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="E65" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F65" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="G65" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="H65" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="I65" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="J65" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="K65" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="L65" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="R65" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="S65" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -14528,43 +14528,43 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C66" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D66" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="E66" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="F66" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="G66" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="H66" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="I66" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="J66" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="K66" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="L66" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="R66" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="S66" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14572,43 +14572,43 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C67" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="D67" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="E67" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F67" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="G67" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="I67" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="J67" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="K67" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="L67" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="R67" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="S67" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -14616,87 +14616,87 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C68" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="D68" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E68" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F68" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="G68" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="H68" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="I68" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="J68" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="K68" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="L68" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="R68" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="S68" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B69" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D69" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E69" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F69" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="G69" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="H69" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I69" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="J69" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="K69" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="L69" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="R69" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="S69" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -14704,43 +14704,43 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C70" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="D70" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="E70" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F70" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="G70" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="H70" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="I70" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="J70" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="K70" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="L70" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="R70" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="S70" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -14748,87 +14748,87 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C71" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D71" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E71" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F71" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G71" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H71" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="I71" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="J71" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="K71" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="L71" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="R71" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="S71" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2232</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2399</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2400</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1994</v>
+      </c>
+      <c r="S72" t="s">
         <v>1995</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H72" t="s">
-        <v>2234</v>
-      </c>
-      <c r="I72" t="s">
-        <v>2235</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>2294</v>
-      </c>
-      <c r="K72" t="s">
-        <v>2401</v>
-      </c>
-      <c r="L72" t="s">
-        <v>2402</v>
-      </c>
-      <c r="R72" t="s">
-        <v>1996</v>
-      </c>
-      <c r="S72" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -14836,43 +14836,43 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="C73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="E73" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F73" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="G73" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="H73" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="I73" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="J73" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="K73" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="L73" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="R73" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="S73" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -14880,43 +14880,43 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="C74" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D74" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="E74" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F74" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="G74" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="H74" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="I74" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="J74" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="K74" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="L74" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="R74" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="S74" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -14976,17 +14976,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -15161,19 +15161,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B123" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E123" t="s">
         <v>500</v>
       </c>
       <c r="F123" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G123" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -15248,7 +15248,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -15268,7 +15268,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -15288,7 +15288,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -15423,7 +15423,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -15518,7 +15518,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -15573,7 +15573,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -15593,7 +15593,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -15643,7 +15643,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -15848,7 +15848,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -15928,7 +15928,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -15963,7 +15963,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -16203,7 +16203,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -16288,7 +16288,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -16433,7 +16433,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -16453,7 +16453,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -16488,7 +16488,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
@@ -16573,7 +16573,7 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
@@ -16903,7 +16903,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -16918,7 +16918,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -16948,7 +16948,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -17068,7 +17068,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -17113,7 +17113,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -17143,7 +17143,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA59924-A5AA-7B4F-85DD-653D1F6D76D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9584389-D3DB-CD4F-9D3E-8AD5277CE952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57560" yWindow="2880" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2317,15 +2317,9 @@
     <t>ντροπιασμένος</t>
   </si>
   <si>
-    <t>παρακαλώ, ζητώ</t>
-  </si>
-  <si>
     <t>φθινόπωρο</t>
   </si>
   <si>
-    <t>αφυπνίζω</t>
-  </si>
-  <si>
     <t>GkTr</t>
   </si>
   <si>
@@ -2356,13 +2350,7 @@
     <t>ndropiasmenos</t>
   </si>
   <si>
-    <t>parakalo, zito</t>
-  </si>
-  <si>
     <t>fthinoporo</t>
-  </si>
-  <si>
-    <t>afypnizo</t>
   </si>
   <si>
     <t>Gujarati</t>
@@ -7266,6 +7254,18 @@
   </si>
   <si>
     <t>pataskhanel, pataskhan</t>
+  </si>
+  <si>
+    <t>ρωτήσω, παρακαλώ, ζητώ</t>
+  </si>
+  <si>
+    <t>rotíso, parakalo, zito</t>
+  </si>
+  <si>
+    <t>ξυπνήσει, αφυπνίζω, ξυπνώ</t>
+  </si>
+  <si>
+    <t>xypnísei, afypnizo, xypnó</t>
   </si>
 </sst>
 </file>
@@ -8115,7 +8115,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8127,7 +8127,7 @@
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
@@ -8221,16 +8221,16 @@
         <v>750</v>
       </c>
       <c r="I1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="K1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="M1" t="s">
         <v>579</v>
@@ -8272,154 +8272,154 @@
         <v>737</v>
       </c>
       <c r="Z1" t="s">
+        <v>773</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD1" t="s">
         <v>777</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>778</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>779</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>780</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>781</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
+        <v>993</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>782</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AL1" t="s">
         <v>783</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AN1" t="s">
         <v>784</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AO1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AP1" t="s">
         <v>785</v>
       </c>
-      <c r="AI1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AQ1" t="s">
         <v>786</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
         <v>787</v>
       </c>
-      <c r="AM1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AT1" t="s">
         <v>788</v>
       </c>
-      <c r="AO1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>789</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AX1" t="s">
         <v>790</v>
       </c>
-      <c r="AR1" t="s">
-        <v>791</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AZ1" t="s">
         <v>792</v>
       </c>
-      <c r="AU1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
+        <v>793</v>
+      </c>
+      <c r="BB1" t="s">
         <v>794</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>795</v>
+      </c>
+      <c r="BE1" t="s">
         <v>796</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BG1" t="s">
         <v>797</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BH1" t="s">
         <v>798</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
         <v>799</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BJ1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="BK1" t="s">
         <v>800</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BL1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BM1" t="s">
         <v>801</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BN1" t="s">
         <v>802</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BO1" t="s">
         <v>803</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BP1" t="s">
         <v>804</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>805</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BS1" t="s">
         <v>806</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BT1" t="s">
         <v>807</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BU1" t="s">
         <v>808</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BV1" t="s">
         <v>809</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="BX1" t="s">
         <v>810</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BY1" t="s">
         <v>811</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BZ1" t="s">
         <v>812</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>813</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>814</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>815</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8526,7 +8526,7 @@
         <v>488</v>
       </c>
       <c r="AI2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AJ2" t="s">
         <v>488</v>
@@ -8538,7 +8538,7 @@
         <v>488</v>
       </c>
       <c r="AM2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AN2" t="s">
         <v>488</v>
@@ -8651,220 +8651,220 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M3" t="s">
+        <v>991</v>
+      </c>
+      <c r="N3" t="s">
+        <v>991</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="P3" t="s">
         <v>1530</v>
       </c>
-      <c r="C3" t="s">
+      <c r="Q3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="W3" t="s">
         <v>1536</v>
       </c>
-      <c r="D3" t="s">
+      <c r="X3" t="s">
         <v>1537</v>
       </c>
-      <c r="E3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="Y3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>1529</v>
       </c>
-      <c r="H3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="M3" t="s">
-        <v>995</v>
-      </c>
-      <c r="N3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>1561</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>1571</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="BF3" t="s">
+      <c r="BK3" t="s">
+        <v>991</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>991</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1573</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BN3" t="s">
         <v>1574</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BO3" t="s">
         <v>1575</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BP3" t="s">
         <v>1576</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>995</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>995</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BQ3" t="s">
         <v>1577</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BR3" t="s">
         <v>1578</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BS3" t="s">
         <v>1579</v>
       </c>
-      <c r="BP3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1583</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="BU3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="BV3" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="BW3" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="BX3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BY3" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8893,22 +8893,22 @@
         <v>751</v>
       </c>
       <c r="I4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J4" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="K4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="L4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="M4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="N4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="O4" t="s">
         <v>608</v>
@@ -8935,7 +8935,7 @@
         <v>697</v>
       </c>
       <c r="W4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="X4" t="s">
         <v>724</v>
@@ -8944,154 +8944,154 @@
         <v>738</v>
       </c>
       <c r="Z4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AA4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="AB4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="AC4" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="AD4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="AE4" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="AF4" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="AG4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AH4" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="AI4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="AK4" t="s">
         <v>473</v>
       </c>
       <c r="AL4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AM4" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AN4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="AO4" t="s">
         <v>473</v>
       </c>
       <c r="AP4" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="AR4" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="AS4" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AT4" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="AU4" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="AX4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="BA4" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="BB4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BC4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BD4" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="BE4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="BF4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="BG4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BH4" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="BI4" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="BJ4" t="s">
         <v>608</v>
       </c>
       <c r="BK4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="BL4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="BM4" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="BN4" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="BO4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="BP4" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="BT4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="BW4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="BX4" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BY4" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9108,7 +9108,7 @@
         <v>663</v>
       </c>
       <c r="E5" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F5" t="s">
         <v>507</v>
@@ -9120,16 +9120,16 @@
         <v>752</v>
       </c>
       <c r="I5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J5" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="K5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="L5" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="M5" t="s">
         <v>581</v>
@@ -9138,7 +9138,7 @@
         <v>582</v>
       </c>
       <c r="O5" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="P5" t="s">
         <v>626</v>
@@ -9153,16 +9153,16 @@
         <v>554</v>
       </c>
       <c r="T5" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="U5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="V5" t="s">
         <v>698</v>
       </c>
       <c r="W5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="X5" t="s">
         <v>725</v>
@@ -9171,154 +9171,154 @@
         <v>739</v>
       </c>
       <c r="Z5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AA5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AB5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="AC5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="AD5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="AE5" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="AF5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AG5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AH5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="AI5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="AK5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="AL5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="AM5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="AN5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AO5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AP5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="AR5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="AS5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="AT5" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="AU5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="AX5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="BA5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="BB5" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="BC5" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="BD5" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="BE5" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="BF5" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="BG5" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="BH5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="BI5" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="BK5" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="BL5" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="BM5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="BN5" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="BO5" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="BP5" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="BR5" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="BS5" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="BT5" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="BU5" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="BV5" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="BW5" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="BX5" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="BY5" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9335,7 +9335,7 @@
         <v>657</v>
       </c>
       <c r="E6" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F6" t="s">
         <v>509</v>
@@ -9347,16 +9347,16 @@
         <v>753</v>
       </c>
       <c r="I6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J6" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="K6" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="L6" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="M6" t="s">
         <v>583</v>
@@ -9398,154 +9398,154 @@
         <v>740</v>
       </c>
       <c r="Z6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AA6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AB6" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="AC6" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AD6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="AE6" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="AF6" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AG6" t="s">
         <v>726</v>
       </c>
       <c r="AH6" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="AI6" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="AK6" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="AL6" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="AM6" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AN6" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AO6" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="AP6" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="AS6" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="AT6" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="AU6" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="AX6" t="s">
         <v>699</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="BC6" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="BF6" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="BG6" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="BH6" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="BI6" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="BJ6" t="s">
         <v>609</v>
       </c>
       <c r="BK6" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="BL6" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="BM6" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="BN6" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="BR6" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="BS6" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="BT6" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="BU6" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="BV6" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="BW6" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="BX6" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="BY6" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9565,25 +9565,25 @@
         <v>492</v>
       </c>
       <c r="F7" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="G7" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="H7" t="s">
         <v>754</v>
       </c>
       <c r="I7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J7" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="K7" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L7" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="M7" t="s">
         <v>585</v>
@@ -9610,169 +9610,169 @@
         <v>676</v>
       </c>
       <c r="U7" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="V7" t="s">
         <v>700</v>
       </c>
       <c r="W7" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="X7" t="s">
         <v>727</v>
       </c>
       <c r="Y7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="Z7" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="AA7" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AB7" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AC7" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AD7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="AE7" t="s">
         <v>700</v>
       </c>
       <c r="AF7" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AG7" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AH7" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="AK7" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AL7" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AM7" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AN7" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="AO7" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="AP7" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="AR7" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AS7" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="AT7" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="AU7" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="AX7" t="s">
         <v>700</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="BA7" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="BB7" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="BC7" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="BD7" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="BE7" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="BF7" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="BG7" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="BH7" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="BI7" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="BJ7" t="s">
         <v>676</v>
       </c>
       <c r="BK7" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="BL7" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="BM7" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="BN7" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="BO7" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="BP7" t="s">
         <v>700</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="BR7" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="BS7" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="BT7" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="BU7" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="BV7" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="BW7" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="BX7" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="BY7" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9798,19 +9798,19 @@
         <v>512</v>
       </c>
       <c r="H8" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="I8" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="J8" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="K8" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="L8" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="M8" t="s">
         <v>587</v>
@@ -9852,154 +9852,154 @@
         <v>741</v>
       </c>
       <c r="Z8" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="AA8" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="AB8" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="AC8" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="AD8" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="AE8" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AF8" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AG8" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AH8" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AI8" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="AK8" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="AL8" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AM8" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="AN8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="AO8" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="AP8" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="AR8" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="AS8" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="AT8" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="AU8" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="AX8" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="BA8" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="BB8" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="BC8" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="BD8" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="BE8" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="BF8" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="BG8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BH8" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="BI8" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="BJ8" t="s">
         <v>611</v>
       </c>
       <c r="BK8" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="BL8" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="BM8" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="BN8" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="BO8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="BP8" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="BR8" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="BS8" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="BT8" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="BU8" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="BV8" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="BW8" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="BX8" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="BY8" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10010,13 +10010,13 @@
         <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E9" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F9" t="s">
         <v>513</v>
@@ -10028,16 +10028,16 @@
         <v>755</v>
       </c>
       <c r="I9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J9" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="K9" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="M9" t="s">
         <v>589</v>
@@ -10079,154 +10079,154 @@
         <v>742</v>
       </c>
       <c r="Z9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AA9" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="AB9" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="AC9" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="AD9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="AE9" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="AF9" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AG9" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="AI9" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="AK9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="AL9" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="AM9" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="AN9" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="AO9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="AP9" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="AR9" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="AS9" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="AT9" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="AU9" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="AX9" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="BA9" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="BB9" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="BC9" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="BD9" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="BE9" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="BF9" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="BG9" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="BH9" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="BI9" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="BJ9" t="s">
         <v>612</v>
       </c>
       <c r="BK9" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="BL9" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="BM9" t="s">
         <v>687</v>
       </c>
       <c r="BN9" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="BO9" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="BP9" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="BR9" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="BS9" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="BT9" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="BU9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="BV9" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="BW9" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="BX9" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="BY9" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10255,16 +10255,16 @@
         <v>756</v>
       </c>
       <c r="I10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J10" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="K10" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="L10" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="M10" t="s">
         <v>591</v>
@@ -10306,88 +10306,88 @@
         <v>743</v>
       </c>
       <c r="Z10" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="AA10" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AB10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AC10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="AD10" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="AE10" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="AF10" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AG10" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="AH10" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="AI10" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="AK10" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="AL10" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="AM10" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="AN10" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="AO10" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="AP10" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="AR10" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="AS10" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="AT10" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="AU10" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="AX10" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="BA10" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="BB10" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="BC10" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="BD10" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="BE10" t="s">
         <v>564</v>
@@ -10396,49 +10396,49 @@
         <v>565</v>
       </c>
       <c r="BG10" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="BH10" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="BI10" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="BJ10" t="s">
         <v>613</v>
       </c>
       <c r="BK10" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="BL10" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="BM10" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="BN10" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="BO10" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="BP10" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="BR10" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="BS10" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="BT10" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="BU10" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="BV10" t="s">
         <v>564</v>
@@ -10447,13 +10447,13 @@
         <v>565</v>
       </c>
       <c r="BX10" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BY10" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10464,10 +10464,10 @@
         <v>540</v>
       </c>
       <c r="C11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D11" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E11" t="s">
         <v>495</v>
@@ -10482,16 +10482,16 @@
         <v>757</v>
       </c>
       <c r="I11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J11" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="K11" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="L11" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="M11" t="s">
         <v>593</v>
@@ -10509,7 +10509,7 @@
         <v>639</v>
       </c>
       <c r="R11" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="S11" t="s">
         <v>639</v>
@@ -10533,154 +10533,154 @@
         <v>744</v>
       </c>
       <c r="Z11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="AA11" t="s">
         <v>594</v>
       </c>
       <c r="AB11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="AC11" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="AD11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AE11" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="AF11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AG11" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AH11" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="AI11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AK11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AL11" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="AM11" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="AN11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AO11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="AP11" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="AR11" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="AS11" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="AT11" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AU11" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AX11" t="s">
         <v>703</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="BA11" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="BB11" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="BC11" t="s">
         <v>594</v>
       </c>
       <c r="BD11" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="BE11" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="BF11" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="BG11" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="BH11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="BK11" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="BL11" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="BM11" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="BN11" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="BO11" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="BP11" t="s">
         <v>703</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="BR11" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="BS11" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="BT11" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="BU11" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="BV11" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="BW11" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="BX11" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="BY11" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10700,31 +10700,31 @@
         <v>498</v>
       </c>
       <c r="F12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H12" t="s">
         <v>758</v>
       </c>
       <c r="I12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="K12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="L12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="M12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="N12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="O12" t="s">
         <v>614</v>
@@ -10748,7 +10748,7 @@
         <v>690</v>
       </c>
       <c r="V12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="W12" t="s">
         <v>715</v>
@@ -10760,139 +10760,139 @@
         <v>745</v>
       </c>
       <c r="Z12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AA12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AB12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AC12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AD12" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AE12" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="AF12" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AG12" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="AH12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AI12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AJ12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AK12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AL12" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="AM12" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="AN12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AO12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AP12" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="AR12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AS12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AT12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AU12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AX12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="BA12" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="BB12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BC12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BD12" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="BE12" t="s">
         <v>566</v>
       </c>
       <c r="BF12" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="BG12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BH12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="BI12" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="BJ12" t="s">
         <v>614</v>
       </c>
       <c r="BK12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BL12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BM12" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="BN12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BO12" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="BP12" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="BQ12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BR12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BS12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BT12" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="BU12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BV12" t="s">
         <v>640</v>
@@ -10901,13 +10901,13 @@
         <v>641</v>
       </c>
       <c r="BX12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BY12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10918,10 +10918,10 @@
         <v>543</v>
       </c>
       <c r="C13" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D13" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E13" t="s">
         <v>499</v>
@@ -10933,19 +10933,19 @@
         <v>521</v>
       </c>
       <c r="H13" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I13" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="J13" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="K13" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="L13" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="M13" t="s">
         <v>597</v>
@@ -10963,10 +10963,10 @@
         <v>645</v>
       </c>
       <c r="R13" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="S13" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="T13" t="s">
         <v>618</v>
@@ -10987,154 +10987,154 @@
         <v>747</v>
       </c>
       <c r="Z13" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="AA13" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="AB13" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="AC13" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="AD13" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="AE13" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AF13" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AG13" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AH13" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="AI13" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AK13" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AL13" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="AM13" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="AN13" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="AO13" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="AP13" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="AS13" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="AT13" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="AU13" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="AX13" t="s">
         <v>705</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="BA13" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="BB13" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="BC13" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="BD13" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="BE13" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="BF13" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="BG13" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="BH13" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="BI13" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="BJ13" t="s">
         <v>618</v>
       </c>
       <c r="BK13" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="BL13" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="BM13" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="BN13" t="s">
         <v>645</v>
       </c>
       <c r="BO13" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="BP13" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="BR13" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="BS13" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="BT13" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="BU13" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="BV13" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="BW13" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="BX13" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="BY13" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11163,13 +11163,13 @@
         <v>760</v>
       </c>
       <c r="I14" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J14" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="K14" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="L14" t="s">
         <v>596</v>
@@ -11190,10 +11190,10 @@
         <v>643</v>
       </c>
       <c r="R14" t="s">
+        <v>887</v>
+      </c>
+      <c r="S14" t="s">
         <v>891</v>
-      </c>
-      <c r="S14" t="s">
-        <v>895</v>
       </c>
       <c r="T14" t="s">
         <v>679</v>
@@ -11214,154 +11214,154 @@
         <v>746</v>
       </c>
       <c r="Z14" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="AA14" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="AB14" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="AC14" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AD14" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="AE14" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AF14" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AG14" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="AI14" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="AJ14" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="AK14" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AL14" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="AM14" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="AN14" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="AO14" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AP14" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AS14" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="AT14" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="AU14" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="AX14" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="BA14" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="BB14" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="BC14" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="BD14" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="BE14" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="BF14" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="BG14" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="BH14" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="BI14" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="BK14" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="BL14" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="BM14" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BN14" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BO14" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="BP14" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="BR14" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="BS14" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="BT14" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="BU14" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="BW14" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="BX14" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="BY14" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11372,10 +11372,10 @@
         <v>544</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D15" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E15" t="s">
         <v>680</v>
@@ -11387,19 +11387,19 @@
         <v>523</v>
       </c>
       <c r="H15" t="s">
-        <v>761</v>
+        <v>2403</v>
       </c>
       <c r="I15" t="s">
-        <v>774</v>
+        <v>2404</v>
       </c>
       <c r="J15" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="K15" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="L15" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="M15" t="s">
         <v>599</v>
@@ -11408,25 +11408,25 @@
         <v>600</v>
       </c>
       <c r="O15" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="P15" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="Q15" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="R15" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="S15" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="T15" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="U15" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="V15" t="s">
         <v>706</v>
@@ -11438,162 +11438,162 @@
         <v>735</v>
       </c>
       <c r="Y15" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="Z15" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="AA15" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="AB15" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="AC15" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AD15" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="AE15" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AF15" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AG15" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="AH15" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="AI15" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="AJ15" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="AK15" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="AL15" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="AM15" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="AN15" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AO15" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AP15" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="AS15" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AT15" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="AU15" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="AX15" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="BA15" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="BB15" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="BC15" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="BD15" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="BE15" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="BF15" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="BG15" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="BH15" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="BI15" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="BK15" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="BL15" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="BN15" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="BO15" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="BP15" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="BR15" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="BS15" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="BT15" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="BU15" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="BV15" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="BW15" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="BX15" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="BY15" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B16" t="s">
         <v>546</v>
@@ -11614,19 +11614,19 @@
         <v>527</v>
       </c>
       <c r="H16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I16" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J16" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="K16" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="L16" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="M16" t="s">
         <v>601</v>
@@ -11665,157 +11665,157 @@
         <v>736</v>
       </c>
       <c r="Y16" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="Z16" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="AA16" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="AB16" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="AC16" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="AD16" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="AE16" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AF16" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AG16" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AH16" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="AI16" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="AJ16" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="AK16" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="AL16" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="AM16" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="AN16" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="AO16" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="AP16" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AR16" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="AS16" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="AT16" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="AU16" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="AX16" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="BA16" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="BB16" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="BC16" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="BD16" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="BE16" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="BF16" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="BG16" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="BH16" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="BI16" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="BJ16" t="s">
         <v>619</v>
       </c>
       <c r="BK16" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="BL16" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="BM16" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="BN16" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="BO16" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="BP16" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="BR16" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="BS16" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="BT16" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="BU16" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="BV16" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="BW16" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="BX16" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="BY16" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11841,19 +11841,19 @@
         <v>529</v>
       </c>
       <c r="H17" t="s">
-        <v>763</v>
+        <v>2405</v>
       </c>
       <c r="I17" t="s">
-        <v>776</v>
+        <v>2406</v>
       </c>
       <c r="J17" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="K17" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="L17" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="M17" t="s">
         <v>603</v>
@@ -11865,10 +11865,10 @@
         <v>620</v>
       </c>
       <c r="P17" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="Q17" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="R17" t="s">
         <v>571</v>
@@ -11895,381 +11895,381 @@
         <v>748</v>
       </c>
       <c r="Z17" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="AA17" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AB17" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="AC17" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="AD17" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AE17" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AF17" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AG17" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="AH17" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="AI17" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="AK17" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="AL17" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="AM17" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AN17" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="AO17" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="AP17" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AR17" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="AS17" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="AT17" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="AU17" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="AX17" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="BA17" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="BB17" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="BC17" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="BD17" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="BE17" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="BF17" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="BG17" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="BH17" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="BI17" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="BJ17" t="s">
         <v>681</v>
       </c>
       <c r="BK17" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="BL17" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="BM17" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="BN17" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="BO17" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="BP17" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="BR17" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="BS17" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="BT17" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="BU17" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="BV17" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="BW17" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="BX17" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="BY17" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>966</v>
+      </c>
+      <c r="B18" t="s">
+        <v>986</v>
+      </c>
+      <c r="C18" t="s">
+        <v>979</v>
+      </c>
+      <c r="D18" t="s">
+        <v>980</v>
+      </c>
+      <c r="E18" t="s">
+        <v>989</v>
+      </c>
+      <c r="F18" t="s">
+        <v>987</v>
+      </c>
+      <c r="G18" t="s">
+        <v>988</v>
+      </c>
+      <c r="H18" t="s">
+        <v>972</v>
+      </c>
+      <c r="I18" t="s">
+        <v>973</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K18" t="s">
+        <v>991</v>
+      </c>
+      <c r="L18" t="s">
+        <v>991</v>
+      </c>
+      <c r="M18" t="s">
+        <v>991</v>
+      </c>
+      <c r="N18" t="s">
+        <v>991</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="P18" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>982</v>
+      </c>
+      <c r="R18" t="s">
+        <v>984</v>
+      </c>
+      <c r="S18" t="s">
+        <v>985</v>
+      </c>
+      <c r="T18" t="s">
+        <v>978</v>
+      </c>
+      <c r="U18" t="s">
+        <v>977</v>
+      </c>
+      <c r="V18" t="s">
+        <v>968</v>
+      </c>
+      <c r="W18" t="s">
+        <v>976</v>
+      </c>
+      <c r="X18" t="s">
+        <v>975</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>974</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AB18" t="s">
         <v>970</v>
       </c>
-      <c r="B18" t="s">
-        <v>990</v>
-      </c>
-      <c r="C18" t="s">
-        <v>983</v>
-      </c>
-      <c r="D18" t="s">
-        <v>984</v>
-      </c>
-      <c r="E18" t="s">
-        <v>993</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="AC18" t="s">
+        <v>971</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>969</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>968</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>966</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>966</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AN18" t="s">
         <v>991</v>
       </c>
-      <c r="G18" t="s">
-        <v>992</v>
-      </c>
-      <c r="H18" t="s">
-        <v>976</v>
-      </c>
-      <c r="I18" t="s">
-        <v>977</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K18" t="s">
-        <v>995</v>
-      </c>
-      <c r="L18" t="s">
-        <v>995</v>
-      </c>
-      <c r="M18" t="s">
-        <v>995</v>
-      </c>
-      <c r="N18" t="s">
-        <v>995</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="P18" t="s">
-        <v>985</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>986</v>
-      </c>
-      <c r="R18" t="s">
-        <v>988</v>
-      </c>
-      <c r="S18" t="s">
-        <v>989</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="AO18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>968</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>991</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>991</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1312</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>981</v>
+      </c>
+      <c r="BF18" t="s">
         <v>982</v>
       </c>
-      <c r="U18" t="s">
+      <c r="BG18" t="s">
+        <v>991</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>991</v>
+      </c>
+      <c r="BI18" t="s">
         <v>981</v>
       </c>
-      <c r="V18" t="s">
-        <v>972</v>
-      </c>
-      <c r="W18" t="s">
-        <v>980</v>
-      </c>
-      <c r="X18" t="s">
-        <v>979</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="BJ18" t="s">
         <v>978</v>
       </c>
-      <c r="Z18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>974</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>975</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>973</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>972</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>970</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>971</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>970</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>995</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>972</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1259</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1276</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>995</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>995</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1316</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>985</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>986</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>995</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>995</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>985</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>982</v>
-      </c>
       <c r="BK18" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BL18" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BM18" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="BN18" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="BO18" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="BP18" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="BR18" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BS18" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BT18" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="BU18" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="BV18" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="BW18" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="BX18" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12286,7 +12286,7 @@
         <v>652</v>
       </c>
       <c r="E19" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F19" t="s">
         <v>530</v>
@@ -12295,19 +12295,19 @@
         <v>531</v>
       </c>
       <c r="H19" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="I19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J19" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="K19" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="L19" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="M19" t="s">
         <v>605</v>
@@ -12349,154 +12349,154 @@
         <v>749</v>
       </c>
       <c r="Z19" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="AA19" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="AB19" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="AC19" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="AD19" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="AE19" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AF19" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AG19" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="AH19" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="AI19" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="AJ19" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="AK19" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="AL19" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AM19" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AN19" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="AO19" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="AP19" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="AQ19" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AR19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AU19" t="s">
         <v>1164</v>
       </c>
-      <c r="AS19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>1168</v>
-      </c>
       <c r="AX19" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="BA19" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="BB19" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="BC19" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="BD19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="BE19" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="BF19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="BG19" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="BH19" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="BI19" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="BK19" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="BL19" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="BM19" t="s">
         <v>683</v>
       </c>
       <c r="BN19" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="BO19" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="BP19" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="BR19" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="BS19" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="BT19" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="BU19" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="BV19" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="BW19" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="BX19" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="BY19" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12504,43 +12504,43 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="C20" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D20" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E20" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="F20" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="G20" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="H20" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="I20" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="J20" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="K20" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="L20" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="R20" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="S20" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.2">
@@ -12548,43 +12548,43 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="C21" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D21" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E21" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="F21" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="G21" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="H21" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="I21" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="J21" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="K21" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="L21" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="R21" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="S21" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.2">
@@ -12592,43 +12592,43 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="C22" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D22" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E22" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="F22" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="G22" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="H22" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="I22" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="J22" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="K22" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="L22" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="R22" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="S22" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.2">
@@ -12636,43 +12636,43 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C23" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D23" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="E23" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="F23" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="G23" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="H23" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="I23" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="J23" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="K23" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="L23" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="R23" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="S23" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.2">
@@ -12680,43 +12680,43 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="C24" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D24" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E24" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="F24" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="G24" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="H24" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="I24" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="J24" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="K24" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="L24" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="R24" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="S24" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.2">
@@ -12724,43 +12724,43 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="C25" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D25" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E25" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="F25" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="G25" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="H25" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="I25" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="J25" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="K25" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="L25" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="R25" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="S25" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.2">
@@ -12768,43 +12768,43 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="C26" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E26" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="F26" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="G26" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="H26" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="I26" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="J26" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="K26" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="L26" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="R26" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="S26" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.2">
@@ -12812,131 +12812,131 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="C27" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E27" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="F27" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="G27" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="H27" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="I27" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="J27" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="K27" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="L27" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="R27" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="S27" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B28" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C28" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D28" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E28" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="F28" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="G28" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="H28" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="I28" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="J28" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="L28" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="R28" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="S28" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B29" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C29" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E29" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="F29" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="G29" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="H29" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="I29" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="J29" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="K29" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="L29" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="R29" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="S29" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.2">
@@ -12944,43 +12944,43 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="C30" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="D30" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="E30" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="F30" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="G30" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="H30" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="I30" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="J30" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="K30" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="L30" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="R30" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="S30" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.2">
@@ -12988,43 +12988,43 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="C31" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="D31" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="E31" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="F31" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="G31" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="H31" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="I31" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="J31" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="K31" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="L31" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="R31" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="S31" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.2">
@@ -13032,43 +13032,43 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="C32" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="D32" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="E32" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="F32" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="G32" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="H32" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="I32" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="J32" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="K32" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="L32" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="R32" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="S32" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -13076,43 +13076,43 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="C33" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="D33" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="E33" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="F33" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="G33" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="H33" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="I33" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="J33" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="K33" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="L33" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="R33" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="S33" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -13120,43 +13120,43 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="C34" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="D34" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="E34" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="F34" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="G34" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="H34" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="I34" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="J34" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="K34" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="L34" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="R34" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="S34" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -13164,87 +13164,87 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C35" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="D35" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="E35" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="F35" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="G35" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="H35" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="I35" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="J35" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="K35" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="L35" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="R35" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="S35" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B36" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="C36" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="D36" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="E36" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="F36" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="G36" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="H36" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="I36" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="J36" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="K36" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="L36" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="R36" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="S36" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -13252,43 +13252,43 @@
         <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C37" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="D37" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="E37" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="F37" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="G37" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="H37" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="I37" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="J37" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="K37" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="L37" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="R37" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="S37" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -13296,43 +13296,43 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="C38" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="D38" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="E38" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="F38" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="G38" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="H38" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="I38" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="J38" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="K38" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="L38" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="R38" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="S38" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13340,43 +13340,43 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="C39" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="D39" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="E39" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="F39" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="G39" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="I39" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="J39" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="K39" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="L39" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="R39" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="S39" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -13384,43 +13384,43 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="C40" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="D40" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="E40" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F40" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="G40" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="H40" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="I40" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="J40" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="K40" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="L40" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="R40" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="S40" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -13428,43 +13428,43 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="C41" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="D41" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="E41" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="F41" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="G41" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="H41" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="I41" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="J41" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="K41" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="L41" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="R41" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="S41" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -13472,43 +13472,43 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="C42" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="D42" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="E42" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="F42" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="G42" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="H42" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="I42" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="J42" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="K42" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="L42" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="R42" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="S42" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -13516,43 +13516,43 @@
         <v>490</v>
       </c>
       <c r="B43" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C43" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="D43" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="E43" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="F43" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="G43" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="H43" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="I43" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="J43" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="K43" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="L43" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="R43" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="S43" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -13560,87 +13560,87 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="C44" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="D44" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="E44" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="F44" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="G44" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="H44" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="I44" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="J44" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="K44" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="L44" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="R44" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="S44" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="B45" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="C45" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="D45" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="E45" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="F45" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="G45" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="H45" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="I45" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="J45" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="K45" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="L45" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="R45" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="S45" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -13648,43 +13648,43 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="C46" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="D46" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E46" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="F46" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="G46" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="H46" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="I46" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="J46" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="K46" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="L46" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="R46" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="S46" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -13692,43 +13692,43 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="C47" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="D47" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="E47" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="F47" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="G47" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="H47" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="I47" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="J47" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="K47" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="L47" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="R47" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="S47" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13736,43 +13736,43 @@
         <v>578</v>
       </c>
       <c r="B48" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="C48" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="D48" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E48" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="F48" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="G48" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="H48" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="I48" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="J48" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="K48" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="L48" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="S48" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -13780,43 +13780,43 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="C49" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="D49" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="E49" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="F49" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="G49" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="H49" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="I49" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="J49" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="K49" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="L49" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="R49" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="S49" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -13824,87 +13824,87 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="C50" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="D50" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E50" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="F50" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="G50" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="H50" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="I50" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="J50" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="K50" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="L50" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="R50" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="S50" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="B51" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="C51" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="D51" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="E51" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="F51" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="G51" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="H51" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="I51" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="J51" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="K51" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="L51" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="R51" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="S51" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -13912,87 +13912,87 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="C52" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="D52" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="E52" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="F52" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="G52" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="H52" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="I52" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="J52" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="K52" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="L52" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="R52" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="S52" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B53" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="C53" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="D53" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="E53" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="F53" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="G53" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="H53" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="I53" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="J53" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="K53" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="L53" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="S53" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -14000,43 +14000,43 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="C54" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="D54" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="E54" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="F54" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="G54" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="H54" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="I54" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="J54" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="K54" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="L54" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="R54" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="S54" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -14044,43 +14044,43 @@
         <v>491</v>
       </c>
       <c r="B55" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="C55" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="D55" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="E55" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F55" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="G55" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="H55" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="I55" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="J55" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="K55" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="L55" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="R55" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="S55" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -14088,43 +14088,43 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="C56" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D56" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E56" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="F56" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="G56" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="H56" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="I56" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="J56" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="K56" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="L56" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="R56" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="S56" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -14132,43 +14132,43 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="C57" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="D57" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="E57" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="F57" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="G57" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="H57" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="I57" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="J57" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="K57" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="L57" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="R57" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="S57" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -14176,43 +14176,43 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="C58" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="D58" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="E58" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="F58" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="G58" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="H58" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="I58" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="J58" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="K58" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="L58" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="R58" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="S58" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -14220,43 +14220,43 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="C59" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="D59" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="E59" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="F59" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="G59" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="H59" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="I59" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="J59" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="K59" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="L59" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="R59" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="S59" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -14264,43 +14264,43 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="C60" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="D60" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="E60" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="F60" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="G60" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="H60" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="I60" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="J60" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="K60" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="L60" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="R60" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="S60" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14308,43 +14308,43 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="C61" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="D61" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="E61" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="F61" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="G61" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="H61" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="I61" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="J61" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="K61" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="L61" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="S61" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -14352,87 +14352,87 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="C62" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="D62" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="E62" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="F62" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="G62" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="H62" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="I62" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="J62" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="K62" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="L62" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="R62" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="S62" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="B63" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="C63" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="D63" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="E63" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="F63" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="G63" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="H63" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="I63" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="J63" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="K63" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="L63" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="R63" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="S63" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -14440,43 +14440,43 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="C64" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="D64" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="E64" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="F64" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="G64" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="H64" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="I64" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="J64" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="K64" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="L64" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="R64" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="S64" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -14484,43 +14484,43 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="C65" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="D65" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="E65" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="F65" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="G65" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="H65" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="I65" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="J65" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="K65" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="L65" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="R65" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="S65" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -14528,43 +14528,43 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="C66" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="D66" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="E66" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="F66" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="G66" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="H66" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="I66" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="J66" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="K66" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="L66" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="R66" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="S66" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14572,43 +14572,43 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="C67" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="D67" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="E67" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F67" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G67" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="I67" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="J67" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="K67" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="L67" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="R67" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="S67" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -14616,87 +14616,87 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="C68" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="D68" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="E68" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="F68" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="G68" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="H68" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="I68" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="J68" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="K68" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="L68" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="R68" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="S68" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="B69" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C69" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="D69" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="E69" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="F69" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="G69" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="H69" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="I69" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="J69" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="K69" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="L69" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="R69" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="S69" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -14704,43 +14704,43 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="C70" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="D70" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="E70" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="F70" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="G70" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="H70" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="I70" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="J70" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="K70" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="L70" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="R70" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="S70" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -14748,87 +14748,87 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="C71" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="D71" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="E71" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="F71" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G71" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H71" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="I71" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="J71" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="K71" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="L71" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="R71" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="S71" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="B72" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="C72" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="D72" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="E72" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="F72" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="G72" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="H72" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="I72" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="K72" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="L72" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="R72" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="S72" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -14836,43 +14836,43 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="C73" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D73" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="E73" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="F73" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="G73" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="H73" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="I73" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="J73" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="K73" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="L73" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="R73" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="S73" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -14880,43 +14880,43 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="C74" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="D74" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="E74" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="F74" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="G74" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="H74" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="I74" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="J74" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="K74" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="L74" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="R74" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="S74" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -14981,12 +14981,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -15248,7 +15248,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -15268,7 +15268,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -15423,7 +15423,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -15518,7 +15518,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -15573,7 +15573,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -15593,7 +15593,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -15643,7 +15643,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -15928,7 +15928,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -15963,7 +15963,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -16203,7 +16203,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -16288,7 +16288,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -16433,7 +16433,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -16453,7 +16453,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -16903,7 +16903,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -16918,7 +16918,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -16948,7 +16948,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -17068,7 +17068,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -17113,7 +17113,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -17143,7 +17143,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9584389-D3DB-CD4F-9D3E-8AD5277CE952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8795265-BBF5-0747-9AD9-A22124C7E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57560" yWindow="2880" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3610,9 +3610,6 @@
     <t>NepTr</t>
   </si>
   <si>
-    <t>क्रोधित, क्रोधित</t>
-  </si>
-  <si>
     <t>Krōdhita, Rīsa</t>
   </si>
   <si>
@@ -7266,6 +7263,9 @@
   </si>
   <si>
     <t>xypnísei, afypnizo, xypnó</t>
+  </si>
+  <si>
+    <t>क्रोधित, रीस</t>
   </si>
 </sst>
 </file>
@@ -8115,7 +8115,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8350,7 +8350,7 @@
         <v>794</v>
       </c>
       <c r="BC1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="BD1" t="s">
         <v>795</v>
@@ -8359,7 +8359,7 @@
         <v>796</v>
       </c>
       <c r="BF1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="BG1" t="s">
         <v>797</v>
@@ -8371,13 +8371,13 @@
         <v>799</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="BK1" t="s">
         <v>800</v>
       </c>
       <c r="BL1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="BM1" t="s">
         <v>801</v>
@@ -8395,7 +8395,7 @@
         <v>805</v>
       </c>
       <c r="BR1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="BS1" t="s">
         <v>806</v>
@@ -8410,7 +8410,7 @@
         <v>809</v>
       </c>
       <c r="BW1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="BX1" t="s">
         <v>810</v>
@@ -8651,40 +8651,40 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D3" t="s">
         <v>1532</v>
       </c>
-      <c r="D3" t="s">
-        <v>1533</v>
-      </c>
       <c r="E3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F3" t="s">
         <v>1523</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1524</v>
       </c>
-      <c r="G3" t="s">
-        <v>1525</v>
-      </c>
       <c r="H3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I3" t="s">
         <v>1539</v>
       </c>
-      <c r="I3" t="s">
-        <v>1540</v>
-      </c>
       <c r="J3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="K3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="L3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="M3" t="s">
         <v>991</v>
@@ -8693,130 +8693,130 @@
         <v>991</v>
       </c>
       <c r="O3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P3" t="s">
         <v>1529</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>1530</v>
       </c>
-      <c r="Q3" t="s">
-        <v>1531</v>
-      </c>
       <c r="R3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="S3" t="s">
         <v>1527</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>1528</v>
       </c>
-      <c r="T3" t="s">
-        <v>1529</v>
-      </c>
       <c r="U3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="V3" t="s">
         <v>1534</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>1535</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>1536</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>1537</v>
       </c>
-      <c r="Y3" t="s">
-        <v>1538</v>
-      </c>
       <c r="Z3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AA3" t="s">
         <v>1541</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>1542</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>1543</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>1544</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>1545</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>1546</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>1547</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>1548</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>1549</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>1550</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>1551</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>1552</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>1553</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>1554</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>1555</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>1556</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>1557</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>1558</v>
       </c>
-      <c r="AU3" t="s">
-        <v>1559</v>
-      </c>
       <c r="AX3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="AZ3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BA3" t="s">
         <v>1563</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>1564</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>1565</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>1566</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>1567</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>1568</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>1569</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>1570</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>1571</v>
       </c>
-      <c r="BI3" t="s">
-        <v>1572</v>
-      </c>
       <c r="BJ3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="BK3" t="s">
         <v>991</v>
@@ -8825,46 +8825,46 @@
         <v>991</v>
       </c>
       <c r="BM3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="BN3" t="s">
         <v>1573</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>1574</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>1575</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>1576</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>1577</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BS3" t="s">
         <v>1578</v>
       </c>
-      <c r="BS3" t="s">
-        <v>1579</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="BU3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="BV3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BW3" t="s">
         <v>1593</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>1594</v>
       </c>
       <c r="BX3" t="s">
         <v>991</v>
       </c>
       <c r="BY3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8896,7 +8896,7 @@
         <v>763</v>
       </c>
       <c r="J4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K4" t="s">
         <v>991</v>
@@ -9010,13 +9010,13 @@
         <v>1190</v>
       </c>
       <c r="AX4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="BA4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="BB4" t="s">
         <v>991</v>
@@ -9025,43 +9025,43 @@
         <v>991</v>
       </c>
       <c r="BD4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="BE4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BF4" t="s">
         <v>1315</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>1316</v>
       </c>
       <c r="BG4" t="s">
         <v>991</v>
       </c>
       <c r="BH4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="BI4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="BJ4" t="s">
         <v>608</v>
       </c>
       <c r="BK4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BL4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="BM4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="BN4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="BO4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="BP4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="BQ4" t="s">
         <v>1026</v>
@@ -9073,25 +9073,25 @@
         <v>1026</v>
       </c>
       <c r="BT4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="BW4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="BX4" t="s">
         <v>991</v>
       </c>
       <c r="BY4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9123,13 +9123,13 @@
         <v>766</v>
       </c>
       <c r="J5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K5" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L5" t="s">
         <v>1192</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1193</v>
       </c>
       <c r="M5" t="s">
         <v>581</v>
@@ -9237,88 +9237,88 @@
         <v>1188</v>
       </c>
       <c r="AX5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="BA5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="BB5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="BC5" t="s">
         <v>1275</v>
       </c>
-      <c r="BC5" t="s">
-        <v>1276</v>
-      </c>
       <c r="BD5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="BE5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BF5" t="s">
         <v>1317</v>
       </c>
-      <c r="BF5" t="s">
-        <v>1318</v>
-      </c>
       <c r="BG5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="BH5" t="s">
         <v>950</v>
       </c>
       <c r="BI5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>1366</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>1367</v>
-      </c>
       <c r="BK5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="BL5" t="s">
         <v>1388</v>
       </c>
-      <c r="BL5" t="s">
-        <v>1389</v>
-      </c>
       <c r="BM5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="BN5" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="BO5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="BP5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="BQ5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BR5" t="s">
         <v>1468</v>
       </c>
-      <c r="BR5" t="s">
-        <v>1469</v>
-      </c>
       <c r="BS5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="BT5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="BU5" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="BV5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BW5" t="s">
         <v>1595</v>
       </c>
-      <c r="BW5" t="s">
-        <v>1596</v>
-      </c>
       <c r="BX5" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="BY5" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9350,13 +9350,13 @@
         <v>764</v>
       </c>
       <c r="J6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L6" t="s">
         <v>1194</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1195</v>
       </c>
       <c r="M6" t="s">
         <v>583</v>
@@ -9467,85 +9467,85 @@
         <v>699</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BC6" t="s">
         <v>1277</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>1278</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BF6" t="s">
         <v>1319</v>
       </c>
-      <c r="BF6" t="s">
-        <v>1320</v>
-      </c>
       <c r="BG6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="BH6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="BI6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="BJ6" t="s">
         <v>609</v>
       </c>
       <c r="BK6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BL6" t="s">
         <v>1390</v>
       </c>
-      <c r="BL6" t="s">
-        <v>1391</v>
-      </c>
       <c r="BM6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="BN6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="BQ6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BR6" t="s">
         <v>1470</v>
       </c>
-      <c r="BR6" t="s">
-        <v>1471</v>
-      </c>
       <c r="BS6" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="BT6" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="BU6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="BV6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BW6" t="s">
         <v>1597</v>
       </c>
-      <c r="BW6" t="s">
-        <v>1598</v>
-      </c>
       <c r="BX6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="BY6" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9565,10 +9565,10 @@
         <v>492</v>
       </c>
       <c r="F7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G7" t="s">
         <v>2401</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2402</v>
       </c>
       <c r="H7" t="s">
         <v>754</v>
@@ -9577,13 +9577,13 @@
         <v>765</v>
       </c>
       <c r="J7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L7" t="s">
         <v>1196</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1197</v>
       </c>
       <c r="M7" t="s">
         <v>585</v>
@@ -9694,85 +9694,85 @@
         <v>700</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="BA7" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="BB7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="BC7" t="s">
         <v>820</v>
       </c>
       <c r="BD7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BE7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BF7" t="s">
         <v>1321</v>
       </c>
-      <c r="BF7" t="s">
-        <v>1322</v>
-      </c>
       <c r="BG7" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="BH7" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BI7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="BJ7" t="s">
         <v>676</v>
       </c>
       <c r="BK7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="BL7" t="s">
         <v>1392</v>
       </c>
-      <c r="BL7" t="s">
-        <v>1393</v>
-      </c>
       <c r="BM7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="BN7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="BO7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="BP7" t="s">
         <v>700</v>
       </c>
       <c r="BQ7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BR7" t="s">
         <v>1472</v>
       </c>
-      <c r="BR7" t="s">
-        <v>1473</v>
-      </c>
       <c r="BS7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BT7" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="BU7" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="BV7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="BW7" t="s">
         <v>1599</v>
       </c>
-      <c r="BW7" t="s">
-        <v>1600</v>
-      </c>
       <c r="BX7" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="BY7" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9804,13 +9804,13 @@
         <v>919</v>
       </c>
       <c r="J8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="K8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L8" t="s">
         <v>1198</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1199</v>
       </c>
       <c r="M8" t="s">
         <v>587</v>
@@ -9921,85 +9921,85 @@
         <v>927</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="BA8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="BB8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="BC8" t="s">
         <v>1280</v>
       </c>
-      <c r="BC8" t="s">
-        <v>1281</v>
-      </c>
       <c r="BD8" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="BE8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BF8" t="s">
         <v>1323</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>1324</v>
       </c>
       <c r="BG8" t="s">
         <v>991</v>
       </c>
       <c r="BH8" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BI8" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="BJ8" t="s">
         <v>611</v>
       </c>
       <c r="BK8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BL8" t="s">
         <v>1394</v>
       </c>
-      <c r="BL8" t="s">
-        <v>1395</v>
-      </c>
       <c r="BM8" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="BN8" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="BO8" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="BP8" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="BQ8" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BR8" t="s">
         <v>1474</v>
       </c>
-      <c r="BR8" t="s">
-        <v>1475</v>
-      </c>
       <c r="BS8" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="BT8" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="BU8" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="BV8" t="s">
+        <v>1600</v>
+      </c>
+      <c r="BW8" t="s">
         <v>1601</v>
       </c>
-      <c r="BW8" t="s">
-        <v>1602</v>
-      </c>
       <c r="BX8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="BY8" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10031,13 +10031,13 @@
         <v>767</v>
       </c>
       <c r="J9" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L9" t="s">
         <v>1200</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1201</v>
       </c>
       <c r="M9" t="s">
         <v>589</v>
@@ -10145,88 +10145,88 @@
         <v>1180</v>
       </c>
       <c r="AX9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="BA9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="BB9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="BC9" t="s">
         <v>1282</v>
       </c>
-      <c r="BC9" t="s">
-        <v>1283</v>
-      </c>
       <c r="BD9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="BE9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BF9" t="s">
         <v>1325</v>
       </c>
-      <c r="BF9" t="s">
-        <v>1326</v>
-      </c>
       <c r="BG9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="BH9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BI9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="BJ9" t="s">
         <v>612</v>
       </c>
       <c r="BK9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BL9" t="s">
         <v>1396</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>1397</v>
       </c>
       <c r="BM9" t="s">
         <v>687</v>
       </c>
       <c r="BN9" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="BO9" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="BP9" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="BQ9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BR9" t="s">
         <v>1476</v>
       </c>
-      <c r="BR9" t="s">
-        <v>1477</v>
-      </c>
       <c r="BS9" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="BT9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="BU9" t="s">
         <v>873</v>
       </c>
       <c r="BV9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="BW9" t="s">
         <v>1603</v>
       </c>
-      <c r="BW9" t="s">
-        <v>1604</v>
-      </c>
       <c r="BX9" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="BY9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10258,13 +10258,13 @@
         <v>768</v>
       </c>
       <c r="J10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L10" t="s">
         <v>1202</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1203</v>
       </c>
       <c r="M10" t="s">
         <v>591</v>
@@ -10372,22 +10372,22 @@
         <v>1178</v>
       </c>
       <c r="AX10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="BA10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="BB10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="BC10" t="s">
         <v>1284</v>
       </c>
-      <c r="BC10" t="s">
-        <v>1285</v>
-      </c>
       <c r="BD10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="BE10" t="s">
         <v>564</v>
@@ -10396,49 +10396,49 @@
         <v>565</v>
       </c>
       <c r="BG10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BH10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="BI10" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="BJ10" t="s">
         <v>613</v>
       </c>
       <c r="BK10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BL10" t="s">
         <v>1398</v>
       </c>
-      <c r="BL10" t="s">
-        <v>1399</v>
-      </c>
       <c r="BM10" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="BN10" t="s">
         <v>1124</v>
       </c>
       <c r="BO10" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="BP10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="BQ10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BR10" t="s">
         <v>1478</v>
       </c>
-      <c r="BR10" t="s">
-        <v>1479</v>
-      </c>
       <c r="BS10" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="BT10" t="s">
         <v>1095</v>
       </c>
       <c r="BU10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="BV10" t="s">
         <v>564</v>
@@ -10450,10 +10450,10 @@
         <v>991</v>
       </c>
       <c r="BY10" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10485,13 +10485,13 @@
         <v>769</v>
       </c>
       <c r="J11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L11" t="s">
         <v>1204</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1205</v>
       </c>
       <c r="M11" t="s">
         <v>593</v>
@@ -10602,85 +10602,85 @@
         <v>703</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="BA11" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="BB11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="BC11" t="s">
         <v>594</v>
       </c>
       <c r="BD11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BE11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BF11" t="s">
         <v>1327</v>
       </c>
-      <c r="BF11" t="s">
-        <v>1328</v>
-      </c>
       <c r="BG11" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BH11" t="s">
         <v>944</v>
       </c>
       <c r="BI11" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>1373</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>1374</v>
-      </c>
       <c r="BK11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BL11" t="s">
         <v>1400</v>
       </c>
-      <c r="BL11" t="s">
-        <v>1401</v>
-      </c>
       <c r="BM11" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="BN11" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="BO11" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="BP11" t="s">
         <v>703</v>
       </c>
       <c r="BQ11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BR11" t="s">
         <v>1480</v>
       </c>
-      <c r="BR11" t="s">
-        <v>1481</v>
-      </c>
       <c r="BS11" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="BT11" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="BU11" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="BV11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BW11" t="s">
         <v>1605</v>
       </c>
-      <c r="BW11" t="s">
-        <v>1606</v>
-      </c>
       <c r="BX11" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="BY11" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10829,10 +10829,10 @@
         <v>991</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="BA12" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="BB12" t="s">
         <v>991</v>
@@ -10841,22 +10841,22 @@
         <v>991</v>
       </c>
       <c r="BD12" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="BE12" t="s">
         <v>566</v>
       </c>
       <c r="BF12" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="BG12" t="s">
         <v>991</v>
       </c>
       <c r="BH12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="BI12" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="BJ12" t="s">
         <v>614</v>
@@ -10868,16 +10868,16 @@
         <v>991</v>
       </c>
       <c r="BM12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="BN12" t="s">
         <v>991</v>
       </c>
       <c r="BO12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="BP12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="BQ12" t="s">
         <v>991</v>
@@ -10889,7 +10889,7 @@
         <v>991</v>
       </c>
       <c r="BT12" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="BU12" t="s">
         <v>991</v>
@@ -10907,7 +10907,7 @@
         <v>991</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10939,13 +10939,13 @@
         <v>921</v>
       </c>
       <c r="J13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L13" t="s">
         <v>1207</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1208</v>
       </c>
       <c r="M13" t="s">
         <v>597</v>
@@ -11056,64 +11056,64 @@
         <v>705</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="BA13" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="BB13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="BC13" t="s">
         <v>1287</v>
       </c>
-      <c r="BC13" t="s">
-        <v>1288</v>
-      </c>
       <c r="BD13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="BE13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BF13" t="s">
         <v>1330</v>
       </c>
-      <c r="BF13" t="s">
-        <v>1331</v>
-      </c>
       <c r="BG13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="BH13" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="BI13" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="BJ13" t="s">
         <v>618</v>
       </c>
       <c r="BK13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BL13" t="s">
         <v>1404</v>
       </c>
-      <c r="BL13" t="s">
-        <v>1405</v>
-      </c>
       <c r="BM13" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="BN13" t="s">
         <v>645</v>
       </c>
       <c r="BO13" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="BP13" t="s">
         <v>933</v>
       </c>
       <c r="BQ13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BR13" t="s">
         <v>1484</v>
       </c>
-      <c r="BR13" t="s">
-        <v>1485</v>
-      </c>
       <c r="BS13" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="BT13" t="s">
         <v>1044</v>
@@ -11122,19 +11122,19 @@
         <v>1044</v>
       </c>
       <c r="BV13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BW13" t="s">
         <v>1607</v>
       </c>
-      <c r="BW13" t="s">
-        <v>1608</v>
-      </c>
       <c r="BX13" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="BY13" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11166,10 +11166,10 @@
         <v>771</v>
       </c>
       <c r="J14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="K14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L14" t="s">
         <v>596</v>
@@ -11280,88 +11280,88 @@
         <v>1174</v>
       </c>
       <c r="AX14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="BA14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="BB14" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BC14" t="s">
         <v>1289</v>
       </c>
-      <c r="BC14" t="s">
-        <v>1290</v>
-      </c>
       <c r="BD14" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="BE14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BF14" t="s">
         <v>1332</v>
       </c>
-      <c r="BF14" t="s">
-        <v>1333</v>
-      </c>
       <c r="BG14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="BH14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="BI14" t="s">
+        <v>1375</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>1376</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>1377</v>
-      </c>
       <c r="BK14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BL14" t="s">
         <v>1402</v>
       </c>
-      <c r="BL14" t="s">
-        <v>1403</v>
-      </c>
       <c r="BM14" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="BN14" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="BO14" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="BP14" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="BQ14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="BR14" t="s">
         <v>1482</v>
       </c>
-      <c r="BR14" t="s">
-        <v>1483</v>
-      </c>
       <c r="BS14" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="BT14" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="BU14" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="BV14" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BW14" t="s">
         <v>1609</v>
       </c>
-      <c r="BW14" t="s">
-        <v>1610</v>
-      </c>
       <c r="BX14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="BY14" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11387,19 +11387,19 @@
         <v>523</v>
       </c>
       <c r="H15" t="s">
+        <v>2402</v>
+      </c>
+      <c r="I15" t="s">
         <v>2403</v>
       </c>
-      <c r="I15" t="s">
-        <v>2404</v>
-      </c>
       <c r="J15" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="K15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L15" t="s">
         <v>1209</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1210</v>
       </c>
       <c r="M15" t="s">
         <v>599</v>
@@ -11507,88 +11507,88 @@
         <v>1170</v>
       </c>
       <c r="AX15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="BA15" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="BB15" t="s">
+        <v>1290</v>
+      </c>
+      <c r="BC15" t="s">
         <v>1291</v>
       </c>
-      <c r="BC15" t="s">
-        <v>1292</v>
-      </c>
       <c r="BD15" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="BE15" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BF15" t="s">
         <v>1334</v>
       </c>
-      <c r="BF15" t="s">
-        <v>1335</v>
-      </c>
       <c r="BG15" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BH15" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="BI15" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BJ15" t="s">
         <v>1379</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>1380</v>
-      </c>
       <c r="BK15" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BL15" t="s">
         <v>1406</v>
       </c>
-      <c r="BL15" t="s">
-        <v>1407</v>
-      </c>
       <c r="BM15" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="BN15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BO15" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="BP15" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="BQ15" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BR15" t="s">
         <v>1486</v>
       </c>
-      <c r="BR15" t="s">
-        <v>1487</v>
-      </c>
       <c r="BS15" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="BT15" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="BU15" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="BV15" t="s">
+        <v>1610</v>
+      </c>
+      <c r="BW15" t="s">
         <v>1611</v>
       </c>
-      <c r="BW15" t="s">
-        <v>1612</v>
-      </c>
       <c r="BX15" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="BY15" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
@@ -11620,13 +11620,13 @@
         <v>772</v>
       </c>
       <c r="J16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L16" t="s">
         <v>1211</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1212</v>
       </c>
       <c r="M16" t="s">
         <v>601</v>
@@ -11734,88 +11734,88 @@
         <v>1168</v>
       </c>
       <c r="AX16" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="BA16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="BB16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="BC16" t="s">
         <v>1293</v>
       </c>
-      <c r="BC16" t="s">
-        <v>1294</v>
-      </c>
       <c r="BD16" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="BE16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BF16" t="s">
         <v>1336</v>
       </c>
-      <c r="BF16" t="s">
-        <v>1337</v>
-      </c>
       <c r="BG16" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="BH16" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="BI16" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="BJ16" t="s">
         <v>619</v>
       </c>
       <c r="BK16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BL16" t="s">
         <v>1408</v>
       </c>
-      <c r="BL16" t="s">
-        <v>1409</v>
-      </c>
       <c r="BM16" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="BN16" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="BO16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="BP16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="BQ16" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BR16" t="s">
         <v>1488</v>
       </c>
-      <c r="BR16" t="s">
-        <v>1489</v>
-      </c>
       <c r="BS16" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="BT16" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="BU16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="BV16" t="s">
+        <v>1612</v>
+      </c>
+      <c r="BW16" t="s">
         <v>1613</v>
       </c>
-      <c r="BW16" t="s">
-        <v>1614</v>
-      </c>
       <c r="BX16" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="BY16" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11841,19 +11841,19 @@
         <v>529</v>
       </c>
       <c r="H17" t="s">
+        <v>2404</v>
+      </c>
+      <c r="I17" t="s">
         <v>2405</v>
       </c>
-      <c r="I17" t="s">
-        <v>2406</v>
-      </c>
       <c r="J17" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L17" t="s">
         <v>1213</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1214</v>
       </c>
       <c r="M17" t="s">
         <v>603</v>
@@ -11961,88 +11961,88 @@
         <v>1166</v>
       </c>
       <c r="AX17" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="BA17" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="BB17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="BC17" t="s">
         <v>1295</v>
       </c>
-      <c r="BC17" t="s">
-        <v>1296</v>
-      </c>
       <c r="BD17" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="BE17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BF17" t="s">
         <v>1338</v>
       </c>
-      <c r="BF17" t="s">
-        <v>1339</v>
-      </c>
       <c r="BG17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BH17" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="BI17" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="BJ17" t="s">
         <v>681</v>
       </c>
       <c r="BK17" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BL17" t="s">
         <v>1410</v>
       </c>
-      <c r="BL17" t="s">
-        <v>1411</v>
-      </c>
       <c r="BM17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="BN17" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="BO17" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="BP17" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="BQ17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BR17" t="s">
         <v>1490</v>
       </c>
-      <c r="BR17" t="s">
-        <v>1491</v>
-      </c>
       <c r="BS17" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="BT17" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="BU17" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="BV17" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BW17" t="s">
         <v>1615</v>
       </c>
-      <c r="BW17" t="s">
-        <v>1616</v>
-      </c>
       <c r="BX17" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="BY17" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -12074,7 +12074,7 @@
         <v>973</v>
       </c>
       <c r="J18" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K18" t="s">
         <v>991</v>
@@ -12191,10 +12191,10 @@
         <v>968</v>
       </c>
       <c r="AZ18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="BA18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="BB18" t="s">
         <v>991</v>
@@ -12203,7 +12203,7 @@
         <v>991</v>
       </c>
       <c r="BD18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="BE18" t="s">
         <v>981</v>
@@ -12230,28 +12230,28 @@
         <v>991</v>
       </c>
       <c r="BM18" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="BN18" t="s">
         <v>978</v>
       </c>
       <c r="BO18" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="BP18" t="s">
         <v>968</v>
       </c>
       <c r="BQ18" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BR18" t="s">
         <v>1492</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>1493</v>
       </c>
       <c r="BS18" t="s">
         <v>991</v>
       </c>
       <c r="BT18" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="BU18" t="s">
         <v>966</v>
@@ -12260,16 +12260,16 @@
         <v>981</v>
       </c>
       <c r="BW18" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="BX18" t="s">
         <v>991</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12301,13 +12301,13 @@
         <v>922</v>
       </c>
       <c r="J19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="K19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L19" t="s">
         <v>1215</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1216</v>
       </c>
       <c r="M19" t="s">
         <v>605</v>
@@ -12415,64 +12415,64 @@
         <v>1164</v>
       </c>
       <c r="AX19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="BA19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="BB19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="BC19" t="s">
         <v>1297</v>
       </c>
-      <c r="BC19" t="s">
-        <v>1298</v>
-      </c>
       <c r="BD19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BE19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="BF19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BG19" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="BH19" t="s">
         <v>938</v>
       </c>
       <c r="BI19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="BJ19" t="s">
         <v>1383</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>1384</v>
-      </c>
       <c r="BK19" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BL19" t="s">
         <v>1412</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>1413</v>
       </c>
       <c r="BM19" t="s">
         <v>683</v>
       </c>
       <c r="BN19" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="BO19" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="BP19" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="BQ19" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BR19" t="s">
         <v>1494</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>1495</v>
       </c>
       <c r="BS19" t="s">
         <v>1024</v>
@@ -12481,22 +12481,22 @@
         <v>1025</v>
       </c>
       <c r="BU19" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="BV19" t="s">
+        <v>1617</v>
+      </c>
+      <c r="BW19" t="s">
         <v>1618</v>
       </c>
-      <c r="BW19" t="s">
-        <v>1619</v>
-      </c>
       <c r="BX19" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="BY19" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12504,43 +12504,43 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C20" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D20" t="s">
         <v>2000</v>
       </c>
-      <c r="D20" t="s">
-        <v>2001</v>
-      </c>
       <c r="E20" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F20" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G20" t="s">
         <v>1727</v>
       </c>
-      <c r="G20" t="s">
-        <v>1728</v>
-      </c>
       <c r="H20" t="s">
+        <v>2123</v>
+      </c>
+      <c r="I20" t="s">
         <v>2124</v>
       </c>
-      <c r="I20" t="s">
-        <v>2125</v>
-      </c>
       <c r="J20" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="K20" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L20" t="s">
         <v>2309</v>
       </c>
-      <c r="L20" t="s">
-        <v>2310</v>
-      </c>
       <c r="R20" t="s">
+        <v>1886</v>
+      </c>
+      <c r="S20" t="s">
         <v>1887</v>
-      </c>
-      <c r="S20" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.2">
@@ -12548,43 +12548,43 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C21" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D21" t="s">
         <v>2002</v>
       </c>
-      <c r="D21" t="s">
-        <v>2003</v>
-      </c>
       <c r="E21" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F21" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G21" t="s">
         <v>1729</v>
       </c>
-      <c r="G21" t="s">
-        <v>1730</v>
-      </c>
       <c r="H21" t="s">
+        <v>2125</v>
+      </c>
+      <c r="I21" t="s">
         <v>2126</v>
       </c>
-      <c r="I21" t="s">
-        <v>2127</v>
-      </c>
       <c r="J21" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="K21" t="s">
+        <v>2306</v>
+      </c>
+      <c r="L21" t="s">
         <v>2307</v>
       </c>
-      <c r="L21" t="s">
-        <v>2308</v>
-      </c>
       <c r="R21" t="s">
+        <v>1888</v>
+      </c>
+      <c r="S21" t="s">
         <v>1889</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.2">
@@ -12592,43 +12592,43 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C22" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D22" t="s">
         <v>2004</v>
       </c>
-      <c r="D22" t="s">
-        <v>2005</v>
-      </c>
       <c r="E22" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F22" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G22" t="s">
         <v>1731</v>
       </c>
-      <c r="G22" t="s">
-        <v>1732</v>
-      </c>
       <c r="H22" t="s">
+        <v>2127</v>
+      </c>
+      <c r="I22" t="s">
         <v>2128</v>
       </c>
-      <c r="I22" t="s">
-        <v>2129</v>
-      </c>
       <c r="J22" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K22" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L22" t="s">
         <v>2305</v>
       </c>
-      <c r="L22" t="s">
-        <v>2306</v>
-      </c>
       <c r="R22" t="s">
+        <v>1890</v>
+      </c>
+      <c r="S22" t="s">
         <v>1891</v>
-      </c>
-      <c r="S22" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.2">
@@ -12636,43 +12636,43 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C23" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D23" t="s">
         <v>2006</v>
       </c>
-      <c r="D23" t="s">
-        <v>2007</v>
-      </c>
       <c r="E23" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F23" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G23" t="s">
         <v>1733</v>
       </c>
-      <c r="G23" t="s">
-        <v>1734</v>
-      </c>
       <c r="H23" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I23" t="s">
         <v>2130</v>
       </c>
-      <c r="I23" t="s">
-        <v>2131</v>
-      </c>
       <c r="J23" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K23" t="s">
+        <v>2302</v>
+      </c>
+      <c r="L23" t="s">
         <v>2303</v>
       </c>
-      <c r="L23" t="s">
-        <v>2304</v>
-      </c>
       <c r="R23" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="S23" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.2">
@@ -12680,43 +12680,43 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C24" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D24" t="s">
         <v>2008</v>
       </c>
-      <c r="D24" t="s">
-        <v>2009</v>
-      </c>
       <c r="E24" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F24" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G24" t="s">
         <v>1735</v>
       </c>
-      <c r="G24" t="s">
-        <v>1736</v>
-      </c>
       <c r="H24" t="s">
+        <v>2131</v>
+      </c>
+      <c r="I24" t="s">
         <v>2132</v>
       </c>
-      <c r="I24" t="s">
-        <v>2133</v>
-      </c>
       <c r="J24" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K24" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L24" t="s">
         <v>2301</v>
       </c>
-      <c r="L24" t="s">
-        <v>2302</v>
-      </c>
       <c r="R24" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S24" t="s">
         <v>1894</v>
-      </c>
-      <c r="S24" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.2">
@@ -12724,43 +12724,43 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C25" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D25" t="s">
         <v>2010</v>
       </c>
-      <c r="D25" t="s">
-        <v>2011</v>
-      </c>
       <c r="E25" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F25" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G25" t="s">
         <v>1737</v>
       </c>
-      <c r="G25" t="s">
-        <v>1738</v>
-      </c>
       <c r="H25" t="s">
+        <v>2133</v>
+      </c>
+      <c r="I25" t="s">
         <v>2134</v>
       </c>
-      <c r="I25" t="s">
-        <v>2135</v>
-      </c>
       <c r="J25" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="K25" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L25" t="s">
         <v>2299</v>
       </c>
-      <c r="L25" t="s">
-        <v>2300</v>
-      </c>
       <c r="R25" t="s">
+        <v>1895</v>
+      </c>
+      <c r="S25" t="s">
         <v>1896</v>
-      </c>
-      <c r="S25" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.2">
@@ -12768,43 +12768,43 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D26" t="s">
         <v>2014</v>
       </c>
-      <c r="D26" t="s">
-        <v>2015</v>
-      </c>
       <c r="E26" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F26" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G26" t="s">
         <v>1739</v>
       </c>
-      <c r="G26" t="s">
-        <v>1740</v>
-      </c>
       <c r="H26" t="s">
+        <v>2135</v>
+      </c>
+      <c r="I26" t="s">
         <v>2136</v>
       </c>
-      <c r="I26" t="s">
-        <v>2137</v>
-      </c>
       <c r="J26" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="K26" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L26" t="s">
         <v>2297</v>
       </c>
-      <c r="L26" t="s">
-        <v>2298</v>
-      </c>
       <c r="R26" t="s">
+        <v>1897</v>
+      </c>
+      <c r="S26" t="s">
         <v>1898</v>
-      </c>
-      <c r="S26" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.2">
@@ -12812,131 +12812,131 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C27" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D27" t="s">
         <v>2016</v>
       </c>
-      <c r="D27" t="s">
-        <v>2017</v>
-      </c>
       <c r="E27" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F27" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G27" t="s">
         <v>1741</v>
       </c>
-      <c r="G27" t="s">
-        <v>1742</v>
-      </c>
       <c r="H27" t="s">
+        <v>2137</v>
+      </c>
+      <c r="I27" t="s">
         <v>2138</v>
       </c>
-      <c r="I27" t="s">
-        <v>2139</v>
-      </c>
       <c r="J27" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K27" t="s">
+        <v>2294</v>
+      </c>
+      <c r="L27" t="s">
         <v>2295</v>
       </c>
-      <c r="L27" t="s">
-        <v>2296</v>
-      </c>
       <c r="R27" t="s">
+        <v>1899</v>
+      </c>
+      <c r="S27" t="s">
         <v>1900</v>
-      </c>
-      <c r="S27" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C28" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D28" t="s">
         <v>2018</v>
       </c>
-      <c r="D28" t="s">
-        <v>2019</v>
-      </c>
       <c r="E28" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F28" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G28" t="s">
         <v>1743</v>
       </c>
-      <c r="G28" t="s">
-        <v>1744</v>
-      </c>
       <c r="H28" t="s">
+        <v>2139</v>
+      </c>
+      <c r="I28" t="s">
         <v>2140</v>
       </c>
-      <c r="I28" t="s">
-        <v>2141</v>
-      </c>
       <c r="J28" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="L28" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="R28" t="s">
+        <v>1901</v>
+      </c>
+      <c r="S28" t="s">
         <v>1902</v>
-      </c>
-      <c r="S28" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2291</v>
+      </c>
+      <c r="R29" t="s">
         <v>1972</v>
       </c>
-      <c r="B29" t="s">
-        <v>1999</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1996</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1997</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1998</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2142</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2143</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2234</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2291</v>
-      </c>
-      <c r="L29" t="s">
-        <v>2292</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>1973</v>
-      </c>
-      <c r="S29" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.2">
@@ -12944,43 +12944,43 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C30" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D30" t="s">
         <v>2022</v>
       </c>
-      <c r="D30" t="s">
-        <v>2023</v>
-      </c>
       <c r="E30" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F30" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G30" t="s">
         <v>1745</v>
       </c>
-      <c r="G30" t="s">
-        <v>1746</v>
-      </c>
       <c r="H30" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I30" t="s">
         <v>2144</v>
       </c>
-      <c r="I30" t="s">
-        <v>2145</v>
-      </c>
       <c r="J30" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="K30" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L30" t="s">
         <v>2313</v>
       </c>
-      <c r="L30" t="s">
-        <v>2314</v>
-      </c>
       <c r="R30" t="s">
+        <v>1903</v>
+      </c>
+      <c r="S30" t="s">
         <v>1904</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.2">
@@ -12988,43 +12988,43 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C31" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D31" t="s">
         <v>2029</v>
       </c>
-      <c r="D31" t="s">
-        <v>2030</v>
-      </c>
       <c r="E31" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F31" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G31" t="s">
         <v>1747</v>
       </c>
-      <c r="G31" t="s">
-        <v>1748</v>
-      </c>
       <c r="H31" t="s">
+        <v>2145</v>
+      </c>
+      <c r="I31" t="s">
         <v>2146</v>
       </c>
-      <c r="I31" t="s">
-        <v>2147</v>
-      </c>
       <c r="J31" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="K31" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L31" t="s">
         <v>2317</v>
       </c>
-      <c r="L31" t="s">
-        <v>2318</v>
-      </c>
       <c r="R31" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="S31" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.2">
@@ -13032,43 +13032,43 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C32" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D32" t="s">
         <v>2031</v>
       </c>
-      <c r="D32" t="s">
-        <v>2032</v>
-      </c>
       <c r="E32" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F32" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G32" t="s">
         <v>1749</v>
       </c>
-      <c r="G32" t="s">
-        <v>1750</v>
-      </c>
       <c r="H32" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I32" t="s">
         <v>2148</v>
       </c>
-      <c r="I32" t="s">
-        <v>2149</v>
-      </c>
       <c r="J32" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="K32" t="s">
+        <v>2314</v>
+      </c>
+      <c r="L32" t="s">
         <v>2315</v>
       </c>
-      <c r="L32" t="s">
-        <v>2316</v>
-      </c>
       <c r="R32" t="s">
+        <v>1907</v>
+      </c>
+      <c r="S32" t="s">
         <v>1908</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -13076,43 +13076,43 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C33" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D33" t="s">
         <v>2033</v>
       </c>
-      <c r="D33" t="s">
-        <v>2034</v>
-      </c>
       <c r="E33" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F33" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G33" t="s">
         <v>1751</v>
       </c>
-      <c r="G33" t="s">
-        <v>1752</v>
-      </c>
       <c r="H33" t="s">
+        <v>2149</v>
+      </c>
+      <c r="I33" t="s">
         <v>2150</v>
       </c>
-      <c r="I33" t="s">
-        <v>2151</v>
-      </c>
       <c r="J33" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="K33" t="s">
+        <v>2318</v>
+      </c>
+      <c r="L33" t="s">
         <v>2319</v>
       </c>
-      <c r="L33" t="s">
-        <v>2320</v>
-      </c>
       <c r="R33" t="s">
+        <v>1909</v>
+      </c>
+      <c r="S33" t="s">
         <v>1910</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -13120,43 +13120,43 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C34" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D34" t="s">
         <v>2035</v>
       </c>
-      <c r="D34" t="s">
-        <v>2036</v>
-      </c>
       <c r="E34" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F34" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G34" t="s">
         <v>1753</v>
       </c>
-      <c r="G34" t="s">
-        <v>1754</v>
-      </c>
       <c r="H34" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I34" t="s">
         <v>2152</v>
       </c>
-      <c r="I34" t="s">
-        <v>2153</v>
-      </c>
       <c r="J34" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="K34" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="L34" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="R34" t="s">
+        <v>1911</v>
+      </c>
+      <c r="S34" t="s">
         <v>1912</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -13164,87 +13164,87 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C35" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D35" t="s">
         <v>2037</v>
       </c>
-      <c r="D35" t="s">
-        <v>2038</v>
-      </c>
       <c r="E35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F35" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G35" t="s">
         <v>1755</v>
       </c>
-      <c r="G35" t="s">
-        <v>1756</v>
-      </c>
       <c r="H35" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I35" t="s">
         <v>2154</v>
       </c>
-      <c r="I35" t="s">
-        <v>2155</v>
-      </c>
       <c r="J35" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="K35" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L35" t="s">
         <v>2322</v>
       </c>
-      <c r="L35" t="s">
-        <v>2323</v>
-      </c>
       <c r="R35" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S35" t="s">
         <v>1914</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B36" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C36" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D36" t="s">
         <v>2039</v>
       </c>
-      <c r="D36" t="s">
-        <v>2040</v>
-      </c>
       <c r="E36" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F36" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G36" t="s">
         <v>1757</v>
       </c>
-      <c r="G36" t="s">
-        <v>1758</v>
-      </c>
       <c r="H36" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I36" t="s">
         <v>2156</v>
       </c>
-      <c r="I36" t="s">
-        <v>2157</v>
-      </c>
       <c r="J36" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K36" t="s">
+        <v>2323</v>
+      </c>
+      <c r="L36" t="s">
         <v>2324</v>
       </c>
-      <c r="L36" t="s">
-        <v>2325</v>
-      </c>
       <c r="R36" t="s">
+        <v>1915</v>
+      </c>
+      <c r="S36" t="s">
         <v>1916</v>
-      </c>
-      <c r="S36" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -13252,43 +13252,43 @@
         <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C37" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D37" t="s">
         <v>2041</v>
       </c>
-      <c r="D37" t="s">
-        <v>2042</v>
-      </c>
       <c r="E37" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F37" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G37" t="s">
         <v>1759</v>
       </c>
-      <c r="G37" t="s">
-        <v>1760</v>
-      </c>
       <c r="H37" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I37" t="s">
         <v>2158</v>
       </c>
-      <c r="I37" t="s">
-        <v>2159</v>
-      </c>
       <c r="J37" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="K37" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L37" t="s">
         <v>2326</v>
       </c>
-      <c r="L37" t="s">
-        <v>2327</v>
-      </c>
       <c r="R37" t="s">
+        <v>1917</v>
+      </c>
+      <c r="S37" t="s">
         <v>1918</v>
-      </c>
-      <c r="S37" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -13296,43 +13296,43 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C38" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D38" t="s">
         <v>2043</v>
       </c>
-      <c r="D38" t="s">
-        <v>2044</v>
-      </c>
       <c r="E38" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F38" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G38" t="s">
         <v>1761</v>
       </c>
-      <c r="G38" t="s">
-        <v>1762</v>
-      </c>
       <c r="H38" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I38" t="s">
         <v>2160</v>
       </c>
-      <c r="I38" t="s">
-        <v>2161</v>
-      </c>
       <c r="J38" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K38" t="s">
+        <v>2327</v>
+      </c>
+      <c r="L38" t="s">
         <v>2328</v>
       </c>
-      <c r="L38" t="s">
-        <v>2329</v>
-      </c>
       <c r="R38" t="s">
+        <v>1919</v>
+      </c>
+      <c r="S38" t="s">
         <v>1920</v>
-      </c>
-      <c r="S38" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13340,43 +13340,43 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C39" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D39" t="s">
         <v>2045</v>
       </c>
-      <c r="D39" t="s">
-        <v>2046</v>
-      </c>
       <c r="E39" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F39" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G39" t="s">
         <v>1763</v>
       </c>
-      <c r="G39" t="s">
-        <v>1764</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I39" t="s">
         <v>2162</v>
       </c>
-      <c r="I39" t="s">
-        <v>2163</v>
-      </c>
       <c r="J39" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="K39" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L39" t="s">
         <v>2311</v>
       </c>
-      <c r="L39" t="s">
-        <v>2312</v>
-      </c>
       <c r="R39" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="S39" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -13384,43 +13384,43 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C40" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D40" t="s">
         <v>2047</v>
       </c>
-      <c r="D40" t="s">
-        <v>2048</v>
-      </c>
       <c r="E40" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F40" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G40" t="s">
         <v>1765</v>
       </c>
-      <c r="G40" t="s">
-        <v>1766</v>
-      </c>
       <c r="H40" t="s">
+        <v>2163</v>
+      </c>
+      <c r="I40" t="s">
         <v>2164</v>
       </c>
-      <c r="I40" t="s">
-        <v>2165</v>
-      </c>
       <c r="J40" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="K40" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L40" t="s">
         <v>2332</v>
       </c>
-      <c r="L40" t="s">
-        <v>2333</v>
-      </c>
       <c r="R40" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S40" t="s">
         <v>1924</v>
-      </c>
-      <c r="S40" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -13428,43 +13428,43 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C41" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D41" t="s">
         <v>2049</v>
       </c>
-      <c r="D41" t="s">
-        <v>2050</v>
-      </c>
       <c r="E41" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F41" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G41" t="s">
         <v>1767</v>
       </c>
-      <c r="G41" t="s">
-        <v>1768</v>
-      </c>
       <c r="H41" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I41" t="s">
         <v>2166</v>
       </c>
-      <c r="I41" t="s">
-        <v>2167</v>
-      </c>
       <c r="J41" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="K41" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L41" t="s">
         <v>2334</v>
       </c>
-      <c r="L41" t="s">
-        <v>2335</v>
-      </c>
       <c r="R41" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S41" t="s">
         <v>1926</v>
-      </c>
-      <c r="S41" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -13472,43 +13472,43 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C42" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D42" t="s">
         <v>2051</v>
       </c>
-      <c r="D42" t="s">
-        <v>2052</v>
-      </c>
       <c r="E42" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F42" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G42" t="s">
         <v>1769</v>
       </c>
-      <c r="G42" t="s">
-        <v>1770</v>
-      </c>
       <c r="H42" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I42" t="s">
         <v>2168</v>
       </c>
-      <c r="I42" t="s">
-        <v>2169</v>
-      </c>
       <c r="J42" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="K42" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L42" t="s">
         <v>2336</v>
       </c>
-      <c r="L42" t="s">
-        <v>2337</v>
-      </c>
       <c r="R42" t="s">
+        <v>1927</v>
+      </c>
+      <c r="S42" t="s">
         <v>1928</v>
-      </c>
-      <c r="S42" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -13516,43 +13516,43 @@
         <v>490</v>
       </c>
       <c r="B43" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C43" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D43" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E43" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F43" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G43" t="s">
         <v>1771</v>
       </c>
-      <c r="G43" t="s">
-        <v>1772</v>
-      </c>
       <c r="H43" t="s">
+        <v>2169</v>
+      </c>
+      <c r="I43" t="s">
         <v>2170</v>
       </c>
-      <c r="I43" t="s">
-        <v>2171</v>
-      </c>
       <c r="J43" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="K43" t="s">
+        <v>2337</v>
+      </c>
+      <c r="L43" t="s">
         <v>2338</v>
       </c>
-      <c r="L43" t="s">
-        <v>2339</v>
-      </c>
       <c r="R43" t="s">
+        <v>1929</v>
+      </c>
+      <c r="S43" t="s">
         <v>1930</v>
-      </c>
-      <c r="S43" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -13560,87 +13560,87 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C44" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D44" t="s">
         <v>2055</v>
       </c>
-      <c r="D44" t="s">
-        <v>2056</v>
-      </c>
       <c r="E44" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F44" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G44" t="s">
         <v>1773</v>
       </c>
-      <c r="G44" t="s">
-        <v>1774</v>
-      </c>
       <c r="H44" t="s">
+        <v>2171</v>
+      </c>
+      <c r="I44" t="s">
         <v>2172</v>
       </c>
-      <c r="I44" t="s">
-        <v>2173</v>
-      </c>
       <c r="J44" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="K44" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L44" t="s">
         <v>2342</v>
       </c>
-      <c r="L44" t="s">
-        <v>2343</v>
-      </c>
       <c r="R44" t="s">
+        <v>1931</v>
+      </c>
+      <c r="S44" t="s">
         <v>1932</v>
-      </c>
-      <c r="S44" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E45" t="s">
         <v>1694</v>
       </c>
-      <c r="B45" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1695</v>
-      </c>
       <c r="F45" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G45" t="s">
         <v>1775</v>
       </c>
-      <c r="G45" t="s">
-        <v>1776</v>
-      </c>
       <c r="H45" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I45" t="s">
         <v>2174</v>
       </c>
-      <c r="I45" t="s">
-        <v>2175</v>
-      </c>
       <c r="J45" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="K45" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L45" t="s">
         <v>2340</v>
       </c>
-      <c r="L45" t="s">
-        <v>2341</v>
-      </c>
       <c r="R45" t="s">
+        <v>1933</v>
+      </c>
+      <c r="S45" t="s">
         <v>1934</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -13648,43 +13648,43 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C46" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D46" t="s">
         <v>2061</v>
       </c>
-      <c r="D46" t="s">
-        <v>2062</v>
-      </c>
       <c r="E46" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F46" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G46" t="s">
         <v>1777</v>
       </c>
-      <c r="G46" t="s">
-        <v>1778</v>
-      </c>
       <c r="H46" t="s">
+        <v>2175</v>
+      </c>
+      <c r="I46" t="s">
         <v>2176</v>
       </c>
-      <c r="I46" t="s">
-        <v>2177</v>
-      </c>
       <c r="J46" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="K46" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L46" t="s">
         <v>2344</v>
       </c>
-      <c r="L46" t="s">
-        <v>2345</v>
-      </c>
       <c r="R46" t="s">
+        <v>1935</v>
+      </c>
+      <c r="S46" t="s">
         <v>1936</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -13692,43 +13692,43 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C47" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D47" t="s">
         <v>2063</v>
       </c>
-      <c r="D47" t="s">
-        <v>2064</v>
-      </c>
       <c r="E47" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F47" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G47" t="s">
         <v>1779</v>
       </c>
-      <c r="G47" t="s">
-        <v>1780</v>
-      </c>
       <c r="H47" t="s">
+        <v>2177</v>
+      </c>
+      <c r="I47" t="s">
         <v>2178</v>
       </c>
-      <c r="I47" t="s">
-        <v>2179</v>
-      </c>
       <c r="J47" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="K47" t="s">
+        <v>2345</v>
+      </c>
+      <c r="L47" t="s">
         <v>2346</v>
       </c>
-      <c r="L47" t="s">
-        <v>2347</v>
-      </c>
       <c r="R47" t="s">
+        <v>1937</v>
+      </c>
+      <c r="S47" t="s">
         <v>1938</v>
-      </c>
-      <c r="S47" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13736,43 +13736,43 @@
         <v>578</v>
       </c>
       <c r="B48" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C48" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D48" t="s">
         <v>2065</v>
       </c>
-      <c r="D48" t="s">
-        <v>2066</v>
-      </c>
       <c r="E48" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F48" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G48" t="s">
         <v>1781</v>
       </c>
-      <c r="G48" t="s">
-        <v>1782</v>
-      </c>
       <c r="H48" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I48" t="s">
         <v>2180</v>
       </c>
-      <c r="I48" t="s">
-        <v>2181</v>
-      </c>
       <c r="J48" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="K48" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L48" t="s">
         <v>2348</v>
       </c>
-      <c r="L48" t="s">
-        <v>2349</v>
-      </c>
       <c r="R48" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S48" t="s">
         <v>1940</v>
-      </c>
-      <c r="S48" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -13780,43 +13780,43 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C49" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D49" t="s">
         <v>2067</v>
       </c>
-      <c r="D49" t="s">
-        <v>2068</v>
-      </c>
       <c r="E49" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F49" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G49" t="s">
         <v>1783</v>
       </c>
-      <c r="G49" t="s">
-        <v>1784</v>
-      </c>
       <c r="H49" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="I49" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="J49" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="K49" t="s">
+        <v>2329</v>
+      </c>
+      <c r="L49" t="s">
         <v>2330</v>
       </c>
-      <c r="L49" t="s">
-        <v>2331</v>
-      </c>
       <c r="R49" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S49" t="s">
         <v>1942</v>
-      </c>
-      <c r="S49" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -13824,87 +13824,87 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C50" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D50" t="s">
         <v>2069</v>
       </c>
-      <c r="D50" t="s">
-        <v>2070</v>
-      </c>
       <c r="E50" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F50" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G50" t="s">
         <v>1785</v>
       </c>
-      <c r="G50" t="s">
-        <v>1786</v>
-      </c>
       <c r="H50" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I50" t="s">
         <v>2184</v>
       </c>
-      <c r="I50" t="s">
-        <v>2185</v>
-      </c>
       <c r="J50" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="K50" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L50" t="s">
         <v>2352</v>
       </c>
-      <c r="L50" t="s">
-        <v>2353</v>
-      </c>
       <c r="R50" t="s">
+        <v>1943</v>
+      </c>
+      <c r="S50" t="s">
         <v>1944</v>
-      </c>
-      <c r="S50" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E51" t="s">
         <v>1701</v>
       </c>
-      <c r="B51" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2072</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1702</v>
-      </c>
       <c r="F51" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G51" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H51" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I51" t="s">
         <v>2186</v>
       </c>
-      <c r="I51" t="s">
-        <v>2187</v>
-      </c>
       <c r="J51" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="K51" t="s">
+        <v>2353</v>
+      </c>
+      <c r="L51" t="s">
         <v>2354</v>
       </c>
-      <c r="L51" t="s">
-        <v>2355</v>
-      </c>
       <c r="R51" t="s">
+        <v>1945</v>
+      </c>
+      <c r="S51" t="s">
         <v>1946</v>
-      </c>
-      <c r="S51" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -13912,87 +13912,87 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C52" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D52" t="s">
         <v>2073</v>
       </c>
-      <c r="D52" t="s">
-        <v>2074</v>
-      </c>
       <c r="E52" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F52" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G52" t="s">
         <v>1789</v>
       </c>
-      <c r="G52" t="s">
-        <v>1790</v>
-      </c>
       <c r="H52" t="s">
+        <v>2187</v>
+      </c>
+      <c r="I52" t="s">
         <v>2188</v>
       </c>
-      <c r="I52" t="s">
-        <v>2189</v>
-      </c>
       <c r="J52" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="K52" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="L52" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="R52" t="s">
+        <v>1947</v>
+      </c>
+      <c r="S52" t="s">
         <v>1948</v>
-      </c>
-      <c r="S52" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E53" t="s">
         <v>1704</v>
       </c>
-      <c r="B53" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1705</v>
-      </c>
       <c r="F53" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G53" t="s">
         <v>1791</v>
       </c>
-      <c r="G53" t="s">
-        <v>1792</v>
-      </c>
       <c r="H53" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I53" t="s">
         <v>2190</v>
       </c>
-      <c r="I53" t="s">
-        <v>2191</v>
-      </c>
       <c r="J53" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="K53" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L53" t="s">
         <v>2359</v>
       </c>
-      <c r="L53" t="s">
-        <v>2360</v>
-      </c>
       <c r="R53" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="S53" t="s">
         <v>1950</v>
-      </c>
-      <c r="S53" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -14000,43 +14000,43 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C54" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D54" t="s">
         <v>2077</v>
       </c>
-      <c r="D54" t="s">
-        <v>2078</v>
-      </c>
       <c r="E54" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F54" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G54" t="s">
         <v>1793</v>
       </c>
-      <c r="G54" t="s">
-        <v>1794</v>
-      </c>
       <c r="H54" t="s">
+        <v>2191</v>
+      </c>
+      <c r="I54" t="s">
         <v>2192</v>
       </c>
-      <c r="I54" t="s">
-        <v>2193</v>
-      </c>
       <c r="J54" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="K54" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L54" t="s">
         <v>2361</v>
       </c>
-      <c r="L54" t="s">
-        <v>2362</v>
-      </c>
       <c r="R54" t="s">
+        <v>1951</v>
+      </c>
+      <c r="S54" t="s">
         <v>1952</v>
-      </c>
-      <c r="S54" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -14044,43 +14044,43 @@
         <v>491</v>
       </c>
       <c r="B55" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C55" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D55" t="s">
         <v>2079</v>
       </c>
-      <c r="D55" t="s">
-        <v>2080</v>
-      </c>
       <c r="E55" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F55" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G55" t="s">
         <v>1795</v>
       </c>
-      <c r="G55" t="s">
-        <v>1796</v>
-      </c>
       <c r="H55" t="s">
+        <v>2193</v>
+      </c>
+      <c r="I55" t="s">
         <v>2194</v>
       </c>
-      <c r="I55" t="s">
-        <v>2195</v>
-      </c>
       <c r="J55" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="K55" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L55" t="s">
         <v>2363</v>
       </c>
-      <c r="L55" t="s">
-        <v>2364</v>
-      </c>
       <c r="R55" t="s">
+        <v>1953</v>
+      </c>
+      <c r="S55" t="s">
         <v>1954</v>
-      </c>
-      <c r="S55" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -14088,43 +14088,43 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C56" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D56" t="s">
         <v>2081</v>
       </c>
-      <c r="D56" t="s">
-        <v>2082</v>
-      </c>
       <c r="E56" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F56" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G56" t="s">
         <v>1797</v>
       </c>
-      <c r="G56" t="s">
-        <v>1798</v>
-      </c>
       <c r="H56" t="s">
+        <v>2195</v>
+      </c>
+      <c r="I56" t="s">
         <v>2196</v>
       </c>
-      <c r="I56" t="s">
-        <v>2197</v>
-      </c>
       <c r="J56" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="K56" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L56" t="s">
         <v>2367</v>
       </c>
-      <c r="L56" t="s">
-        <v>2368</v>
-      </c>
       <c r="R56" t="s">
+        <v>1955</v>
+      </c>
+      <c r="S56" t="s">
         <v>1956</v>
-      </c>
-      <c r="S56" t="s">
-        <v>1957</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -14132,43 +14132,43 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C57" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D57" t="s">
         <v>2083</v>
       </c>
-      <c r="D57" t="s">
-        <v>2084</v>
-      </c>
       <c r="E57" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F57" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G57" t="s">
         <v>1799</v>
       </c>
-      <c r="G57" t="s">
-        <v>1800</v>
-      </c>
       <c r="H57" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I57" t="s">
         <v>2198</v>
       </c>
-      <c r="I57" t="s">
-        <v>2199</v>
-      </c>
       <c r="J57" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="K57" t="s">
+        <v>2364</v>
+      </c>
+      <c r="L57" t="s">
         <v>2365</v>
       </c>
-      <c r="L57" t="s">
-        <v>2366</v>
-      </c>
       <c r="R57" t="s">
+        <v>1957</v>
+      </c>
+      <c r="S57" t="s">
         <v>1958</v>
-      </c>
-      <c r="S57" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -14176,43 +14176,43 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C58" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D58" t="s">
         <v>2085</v>
       </c>
-      <c r="D58" t="s">
-        <v>2086</v>
-      </c>
       <c r="E58" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F58" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G58" t="s">
         <v>1801</v>
       </c>
-      <c r="G58" t="s">
-        <v>1802</v>
-      </c>
       <c r="H58" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I58" t="s">
         <v>2200</v>
       </c>
-      <c r="I58" t="s">
-        <v>2201</v>
-      </c>
       <c r="J58" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="K58" t="s">
+        <v>2368</v>
+      </c>
+      <c r="L58" t="s">
         <v>2369</v>
       </c>
-      <c r="L58" t="s">
-        <v>2370</v>
-      </c>
       <c r="R58" t="s">
+        <v>1959</v>
+      </c>
+      <c r="S58" t="s">
         <v>1960</v>
-      </c>
-      <c r="S58" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -14220,43 +14220,43 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C59" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D59" t="s">
         <v>2087</v>
       </c>
-      <c r="D59" t="s">
-        <v>2088</v>
-      </c>
       <c r="E59" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F59" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G59" t="s">
         <v>1803</v>
       </c>
-      <c r="G59" t="s">
-        <v>1804</v>
-      </c>
       <c r="H59" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I59" t="s">
         <v>2202</v>
       </c>
-      <c r="I59" t="s">
-        <v>2203</v>
-      </c>
       <c r="J59" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="K59" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L59" t="s">
         <v>2350</v>
       </c>
-      <c r="L59" t="s">
-        <v>2351</v>
-      </c>
       <c r="R59" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S59" t="s">
         <v>1962</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1963</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -14264,43 +14264,43 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C60" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D60" t="s">
         <v>2089</v>
       </c>
-      <c r="D60" t="s">
-        <v>2090</v>
-      </c>
       <c r="E60" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F60" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G60" t="s">
         <v>1805</v>
       </c>
-      <c r="G60" t="s">
-        <v>1806</v>
-      </c>
       <c r="H60" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I60" t="s">
         <v>2204</v>
       </c>
-      <c r="I60" t="s">
-        <v>2205</v>
-      </c>
       <c r="J60" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="K60" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="L60" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="R60" t="s">
+        <v>1963</v>
+      </c>
+      <c r="S60" t="s">
         <v>1964</v>
-      </c>
-      <c r="S60" t="s">
-        <v>1965</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14308,43 +14308,43 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C61" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D61" t="s">
         <v>2091</v>
       </c>
-      <c r="D61" t="s">
-        <v>2092</v>
-      </c>
       <c r="E61" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F61" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G61" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H61" t="s">
+        <v>2205</v>
+      </c>
+      <c r="I61" t="s">
         <v>2206</v>
       </c>
-      <c r="I61" t="s">
-        <v>2207</v>
-      </c>
       <c r="J61" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="K61" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L61" t="s">
         <v>2375</v>
       </c>
-      <c r="L61" t="s">
-        <v>2376</v>
-      </c>
       <c r="R61" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="S61" t="s">
         <v>1966</v>
-      </c>
-      <c r="S61" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -14352,87 +14352,87 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C62" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D62" t="s">
         <v>2093</v>
       </c>
-      <c r="D62" t="s">
-        <v>2094</v>
-      </c>
       <c r="E62" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F62" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G62" t="s">
         <v>1809</v>
       </c>
-      <c r="G62" t="s">
-        <v>1810</v>
-      </c>
       <c r="H62" t="s">
+        <v>2207</v>
+      </c>
+      <c r="I62" t="s">
         <v>2208</v>
       </c>
-      <c r="I62" t="s">
-        <v>2209</v>
-      </c>
       <c r="J62" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="K62" t="s">
+        <v>2376</v>
+      </c>
+      <c r="L62" t="s">
         <v>2377</v>
       </c>
-      <c r="L62" t="s">
-        <v>2378</v>
-      </c>
       <c r="R62" t="s">
+        <v>1967</v>
+      </c>
+      <c r="S62" t="s">
         <v>1968</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1969</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B63" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C63" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D63" t="s">
         <v>2095</v>
       </c>
-      <c r="D63" t="s">
-        <v>2096</v>
-      </c>
       <c r="E63" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F63" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G63" t="s">
         <v>1811</v>
       </c>
-      <c r="G63" t="s">
-        <v>1812</v>
-      </c>
       <c r="H63" t="s">
+        <v>2209</v>
+      </c>
+      <c r="I63" t="s">
         <v>2210</v>
       </c>
-      <c r="I63" t="s">
-        <v>2211</v>
-      </c>
       <c r="J63" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="K63" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L63" t="s">
         <v>2379</v>
       </c>
-      <c r="L63" t="s">
-        <v>2380</v>
-      </c>
       <c r="R63" t="s">
+        <v>1969</v>
+      </c>
+      <c r="S63" t="s">
         <v>1970</v>
-      </c>
-      <c r="S63" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -14440,43 +14440,43 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C64" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D64" t="s">
         <v>2097</v>
       </c>
-      <c r="D64" t="s">
-        <v>2098</v>
-      </c>
       <c r="E64" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F64" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G64" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H64" t="s">
+        <v>2211</v>
+      </c>
+      <c r="I64" t="s">
         <v>2212</v>
       </c>
-      <c r="I64" t="s">
-        <v>2213</v>
-      </c>
       <c r="J64" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="K64" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L64" t="s">
         <v>2381</v>
       </c>
-      <c r="L64" t="s">
-        <v>2382</v>
-      </c>
       <c r="R64" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S64" t="s">
         <v>1975</v>
-      </c>
-      <c r="S64" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -14484,43 +14484,43 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C65" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D65" t="s">
         <v>2099</v>
       </c>
-      <c r="D65" t="s">
-        <v>2100</v>
-      </c>
       <c r="E65" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F65" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G65" t="s">
         <v>1815</v>
       </c>
-      <c r="G65" t="s">
-        <v>1816</v>
-      </c>
       <c r="H65" t="s">
+        <v>2213</v>
+      </c>
+      <c r="I65" t="s">
         <v>2214</v>
       </c>
-      <c r="I65" t="s">
-        <v>2215</v>
-      </c>
       <c r="J65" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="K65" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L65" t="s">
         <v>2385</v>
       </c>
-      <c r="L65" t="s">
-        <v>2386</v>
-      </c>
       <c r="R65" t="s">
+        <v>1976</v>
+      </c>
+      <c r="S65" t="s">
         <v>1977</v>
-      </c>
-      <c r="S65" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -14528,43 +14528,43 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C66" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D66" t="s">
         <v>2101</v>
       </c>
-      <c r="D66" t="s">
-        <v>2102</v>
-      </c>
       <c r="E66" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F66" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G66" t="s">
         <v>1817</v>
       </c>
-      <c r="G66" t="s">
-        <v>1818</v>
-      </c>
       <c r="H66" t="s">
+        <v>2215</v>
+      </c>
+      <c r="I66" t="s">
         <v>2216</v>
       </c>
-      <c r="I66" t="s">
-        <v>2217</v>
-      </c>
       <c r="J66" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="K66" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L66" t="s">
         <v>2383</v>
       </c>
-      <c r="L66" t="s">
-        <v>2384</v>
-      </c>
       <c r="R66" t="s">
+        <v>1978</v>
+      </c>
+      <c r="S66" t="s">
         <v>1979</v>
-      </c>
-      <c r="S66" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14572,43 +14572,43 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C67" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D67" t="s">
         <v>2108</v>
       </c>
-      <c r="D67" t="s">
-        <v>2109</v>
-      </c>
       <c r="E67" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F67" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G67" t="s">
         <v>1819</v>
       </c>
-      <c r="G67" t="s">
-        <v>1820</v>
-      </c>
       <c r="H67" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I67" t="s">
         <v>2218</v>
       </c>
-      <c r="I67" t="s">
-        <v>2219</v>
-      </c>
       <c r="J67" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="K67" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L67" t="s">
         <v>2371</v>
       </c>
-      <c r="L67" t="s">
-        <v>2372</v>
-      </c>
       <c r="R67" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S67" t="s">
         <v>1981</v>
-      </c>
-      <c r="S67" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -14616,87 +14616,87 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C68" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D68" t="s">
         <v>2110</v>
       </c>
-      <c r="D68" t="s">
-        <v>2111</v>
-      </c>
       <c r="E68" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F68" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G68" t="s">
         <v>1821</v>
       </c>
-      <c r="G68" t="s">
-        <v>1822</v>
-      </c>
       <c r="H68" t="s">
+        <v>2219</v>
+      </c>
+      <c r="I68" t="s">
         <v>2220</v>
       </c>
-      <c r="I68" t="s">
-        <v>2221</v>
-      </c>
       <c r="J68" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="K68" t="s">
+        <v>2386</v>
+      </c>
+      <c r="L68" t="s">
         <v>2387</v>
       </c>
-      <c r="L68" t="s">
-        <v>2388</v>
-      </c>
       <c r="R68" t="s">
+        <v>1982</v>
+      </c>
+      <c r="S68" t="s">
         <v>1983</v>
-      </c>
-      <c r="S68" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B69" t="s">
         <v>991</v>
       </c>
       <c r="C69" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D69" t="s">
         <v>2112</v>
       </c>
-      <c r="D69" t="s">
-        <v>2113</v>
-      </c>
       <c r="E69" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F69" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G69" t="s">
         <v>1823</v>
       </c>
-      <c r="G69" t="s">
-        <v>1824</v>
-      </c>
       <c r="H69" t="s">
+        <v>2221</v>
+      </c>
+      <c r="I69" t="s">
         <v>2222</v>
       </c>
-      <c r="I69" t="s">
-        <v>2223</v>
-      </c>
       <c r="J69" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="K69" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L69" t="s">
         <v>2389</v>
       </c>
-      <c r="L69" t="s">
-        <v>2390</v>
-      </c>
       <c r="R69" t="s">
+        <v>1984</v>
+      </c>
+      <c r="S69" t="s">
         <v>1985</v>
-      </c>
-      <c r="S69" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -14704,43 +14704,43 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C70" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D70" t="s">
         <v>2114</v>
       </c>
-      <c r="D70" t="s">
-        <v>2115</v>
-      </c>
       <c r="E70" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="F70" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G70" t="s">
         <v>1825</v>
       </c>
-      <c r="G70" t="s">
-        <v>1826</v>
-      </c>
       <c r="H70" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I70" t="s">
         <v>2224</v>
       </c>
-      <c r="I70" t="s">
-        <v>2225</v>
-      </c>
       <c r="J70" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="K70" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L70" t="s">
         <v>2391</v>
       </c>
-      <c r="L70" t="s">
-        <v>2392</v>
-      </c>
       <c r="R70" t="s">
+        <v>1986</v>
+      </c>
+      <c r="S70" t="s">
         <v>1987</v>
-      </c>
-      <c r="S70" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -14748,16 +14748,16 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C71" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D71" t="s">
         <v>2116</v>
       </c>
-      <c r="D71" t="s">
-        <v>2117</v>
-      </c>
       <c r="E71" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F71" t="s">
         <v>991</v>
@@ -14766,19 +14766,19 @@
         <v>991</v>
       </c>
       <c r="H71" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I71" t="s">
         <v>2226</v>
       </c>
-      <c r="I71" t="s">
-        <v>2227</v>
-      </c>
       <c r="J71" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K71" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L71" t="s">
         <v>2393</v>
-      </c>
-      <c r="L71" t="s">
-        <v>2394</v>
       </c>
       <c r="R71" t="s">
         <v>991</v>
@@ -14789,46 +14789,46 @@
     </row>
     <row r="72" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2227</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="K72" t="s">
+        <v>2394</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2395</v>
+      </c>
+      <c r="R72" t="s">
         <v>1989</v>
       </c>
-      <c r="B72" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2119</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1827</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H72" t="s">
-        <v>2228</v>
-      </c>
-      <c r="I72" t="s">
-        <v>2229</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="K72" t="s">
-        <v>2395</v>
-      </c>
-      <c r="L72" t="s">
-        <v>2396</v>
-      </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>1990</v>
-      </c>
-      <c r="S72" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -14836,43 +14836,43 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C73" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D73" t="s">
         <v>2120</v>
       </c>
-      <c r="D73" t="s">
-        <v>2121</v>
-      </c>
       <c r="E73" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F73" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G73" t="s">
         <v>1829</v>
       </c>
-      <c r="G73" t="s">
-        <v>1830</v>
-      </c>
       <c r="H73" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I73" t="s">
         <v>2230</v>
       </c>
-      <c r="I73" t="s">
-        <v>2231</v>
-      </c>
       <c r="J73" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="K73" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L73" t="s">
         <v>2397</v>
       </c>
-      <c r="L73" t="s">
-        <v>2398</v>
-      </c>
       <c r="R73" t="s">
+        <v>1991</v>
+      </c>
+      <c r="S73" t="s">
         <v>1992</v>
-      </c>
-      <c r="S73" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -14880,43 +14880,43 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C74" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D74" t="s">
         <v>2122</v>
       </c>
-      <c r="D74" t="s">
-        <v>2123</v>
-      </c>
       <c r="E74" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F74" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G74" t="s">
         <v>1831</v>
       </c>
-      <c r="G74" t="s">
-        <v>1832</v>
-      </c>
       <c r="H74" t="s">
+        <v>2231</v>
+      </c>
+      <c r="I74" t="s">
         <v>2232</v>
       </c>
-      <c r="I74" t="s">
-        <v>2233</v>
-      </c>
       <c r="J74" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="K74" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L74" t="s">
         <v>2399</v>
       </c>
-      <c r="L74" t="s">
-        <v>2400</v>
-      </c>
       <c r="R74" t="s">
+        <v>1993</v>
+      </c>
+      <c r="S74" t="s">
         <v>1994</v>
-      </c>
-      <c r="S74" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -14981,12 +14981,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -15248,7 +15248,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -15268,7 +15268,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -15423,7 +15423,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -15518,7 +15518,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -15573,7 +15573,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -15643,7 +15643,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -15928,7 +15928,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -15963,7 +15963,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -16203,7 +16203,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -16288,7 +16288,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -16433,7 +16433,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -16453,7 +16453,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -16903,7 +16903,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -16918,7 +16918,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -16948,7 +16948,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -17068,7 +17068,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -17113,7 +17113,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -17143,7 +17143,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8795265-BBF5-0747-9AD9-A22124C7E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C6CB6-C330-CB4A-B378-9EEA01291D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2406">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1864,9 +1864,6 @@
     <t>životinja</t>
   </si>
   <si>
-    <t>odgovori</t>
-  </si>
-  <si>
     <t>ant, mrav</t>
   </si>
   <si>
@@ -1879,9 +1876,6 @@
     <t>jasen</t>
   </si>
   <si>
-    <t>strelica</t>
-  </si>
-  <si>
     <t>leather</t>
   </si>
   <si>
@@ -2981,9 +2975,6 @@
   </si>
   <si>
     <t>shilo</t>
-  </si>
-  <si>
-    <t>awl, šilo</t>
   </si>
   <si>
     <t>шыла</t>
@@ -7266,6 +7257,12 @@
   </si>
   <si>
     <t>क्रोधित, रीस</t>
+  </si>
+  <si>
+    <t>ruku, ruka</t>
+  </si>
+  <si>
+    <t>strelica, strijela</t>
   </si>
 </sst>
 </file>
@@ -8112,10 +8109,10 @@
   <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8203,10 +8200,10 @@
         <v>532</v>
       </c>
       <c r="C1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E1" t="s">
         <v>486</v>
@@ -8218,19 +8215,19 @@
         <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="L1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="M1" t="s">
         <v>579</v>
@@ -8242,10 +8239,10 @@
         <v>607</v>
       </c>
       <c r="P1" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q1" t="s">
         <v>622</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>624</v>
       </c>
       <c r="R1" t="s">
         <v>549</v>
@@ -8254,172 +8251,172 @@
         <v>550</v>
       </c>
       <c r="T1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="U1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="V1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="W1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="X1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Y1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Z1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB1" t="s">
         <v>773</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>774</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>775</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>776</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>777</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>778</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>779</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
+        <v>990</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>780</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AL1" t="s">
         <v>781</v>
       </c>
-      <c r="AI1" t="s">
-        <v>993</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AN1" t="s">
         <v>782</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AP1" t="s">
         <v>783</v>
       </c>
-      <c r="AM1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>784</v>
       </c>
-      <c r="AO1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>785</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AT1" t="s">
         <v>786</v>
       </c>
-      <c r="AR1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AX1" t="s">
         <v>788</v>
       </c>
-      <c r="AU1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>790</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
+        <v>791</v>
+      </c>
+      <c r="BB1" t="s">
         <v>792</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="BD1" t="s">
         <v>793</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>794</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="BG1" t="s">
         <v>795</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>796</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>797</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BK1" t="s">
         <v>798</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="BM1" t="s">
         <v>799</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>800</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>801</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>802</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>803</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BS1" t="s">
         <v>804</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>805</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>806</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>807</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BX1" t="s">
         <v>808</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>809</v>
       </c>
-      <c r="BW1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>810</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>811</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8526,7 +8523,7 @@
         <v>488</v>
       </c>
       <c r="AI2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AJ2" t="s">
         <v>488</v>
@@ -8538,7 +8535,7 @@
         <v>488</v>
       </c>
       <c r="AM2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AN2" t="s">
         <v>488</v>
@@ -8651,220 +8648,220 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M3" t="s">
+        <v>988</v>
+      </c>
+      <c r="N3" t="s">
+        <v>988</v>
+      </c>
+      <c r="O3" t="s">
         <v>1525</v>
       </c>
-      <c r="C3" t="s">
+      <c r="P3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V3" t="s">
         <v>1531</v>
       </c>
-      <c r="D3" t="s">
+      <c r="W3" t="s">
         <v>1532</v>
       </c>
-      <c r="E3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="X3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AA3" t="s">
         <v>1538</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AB3" t="s">
         <v>1539</v>
       </c>
-      <c r="J3" t="s">
+      <c r="AC3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BB3" t="s">
         <v>1561</v>
       </c>
-      <c r="K3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="M3" t="s">
-        <v>991</v>
-      </c>
-      <c r="N3" t="s">
-        <v>991</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BC3" t="s">
         <v>1562</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BD3" t="s">
         <v>1563</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BE3" t="s">
         <v>1564</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BF3" t="s">
         <v>1565</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BG3" t="s">
         <v>1566</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BH3" t="s">
         <v>1567</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BI3" t="s">
         <v>1568</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>988</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>988</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1569</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BN3" t="s">
         <v>1570</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BO3" t="s">
         <v>1571</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>991</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>991</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BP3" t="s">
         <v>1572</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BQ3" t="s">
         <v>1573</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BR3" t="s">
         <v>1574</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BS3" t="s">
         <v>1575</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1578</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="BU3" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="BV3" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="BW3" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="BX3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BY3" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8875,10 +8872,10 @@
         <v>533</v>
       </c>
       <c r="C4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E4" t="s">
         <v>489</v>
@@ -8890,34 +8887,34 @@
         <v>505</v>
       </c>
       <c r="H4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="L4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="M4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="N4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O4" t="s">
         <v>608</v>
       </c>
       <c r="P4" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q4" t="s">
         <v>623</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>625</v>
       </c>
       <c r="R4" t="s">
         <v>551</v>
@@ -8926,172 +8923,172 @@
         <v>552</v>
       </c>
       <c r="T4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="U4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="V4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="W4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="X4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="Y4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Z4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AA4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AB4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AC4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AD4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AE4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AF4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AG4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AH4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AI4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="AK4" t="s">
         <v>473</v>
       </c>
       <c r="AL4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="AM4" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="AN4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="AO4" t="s">
         <v>473</v>
       </c>
       <c r="AP4" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AR4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="AS4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="AT4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="AU4" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="AX4" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="BA4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="BB4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BC4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BD4" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="BE4" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="BF4" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="BG4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BH4" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="BI4" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="BJ4" t="s">
         <v>608</v>
       </c>
       <c r="BK4" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="BL4" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="BM4" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="BN4" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="BO4" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="BP4" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="BT4" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="BW4" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="BX4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BY4" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9102,13 +9099,13 @@
         <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F5" t="s">
         <v>507</v>
@@ -9117,19 +9114,19 @@
         <v>508</v>
       </c>
       <c r="H5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="J5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K5" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="L5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="M5" t="s">
         <v>581</v>
@@ -9138,13 +9135,13 @@
         <v>582</v>
       </c>
       <c r="O5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R5" t="s">
         <v>553</v>
@@ -9153,172 +9150,172 @@
         <v>554</v>
       </c>
       <c r="T5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="U5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="V5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="W5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="X5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Y5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="Z5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AA5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AB5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AC5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AD5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AE5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AF5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AG5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AH5" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="AI5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="AK5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AL5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AM5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="AN5" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="AO5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="AP5" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="AR5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="AS5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="AT5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="AU5" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AX5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="BA5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="BB5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="BC5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="BD5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="BE5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="BF5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="BG5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="BH5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="BI5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="BK5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="BL5" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="BM5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="BN5" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="BO5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="BP5" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="BR5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="BS5" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="BT5" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="BU5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="BV5" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="BW5" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="BX5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="BY5" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9329,13 +9326,13 @@
         <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F6" t="s">
         <v>509</v>
@@ -9344,19 +9341,19 @@
         <v>510</v>
       </c>
       <c r="H6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="K6" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="L6" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="M6" t="s">
         <v>583</v>
@@ -9368,10 +9365,10 @@
         <v>609</v>
       </c>
       <c r="P6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Q6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R6" t="s">
         <v>555</v>
@@ -9383,169 +9380,169 @@
         <v>609</v>
       </c>
       <c r="U6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="V6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="W6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="X6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Y6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Z6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AA6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AB6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AC6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AD6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AE6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="AF6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AG6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AH6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="AI6" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AK6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="AL6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="AM6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AN6" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="AO6" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="AP6" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AS6" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="AT6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AU6" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="AX6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="BC6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="BF6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="BG6" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="BH6" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="BI6" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="BJ6" t="s">
         <v>609</v>
       </c>
       <c r="BK6" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="BL6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="BM6" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="BN6" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="BR6" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="BS6" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="BT6" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="BU6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="BV6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="BW6" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="BX6" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="BY6" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9556,34 +9553,34 @@
         <v>536</v>
       </c>
       <c r="C7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E7" t="s">
         <v>492</v>
       </c>
       <c r="F7" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="G7" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="H7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J7" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="K7" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="L7" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="M7" t="s">
         <v>585</v>
@@ -9592,13 +9589,13 @@
         <v>586</v>
       </c>
       <c r="O7" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="P7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R7" t="s">
         <v>557</v>
@@ -9607,172 +9604,172 @@
         <v>558</v>
       </c>
       <c r="T7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="U7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="V7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="W7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="X7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Y7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="Z7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AA7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AB7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AC7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AD7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="AE7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AF7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AG7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AH7" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AI7" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="AK7" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="AL7" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AM7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="AN7" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AO7" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="AP7" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="AR7" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="AS7" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="AT7" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AU7" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="AX7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="BA7" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="BB7" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="BC7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="BD7" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="BE7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="BF7" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="BG7" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="BH7" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="BI7" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="BJ7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="BK7" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="BL7" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="BM7" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="BN7" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="BO7" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="BP7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="BR7" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="BS7" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="BT7" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="BU7" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="BV7" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="BW7" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="BX7" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="BY7" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9783,10 +9780,10 @@
         <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E8" t="s">
         <v>561</v>
@@ -9798,19 +9795,19 @@
         <v>512</v>
       </c>
       <c r="H8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I8" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J8" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="K8" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="L8" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="M8" t="s">
         <v>587</v>
@@ -9819,13 +9816,13 @@
         <v>588</v>
       </c>
       <c r="O8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="R8" t="s">
         <v>559</v>
@@ -9834,172 +9831,172 @@
         <v>560</v>
       </c>
       <c r="T8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="V8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="W8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="X8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Y8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="Z8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AA8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AB8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AC8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AD8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AE8" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AF8" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AG8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AH8" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AI8" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="AK8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="AL8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AM8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AN8" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AO8" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AP8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="AR8" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="AS8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="AT8" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="AU8" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="AX8" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="BA8" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="BB8" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="BC8" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="BD8" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="BE8" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="BF8" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="BG8" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BH8" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="BI8" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="BJ8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BK8" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="BL8" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="BM8" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="BN8" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="BO8" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="BP8" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="BR8" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="BS8" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="BT8" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="BU8" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="BV8" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="BW8" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="BX8" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="BY8" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10010,13 +10007,13 @@
         <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D9" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F9" t="s">
         <v>513</v>
@@ -10025,19 +10022,19 @@
         <v>514</v>
       </c>
       <c r="H9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J9" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="K9" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="L9" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="M9" t="s">
         <v>589</v>
@@ -10046,13 +10043,13 @@
         <v>590</v>
       </c>
       <c r="O9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R9" t="s">
         <v>562</v>
@@ -10061,172 +10058,172 @@
         <v>563</v>
       </c>
       <c r="T9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="V9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="W9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="X9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Y9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="Z9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AA9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AB9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AC9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AD9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AE9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AF9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AG9" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AI9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AK9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL9" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AM9" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AN9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AO9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AP9" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="AR9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AS9" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="AT9" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="AU9" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="AX9" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="BA9" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="BB9" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="BC9" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="BD9" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="BE9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="BF9" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="BG9" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="BH9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="BI9" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="BJ9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BK9" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="BL9" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="BM9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="BN9" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="BO9" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="BP9" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="BR9" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="BS9" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="BT9" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="BU9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="BV9" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="BW9" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="BX9" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="BY9" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10237,10 +10234,10 @@
         <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E10" t="s">
         <v>494</v>
@@ -10252,19 +10249,19 @@
         <v>479</v>
       </c>
       <c r="H10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J10" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="K10" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="L10" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="M10" t="s">
         <v>591</v>
@@ -10273,13 +10270,13 @@
         <v>592</v>
       </c>
       <c r="O10" t="s">
-        <v>613</v>
+        <v>2404</v>
       </c>
       <c r="P10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R10" t="s">
         <v>564</v>
@@ -10291,7 +10288,7 @@
         <v>565</v>
       </c>
       <c r="U10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="V10" t="s">
         <v>479</v>
@@ -10300,94 +10297,94 @@
         <v>479</v>
       </c>
       <c r="X10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Y10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Z10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AA10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AB10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AC10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AD10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AE10" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AF10" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AG10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AH10" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AI10" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AK10" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AL10" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AM10" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AN10" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="AO10" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AP10" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="AR10" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="AS10" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="AT10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="AU10" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="AX10" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="BA10" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="BB10" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="BC10" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="BD10" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="BE10" t="s">
         <v>564</v>
@@ -10396,49 +10393,49 @@
         <v>565</v>
       </c>
       <c r="BG10" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="BH10" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="BI10" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="BJ10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BK10" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="BL10" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="BM10" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="BN10" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="BO10" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="BP10" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="BR10" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="BS10" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="BT10" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="BU10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="BV10" t="s">
         <v>564</v>
@@ -10447,13 +10444,13 @@
         <v>565</v>
       </c>
       <c r="BX10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BY10" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10464,10 +10461,10 @@
         <v>540</v>
       </c>
       <c r="C11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E11" t="s">
         <v>495</v>
@@ -10479,19 +10476,19 @@
         <v>517</v>
       </c>
       <c r="H11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="J11" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="K11" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="M11" t="s">
         <v>593</v>
@@ -10500,187 +10497,187 @@
         <v>594</v>
       </c>
       <c r="O11" t="s">
-        <v>615</v>
+        <v>2405</v>
       </c>
       <c r="P11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Q11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="S11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="T11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="U11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="V11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="W11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="X11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Y11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Z11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AA11" t="s">
         <v>594</v>
       </c>
       <c r="AB11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AC11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AD11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AE11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="AF11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AG11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AH11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AI11" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AK11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AL11" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AM11" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="AN11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AO11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AP11" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="AR11" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="AS11" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="AT11" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="AU11" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="AX11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="BA11" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="BB11" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="BC11" t="s">
         <v>594</v>
       </c>
       <c r="BD11" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="BE11" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="BF11" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="BG11" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="BH11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="BK11" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="BL11" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="BM11" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="BN11" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="BO11" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="BP11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="BR11" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="BS11" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="BT11" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="BU11" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="BV11" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="BW11" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="BX11" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="BY11" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10691,49 +10688,49 @@
         <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E12" t="s">
         <v>498</v>
       </c>
       <c r="F12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="H12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="L12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="M12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="N12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="R12" t="s">
         <v>566</v>
@@ -10742,172 +10739,172 @@
         <v>567</v>
       </c>
       <c r="T12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="W12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="X12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="Y12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Z12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AA12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AB12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AC12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AD12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AE12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AF12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AG12" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AH12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AI12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AJ12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AK12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AL12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AM12" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="AN12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AO12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AP12" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="AR12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AS12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AT12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AU12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AX12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="BA12" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="BB12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BC12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BD12" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="BE12" t="s">
         <v>566</v>
       </c>
       <c r="BF12" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="BG12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BH12" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="BI12" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="BJ12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BK12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BL12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BM12" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="BN12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BO12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="BP12" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="BQ12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BR12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BS12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BT12" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="BU12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BV12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="BW12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="BX12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BY12" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10918,10 +10915,10 @@
         <v>543</v>
       </c>
       <c r="C13" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E13" t="s">
         <v>499</v>
@@ -10933,19 +10930,19 @@
         <v>521</v>
       </c>
       <c r="H13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J13" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="K13" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="L13" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="M13" t="s">
         <v>597</v>
@@ -10954,187 +10951,187 @@
         <v>598</v>
       </c>
       <c r="O13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P13" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R13" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="S13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="T13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="U13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="V13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="W13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="X13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="Y13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Z13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AA13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AB13" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AC13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AD13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AE13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AF13" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AG13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AH13" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="AI13" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="AK13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="AL13" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="AM13" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AN13" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="AO13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="AP13" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AS13" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="AT13" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="AU13" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="AX13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="BA13" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="BB13" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="BC13" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="BD13" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="BE13" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="BF13" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="BG13" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="BH13" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="BI13" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="BJ13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BK13" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="BL13" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="BM13" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="BN13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="BO13" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="BP13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="BR13" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="BS13" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="BT13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="BU13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="BV13" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="BW13" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="BX13" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="BY13" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11145,10 +11142,10 @@
         <v>542</v>
       </c>
       <c r="C14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E14" t="s">
         <v>493</v>
@@ -11160,16 +11157,16 @@
         <v>519</v>
       </c>
       <c r="H14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="J14" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="K14" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="L14" t="s">
         <v>596</v>
@@ -11181,187 +11178,187 @@
         <v>596</v>
       </c>
       <c r="O14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P14" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="R14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="S14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="U14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="W14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="X14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Y14" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Z14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AA14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AB14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AC14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AD14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AE14" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AF14" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AG14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="AI14" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AJ14" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="AK14" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="AL14" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AM14" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="AN14" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="AO14" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AP14" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AQ14" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AS14" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="AT14" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="AU14" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="AX14" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="BA14" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="BB14" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="BC14" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="BD14" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="BE14" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="BF14" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="BG14" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="BH14" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="BI14" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="BK14" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="BL14" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="BM14" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="BN14" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="BO14" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="BP14" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="BR14" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="BS14" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="BT14" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="BU14" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="BW14" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="BX14" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="BY14" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11372,13 +11369,13 @@
         <v>544</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E15" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F15" t="s">
         <v>522</v>
@@ -11387,19 +11384,19 @@
         <v>523</v>
       </c>
       <c r="H15" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="I15" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="J15" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="K15" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="L15" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="M15" t="s">
         <v>599</v>
@@ -11408,201 +11405,201 @@
         <v>600</v>
       </c>
       <c r="O15" t="s">
+        <v>893</v>
+      </c>
+      <c r="P15" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q15" t="s">
         <v>895</v>
       </c>
-      <c r="P15" t="s">
-        <v>896</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>897</v>
-      </c>
       <c r="R15" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="S15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="U15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="V15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="W15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="X15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Y15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="Z15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AA15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AB15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AC15" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AD15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AE15" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AF15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AG15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AH15" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AI15" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="AJ15" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="AK15" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AL15" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="AM15" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="AN15" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AO15" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="AP15" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="AQ15" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="AS15" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AT15" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="AU15" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="AX15" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="BA15" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="BB15" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="BC15" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="BD15" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="BE15" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="BF15" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="BG15" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="BH15" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="BI15" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="BK15" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="BL15" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="BN15" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="BO15" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="BP15" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="BR15" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="BS15" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="BT15" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="BU15" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="BV15" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="BW15" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="BX15" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="BY15" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B16" t="s">
         <v>546</v>
       </c>
       <c r="C16" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D16" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E16" t="s">
         <v>501</v>
@@ -11614,19 +11611,19 @@
         <v>527</v>
       </c>
       <c r="H16" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I16" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J16" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="K16" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="L16" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="M16" t="s">
         <v>601</v>
@@ -11635,13 +11632,13 @@
         <v>602</v>
       </c>
       <c r="O16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="P16" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="R16" t="s">
         <v>569</v>
@@ -11650,172 +11647,172 @@
         <v>570</v>
       </c>
       <c r="T16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="V16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="W16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="X16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Y16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Z16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AA16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AB16" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AC16" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AD16" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AE16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="AF16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AG16" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AH16" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AI16" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AJ16" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="AK16" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="AL16" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="AM16" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AN16" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="AO16" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="AP16" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AQ16" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="AR16" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AS16" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="AT16" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="AU16" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="AX16" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="BA16" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="BB16" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="BC16" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="BD16" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="BE16" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="BF16" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="BG16" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="BH16" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="BI16" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="BJ16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK16" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="BL16" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="BM16" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="BN16" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="BO16" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="BP16" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="BR16" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="BS16" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="BT16" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="BU16" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="BV16" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="BW16" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="BX16" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="BY16" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11826,10 +11823,10 @@
         <v>547</v>
       </c>
       <c r="C17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E17" t="s">
         <v>502</v>
@@ -11841,19 +11838,19 @@
         <v>529</v>
       </c>
       <c r="H17" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="I17" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
       <c r="J17" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="K17" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="L17" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="M17" t="s">
         <v>603</v>
@@ -11862,13 +11859,13 @@
         <v>604</v>
       </c>
       <c r="O17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="P17" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Q17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="R17" t="s">
         <v>571</v>
@@ -11877,399 +11874,399 @@
         <v>572</v>
       </c>
       <c r="T17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="U17" t="s">
+        <v>692</v>
+      </c>
+      <c r="V17" t="s">
         <v>694</v>
       </c>
-      <c r="V17" t="s">
-        <v>696</v>
-      </c>
       <c r="W17" t="s">
+        <v>718</v>
+      </c>
+      <c r="X17" t="s">
         <v>720</v>
       </c>
-      <c r="X17" t="s">
-        <v>722</v>
-      </c>
       <c r="Y17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="Z17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AA17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AB17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AC17" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AD17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AE17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="AF17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AG17" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AH17" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AI17" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="AK17" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="AL17" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="AM17" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AN17" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AO17" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AP17" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="AQ17" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="AR17" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AS17" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AT17" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="AU17" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="AX17" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="BA17" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="BB17" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="BC17" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="BD17" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="BE17" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="BF17" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="BG17" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="BH17" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="BI17" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="BJ17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="BK17" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="BL17" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="BM17" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="BN17" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="BO17" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="BP17" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="BR17" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="BS17" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="BT17" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="BU17" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="BV17" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="BW17" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="BX17" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="BY17" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>964</v>
+      </c>
+      <c r="B18" t="s">
+        <v>983</v>
+      </c>
+      <c r="C18" t="s">
+        <v>977</v>
+      </c>
+      <c r="D18" t="s">
+        <v>978</v>
+      </c>
+      <c r="E18" t="s">
+        <v>986</v>
+      </c>
+      <c r="F18" t="s">
+        <v>984</v>
+      </c>
+      <c r="G18" t="s">
+        <v>985</v>
+      </c>
+      <c r="H18" t="s">
+        <v>970</v>
+      </c>
+      <c r="I18" t="s">
+        <v>971</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K18" t="s">
+        <v>988</v>
+      </c>
+      <c r="L18" t="s">
+        <v>988</v>
+      </c>
+      <c r="M18" t="s">
+        <v>988</v>
+      </c>
+      <c r="N18" t="s">
+        <v>988</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="P18" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>980</v>
+      </c>
+      <c r="R18" t="s">
+        <v>981</v>
+      </c>
+      <c r="S18" t="s">
+        <v>982</v>
+      </c>
+      <c r="T18" t="s">
+        <v>976</v>
+      </c>
+      <c r="U18" t="s">
+        <v>975</v>
+      </c>
+      <c r="V18" t="s">
         <v>966</v>
       </c>
-      <c r="B18" t="s">
-        <v>986</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="W18" t="s">
+        <v>974</v>
+      </c>
+      <c r="X18" t="s">
+        <v>973</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>972</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>968</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>969</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>967</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>966</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>964</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>965</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>964</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>988</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>966</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1268</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>988</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>988</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BE18" t="s">
         <v>979</v>
       </c>
-      <c r="D18" t="s">
+      <c r="BF18" t="s">
         <v>980</v>
       </c>
-      <c r="E18" t="s">
-        <v>989</v>
-      </c>
-      <c r="F18" t="s">
-        <v>987</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="BG18" t="s">
         <v>988</v>
       </c>
-      <c r="H18" t="s">
-        <v>972</v>
-      </c>
-      <c r="I18" t="s">
-        <v>973</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1238</v>
-      </c>
-      <c r="K18" t="s">
-        <v>991</v>
-      </c>
-      <c r="L18" t="s">
-        <v>991</v>
-      </c>
-      <c r="M18" t="s">
-        <v>991</v>
-      </c>
-      <c r="N18" t="s">
-        <v>991</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="P18" t="s">
-        <v>981</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>982</v>
-      </c>
-      <c r="R18" t="s">
-        <v>984</v>
-      </c>
-      <c r="S18" t="s">
-        <v>985</v>
-      </c>
-      <c r="T18" t="s">
-        <v>978</v>
-      </c>
-      <c r="U18" t="s">
-        <v>977</v>
-      </c>
-      <c r="V18" t="s">
-        <v>968</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="BH18" t="s">
+        <v>988</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>979</v>
+      </c>
+      <c r="BJ18" t="s">
         <v>976</v>
       </c>
-      <c r="X18" t="s">
-        <v>975</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>974</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>970</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>971</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>969</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>968</v>
-      </c>
-      <c r="AF18" t="s">
+      <c r="BK18" t="s">
+        <v>988</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>988</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>976</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BP18" t="s">
         <v>966</v>
       </c>
-      <c r="AG18" t="s">
-        <v>967</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>966</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>991</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>968</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1254</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1271</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>991</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>991</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1311</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>981</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>982</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>991</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>991</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>981</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>978</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>991</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>991</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>1426</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>978</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>968</v>
-      </c>
       <c r="BQ18" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="BR18" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="BS18" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BT18" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="BU18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="BV18" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="BW18" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="BX18" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12280,13 +12277,13 @@
         <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F19" t="s">
         <v>530</v>
@@ -12295,19 +12292,19 @@
         <v>531</v>
       </c>
       <c r="H19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I19" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J19" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="K19" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="L19" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="M19" t="s">
         <v>605</v>
@@ -12316,13 +12313,13 @@
         <v>606</v>
       </c>
       <c r="O19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="Q19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="R19" t="s">
         <v>573</v>
@@ -12331,172 +12328,172 @@
         <v>574</v>
       </c>
       <c r="T19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="U19" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="V19" t="s">
+        <v>706</v>
+      </c>
+      <c r="W19" t="s">
         <v>708</v>
       </c>
-      <c r="W19" t="s">
-        <v>710</v>
-      </c>
       <c r="X19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Y19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Z19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AA19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AB19" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AC19" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AD19" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AE19" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AF19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AG19" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AH19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AK19" t="s">
         <v>1022</v>
       </c>
-      <c r="AI19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>1025</v>
-      </c>
       <c r="AL19" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AM19" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="AN19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AO19" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AP19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="AQ19" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="AR19" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AS19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AU19" t="s">
         <v>1161</v>
       </c>
-      <c r="AT19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>1164</v>
-      </c>
       <c r="AX19" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="BA19" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="BB19" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="BC19" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="BD19" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="BE19" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="BF19" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="BG19" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="BH19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BI19" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="BK19" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="BL19" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="BM19" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BN19" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="BO19" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="BP19" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="BR19" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="BS19" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="BT19" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="BU19" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="BV19" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="BW19" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="BX19" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="BY19" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12504,43 +12501,43 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C20" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="D20" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E20" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="F20" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="G20" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="H20" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="I20" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="J20" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="K20" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="L20" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="R20" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="S20" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.2">
@@ -12548,43 +12545,43 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C21" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D21" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E21" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="F21" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="G21" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="H21" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="I21" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="J21" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="K21" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="L21" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="R21" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="S21" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.2">
@@ -12592,43 +12589,43 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="C22" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D22" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E22" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="F22" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="G22" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="H22" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="I22" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="J22" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="K22" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="L22" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="R22" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="S22" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.2">
@@ -12636,43 +12633,43 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C23" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D23" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E23" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F23" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="G23" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="H23" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="I23" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="J23" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="K23" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="L23" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="R23" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="S23" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.2">
@@ -12680,43 +12677,43 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="C24" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D24" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="F24" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="G24" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="H24" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="I24" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="J24" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="K24" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="L24" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="R24" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="S24" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.2">
@@ -12724,43 +12721,43 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="C25" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D25" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E25" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F25" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="G25" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="H25" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="I25" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="J25" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="K25" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="L25" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="R25" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="S25" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="26" spans="1:78" x14ac:dyDescent="0.2">
@@ -12768,43 +12765,43 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C26" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D26" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E26" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="F26" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="G26" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="H26" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="I26" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="J26" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="K26" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="L26" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="R26" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="S26" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="27" spans="1:78" x14ac:dyDescent="0.2">
@@ -12812,131 +12809,131 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C27" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D27" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E27" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="F27" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="G27" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="H27" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="I27" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="J27" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="K27" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="L27" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="R27" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="S27" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B28" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="C28" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E28" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F28" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="G28" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="H28" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="I28" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="J28" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="L28" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="R28" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="S28" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B29" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C29" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E29" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="F29" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="G29" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="H29" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="I29" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="J29" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="K29" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="L29" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="R29" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="S29" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.2">
@@ -12944,43 +12941,43 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C30" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D30" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E30" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="F30" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="G30" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="H30" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="I30" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="J30" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="K30" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="L30" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="R30" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="S30" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="31" spans="1:78" x14ac:dyDescent="0.2">
@@ -12988,43 +12985,43 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="C31" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="D31" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="E31" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="F31" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="G31" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="H31" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="I31" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="J31" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="K31" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="L31" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="R31" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="S31" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="32" spans="1:78" x14ac:dyDescent="0.2">
@@ -13032,43 +13029,43 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="C32" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="D32" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="E32" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="F32" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="G32" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="H32" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="I32" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="J32" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="K32" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="L32" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="R32" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="S32" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -13076,43 +13073,43 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C33" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="D33" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="E33" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="F33" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="G33" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="H33" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="I33" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="J33" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="K33" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="L33" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="R33" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="S33" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -13120,43 +13117,43 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C34" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="D34" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="E34" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="F34" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="G34" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H34" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="I34" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="J34" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="K34" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="L34" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="R34" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="S34" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -13164,87 +13161,87 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="C35" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D35" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="E35" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="F35" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="G35" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="H35" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="I35" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="J35" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="K35" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="L35" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="R35" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="S35" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B36" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C36" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="D36" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="E36" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="F36" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="G36" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="H36" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="I36" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="J36" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="K36" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="L36" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="R36" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="S36" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -13252,43 +13249,43 @@
         <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C37" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D37" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="E37" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="F37" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="G37" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="H37" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="I37" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="J37" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="K37" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="L37" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="R37" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="S37" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -13296,43 +13293,43 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="C38" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="D38" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="E38" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="F38" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="G38" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="H38" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="I38" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="J38" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="K38" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="L38" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="R38" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="S38" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13340,43 +13337,43 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C39" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D39" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="E39" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="F39" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="G39" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="I39" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="J39" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="K39" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="L39" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="R39" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="S39" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -13384,43 +13381,43 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C40" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D40" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="E40" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="F40" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="G40" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="H40" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="I40" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="J40" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="K40" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="L40" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="R40" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="S40" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -13428,43 +13425,43 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C41" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D41" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="E41" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="F41" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="G41" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="H41" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="I41" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="J41" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="K41" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="L41" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="R41" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="S41" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -13472,43 +13469,43 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C42" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="D42" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="E42" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="F42" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="G42" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="H42" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="I42" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="J42" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="K42" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="L42" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="R42" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="S42" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -13516,43 +13513,43 @@
         <v>490</v>
       </c>
       <c r="B43" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="C43" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D43" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="E43" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="F43" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="G43" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="H43" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="I43" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="J43" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="K43" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="L43" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="R43" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="S43" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -13560,87 +13557,87 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="C44" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D44" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="E44" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="F44" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="G44" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="H44" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="I44" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="J44" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="K44" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="L44" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="R44" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="S44" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B45" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C45" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D45" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="E45" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="F45" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="G45" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="H45" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="I45" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="J45" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="K45" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="L45" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="R45" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="S45" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -13648,43 +13645,43 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C46" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="D46" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="E46" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="F46" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="G46" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="H46" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="I46" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="J46" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="K46" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="L46" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="R46" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="S46" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -13692,43 +13689,43 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="C47" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D47" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="E47" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="F47" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="G47" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="H47" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="I47" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="J47" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="K47" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="L47" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="R47" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="S47" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -13736,43 +13733,43 @@
         <v>578</v>
       </c>
       <c r="B48" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C48" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D48" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="E48" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="F48" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="G48" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="H48" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="I48" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="J48" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="K48" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="L48" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="S48" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -13780,43 +13777,43 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="C49" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D49" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="E49" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="F49" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="G49" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="H49" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="I49" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="J49" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="K49" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="L49" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="R49" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="S49" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -13824,87 +13821,87 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="C50" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D50" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="E50" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="F50" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="G50" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="H50" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="I50" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="J50" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="K50" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="L50" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="R50" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="S50" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="B51" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C51" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D51" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="E51" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="F51" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="G51" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="H51" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="I51" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="J51" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="K51" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="L51" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="R51" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="S51" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -13912,87 +13909,87 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C52" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D52" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="E52" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="F52" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="G52" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="H52" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="I52" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="J52" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="K52" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="L52" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="R52" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="S52" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="B53" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="C53" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D53" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="E53" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="F53" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="G53" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="H53" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="I53" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="J53" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="K53" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="L53" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="S53" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -14000,43 +13997,43 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C54" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D54" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="E54" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="F54" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="G54" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="H54" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="I54" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="J54" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="K54" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="L54" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="R54" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="S54" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -14044,43 +14041,43 @@
         <v>491</v>
       </c>
       <c r="B55" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C55" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="D55" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="E55" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F55" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="G55" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="H55" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="I55" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="J55" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="K55" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="L55" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="R55" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="S55" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -14088,43 +14085,43 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C56" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D56" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="E56" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="F56" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="G56" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H56" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="I56" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="J56" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="K56" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="L56" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="R56" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="S56" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -14132,43 +14129,43 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C57" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D57" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="E57" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="F57" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="G57" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="H57" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="I57" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="J57" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="K57" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="L57" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="R57" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="S57" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -14176,43 +14173,43 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C58" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D58" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="E58" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="F58" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="G58" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="H58" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="I58" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="J58" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="K58" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="L58" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="R58" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="S58" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -14220,43 +14217,43 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="C59" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D59" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="E59" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="F59" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="G59" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="H59" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="I59" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="J59" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="K59" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="L59" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="R59" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="S59" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -14264,43 +14261,43 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C60" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D60" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E60" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="F60" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="G60" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="H60" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="I60" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="J60" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="K60" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="L60" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="R60" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="S60" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14308,43 +14305,43 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C61" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="D61" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="E61" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="F61" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="G61" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="H61" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="I61" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="J61" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="K61" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="L61" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="S61" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -14352,87 +14349,87 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="C62" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D62" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="E62" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="F62" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="G62" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="H62" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="I62" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="J62" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="K62" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="L62" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="R62" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="S62" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="B63" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C63" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D63" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="E63" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F63" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="G63" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="H63" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="I63" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="J63" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="K63" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="L63" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="R63" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="S63" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -14440,43 +14437,43 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C64" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="D64" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="E64" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="F64" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="G64" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="H64" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="I64" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="J64" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="K64" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="L64" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="R64" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="S64" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -14484,43 +14481,43 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="C65" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D65" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="E65" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="F65" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="G65" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="H65" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="I65" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="J65" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="K65" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="L65" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="R65" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="S65" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -14528,43 +14525,43 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C66" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D66" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="E66" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="F66" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="G66" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="H66" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="I66" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="J66" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="K66" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="L66" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="R66" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="S66" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14572,43 +14569,43 @@
         <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="C67" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D67" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="E67" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="F67" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="G67" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="I67" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="J67" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="K67" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="L67" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="R67" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="S67" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -14616,87 +14613,87 @@
         <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="C68" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D68" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="E68" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="F68" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="G68" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="H68" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="I68" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="J68" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="K68" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="L68" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="R68" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="S68" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="B69" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C69" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D69" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="E69" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="F69" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="G69" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="H69" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="I69" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="J69" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="K69" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="L69" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="R69" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="S69" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -14704,43 +14701,43 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C70" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="D70" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="E70" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F70" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="G70" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="H70" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="I70" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="J70" t="s">
-        <v>2285</v>
+        <v>2282</v>
       </c>
       <c r="K70" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="L70" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="R70" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="S70" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -14748,87 +14745,87 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C71" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D71" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="E71" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="F71" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G71" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="H71" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="I71" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="J71" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="K71" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="L71" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="R71" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="S71" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B72" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C72" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="D72" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="E72" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="F72" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="G72" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="H72" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="I72" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="K72" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="L72" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="R72" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="S72" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -14836,43 +14833,43 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C73" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="D73" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="E73" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="F73" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="G73" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="H73" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="I73" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="J73" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="K73" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="L73" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="R73" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="S73" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -14880,43 +14877,43 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C74" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="D74" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="E74" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="F74" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="G74" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="H74" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="I74" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="J74" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="K74" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="L74" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="R74" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="S74" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -14981,12 +14978,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -15248,7 +15245,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -15268,7 +15265,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -15288,7 +15285,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -15423,7 +15420,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -15518,7 +15515,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -15573,7 +15570,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -15593,7 +15590,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -15643,7 +15640,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -15813,7 +15810,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -15848,7 +15845,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -15928,7 +15925,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -15963,7 +15960,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -16203,7 +16200,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -16288,7 +16285,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -16433,7 +16430,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -16453,7 +16450,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -16903,7 +16900,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -16918,7 +16915,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -16948,7 +16945,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -17068,7 +17065,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -17113,7 +17110,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -17143,7 +17140,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data.xlsx
+++ b/historical/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C6CB6-C330-CB4A-B378-9EEA01291D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934C28A-F64E-EF48-81B8-244A30BF6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2405">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1705,12 +1705,6 @@
     <t>žyviola</t>
   </si>
   <si>
-    <t>адказаць</t>
-  </si>
-  <si>
-    <t>adkazać</t>
-  </si>
-  <si>
     <t>мурашка</t>
   </si>
   <si>
@@ -1942,9 +1936,6 @@
     <t>rŭka</t>
   </si>
   <si>
-    <t>стрелка</t>
-  </si>
-  <si>
     <t>strelka</t>
   </si>
   <si>
@@ -2756,9 +2747,6 @@
   </si>
   <si>
     <t>rozzlobený</t>
-  </si>
-  <si>
-    <t>odpovědět</t>
   </si>
   <si>
     <t>zeptat se, požádat</t>
@@ -7263,6 +7251,15 @@
   </si>
   <si>
     <t>strelica, strijela</t>
+  </si>
+  <si>
+    <t>адказ</t>
+  </si>
+  <si>
+    <t>adkaz</t>
+  </si>
+  <si>
+    <t>odpověď</t>
   </si>
 </sst>
 </file>
@@ -7746,11 +7743,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8109,10 +8107,10 @@
   <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8200,10 +8198,10 @@
         <v>532</v>
       </c>
       <c r="C1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E1" t="s">
         <v>486</v>
@@ -8215,34 +8213,34 @@
         <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="K1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="M1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P1" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q1" t="s">
         <v>620</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>622</v>
       </c>
       <c r="R1" t="s">
         <v>549</v>
@@ -8251,172 +8249,172 @@
         <v>550</v>
       </c>
       <c r="T1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="U1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="V1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="W1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="X1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Y1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Z1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AC1" t="s">
         <v>771</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>772</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>773</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>774</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>775</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>776</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>777</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AL1" t="s">
         <v>778</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AN1" t="s">
         <v>779</v>
       </c>
-      <c r="AI1" t="s">
-        <v>990</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AP1" t="s">
         <v>780</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>781</v>
       </c>
-      <c r="AM1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>782</v>
       </c>
-      <c r="AO1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AT1" t="s">
         <v>783</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AX1" t="s">
         <v>785</v>
       </c>
-      <c r="AS1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
+        <v>787</v>
+      </c>
+      <c r="BA1" t="s">
         <v>788</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
+        <v>789</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BD1" t="s">
         <v>790</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>791</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BG1" t="s">
         <v>792</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>793</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>794</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BK1" t="s">
         <v>795</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BM1" t="s">
         <v>796</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BN1" t="s">
         <v>797</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>798</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>799</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>800</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BS1" t="s">
         <v>801</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>802</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>803</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>804</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BX1" t="s">
         <v>805</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>806</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>807</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>808</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>809</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8523,7 +8521,7 @@
         <v>488</v>
       </c>
       <c r="AI2" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="AJ2" t="s">
         <v>488</v>
@@ -8535,7 +8533,7 @@
         <v>488</v>
       </c>
       <c r="AM2" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="AN2" t="s">
         <v>488</v>
@@ -8648,220 +8646,220 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M3" t="s">
+        <v>984</v>
+      </c>
+      <c r="N3" t="s">
+        <v>984</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P3" t="s">
         <v>1522</v>
       </c>
-      <c r="C3" t="s">
+      <c r="Q3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="W3" t="s">
         <v>1528</v>
       </c>
-      <c r="D3" t="s">
+      <c r="X3" t="s">
         <v>1529</v>
       </c>
-      <c r="E3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="Y3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>1521</v>
       </c>
-      <c r="H3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M3" t="s">
-        <v>988</v>
-      </c>
-      <c r="N3" t="s">
-        <v>988</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="BF3" t="s">
+      <c r="BK3" t="s">
+        <v>984</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>984</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1565</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BN3" t="s">
         <v>1566</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BO3" t="s">
         <v>1567</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BP3" t="s">
         <v>1568</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>988</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>988</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BQ3" t="s">
         <v>1569</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BR3" t="s">
         <v>1570</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BS3" t="s">
         <v>1571</v>
       </c>
-      <c r="BP3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1575</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="BU3" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="BV3" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="BW3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="BX3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BY3" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8872,10 +8870,10 @@
         <v>533</v>
       </c>
       <c r="C4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E4" t="s">
         <v>489</v>
@@ -8887,34 +8885,34 @@
         <v>505</v>
       </c>
       <c r="H4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="K4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="N4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="O4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="P4" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q4" t="s">
         <v>621</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>623</v>
       </c>
       <c r="R4" t="s">
         <v>551</v>
@@ -8923,172 +8921,172 @@
         <v>552</v>
       </c>
       <c r="T4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="U4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="V4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="W4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="X4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="Y4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="Z4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AA4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AB4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AC4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AD4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AE4" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="AF4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AG4" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AH4" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="AI4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="AK4" t="s">
         <v>473</v>
       </c>
       <c r="AL4" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="AM4" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="AN4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="AO4" t="s">
         <v>473</v>
       </c>
       <c r="AP4" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="AR4" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="AS4" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="AT4" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="AU4" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="AX4" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="BA4" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="BB4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BC4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BD4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="BE4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="BF4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="BG4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BH4" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="BI4" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="BJ4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="BK4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="BL4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="BM4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="BN4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="BO4" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="BP4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="BT4" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="BW4" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="BX4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BY4" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9099,13 +9097,13 @@
         <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F5" t="s">
         <v>507</v>
@@ -9114,34 +9112,34 @@
         <v>508</v>
       </c>
       <c r="H5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J5" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="K5" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="L5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="M5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="P5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Q5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R5" t="s">
         <v>553</v>
@@ -9150,172 +9148,172 @@
         <v>554</v>
       </c>
       <c r="T5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="U5" t="s">
+        <v>904</v>
+      </c>
+      <c r="V5" t="s">
+        <v>693</v>
+      </c>
+      <c r="W5" t="s">
         <v>907</v>
       </c>
-      <c r="V5" t="s">
-        <v>696</v>
-      </c>
-      <c r="W5" t="s">
-        <v>911</v>
-      </c>
       <c r="X5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="Y5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="Z5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AA5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AB5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="AC5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AD5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AE5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="AF5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AG5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AH5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AI5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="AK5" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="AL5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="AM5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="AN5" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="AO5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="AP5" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AQ5" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AR5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="AS5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AT5" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="AU5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="AX5" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="BA5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="BB5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="BC5" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="BD5" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="BE5" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="BF5" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="BG5" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="BH5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="BI5" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="BK5" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="BL5" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="BM5" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="BN5" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="BO5" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="BP5" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="BR5" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="BS5" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="BT5" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="BU5" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="BV5" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="BW5" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="BX5" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="BY5" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9326,13 +9324,13 @@
         <v>535</v>
       </c>
       <c r="C6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E6" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F6" t="s">
         <v>509</v>
@@ -9341,34 +9339,34 @@
         <v>510</v>
       </c>
       <c r="H6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J6" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="K6" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="L6" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="M6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R6" t="s">
         <v>555</v>
@@ -9377,172 +9375,172 @@
         <v>556</v>
       </c>
       <c r="T6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="U6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="V6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W6" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="X6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="Y6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="Z6" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AA6" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AB6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="AC6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="AD6" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="AE6" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="AF6" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="AG6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AH6" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="AK6" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="AL6" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AM6" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AN6" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="AO6" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AP6" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AS6" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AT6" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="AU6" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="AX6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="BC6" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="BF6" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="BG6" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="BH6" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="BI6" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="BJ6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="BK6" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="BL6" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="BM6" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="BN6" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="BR6" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="BS6" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="BT6" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="BU6" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="BV6" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="BW6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="BX6" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="BY6" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9553,223 +9551,223 @@
         <v>536</v>
       </c>
       <c r="C7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E7" t="s">
         <v>492</v>
       </c>
       <c r="F7" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="G7" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="H7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J7" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="K7" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="L7" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="M7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="P7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Q7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R7" t="s">
-        <v>557</v>
+        <v>2402</v>
       </c>
       <c r="S7" t="s">
-        <v>558</v>
+        <v>2403</v>
       </c>
       <c r="T7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="U7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="V7" t="s">
+        <v>695</v>
+      </c>
+      <c r="W7" t="s">
         <v>908</v>
       </c>
-      <c r="V7" t="s">
-        <v>698</v>
-      </c>
-      <c r="W7" t="s">
-        <v>912</v>
-      </c>
       <c r="X7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y7" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="Z7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AA7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AB7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="AC7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AD7" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="AE7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AF7" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AG7" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AH7" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="AI7" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="AK7" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="AL7" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="AM7" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AN7" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AO7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AP7" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="AR7" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="AS7" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AT7" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AU7" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="AX7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="BA7" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="BB7" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="BC7" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="BD7" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="BE7" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="BF7" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="BG7" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="BH7" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="BI7" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="BJ7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="BK7" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="BL7" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="BM7" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="BN7" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="BO7" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="BP7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="BR7" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="BS7" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="BT7" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="BU7" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="BV7" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="BW7" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="BX7" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="BY7" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9780,13 +9778,13 @@
         <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F8" t="s">
         <v>511</v>
@@ -9795,208 +9793,208 @@
         <v>512</v>
       </c>
       <c r="H8" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="I8" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="J8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="K8" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="L8" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="M8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="P8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="T8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="U8" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="V8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="W8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="X8" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Y8" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="Z8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AA8" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AB8" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AC8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AD8" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AE8" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AF8" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AG8" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AH8" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="AI8" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="AK8" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="AL8" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AM8" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="AN8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AO8" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="AP8" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="AQ8" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="AR8" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AS8" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="AT8" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="AU8" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AX8" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="BA8" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="BB8" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="BC8" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="BD8" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="BE8" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="BF8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="BG8" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BH8" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="BI8" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="BJ8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="BK8" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="BL8" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="BM8" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="BN8" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="BO8" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="BP8" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="BR8" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="BS8" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="BT8" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="BU8" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="BV8" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="BW8" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="BX8" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="BY8" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10007,13 +10005,13 @@
         <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F9" t="s">
         <v>513</v>
@@ -10022,208 +10020,208 @@
         <v>514</v>
       </c>
       <c r="H9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I9" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J9" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="K9" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="L9" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="M9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="O9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="R9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="T9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="U9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="V9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="W9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="X9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="Y9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Z9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AA9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AB9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AC9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AD9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AE9" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AF9" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AG9" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="AI9" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="AK9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AL9" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="AM9" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="AN9" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="AO9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AP9" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AQ9" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="AR9" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="AS9" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="AT9" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="AU9" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="AX9" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="BA9" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="BB9" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="BC9" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="BD9" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="BE9" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="BF9" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="BG9" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="BH9" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="BI9" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="BJ9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="BK9" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="BL9" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="BM9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="BN9" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="BO9" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="BP9" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="BR9" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="BS9" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="BT9" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="BU9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="BV9" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="BW9" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="BX9" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="BY9" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10234,10 +10232,10 @@
         <v>538</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E10" t="s">
         <v>494</v>
@@ -10249,46 +10247,46 @@
         <v>479</v>
       </c>
       <c r="H10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J10" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="K10" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="L10" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="M10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O10" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="P10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="U10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="V10" t="s">
         <v>479</v>
@@ -10297,160 +10295,160 @@
         <v>479</v>
       </c>
       <c r="X10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="Y10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Z10" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AA10" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AB10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="AC10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AD10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AE10" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="AF10" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AG10" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="AH10" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="AI10" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="AK10" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="AL10" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AM10" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AN10" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="AO10" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="AP10" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="AQ10" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="AR10" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="AS10" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AT10" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="AU10" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="AX10" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="BA10" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="BB10" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="BC10" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="BD10" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="BE10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BF10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="BG10" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="BH10" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="BI10" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="BJ10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="BK10" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="BL10" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="BM10" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="BN10" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="BO10" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="BP10" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="BR10" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="BS10" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BT10" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="BU10" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="BV10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BW10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="BX10" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BY10" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10461,10 +10459,10 @@
         <v>540</v>
       </c>
       <c r="C11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E11" t="s">
         <v>495</v>
@@ -10476,208 +10474,208 @@
         <v>517</v>
       </c>
       <c r="H11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I11" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="J11" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="K11" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L11" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="M11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O11" t="s">
-        <v>2405</v>
-      </c>
-      <c r="P11" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>637</v>
+        <v>2401</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1320</v>
       </c>
       <c r="R11" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="S11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="T11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="U11" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="V11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="W11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="X11" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Y11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="Z11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AA11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AB11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AC11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AD11" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AE11" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="AF11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="AG11" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AH11" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AI11" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AK11" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="AL11" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AM11" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="AN11" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AO11" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="AP11" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="AQ11" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="AR11" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="AS11" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="AT11" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="AU11" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="AX11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="BA11" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="BB11" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="BC11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="BD11" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="BE11" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="BF11" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="BG11" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="BH11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="BK11" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="BL11" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="BM11" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="BN11" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="BO11" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="BP11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="BR11" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="BS11" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="BT11" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="BU11" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="BV11" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="BW11" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="BX11" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="BY11" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10688,223 +10686,223 @@
         <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E12" t="s">
         <v>498</v>
       </c>
       <c r="F12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H12" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I12" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="K12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="L12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="N12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="O12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Q12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="R12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="S12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U12" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="V12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="W12" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="X12" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="Y12" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="Z12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AA12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AB12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AC12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AD12" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="AE12" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="AF12" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="AG12" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AH12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AI12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AJ12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AK12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AL12" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="AM12" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="AN12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AO12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="AP12" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="AQ12" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="AR12" t="s">
-        <v>988</v>
+     